--- a/input.xlsx
+++ b/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new_news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4B5E49-A420-43E4-93BA-848D5894865E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8146B2E-EA7B-48C3-B4E9-387D31633D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="27690" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="2040" windowWidth="27690" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2042,9 +2042,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.financialpost.co.kr/news/articleList.html?sc_area=A&amp;view_type=sm&amp;sc_word=%EA%B8%B0%EC%9E%90</t>
-  </si>
-  <si>
     <t>url_list = soup.select("#section-list ul li")[:5];
 url_list = ["http://www.financialpost.co.kr" + i.select_one("a")["href"]for i in url_list];
 title_list = soup.select("#section-list ul li div h2.titles")[:5];
@@ -2165,9 +2162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.ekn.kr/web/</t>
-  </si>
-  <si>
     <t>노컷뉴스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2305,9 +2299,6 @@
 title_list = [i.text.strip() for i in title_list];
 body_list = ["" for i in range(5)];</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.moneys.co.kr/realissue</t>
   </si>
   <si>
     <t>rss메가경제</t>
@@ -2507,6 +2498,18 @@
 title_list = soup.select("div.allnews-panel ul.allnews-list li h2.news-tit")[:5];
 title_list = [i.text.strip() for i in title_list];
 body_list = ["" for i in range(5)];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.financialpost.co.kr/news/articleList.html?view_type=sm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ekn.kr/web/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.moneys.co.kr/realissue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2921,8 +2924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3284,7 +3287,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>342</v>
@@ -3564,10 +3567,10 @@
         <v>9</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F32" t="s">
         <v>357</v>
@@ -3647,7 +3650,7 @@
         <v>343</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F36" t="s">
         <v>357</v>
@@ -3724,10 +3727,10 @@
         <v>9</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F40" t="s">
         <v>357</v>
@@ -3838,16 +3841,16 @@
         <v>110</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>389</v>
+        <v>451</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F46" t="s">
         <v>357</v>
@@ -3867,7 +3870,7 @@
         <v>112</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F47" t="s">
         <v>357</v>
@@ -4047,7 +4050,7 @@
         <v>278</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F56" t="s">
         <v>357</v>
@@ -4055,7 +4058,7 @@
     </row>
     <row r="57" spans="1:6" ht="99">
       <c r="A57" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B57">
         <v>5</v>
@@ -4064,10 +4067,10 @@
         <v>9</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F57" t="s">
         <v>357</v>
@@ -4164,10 +4167,10 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F62" t="s">
         <v>357</v>
@@ -4315,7 +4318,7 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B70">
         <v>2</v>
@@ -4324,7 +4327,7 @@
         <v>161</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
@@ -4335,7 +4338,7 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B71">
         <v>9</v>
@@ -4344,7 +4347,7 @@
         <v>161</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
@@ -4355,7 +4358,7 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B72">
         <v>9</v>
@@ -4364,7 +4367,7 @@
         <v>161</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E72" t="s">
         <v>11</v>
@@ -4444,7 +4447,7 @@
         <v>161</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E76" t="s">
         <v>11</v>
@@ -4518,13 +4521,13 @@
         <v>197</v>
       </c>
       <c r="B80">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>359</v>
@@ -4715,16 +4718,16 @@
     </row>
     <row r="90" spans="1:6" ht="82.5">
       <c r="A90" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B90">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
         <v>9</v>
       </c>
-      <c r="D90" s="3" t="s">
-        <v>417</v>
+      <c r="D90" s="8" t="s">
+        <v>452</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>354</v>
@@ -4804,10 +4807,10 @@
         <v>285</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F94" t="s">
         <v>357</v>
@@ -4967,7 +4970,7 @@
         <v>248</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F102" t="s">
         <v>357</v>
@@ -4987,7 +4990,7 @@
         <v>250</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F103" t="s">
         <v>357</v>
@@ -5098,7 +5101,7 @@
         <v>267</v>
       </c>
       <c r="B109">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
         <v>9</v>
@@ -5155,19 +5158,19 @@
     </row>
     <row r="112" spans="1:6" ht="99">
       <c r="A112" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B112">
         <v>0.8</v>
       </c>
       <c r="C112" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>280</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F112" t="s">
         <v>357</v>
@@ -5295,7 +5298,7 @@
     </row>
     <row r="119" spans="1:6" ht="99">
       <c r="A119" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B119">
         <v>7</v>
@@ -5304,10 +5307,10 @@
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F119" t="s">
         <v>357</v>
@@ -5367,7 +5370,7 @@
         <v>310</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F122" t="s">
         <v>357</v>
@@ -5563,11 +5566,11 @@
       <c r="C132" t="s">
         <v>9</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="D132" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="E132" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="F132" t="s">
         <v>357</v>
@@ -5575,7 +5578,7 @@
     </row>
     <row r="133" spans="1:6" ht="99">
       <c r="A133" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B133">
         <v>5</v>
@@ -5587,7 +5590,7 @@
         <v>356</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F133" t="s">
         <v>357</v>
@@ -5635,7 +5638,7 @@
     </row>
     <row r="136" spans="1:6" ht="99">
       <c r="A136" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B136">
         <v>4</v>
@@ -5644,10 +5647,10 @@
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F136" t="s">
         <v>357</v>
@@ -5655,7 +5658,7 @@
     </row>
     <row r="137" spans="1:6" ht="99">
       <c r="A137" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B137">
         <v>6</v>
@@ -5664,10 +5667,10 @@
         <v>9</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F137" t="s">
         <v>357</v>
@@ -5675,7 +5678,7 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B138">
         <v>5</v>
@@ -5684,7 +5687,7 @@
         <v>161</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E138" t="s">
         <v>11</v>
@@ -5695,7 +5698,7 @@
     </row>
     <row r="139" spans="1:6" ht="99">
       <c r="A139" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B139">
         <v>5</v>
@@ -5704,10 +5707,10 @@
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F139" t="s">
         <v>357</v>
@@ -5715,7 +5718,7 @@
     </row>
     <row r="140" spans="1:6" ht="99">
       <c r="A140" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B140">
         <v>6</v>
@@ -5724,10 +5727,10 @@
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F140" t="s">
         <v>357</v>
@@ -5735,7 +5738,7 @@
     </row>
     <row r="141" spans="1:6" ht="99">
       <c r="A141" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B141">
         <v>4</v>
@@ -5744,10 +5747,10 @@
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F141" t="s">
         <v>357</v>
@@ -5755,7 +5758,7 @@
     </row>
     <row r="142" spans="1:6" ht="67.5">
       <c r="A142" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B142">
         <v>1.1000000000000001</v>
@@ -5764,10 +5767,10 @@
         <v>9</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F142" t="s">
         <v>357</v>
@@ -5775,7 +5778,7 @@
     </row>
     <row r="143" spans="1:6" ht="82.5">
       <c r="A143" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B143">
         <v>1.3</v>
@@ -5784,10 +5787,10 @@
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F143" t="s">
         <v>357</v>
@@ -5795,7 +5798,7 @@
     </row>
     <row r="144" spans="1:6" ht="66">
       <c r="A144" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B144">
         <v>7</v>
@@ -5804,10 +5807,10 @@
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F144" t="s">
         <v>357</v>
@@ -5815,7 +5818,7 @@
     </row>
     <row r="145" spans="1:6" ht="99">
       <c r="A145" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B145">
         <v>8</v>
@@ -5824,10 +5827,10 @@
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F145" t="s">
         <v>357</v>
@@ -5844,10 +5847,10 @@
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F146" t="s">
         <v>357</v>
@@ -5855,7 +5858,7 @@
     </row>
     <row r="147" spans="1:6" ht="82.5">
       <c r="A147" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B147">
         <v>9</v>
@@ -5864,10 +5867,10 @@
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F147" t="s">
         <v>357</v>
@@ -5875,7 +5878,7 @@
     </row>
     <row r="148" spans="1:6" ht="148.5">
       <c r="A148" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B148">
         <v>5</v>
@@ -5884,10 +5887,10 @@
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F148" t="s">
         <v>357</v>
@@ -5895,7 +5898,7 @@
     </row>
     <row r="149" spans="1:6" ht="99">
       <c r="A149" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B149">
         <v>5</v>
@@ -5904,10 +5907,10 @@
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F149" t="s">
         <v>357</v>
@@ -5915,7 +5918,7 @@
     </row>
     <row r="150" spans="1:6" ht="99">
       <c r="A150" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B150">
         <v>5</v>
@@ -5924,10 +5927,10 @@
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F150" t="s">
         <v>357</v>
@@ -6049,9 +6052,12 @@
     <hyperlink ref="D148" r:id="rId111" xr:uid="{155BFA89-2A1E-4E9B-9D34-97E8FE7BFBB8}"/>
     <hyperlink ref="D149" r:id="rId112" xr:uid="{5B90FF2B-C561-4007-AD0E-86645E787947}"/>
     <hyperlink ref="D150" r:id="rId113" xr:uid="{4B1CBD95-B37A-4E49-99CD-5B0FAFB1DD68}"/>
+    <hyperlink ref="D132" r:id="rId114" xr:uid="{933F49CC-7CBE-4246-BED0-85666C83AD9C}"/>
+    <hyperlink ref="D46" r:id="rId115" xr:uid="{44BF8FFF-EFEF-4626-91C2-16E5A0463084}"/>
+    <hyperlink ref="D90" r:id="rId116" xr:uid="{CFA38323-9624-4B72-BAD1-1DF28D103CC7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId114"/>
-  <legacyDrawing r:id="rId115"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId117"/>
+  <legacyDrawing r:id="rId118"/>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new_news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8146B2E-EA7B-48C3-B4E9-387D31633D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD058516-07B7-4A52-AC3E-3ADDAB471691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="2040" windowWidth="27690" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5805" yWindow="2910" windowWidth="20520" windowHeight="17610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="453">
   <si>
     <t>naver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -739,10 +739,6 @@
   </si>
   <si>
     <t>글로벌이코노믹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$$한국경제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1547,10 +1543,6 @@
     <t>https://news.tf.co.kr/list/all?mode=img</t>
   </si>
   <si>
-    <t>https://www.hankyung.com/all-news</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>url_list = soup.select("ul.list_news li")[:10];
 url_list = ["https://www.etnews.com" + i.select_one("a")["href"]for i in url_list];
 title_list = soup.select("ul.list_news li dt")[:10];
@@ -2325,9 +2317,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.hankyung.com/press-release</t>
-  </si>
-  <si>
     <t>url_list = soup.select("div.swiper-container div.swiper-wrapper div.swiper-slide")[:10];
 url_list = ["https://dealsiteplus.co.kr"+i.select_one("a")["href"].replace("//","https://") for i in url_list];
 title_list = soup.select("div.swiper-container div.swiper-wrapper div.swiper-slide")[:10];
@@ -2493,14 +2482,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>url_list = soup.select("div.allnews-panel ul.allnews-list li")[:5];
-url_list = [i.select_one("a")["href"] for i in url_list];
-title_list = soup.select("div.allnews-panel ul.allnews-list li h2.news-tit")[:5];
-title_list = [i.text.strip() for i in title_list];
-body_list = ["" for i in range(5)];</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.financialpost.co.kr/news/articleList.html?view_type=sm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2510,6 +2491,27 @@
   </si>
   <si>
     <t>https://www.moneys.co.kr/realissue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.hankyung.com/press-release</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_list = soup.select("div.list_type ul li")[:5];
+url_list = ["https://www.korea.kr" + i.select_one("a")["href"]for i in url_list];
+title_list = soup.select("div.list_type ul li a span.text strong")[:5];
+title_list = [i.text.strip() for i in title_list];
+body_list = soup.select("div.list_type ul li a span span.lead")[:5];
+body_list = [i.text.strip() for i in body_list];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.korea.kr/briefing/pressReleaseList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정책브리핑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2924,8 +2926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E105" sqref="E105"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E147" sqref="E147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2953,7 +2955,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2967,38 +2969,38 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="99">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -3010,10 +3012,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="99">
@@ -3030,15 +3032,15 @@
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="104.25" customHeight="1">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -3053,7 +3055,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="81">
@@ -3067,13 +3069,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="81">
@@ -3093,7 +3095,7 @@
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="81">
@@ -3113,7 +3115,7 @@
         <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="81">
@@ -3133,7 +3135,7 @@
         <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="81">
@@ -3153,7 +3155,7 @@
         <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="99">
@@ -3173,7 +3175,7 @@
         <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="99">
@@ -3193,7 +3195,7 @@
         <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="99">
@@ -3213,12 +3215,12 @@
         <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="99">
       <c r="A15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -3227,13 +3229,13 @@
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="F15" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="99">
@@ -3253,7 +3255,7 @@
         <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="99">
@@ -3267,13 +3269,13 @@
         <v>9</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="99">
@@ -3287,13 +3289,13 @@
         <v>9</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F18" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="99">
@@ -3313,7 +3315,7 @@
         <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="99">
@@ -3327,13 +3329,13 @@
         <v>9</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="99">
@@ -3353,7 +3355,7 @@
         <v>52</v>
       </c>
       <c r="F21" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="99">
@@ -3373,7 +3375,7 @@
         <v>55</v>
       </c>
       <c r="F22" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="99">
@@ -3393,7 +3395,7 @@
         <v>58</v>
       </c>
       <c r="F23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="99">
@@ -3413,7 +3415,7 @@
         <v>61</v>
       </c>
       <c r="F24" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="82.5">
@@ -3427,13 +3429,13 @@
         <v>9</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F25" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="99">
@@ -3453,7 +3455,7 @@
         <v>65</v>
       </c>
       <c r="F26" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="82.5">
@@ -3470,10 +3472,10 @@
         <v>107</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F27" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="99">
@@ -3490,10 +3492,10 @@
         <v>109</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F28" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="82.5">
@@ -3510,10 +3512,10 @@
         <v>69</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F29" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="99">
@@ -3527,13 +3529,13 @@
         <v>9</v>
       </c>
       <c r="D30" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="F30" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="82.5">
@@ -3553,7 +3555,7 @@
         <v>108</v>
       </c>
       <c r="F31" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="82.5">
@@ -3567,13 +3569,13 @@
         <v>9</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F32" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="81">
@@ -3593,7 +3595,7 @@
         <v>76</v>
       </c>
       <c r="F33" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="81">
@@ -3613,7 +3615,7 @@
         <v>79</v>
       </c>
       <c r="F34" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="81">
@@ -3627,13 +3629,13 @@
         <v>9</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>81</v>
       </c>
       <c r="F35" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="81">
@@ -3647,13 +3649,13 @@
         <v>9</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F36" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="81">
@@ -3673,7 +3675,7 @@
         <v>84</v>
       </c>
       <c r="F37" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="81">
@@ -3687,13 +3689,13 @@
         <v>9</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>86</v>
       </c>
       <c r="F38" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="99">
@@ -3713,7 +3715,7 @@
         <v>89</v>
       </c>
       <c r="F39" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="99">
@@ -3727,13 +3729,13 @@
         <v>9</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F40" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="99">
@@ -3753,7 +3755,7 @@
         <v>93</v>
       </c>
       <c r="F41" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="99">
@@ -3773,7 +3775,7 @@
         <v>97</v>
       </c>
       <c r="F42" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="99">
@@ -3793,7 +3795,7 @@
         <v>99</v>
       </c>
       <c r="F43" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="99">
@@ -3813,7 +3815,7 @@
         <v>102</v>
       </c>
       <c r="F44" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="99">
@@ -3833,7 +3835,7 @@
         <v>105</v>
       </c>
       <c r="F45" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="82.5">
@@ -3847,13 +3849,13 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F46" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="99">
@@ -3870,10 +3872,10 @@
         <v>112</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F47" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="99">
@@ -3893,12 +3895,12 @@
         <v>115</v>
       </c>
       <c r="F48" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="99">
       <c r="A49" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -3907,13 +3909,13 @@
         <v>9</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F49" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="99">
@@ -3933,7 +3935,7 @@
         <v>117</v>
       </c>
       <c r="F50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="99">
@@ -3953,7 +3955,7 @@
         <v>121</v>
       </c>
       <c r="F51" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="99">
@@ -3973,7 +3975,7 @@
         <v>122</v>
       </c>
       <c r="F52" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="99">
@@ -3993,7 +3995,7 @@
         <v>127</v>
       </c>
       <c r="F53" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="82.5">
@@ -4007,18 +4009,18 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F54" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="99">
       <c r="A55" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B55">
         <v>4</v>
@@ -4027,78 +4029,78 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F55" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="82.5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="99">
       <c r="A56" t="s">
-        <v>129</v>
+        <v>416</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C56" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>278</v>
+        <v>449</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>449</v>
+        <v>417</v>
       </c>
       <c r="F56" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="99">
       <c r="A57" t="s">
-        <v>418</v>
+        <v>131</v>
       </c>
       <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F57" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="82.5">
+      <c r="A58" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58">
         <v>5</v>
       </c>
-      <c r="C57" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F57" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="99">
-      <c r="A58" t="s">
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B58">
-        <v>4</v>
-      </c>
-      <c r="C58" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="E58" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F58" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="82.5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="99">
       <c r="A59" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B59">
         <v>5</v>
@@ -4106,34 +4108,34 @@
       <c r="C59" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="7" t="s">
-        <v>133</v>
+      <c r="D59" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F59" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="99">
       <c r="A60" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B60">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C60" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="8" t="s">
-        <v>136</v>
+      <c r="D60" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F60" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="99">
@@ -4141,84 +4143,84 @@
         <v>144</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>142</v>
+        <v>397</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>143</v>
+        <v>398</v>
       </c>
       <c r="F61" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="99">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="82.5">
       <c r="A62" t="s">
         <v>145</v>
       </c>
       <c r="B62">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C62" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>399</v>
+        <v>177</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>400</v>
+        <v>178</v>
       </c>
       <c r="F62" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="82.5">
       <c r="A63" t="s">
+        <v>147</v>
+      </c>
+      <c r="B63">
+        <v>6</v>
+      </c>
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B63">
-        <v>3</v>
-      </c>
-      <c r="C63" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="E63" s="1" t="s">
-        <v>179</v>
+        <v>279</v>
       </c>
       <c r="F63" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="82.5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="99">
       <c r="A64" t="s">
+        <v>150</v>
+      </c>
+      <c r="B64">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B64">
-        <v>6</v>
-      </c>
-      <c r="C64" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="E64" s="1" t="s">
-        <v>281</v>
+        <v>149</v>
       </c>
       <c r="F64" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="99">
       <c r="A65" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="B65">
         <v>8</v>
@@ -4227,53 +4229,53 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F65" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="99">
       <c r="A66" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="B66">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C66" t="s">
         <v>9</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>153</v>
+      <c r="D66" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F66" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="99">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E67" t="s">
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4281,10 +4283,10 @@
         <v>162</v>
       </c>
       <c r="B68">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>166</v>
@@ -4293,47 +4295,47 @@
         <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>163</v>
+        <v>382</v>
       </c>
       <c r="B69">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>167</v>
+        <v>392</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
       <c r="B70">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4344,56 +4346,56 @@
         <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="99">
       <c r="A72" t="s">
-        <v>417</v>
+        <v>314</v>
       </c>
       <c r="B72">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C72" t="s">
-        <v>161</v>
+        <v>9</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="E72" t="s">
+        <v>313</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F72" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>163</v>
+      </c>
+      <c r="B73">
+        <v>6</v>
+      </c>
+      <c r="C73" t="s">
+        <v>160</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E73" t="s">
         <v>11</v>
       </c>
-      <c r="F72" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="99">
-      <c r="A73" t="s">
-        <v>316</v>
-      </c>
-      <c r="B73">
-        <v>3</v>
-      </c>
-      <c r="C73" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>317</v>
-      </c>
       <c r="F73" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -4401,64 +4403,64 @@
         <v>164</v>
       </c>
       <c r="B74">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E74" t="s">
         <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>165</v>
+        <v>327</v>
       </c>
       <c r="B75">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>168</v>
+        <v>393</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="99">
       <c r="A76" t="s">
-        <v>329</v>
+        <v>187</v>
       </c>
       <c r="B76">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>161</v>
+        <v>9</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="E76" t="s">
-        <v>11</v>
+        <v>188</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="F76" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="99">
       <c r="A77" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B77">
         <v>4</v>
@@ -4466,19 +4468,19 @@
       <c r="C77" t="s">
         <v>9</v>
       </c>
-      <c r="D77" s="8" t="s">
-        <v>189</v>
+      <c r="D77" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F77" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="99">
       <c r="A78" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B78">
         <v>4</v>
@@ -4487,338 +4489,338 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F78" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="99">
       <c r="A79" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B79">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>194</v>
+        <v>399</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>196</v>
+        <v>357</v>
       </c>
       <c r="F79" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="99">
       <c r="A80" t="s">
+        <v>198</v>
+      </c>
+      <c r="B80">
+        <v>12</v>
+      </c>
+      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B80">
-        <v>9</v>
-      </c>
-      <c r="C80" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>401</v>
-      </c>
       <c r="E80" s="1" t="s">
-        <v>359</v>
+        <v>199</v>
       </c>
       <c r="F80" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="99">
       <c r="A81" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B81">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>9</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>198</v>
+      <c r="D81" s="8" t="s">
+        <v>326</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F81" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="99">
       <c r="A82" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B82">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>9</v>
       </c>
-      <c r="D82" s="8" t="s">
-        <v>328</v>
+      <c r="D82" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F82" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="99">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="82.5">
       <c r="A83" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B83">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C83" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>203</v>
+        <v>274</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>205</v>
+        <v>323</v>
       </c>
       <c r="F83" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="82.5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="99">
       <c r="A84" t="s">
         <v>206</v>
       </c>
       <c r="B84">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C84" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>275</v>
+        <v>207</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>325</v>
+        <v>208</v>
       </c>
       <c r="F84" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="99">
       <c r="A85" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B85">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C85" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F85" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="99">
       <c r="A86" t="s">
+        <v>214</v>
+      </c>
+      <c r="B86">
+        <v>6</v>
+      </c>
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B86">
-        <v>4</v>
-      </c>
-      <c r="C86" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="E86" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F86" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="99">
       <c r="A87" t="s">
+        <v>217</v>
+      </c>
+      <c r="B87">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="B87">
-        <v>6</v>
-      </c>
-      <c r="C87" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="E87" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F87" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="99">
       <c r="A88" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B88">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>9</v>
       </c>
-      <c r="D88" s="7" t="s">
-        <v>216</v>
+      <c r="D88" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F88" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="99">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="82.5">
       <c r="A89" t="s">
-        <v>220</v>
+        <v>405</v>
       </c>
       <c r="B89">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
         <v>9</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F89" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="99">
+      <c r="A90" t="s">
         <v>222</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F89" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="82.5">
-      <c r="A90" t="s">
-        <v>407</v>
-      </c>
       <c r="B90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C90" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>452</v>
+        <v>273</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>354</v>
+        <v>223</v>
       </c>
       <c r="F90" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="99">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="82.5">
       <c r="A91" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B91">
+        <v>3</v>
+      </c>
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F91" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="99">
+      <c r="A92" t="s">
+        <v>227</v>
+      </c>
+      <c r="B92">
         <v>4</v>
       </c>
-      <c r="C91" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F91" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="82.5">
-      <c r="A92" t="s">
+      <c r="C92" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B92">
+      <c r="E92" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F92" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="82.5">
+      <c r="A93" t="s">
+        <v>280</v>
+      </c>
+      <c r="B93">
         <v>3</v>
       </c>
-      <c r="C92" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="F92" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="99">
-      <c r="A93" t="s">
-        <v>228</v>
-      </c>
-      <c r="B93">
-        <v>4</v>
-      </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>283</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>226</v>
+        <v>401</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>227</v>
+        <v>400</v>
       </c>
       <c r="F93" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="82.5">
       <c r="A94" t="s">
-        <v>282</v>
+        <v>230</v>
       </c>
       <c r="B94">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
-        <v>285</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>403</v>
+        <v>228</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>402</v>
+        <v>229</v>
       </c>
       <c r="F94" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="82.5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="99">
       <c r="A95" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B95">
         <v>5</v>
@@ -4827,78 +4829,78 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F95" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="99">
       <c r="A96" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B96">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F96" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="99">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="82.5">
       <c r="A97" t="s">
-        <v>235</v>
+        <v>282</v>
       </c>
       <c r="B97">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C97" t="s">
         <v>9</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>236</v>
+      <c r="D97" s="8" t="s">
+        <v>322</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>237</v>
       </c>
       <c r="F97" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="82.5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="99">
       <c r="A98" t="s">
-        <v>284</v>
+        <v>239</v>
       </c>
       <c r="B98">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
         <v>9</v>
       </c>
-      <c r="D98" s="8" t="s">
-        <v>324</v>
+      <c r="D98" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F98" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="99">
       <c r="A99" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -4907,13 +4909,13 @@
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F99" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="99">
@@ -4921,64 +4923,64 @@
         <v>244</v>
       </c>
       <c r="B100">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C100" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="F100" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="99">
       <c r="A101" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B101">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>276</v>
+        <v>380</v>
       </c>
       <c r="F101" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="99">
       <c r="A102" t="s">
+        <v>250</v>
+      </c>
+      <c r="B102">
+        <v>5</v>
+      </c>
+      <c r="C102" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B102">
-        <v>9</v>
-      </c>
-      <c r="C102" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>248</v>
-      </c>
       <c r="E102" s="1" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="F102" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="99">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="82.5">
       <c r="A103" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B103">
         <v>5</v>
@@ -4987,204 +4989,204 @@
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>375</v>
+        <v>252</v>
       </c>
       <c r="F103" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="82.5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="99">
       <c r="A104" t="s">
+        <v>255</v>
+      </c>
+      <c r="B104">
+        <v>6</v>
+      </c>
+      <c r="C104" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E104" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B104">
-        <v>5</v>
-      </c>
-      <c r="C104" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="F104" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="99">
       <c r="A105" t="s">
+        <v>281</v>
+      </c>
+      <c r="B105">
+        <v>0.9</v>
+      </c>
+      <c r="C105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B105">
-        <v>6</v>
-      </c>
-      <c r="C105" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>277</v>
-      </c>
       <c r="E105" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F105" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="99">
       <c r="A106" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="B106">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="C106" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F106" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="99">
       <c r="A107" t="s">
+        <v>263</v>
+      </c>
+      <c r="B107">
+        <v>4</v>
+      </c>
+      <c r="C107" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B107">
-        <v>2</v>
-      </c>
-      <c r="C107" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="E107" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F107" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="99">
       <c r="A108" t="s">
+        <v>266</v>
+      </c>
+      <c r="B108">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B108">
-        <v>4</v>
-      </c>
-      <c r="C108" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="E108" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F108" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="99">
       <c r="A109" t="s">
+        <v>269</v>
+      </c>
+      <c r="B109">
+        <v>5</v>
+      </c>
+      <c r="C109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B109">
-        <v>7</v>
-      </c>
-      <c r="C109" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="E109" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F109" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="99">
       <c r="A110" t="s">
+        <v>271</v>
+      </c>
+      <c r="B110">
+        <v>1.7</v>
+      </c>
+      <c r="C110" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E110" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B110">
-        <v>5</v>
-      </c>
-      <c r="C110" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="F110" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="99">
       <c r="A111" t="s">
-        <v>272</v>
+        <v>371</v>
       </c>
       <c r="B111">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>273</v>
+        <v>369</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>271</v>
+        <v>370</v>
       </c>
       <c r="F111" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="99">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="49.5">
       <c r="A112" t="s">
-        <v>373</v>
+        <v>284</v>
       </c>
       <c r="B112">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="C112" t="s">
-        <v>371</v>
+        <v>285</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>372</v>
+        <v>287</v>
       </c>
       <c r="F112" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="49.5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="99">
       <c r="A113" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B113">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
-        <v>287</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>288</v>
@@ -5193,35 +5195,35 @@
         <v>289</v>
       </c>
       <c r="F113" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="99">
       <c r="A114" t="s">
+        <v>291</v>
+      </c>
+      <c r="B114">
+        <v>3</v>
+      </c>
+      <c r="C114" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B114">
-        <v>5</v>
-      </c>
-      <c r="C114" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>290</v>
-      </c>
       <c r="E114" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F114" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="99">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="82.5">
       <c r="A115" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B115">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="C115" t="s">
         <v>9</v>
@@ -5230,135 +5232,135 @@
         <v>294</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F115" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="82.5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="99">
       <c r="A116" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B116">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="C116" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>299</v>
       </c>
       <c r="F116" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="99">
       <c r="A117" t="s">
+        <v>303</v>
+      </c>
+      <c r="B117">
+        <v>4</v>
+      </c>
+      <c r="C117" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E117" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B117">
-        <v>2.5</v>
-      </c>
-      <c r="C117" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>301</v>
-      </c>
       <c r="F117" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="99">
       <c r="A118" t="s">
+        <v>421</v>
+      </c>
+      <c r="B118">
+        <v>7</v>
+      </c>
+      <c r="C118" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="F118" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="82.5">
+      <c r="A119" t="s">
         <v>305</v>
       </c>
-      <c r="B118">
-        <v>4</v>
-      </c>
-      <c r="C118" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E118" s="1" t="s">
+      <c r="B119">
+        <v>8</v>
+      </c>
+      <c r="C119" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="F118" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="99">
-      <c r="A119" t="s">
-        <v>424</v>
-      </c>
-      <c r="B119">
-        <v>7</v>
-      </c>
-      <c r="C119" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>422</v>
-      </c>
       <c r="E119" s="1" t="s">
-        <v>423</v>
+        <v>366</v>
       </c>
       <c r="F119" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="82.5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="99">
       <c r="A120" t="s">
+        <v>306</v>
+      </c>
+      <c r="B120">
+        <v>1.5</v>
+      </c>
+      <c r="C120" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B120">
-        <v>8</v>
-      </c>
-      <c r="C120" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>368</v>
-      </c>
       <c r="F120" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="99">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="82.5">
       <c r="A121" t="s">
+        <v>309</v>
+      </c>
+      <c r="B121">
+        <v>5</v>
+      </c>
+      <c r="C121" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B121">
-        <v>1.5</v>
-      </c>
-      <c r="C121" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="E121" s="1" t="s">
-        <v>309</v>
+        <v>418</v>
       </c>
       <c r="F121" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="82.5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="99">
       <c r="A122" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B122">
         <v>5</v>
@@ -5367,18 +5369,18 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E122" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="E122" s="1" t="s">
-        <v>421</v>
-      </c>
       <c r="F122" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="99">
       <c r="A123" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B123">
         <v>5</v>
@@ -5387,73 +5389,73 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="F123" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="99">
       <c r="A124" t="s">
+        <v>321</v>
+      </c>
+      <c r="B124">
+        <v>4</v>
+      </c>
+      <c r="C124" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E124" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B124">
-        <v>5</v>
-      </c>
-      <c r="C124" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>319</v>
-      </c>
       <c r="F124" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="99">
       <c r="A125" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B125">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C125" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="F125" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="99">
       <c r="A126" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B126">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="F126" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="99">
@@ -5470,338 +5472,338 @@
         <v>333</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="F127" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="99">
       <c r="A128" t="s">
+        <v>336</v>
+      </c>
+      <c r="B128">
+        <v>9</v>
+      </c>
+      <c r="C128" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B128">
-        <v>5</v>
-      </c>
-      <c r="C128" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" s="2" t="s">
+      <c r="E128" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E128" s="1" t="s">
-        <v>340</v>
-      </c>
       <c r="F128" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="99">
       <c r="A129" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B129">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
         <v>9</v>
       </c>
-      <c r="D129" s="2" t="s">
-        <v>336</v>
+      <c r="D129" s="8" t="s">
+        <v>367</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="F129" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="99">
       <c r="A130" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B130">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C130" t="s">
         <v>9</v>
       </c>
-      <c r="D130" s="8" t="s">
-        <v>369</v>
+      <c r="D130" s="2" t="s">
+        <v>348</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F130" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="99">
       <c r="A131" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B131">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
         <v>9</v>
       </c>
-      <c r="D131" s="2" t="s">
-        <v>350</v>
+      <c r="D131" s="8" t="s">
+        <v>446</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="F131" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="99">
       <c r="A132" t="s">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="B132">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
         <v>9</v>
       </c>
-      <c r="D132" s="8" t="s">
-        <v>450</v>
+      <c r="D132" s="2" t="s">
+        <v>354</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>370</v>
+        <v>443</v>
       </c>
       <c r="F132" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="99">
       <c r="A133" t="s">
-        <v>388</v>
+        <v>358</v>
       </c>
       <c r="B133">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>446</v>
+        <v>360</v>
       </c>
       <c r="F133" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="99">
       <c r="A134" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B134">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C134" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E134" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="E134" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="F134" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="99">
       <c r="A135" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="B135">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C135" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="F135" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="99">
       <c r="A136" t="s">
+        <v>378</v>
+      </c>
+      <c r="B136">
+        <v>6</v>
+      </c>
+      <c r="C136" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B136">
-        <v>4</v>
-      </c>
-      <c r="C136" t="s">
-        <v>9</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>378</v>
-      </c>
       <c r="E136" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="F136" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="99">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="B137">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>381</v>
+        <v>160</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E137" t="s">
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="99">
       <c r="A138" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B138">
         <v>5</v>
       </c>
       <c r="C138" t="s">
-        <v>161</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E138" t="s">
-        <v>11</v>
+        <v>389</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>390</v>
       </c>
       <c r="F138" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="99">
       <c r="A139" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B139">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F139" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="99">
       <c r="A140" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B140">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C140" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F140" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="99">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="67.5">
       <c r="A141" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B141">
-        <v>4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C141" t="s">
         <v>9</v>
       </c>
-      <c r="D141" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>404</v>
+      <c r="D141" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>409</v>
       </c>
       <c r="F141" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="67.5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="82.5">
       <c r="A142" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B142">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="C142" t="s">
         <v>9</v>
       </c>
-      <c r="D142" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="E142" s="4" t="s">
+      <c r="D142" s="2" t="s">
         <v>411</v>
       </c>
+      <c r="E142" s="1" t="s">
+        <v>412</v>
+      </c>
       <c r="F142" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="82.5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="66">
       <c r="A143" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="B143">
-        <v>1.3</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="F143" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="66">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="99">
       <c r="A144" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B144">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
         <v>9</v>
@@ -5810,73 +5812,73 @@
         <v>426</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F144" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="99">
       <c r="A145" t="s">
-        <v>428</v>
+        <v>151</v>
       </c>
       <c r="B145">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C145" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E145" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="E145" s="1" t="s">
-        <v>430</v>
-      </c>
       <c r="F145" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="99">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="82.5">
       <c r="A146" t="s">
-        <v>152</v>
+        <v>433</v>
       </c>
       <c r="B146">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F146" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="82.5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="148.5">
       <c r="A147" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B147">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C147" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="F147" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="148.5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="99">
       <c r="A148" t="s">
         <v>437</v>
       </c>
@@ -5887,18 +5889,18 @@
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="F148" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="99">
       <c r="A149" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B149">
         <v>5</v>
@@ -5907,33 +5909,30 @@
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F149" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="99">
       <c r="A150" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="B150">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C150" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="F150" t="s">
-        <v>357</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -5957,107 +5956,108 @@
     <hyperlink ref="D53" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
     <hyperlink ref="D54" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
     <hyperlink ref="D55" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="D58" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="D60" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="D57" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D59" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
     <hyperlink ref="D7" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="D61" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="D63" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="D64" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="D65" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="D66" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="D60" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D62" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="D63" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="D64" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="D65" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
     <hyperlink ref="D49" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="D68" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="D69" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="D74" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="D75" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="D67" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="D68" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="D73" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="D74" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
     <hyperlink ref="D30" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
     <hyperlink ref="D15" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="D77" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="D78" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="D79" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="D80" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="D81" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="D83" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="D84" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="D85" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="D86" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="D87" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="D89" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D93" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D94" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="D95" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D96" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="D97" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D76" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="D77" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="D78" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="D79" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="D80" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="D82" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D83" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="D84" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="D85" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="D86" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="D88" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D92" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D93" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="D94" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="D95" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="D96" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
     <hyperlink ref="D20" r:id="rId50" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D99" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="D100" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="D101" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D102" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D103" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D104" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="D106" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D107" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D108" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D109" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D110" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="D111" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D91" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="D56" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="D113" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="D114" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D115" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="D116" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="D32" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="D38" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D117" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D118" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D120" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D122" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="D123" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="D124" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="D125" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="D25" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="D98" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D126" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="D82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="D17" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="D127" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="D128" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="D121" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="D36" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D3" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="D131" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D133" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D134" r:id="rId90" xr:uid="{A16A5099-7DDF-4370-95B7-BE0B27B5431C}"/>
-    <hyperlink ref="D135" r:id="rId91" xr:uid="{708EF35E-20E2-4320-AADE-685E01E763F7}"/>
-    <hyperlink ref="D130" r:id="rId92" xr:uid="{FB61B29C-091A-4DDA-AE79-D04CD219E120}"/>
-    <hyperlink ref="D112" r:id="rId93" xr:uid="{ECA328F5-23A6-4DE4-B068-F02A7D98D168}"/>
-    <hyperlink ref="D136" r:id="rId94" xr:uid="{9AD90610-B454-4A84-8345-BC650F57996E}"/>
-    <hyperlink ref="D40" r:id="rId95" xr:uid="{93E22CFB-0916-4E6E-ACC3-EEAD067C806F}"/>
-    <hyperlink ref="D139" r:id="rId96" xr:uid="{B9A9083D-DAAC-4EB9-A1EF-8226D6CE0569}"/>
-    <hyperlink ref="D138" r:id="rId97" xr:uid="{7BB4446E-C399-4A10-A149-71E6F6C21625}"/>
-    <hyperlink ref="D70" r:id="rId98" xr:uid="{26848A2D-A2E9-4D35-A878-4E94AA4528CC}"/>
-    <hyperlink ref="D76" r:id="rId99" xr:uid="{4F6D0E3F-842E-4538-B42C-64D38060BB59}"/>
-    <hyperlink ref="D140" r:id="rId100" xr:uid="{302CF079-F4AA-41D6-A7B3-02085878B25C}"/>
-    <hyperlink ref="D62" r:id="rId101" xr:uid="{FFC2D208-AEF3-4089-93F4-56B6F4845C6D}"/>
-    <hyperlink ref="D141" r:id="rId102" xr:uid="{537861A6-5879-4590-973E-CAB8004B1F94}"/>
-    <hyperlink ref="D18" r:id="rId103" xr:uid="{09DC9E19-5EF7-447C-A207-F065EAABBA9E}"/>
-    <hyperlink ref="D143" r:id="rId104" xr:uid="{B0679566-FA54-444D-8C38-A9B1A78EA00B}"/>
-    <hyperlink ref="D119" r:id="rId105" xr:uid="{548C8289-7EC3-401B-8394-4658D1E44626}"/>
-    <hyperlink ref="D144" r:id="rId106" xr:uid="{DC77A0A1-75B4-4037-BF20-173723D2E1A0}"/>
-    <hyperlink ref="D145" r:id="rId107" xr:uid="{68B8ABE4-7971-4B92-873E-57FB9E5E8E7B}"/>
-    <hyperlink ref="D72" r:id="rId108" xr:uid="{CE9629E1-6341-48A8-A515-14208ED02ACE}"/>
-    <hyperlink ref="D146" r:id="rId109" xr:uid="{7906C34E-95E6-4C1B-9565-B8B6F37DE732}"/>
-    <hyperlink ref="D147" r:id="rId110" xr:uid="{EE076CB7-11A0-4FF0-9825-6A412491927F}"/>
-    <hyperlink ref="D148" r:id="rId111" xr:uid="{155BFA89-2A1E-4E9B-9D34-97E8FE7BFBB8}"/>
-    <hyperlink ref="D149" r:id="rId112" xr:uid="{5B90FF2B-C561-4007-AD0E-86645E787947}"/>
-    <hyperlink ref="D150" r:id="rId113" xr:uid="{4B1CBD95-B37A-4E49-99CD-5B0FAFB1DD68}"/>
-    <hyperlink ref="D132" r:id="rId114" xr:uid="{933F49CC-7CBE-4246-BED0-85666C83AD9C}"/>
-    <hyperlink ref="D46" r:id="rId115" xr:uid="{44BF8FFF-EFEF-4626-91C2-16E5A0463084}"/>
-    <hyperlink ref="D90" r:id="rId116" xr:uid="{CFA38323-9624-4B72-BAD1-1DF28D103CC7}"/>
+    <hyperlink ref="D98" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="D99" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="D100" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D101" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D102" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D103" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="D105" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D106" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D107" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D108" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D109" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D110" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D90" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="D112" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="D113" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D114" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="D115" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="D32" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="D38" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D116" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D117" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D119" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D121" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D122" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="D123" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="D124" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="D25" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="D97" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D125" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="D81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="D17" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="D126" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="D127" r:id="rId83" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="D120" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="D36" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D3" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="D130" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D132" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D133" r:id="rId89" xr:uid="{A16A5099-7DDF-4370-95B7-BE0B27B5431C}"/>
+    <hyperlink ref="D134" r:id="rId90" xr:uid="{708EF35E-20E2-4320-AADE-685E01E763F7}"/>
+    <hyperlink ref="D129" r:id="rId91" xr:uid="{FB61B29C-091A-4DDA-AE79-D04CD219E120}"/>
+    <hyperlink ref="D111" r:id="rId92" xr:uid="{ECA328F5-23A6-4DE4-B068-F02A7D98D168}"/>
+    <hyperlink ref="D135" r:id="rId93" xr:uid="{9AD90610-B454-4A84-8345-BC650F57996E}"/>
+    <hyperlink ref="D40" r:id="rId94" xr:uid="{93E22CFB-0916-4E6E-ACC3-EEAD067C806F}"/>
+    <hyperlink ref="D138" r:id="rId95" xr:uid="{B9A9083D-DAAC-4EB9-A1EF-8226D6CE0569}"/>
+    <hyperlink ref="D137" r:id="rId96" xr:uid="{7BB4446E-C399-4A10-A149-71E6F6C21625}"/>
+    <hyperlink ref="D69" r:id="rId97" xr:uid="{26848A2D-A2E9-4D35-A878-4E94AA4528CC}"/>
+    <hyperlink ref="D75" r:id="rId98" xr:uid="{4F6D0E3F-842E-4538-B42C-64D38060BB59}"/>
+    <hyperlink ref="D139" r:id="rId99" xr:uid="{302CF079-F4AA-41D6-A7B3-02085878B25C}"/>
+    <hyperlink ref="D61" r:id="rId100" xr:uid="{FFC2D208-AEF3-4089-93F4-56B6F4845C6D}"/>
+    <hyperlink ref="D140" r:id="rId101" xr:uid="{537861A6-5879-4590-973E-CAB8004B1F94}"/>
+    <hyperlink ref="D18" r:id="rId102" xr:uid="{09DC9E19-5EF7-447C-A207-F065EAABBA9E}"/>
+    <hyperlink ref="D142" r:id="rId103" xr:uid="{B0679566-FA54-444D-8C38-A9B1A78EA00B}"/>
+    <hyperlink ref="D118" r:id="rId104" xr:uid="{548C8289-7EC3-401B-8394-4658D1E44626}"/>
+    <hyperlink ref="D143" r:id="rId105" xr:uid="{DC77A0A1-75B4-4037-BF20-173723D2E1A0}"/>
+    <hyperlink ref="D144" r:id="rId106" xr:uid="{68B8ABE4-7971-4B92-873E-57FB9E5E8E7B}"/>
+    <hyperlink ref="D71" r:id="rId107" xr:uid="{CE9629E1-6341-48A8-A515-14208ED02ACE}"/>
+    <hyperlink ref="D145" r:id="rId108" xr:uid="{7906C34E-95E6-4C1B-9565-B8B6F37DE732}"/>
+    <hyperlink ref="D146" r:id="rId109" xr:uid="{EE076CB7-11A0-4FF0-9825-6A412491927F}"/>
+    <hyperlink ref="D147" r:id="rId110" xr:uid="{155BFA89-2A1E-4E9B-9D34-97E8FE7BFBB8}"/>
+    <hyperlink ref="D148" r:id="rId111" xr:uid="{5B90FF2B-C561-4007-AD0E-86645E787947}"/>
+    <hyperlink ref="D149" r:id="rId112" xr:uid="{4B1CBD95-B37A-4E49-99CD-5B0FAFB1DD68}"/>
+    <hyperlink ref="D131" r:id="rId113" xr:uid="{933F49CC-7CBE-4246-BED0-85666C83AD9C}"/>
+    <hyperlink ref="D46" r:id="rId114" xr:uid="{44BF8FFF-EFEF-4626-91C2-16E5A0463084}"/>
+    <hyperlink ref="D89" r:id="rId115" xr:uid="{CFA38323-9624-4B72-BAD1-1DF28D103CC7}"/>
+    <hyperlink ref="D56" r:id="rId116" xr:uid="{027425D3-4104-4019-9C56-9619BD774590}"/>
+    <hyperlink ref="D150" r:id="rId117" xr:uid="{5E05232A-62B2-4A14-ABE0-B7C2FC8317E5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId117"/>
-  <legacyDrawing r:id="rId118"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId118"/>
+  <legacyDrawing r:id="rId119"/>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new_news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD058516-07B7-4A52-AC3E-3ADDAB471691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C32C18A-1BD0-462E-A7CE-35B03E4BCD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5805" yWindow="2910" windowWidth="20520" windowHeight="17610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2926,8 +2926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E147" sqref="E147"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3983,7 +3983,7 @@
         <v>125</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C53" t="s">
         <v>9</v>
@@ -4023,7 +4023,7 @@
         <v>157</v>
       </c>
       <c r="B55">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
         <v>9</v>
@@ -4063,7 +4063,7 @@
         <v>131</v>
       </c>
       <c r="B57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
         <v>9</v>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new_news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C32C18A-1BD0-462E-A7CE-35B03E4BCD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE64B2A-64EF-468B-B9A8-0A4BBA602066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5805" yWindow="2910" windowWidth="20520" windowHeight="17610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3330" yWindow="1890" windowWidth="26865" windowHeight="17610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="453">
   <si>
     <t>naver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2926,8 +2926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="F145" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F148" sqref="F148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5933,6 +5933,9 @@
       </c>
       <c r="E150" s="1" t="s">
         <v>450</v>
+      </c>
+      <c r="F150" t="s">
+        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new_news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE64B2A-64EF-468B-B9A8-0A4BBA602066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2650E129-4A3A-4B56-B126-A9D6ACDE7B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="1890" windowWidth="26865" windowHeight="17610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="3720" windowWidth="25935" windowHeight="16650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2926,8 +2926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F145" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F148" sqref="F148"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3363,7 +3363,7 @@
         <v>53</v>
       </c>
       <c r="B22">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new_news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2650E129-4A3A-4B56-B126-A9D6ACDE7B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D4656B-E3D1-48C3-B87A-CF12D4227797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="3720" windowWidth="25935" windowHeight="16650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2926,8 +2926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4603,7 +4603,7 @@
         <v>206</v>
       </c>
       <c r="B84">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>9</v>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new_news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D4656B-E3D1-48C3-B87A-CF12D4227797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DA6041-D030-4D6E-8126-827D7694D263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="3720" windowWidth="25935" windowHeight="16650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="855" yWindow="3375" windowWidth="25935" windowHeight="16650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1292,10 +1292,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.newsway.co.kr/search?q=%EA%B8%B0%EC%9E%90&amp;t=content&amp;d=week</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>뉴스웨이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2512,6 +2508,10 @@
   </si>
   <si>
     <t>정책브리핑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.newsway.co.kr/search?q=+&amp;t=&amp;d=week</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2926,8 +2926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2955,7 +2955,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2975,27 +2975,27 @@
         <v>173</v>
       </c>
       <c r="F2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>346</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="99">
@@ -3015,7 +3015,7 @@
         <v>171</v>
       </c>
       <c r="F4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="99">
@@ -3035,7 +3035,7 @@
         <v>172</v>
       </c>
       <c r="F5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="104.25" customHeight="1">
@@ -3055,7 +3055,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="81">
@@ -3075,7 +3075,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="81">
@@ -3095,7 +3095,7 @@
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="81">
@@ -3115,7 +3115,7 @@
         <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="81">
@@ -3135,7 +3135,7 @@
         <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="81">
@@ -3155,7 +3155,7 @@
         <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="99">
@@ -3175,7 +3175,7 @@
         <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="99">
@@ -3195,7 +3195,7 @@
         <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="99">
@@ -3215,7 +3215,7 @@
         <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="99">
@@ -3235,7 +3235,7 @@
         <v>186</v>
       </c>
       <c r="F15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="99">
@@ -3255,7 +3255,7 @@
         <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="99">
@@ -3269,13 +3269,13 @@
         <v>9</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="99">
@@ -3289,13 +3289,13 @@
         <v>9</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="99">
@@ -3315,7 +3315,7 @@
         <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="99">
@@ -3335,7 +3335,7 @@
         <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="99">
@@ -3355,7 +3355,7 @@
         <v>52</v>
       </c>
       <c r="F21" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="99">
@@ -3375,7 +3375,7 @@
         <v>55</v>
       </c>
       <c r="F22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="99">
@@ -3395,7 +3395,7 @@
         <v>58</v>
       </c>
       <c r="F23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="99">
@@ -3415,7 +3415,7 @@
         <v>61</v>
       </c>
       <c r="F24" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="82.5">
@@ -3429,13 +3429,13 @@
         <v>9</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F25" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="99">
@@ -3455,7 +3455,7 @@
         <v>65</v>
       </c>
       <c r="F26" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="82.5">
@@ -3475,7 +3475,7 @@
         <v>175</v>
       </c>
       <c r="F27" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="99">
@@ -3495,7 +3495,7 @@
         <v>169</v>
       </c>
       <c r="F28" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="82.5">
@@ -3515,7 +3515,7 @@
         <v>176</v>
       </c>
       <c r="F29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="99">
@@ -3535,7 +3535,7 @@
         <v>180</v>
       </c>
       <c r="F30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="82.5">
@@ -3555,7 +3555,7 @@
         <v>108</v>
       </c>
       <c r="F31" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="82.5">
@@ -3569,13 +3569,13 @@
         <v>9</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F32" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="81">
@@ -3595,7 +3595,7 @@
         <v>76</v>
       </c>
       <c r="F33" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="81">
@@ -3615,7 +3615,7 @@
         <v>79</v>
       </c>
       <c r="F34" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="81">
@@ -3629,13 +3629,13 @@
         <v>9</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>81</v>
       </c>
       <c r="F35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="81">
@@ -3649,13 +3649,13 @@
         <v>9</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="81">
@@ -3675,7 +3675,7 @@
         <v>84</v>
       </c>
       <c r="F37" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="81">
@@ -3689,13 +3689,13 @@
         <v>9</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>86</v>
       </c>
       <c r="F38" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="99">
@@ -3715,7 +3715,7 @@
         <v>89</v>
       </c>
       <c r="F39" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="99">
@@ -3729,13 +3729,13 @@
         <v>9</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F40" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="99">
@@ -3755,7 +3755,7 @@
         <v>93</v>
       </c>
       <c r="F41" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="99">
@@ -3775,7 +3775,7 @@
         <v>97</v>
       </c>
       <c r="F42" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="99">
@@ -3795,7 +3795,7 @@
         <v>99</v>
       </c>
       <c r="F43" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="99">
@@ -3815,7 +3815,7 @@
         <v>102</v>
       </c>
       <c r="F44" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="99">
@@ -3835,7 +3835,7 @@
         <v>105</v>
       </c>
       <c r="F45" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="82.5">
@@ -3849,13 +3849,13 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F46" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="99">
@@ -3872,10 +3872,10 @@
         <v>112</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F47" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="99">
@@ -3895,12 +3895,12 @@
         <v>115</v>
       </c>
       <c r="F48" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="99">
       <c r="A49" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -3912,10 +3912,10 @@
         <v>159</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F49" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="99">
@@ -3935,7 +3935,7 @@
         <v>117</v>
       </c>
       <c r="F50" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="99">
@@ -3955,7 +3955,7 @@
         <v>121</v>
       </c>
       <c r="F51" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="99">
@@ -3975,7 +3975,7 @@
         <v>122</v>
       </c>
       <c r="F52" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="99">
@@ -3995,7 +3995,7 @@
         <v>127</v>
       </c>
       <c r="F53" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="82.5">
@@ -4015,7 +4015,7 @@
         <v>174</v>
       </c>
       <c r="F54" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="99">
@@ -4035,12 +4035,12 @@
         <v>181</v>
       </c>
       <c r="F55" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="99">
       <c r="A56" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B56">
         <v>4</v>
@@ -4049,13 +4049,13 @@
         <v>9</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F56" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="99">
@@ -4075,7 +4075,7 @@
         <v>130</v>
       </c>
       <c r="F57" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="82.5">
@@ -4095,7 +4095,7 @@
         <v>133</v>
       </c>
       <c r="F58" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="99">
@@ -4115,7 +4115,7 @@
         <v>136</v>
       </c>
       <c r="F59" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="99">
@@ -4135,7 +4135,7 @@
         <v>142</v>
       </c>
       <c r="F60" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="99">
@@ -4149,13 +4149,13 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>398</v>
-      </c>
       <c r="F61" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="82.5">
@@ -4175,7 +4175,7 @@
         <v>178</v>
       </c>
       <c r="F62" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="82.5">
@@ -4192,10 +4192,10 @@
         <v>146</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F63" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="99">
@@ -4215,7 +4215,7 @@
         <v>149</v>
       </c>
       <c r="F64" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="99">
@@ -4235,7 +4235,7 @@
         <v>153</v>
       </c>
       <c r="F65" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="99">
@@ -4255,7 +4255,7 @@
         <v>155</v>
       </c>
       <c r="F66" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4275,7 +4275,7 @@
         <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4295,12 +4295,12 @@
         <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B69">
         <v>2</v>
@@ -4309,18 +4309,18 @@
         <v>160</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B70">
         <v>9</v>
@@ -4329,18 +4329,18 @@
         <v>160</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B71">
         <v>9</v>
@@ -4349,18 +4349,18 @@
         <v>160</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="99">
       <c r="A72" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B72">
         <v>3</v>
@@ -4369,13 +4369,13 @@
         <v>9</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F72" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -4395,7 +4395,7 @@
         <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -4415,12 +4415,12 @@
         <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B75">
         <v>9</v>
@@ -4429,13 +4429,13 @@
         <v>160</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="99">
@@ -4455,7 +4455,7 @@
         <v>189</v>
       </c>
       <c r="F76" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="99">
@@ -4475,7 +4475,7 @@
         <v>192</v>
       </c>
       <c r="F77" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="99">
@@ -4495,7 +4495,7 @@
         <v>195</v>
       </c>
       <c r="F78" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="99">
@@ -4509,13 +4509,13 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F79" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="99">
@@ -4535,7 +4535,7 @@
         <v>199</v>
       </c>
       <c r="F80" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="99">
@@ -4549,13 +4549,13 @@
         <v>9</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>201</v>
       </c>
       <c r="F81" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="99">
@@ -4575,7 +4575,7 @@
         <v>204</v>
       </c>
       <c r="F82" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="82.5">
@@ -4589,13 +4589,13 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F83" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="99">
@@ -4615,7 +4615,7 @@
         <v>208</v>
       </c>
       <c r="F84" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="99">
@@ -4635,7 +4635,7 @@
         <v>210</v>
       </c>
       <c r="F85" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="99">
@@ -4655,7 +4655,7 @@
         <v>213</v>
       </c>
       <c r="F86" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="99">
@@ -4675,7 +4675,7 @@
         <v>216</v>
       </c>
       <c r="F87" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="99">
@@ -4695,12 +4695,12 @@
         <v>220</v>
       </c>
       <c r="F88" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="82.5">
       <c r="A89" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B89">
         <v>5</v>
@@ -4709,13 +4709,13 @@
         <v>9</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F89" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="99">
@@ -4729,13 +4729,13 @@
         <v>9</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>223</v>
       </c>
       <c r="F90" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="82.5">
@@ -4749,13 +4749,13 @@
         <v>9</v>
       </c>
       <c r="D91" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>365</v>
-      </c>
       <c r="F91" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="99">
@@ -4775,27 +4775,27 @@
         <v>226</v>
       </c>
       <c r="F92" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="82.5">
       <c r="A93" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B93">
         <v>3</v>
       </c>
       <c r="C93" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F93" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="82.5">
@@ -4815,32 +4815,32 @@
         <v>229</v>
       </c>
       <c r="F94" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="99">
       <c r="A95" t="s">
+        <v>231</v>
+      </c>
+      <c r="B95">
+        <v>9</v>
+      </c>
+      <c r="C95" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B95">
-        <v>5</v>
-      </c>
-      <c r="C95" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="F95" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="99">
       <c r="A96" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B96">
         <v>7</v>
@@ -4849,18 +4849,18 @@
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E96" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="F96" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="82.5">
       <c r="A97" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B97">
         <v>2</v>
@@ -4869,18 +4869,18 @@
         <v>9</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F97" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="99">
       <c r="A98" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -4889,18 +4889,18 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F98" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="99">
       <c r="A99" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -4909,18 +4909,18 @@
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E99" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="F99" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="99">
       <c r="A100" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B100">
         <v>3</v>
@@ -4929,18 +4929,18 @@
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F100" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="99">
       <c r="A101" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B101">
         <v>9</v>
@@ -4949,18 +4949,18 @@
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F101" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="99">
       <c r="A102" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B102">
         <v>5</v>
@@ -4969,18 +4969,18 @@
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F102" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="82.5">
       <c r="A103" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B103">
         <v>5</v>
@@ -4989,18 +4989,18 @@
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E103" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="F103" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="99">
       <c r="A104" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B104">
         <v>6</v>
@@ -5009,18 +5009,18 @@
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F104" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="99">
       <c r="A105" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B105">
         <v>0.9</v>
@@ -5029,18 +5029,18 @@
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E105" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="F105" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="99">
       <c r="A106" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B106">
         <v>2</v>
@@ -5049,18 +5049,18 @@
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E106" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E106" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="F106" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="99">
       <c r="A107" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B107">
         <v>4</v>
@@ -5069,18 +5069,18 @@
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E107" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="F107" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="99">
       <c r="A108" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B108">
         <v>7</v>
@@ -5089,18 +5089,18 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E108" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="F108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="99">
       <c r="A109" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B109">
         <v>5</v>
@@ -5109,18 +5109,18 @@
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E109" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E109" s="1" t="s">
-        <v>268</v>
-      </c>
       <c r="F109" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="99">
       <c r="A110" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B110">
         <v>1.7</v>
@@ -5129,58 +5129,58 @@
         <v>9</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F110" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="99">
       <c r="A111" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B111">
         <v>0.8</v>
       </c>
       <c r="C111" t="s">
+        <v>368</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E111" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>370</v>
-      </c>
       <c r="F111" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="49.5">
       <c r="A112" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B112">
         <v>0.9</v>
       </c>
       <c r="C112" t="s">
+        <v>284</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="E112" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E112" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="F112" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="99">
       <c r="A113" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B113">
         <v>5</v>
@@ -5189,18 +5189,18 @@
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E113" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="F113" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="99">
       <c r="A114" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B114">
         <v>3</v>
@@ -5209,18 +5209,18 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E114" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E114" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="F114" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="82.5">
       <c r="A115" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B115">
         <v>1.2</v>
@@ -5229,18 +5229,18 @@
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F115" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="99">
       <c r="A116" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B116">
         <v>2.5</v>
@@ -5249,18 +5249,18 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E116" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="E116" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="F116" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="99">
       <c r="A117" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B117">
         <v>4</v>
@@ -5269,18 +5269,18 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E117" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="E117" s="1" t="s">
-        <v>302</v>
-      </c>
       <c r="F117" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="99">
       <c r="A118" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B118">
         <v>7</v>
@@ -5289,18 +5289,18 @@
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E118" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="E118" s="1" t="s">
-        <v>420</v>
-      </c>
       <c r="F118" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="82.5">
       <c r="A119" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B119">
         <v>8</v>
@@ -5309,18 +5309,18 @@
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F119" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="99">
       <c r="A120" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B120">
         <v>1.5</v>
@@ -5329,18 +5329,18 @@
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F120" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="82.5">
       <c r="A121" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B121">
         <v>5</v>
@@ -5349,18 +5349,18 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F121" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="99">
       <c r="A122" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B122">
         <v>5</v>
@@ -5369,18 +5369,18 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F122" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="99">
       <c r="A123" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B123">
         <v>5</v>
@@ -5389,18 +5389,18 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E123" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="E123" s="1" t="s">
-        <v>317</v>
-      </c>
       <c r="F123" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="99">
       <c r="A124" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B124">
         <v>4</v>
@@ -5409,18 +5409,18 @@
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E124" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="E124" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="F124" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="99">
       <c r="A125" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B125">
         <v>14</v>
@@ -5429,18 +5429,18 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F125" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="99">
       <c r="A126" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B126">
         <v>5</v>
@@ -5449,18 +5449,18 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F126" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="99">
       <c r="A127" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B127">
         <v>5</v>
@@ -5469,18 +5469,18 @@
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F127" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="99">
       <c r="A128" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B128">
         <v>9</v>
@@ -5489,18 +5489,18 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E128" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E128" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="F128" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="99">
       <c r="A129" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B129">
         <v>8</v>
@@ -5509,18 +5509,18 @@
         <v>9</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F129" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="99">
       <c r="A130" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B130">
         <v>11</v>
@@ -5529,18 +5529,18 @@
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F130" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="99">
       <c r="A131" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B131">
         <v>9</v>
@@ -5549,18 +5549,18 @@
         <v>9</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F131" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="99">
       <c r="A132" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B132">
         <v>5</v>
@@ -5569,18 +5569,18 @@
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F132" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="99">
       <c r="A133" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B133">
         <v>6</v>
@@ -5589,18 +5589,18 @@
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E133" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="E133" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="F133" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="99">
       <c r="A134" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B134">
         <v>3</v>
@@ -5609,18 +5609,18 @@
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F134" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="99">
       <c r="A135" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B135">
         <v>4</v>
@@ -5629,18 +5629,18 @@
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F135" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="99">
       <c r="A136" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B136">
         <v>6</v>
@@ -5649,18 +5649,18 @@
         <v>9</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F136" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B137">
         <v>5</v>
@@ -5669,18 +5669,18 @@
         <v>160</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E137" t="s">
         <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="99">
       <c r="A138" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B138">
         <v>5</v>
@@ -5689,18 +5689,18 @@
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E138" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="E138" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="F138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="99">
       <c r="A139" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B139">
         <v>6</v>
@@ -5709,18 +5709,18 @@
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F139" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="99">
       <c r="A140" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B140">
         <v>4</v>
@@ -5729,18 +5729,18 @@
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F140" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="67.5">
       <c r="A141" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B141">
         <v>1.1000000000000001</v>
@@ -5749,18 +5749,18 @@
         <v>9</v>
       </c>
       <c r="D141" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E141" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="E141" s="4" t="s">
-        <v>409</v>
-      </c>
       <c r="F141" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="82.5">
       <c r="A142" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B142">
         <v>1.3</v>
@@ -5769,38 +5769,38 @@
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E142" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="E142" s="1" t="s">
-        <v>412</v>
-      </c>
       <c r="F142" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="66">
       <c r="A143" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B143">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C143" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F143" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="99">
       <c r="A144" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B144">
         <v>8</v>
@@ -5809,13 +5809,13 @@
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E144" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="E144" s="1" t="s">
-        <v>427</v>
-      </c>
       <c r="F144" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="99">
@@ -5829,18 +5829,18 @@
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F145" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="82.5">
       <c r="A146" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B146">
         <v>9</v>
@@ -5849,18 +5849,18 @@
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F146" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="148.5">
       <c r="A147" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B147">
         <v>5</v>
@@ -5869,18 +5869,18 @@
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F147" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="99">
       <c r="A148" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B148">
         <v>5</v>
@@ -5889,18 +5889,18 @@
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E148" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="E148" s="1" t="s">
-        <v>436</v>
-      </c>
       <c r="F148" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="99">
       <c r="A149" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B149">
         <v>5</v>
@@ -5909,18 +5909,18 @@
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F149" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="99">
       <c r="A150" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B150">
         <v>11</v>
@@ -5929,13 +5929,13 @@
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F150" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new_news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DA6041-D030-4D6E-8126-827D7694D263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B97AF10-972F-46C7-AB2A-05F85FFE4DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="855" yWindow="3375" windowWidth="25935" windowHeight="16650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2926,8 +2926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5783,7 +5783,7 @@
         <v>423</v>
       </c>
       <c r="B143">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C143" t="s">
         <v>9</v>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new_news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B97AF10-972F-46C7-AB2A-05F85FFE4DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4562F519-3126-4190-A6CE-84C9495263FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="3375" windowWidth="25935" windowHeight="16650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="3720" windowWidth="25935" windowHeight="16650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -497,9 +497,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.goodkyung.com/news/articleList.html?view_type=sm</t>
-  </si>
-  <si>
     <t>url_list = soup.select("#section-list ul.type2 li")[:5];
 url_list = ["http://www.goodkyung.com" + i.select_one("a")["href"]for i in url_list];
 title_list = soup.select("#section-list ul.type2 li h4.titles")[:5];
@@ -2512,6 +2509,10 @@
   </si>
   <si>
     <t>https://www.newsway.co.kr/search?q=+&amp;t=&amp;d=week</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.goodkyung.com/news/articleList.html?view_type=sm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2926,8 +2927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E143" sqref="E143"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2955,7 +2956,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2969,38 +2970,38 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>345</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="99">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -3012,10 +3013,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="99">
@@ -3032,15 +3033,15 @@
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="104.25" customHeight="1">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -3055,7 +3056,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="81">
@@ -3069,13 +3070,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="81">
@@ -3095,7 +3096,7 @@
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="81">
@@ -3115,7 +3116,7 @@
         <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="81">
@@ -3135,7 +3136,7 @@
         <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="81">
@@ -3155,7 +3156,7 @@
         <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="99">
@@ -3175,7 +3176,7 @@
         <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="99">
@@ -3195,7 +3196,7 @@
         <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="99">
@@ -3215,12 +3216,12 @@
         <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="99">
       <c r="A15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -3229,13 +3230,13 @@
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="F15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="99">
@@ -3255,7 +3256,7 @@
         <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="99">
@@ -3269,13 +3270,13 @@
         <v>9</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="99">
@@ -3289,13 +3290,13 @@
         <v>9</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="99">
@@ -3315,7 +3316,7 @@
         <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="99">
@@ -3329,13 +3330,13 @@
         <v>9</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="99">
@@ -3355,7 +3356,7 @@
         <v>52</v>
       </c>
       <c r="F21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="99">
@@ -3375,7 +3376,7 @@
         <v>55</v>
       </c>
       <c r="F22" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="99">
@@ -3395,7 +3396,7 @@
         <v>58</v>
       </c>
       <c r="F23" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="99">
@@ -3415,7 +3416,7 @@
         <v>61</v>
       </c>
       <c r="F24" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="82.5">
@@ -3429,13 +3430,13 @@
         <v>9</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F25" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="99">
@@ -3455,7 +3456,7 @@
         <v>65</v>
       </c>
       <c r="F26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="82.5">
@@ -3469,13 +3470,13 @@
         <v>9</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F27" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="99">
@@ -3489,13 +3490,13 @@
         <v>9</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F28" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="82.5">
@@ -3512,10 +3513,10 @@
         <v>69</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F29" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="99">
@@ -3529,13 +3530,13 @@
         <v>9</v>
       </c>
       <c r="D30" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="F30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="82.5">
@@ -3552,10 +3553,10 @@
         <v>71</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F31" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="82.5">
@@ -3569,13 +3570,13 @@
         <v>9</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F32" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="81">
@@ -3595,7 +3596,7 @@
         <v>76</v>
       </c>
       <c r="F33" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="81">
@@ -3615,7 +3616,7 @@
         <v>79</v>
       </c>
       <c r="F34" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="81">
@@ -3629,13 +3630,13 @@
         <v>9</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>81</v>
       </c>
       <c r="F35" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="81">
@@ -3649,38 +3650,38 @@
         <v>9</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="81">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B37">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="F37" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="81">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B38">
         <v>5</v>
@@ -3689,18 +3690,18 @@
         <v>9</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F38" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="99">
       <c r="A39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B39">
         <v>9</v>
@@ -3709,18 +3710,18 @@
         <v>9</v>
       </c>
       <c r="D39" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="F39" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="99">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B40">
         <v>7</v>
@@ -3729,18 +3730,18 @@
         <v>9</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F40" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="99">
       <c r="A41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B41">
         <v>9</v>
@@ -3749,18 +3750,18 @@
         <v>9</v>
       </c>
       <c r="D41" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="F41" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="99">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B42">
         <v>6</v>
@@ -3769,18 +3770,18 @@
         <v>9</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F42" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="99">
       <c r="A43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B43">
         <v>9</v>
@@ -3789,18 +3790,18 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="F43" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="99">
       <c r="A44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -3809,18 +3810,18 @@
         <v>9</v>
       </c>
       <c r="D44" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="F44" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="99">
       <c r="A45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B45">
         <v>6</v>
@@ -3829,18 +3830,18 @@
         <v>9</v>
       </c>
       <c r="D45" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="F45" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="82.5">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B46">
         <v>7</v>
@@ -3849,18 +3850,18 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F46" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="99">
       <c r="A47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B47">
         <v>8</v>
@@ -3869,18 +3870,18 @@
         <v>9</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F47" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="99">
       <c r="A48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B48">
         <v>4</v>
@@ -3889,18 +3890,18 @@
         <v>9</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F48" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="99">
       <c r="A49" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -3909,18 +3910,18 @@
         <v>9</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F49" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="99">
       <c r="A50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B50">
         <v>6</v>
@@ -3929,38 +3930,38 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="F50" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="99">
       <c r="A51" t="s">
+        <v>119</v>
+      </c>
+      <c r="B51">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B51">
-        <v>9</v>
-      </c>
-      <c r="C51" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="F51" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="99">
       <c r="A52" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B52">
         <v>8</v>
@@ -3969,18 +3970,18 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F52" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="99">
       <c r="A53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -3989,18 +3990,18 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="F53" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="82.5">
       <c r="A54" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -4009,18 +4010,18 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F54" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="99">
       <c r="A55" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B55">
         <v>6</v>
@@ -4029,38 +4030,38 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F55" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="99">
       <c r="A56" t="s">
+        <v>414</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B56">
-        <v>4</v>
-      </c>
-      <c r="C56" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>416</v>
-      </c>
       <c r="F56" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="99">
       <c r="A57" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B57">
         <v>5</v>
@@ -4069,18 +4070,18 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="F57" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="82.5">
       <c r="A58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B58">
         <v>5</v>
@@ -4089,18 +4090,18 @@
         <v>9</v>
       </c>
       <c r="D58" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="F58" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="99">
       <c r="A59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B59">
         <v>5</v>
@@ -4109,18 +4110,18 @@
         <v>9</v>
       </c>
       <c r="D59" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="F59" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="99">
       <c r="A60" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -4129,18 +4130,18 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="F60" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="99">
       <c r="A61" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B61">
         <v>6</v>
@@ -4149,18 +4150,18 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>397</v>
-      </c>
       <c r="F61" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="82.5">
       <c r="A62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B62">
         <v>3</v>
@@ -4169,18 +4170,18 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="F62" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="82.5">
       <c r="A63" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B63">
         <v>6</v>
@@ -4189,18 +4190,18 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F63" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="99">
       <c r="A64" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B64">
         <v>8</v>
@@ -4209,18 +4210,18 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="F64" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="99">
       <c r="A65" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B65">
         <v>8</v>
@@ -4229,18 +4230,18 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="F65" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="99">
       <c r="A66" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B66">
         <v>3</v>
@@ -4249,118 +4250,118 @@
         <v>9</v>
       </c>
       <c r="D66" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="F66" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B67">
         <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B68">
         <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B69">
         <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
+        <v>411</v>
+      </c>
+      <c r="B70">
+        <v>9</v>
+      </c>
+      <c r="C70" t="s">
+        <v>159</v>
+      </c>
+      <c r="D70" s="8" t="s">
         <v>412</v>
-      </c>
-      <c r="B70">
-        <v>9</v>
-      </c>
-      <c r="C70" t="s">
-        <v>160</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>413</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B71">
         <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="99">
       <c r="A72" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B72">
         <v>3</v>
@@ -4369,78 +4370,78 @@
         <v>9</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F72" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B73">
         <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B74">
         <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E74" t="s">
         <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B75">
         <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="99">
       <c r="A76" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B76">
         <v>4</v>
@@ -4449,18 +4450,18 @@
         <v>9</v>
       </c>
       <c r="D76" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="F76" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="99">
       <c r="A77" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B77">
         <v>4</v>
@@ -4469,18 +4470,18 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F77" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="99">
       <c r="A78" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B78">
         <v>4</v>
@@ -4489,18 +4490,18 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F78" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="99">
       <c r="A79" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B79">
         <v>9</v>
@@ -4509,18 +4510,18 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F79" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="99">
       <c r="A80" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B80">
         <v>12</v>
@@ -4529,18 +4530,18 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F80" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="99">
       <c r="A81" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B81">
         <v>7</v>
@@ -4549,18 +4550,18 @@
         <v>9</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F81" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="99">
       <c r="A82" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B82">
         <v>6</v>
@@ -4569,18 +4570,18 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F82" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="82.5">
       <c r="A83" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B83">
         <v>10</v>
@@ -4589,18 +4590,18 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F83" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="99">
       <c r="A84" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B84">
         <v>5</v>
@@ -4609,18 +4610,18 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="F84" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="99">
       <c r="A85" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B85">
         <v>4</v>
@@ -4629,18 +4630,18 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="F85" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="99">
       <c r="A86" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B86">
         <v>6</v>
@@ -4649,18 +4650,18 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="F86" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="99">
       <c r="A87" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B87">
         <v>7</v>
@@ -4669,18 +4670,18 @@
         <v>9</v>
       </c>
       <c r="D87" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="F87" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="99">
       <c r="A88" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B88">
         <v>6</v>
@@ -4689,18 +4690,18 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F88" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="82.5">
       <c r="A89" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B89">
         <v>5</v>
@@ -4709,18 +4710,18 @@
         <v>9</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F89" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="99">
       <c r="A90" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B90">
         <v>4</v>
@@ -4729,18 +4730,18 @@
         <v>9</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F90" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="82.5">
       <c r="A91" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B91">
         <v>3</v>
@@ -4749,18 +4750,18 @@
         <v>9</v>
       </c>
       <c r="D91" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="F91" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="99">
       <c r="A92" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B92">
         <v>4</v>
@@ -4769,38 +4770,38 @@
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="F92" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="82.5">
       <c r="A93" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B93">
         <v>3</v>
       </c>
       <c r="C93" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F93" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="82.5">
       <c r="A94" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B94">
         <v>5</v>
@@ -4809,38 +4810,38 @@
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="F94" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="99">
       <c r="A95" t="s">
+        <v>230</v>
+      </c>
+      <c r="B95">
+        <v>9</v>
+      </c>
+      <c r="C95" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B95">
-        <v>9</v>
-      </c>
-      <c r="C95" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="F95" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="99">
       <c r="A96" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B96">
         <v>7</v>
@@ -4849,18 +4850,18 @@
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E96" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="F96" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="82.5">
       <c r="A97" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B97">
         <v>2</v>
@@ -4869,18 +4870,18 @@
         <v>9</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F97" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="99">
       <c r="A98" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -4889,18 +4890,18 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F98" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="99">
       <c r="A99" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -4909,18 +4910,18 @@
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E99" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="F99" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="99">
       <c r="A100" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B100">
         <v>3</v>
@@ -4929,18 +4930,18 @@
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F100" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="99">
       <c r="A101" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B101">
         <v>9</v>
@@ -4949,18 +4950,18 @@
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F101" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="99">
       <c r="A102" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B102">
         <v>5</v>
@@ -4969,18 +4970,18 @@
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F102" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="82.5">
       <c r="A103" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B103">
         <v>5</v>
@@ -4989,18 +4990,18 @@
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E103" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="F103" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="99">
       <c r="A104" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B104">
         <v>6</v>
@@ -5009,18 +5010,18 @@
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F104" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="99">
       <c r="A105" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B105">
         <v>0.9</v>
@@ -5029,18 +5030,18 @@
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E105" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="F105" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="99">
       <c r="A106" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B106">
         <v>2</v>
@@ -5049,18 +5050,18 @@
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E106" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E106" s="1" t="s">
-        <v>258</v>
-      </c>
       <c r="F106" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="99">
       <c r="A107" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B107">
         <v>4</v>
@@ -5069,18 +5070,18 @@
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E107" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="F107" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="99">
       <c r="A108" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B108">
         <v>7</v>
@@ -5089,18 +5090,18 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E108" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="F108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="99">
       <c r="A109" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B109">
         <v>5</v>
@@ -5109,18 +5110,18 @@
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E109" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="E109" s="1" t="s">
-        <v>267</v>
-      </c>
       <c r="F109" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="99">
       <c r="A110" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B110">
         <v>1.7</v>
@@ -5129,58 +5130,58 @@
         <v>9</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F110" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="99">
       <c r="A111" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B111">
         <v>0.8</v>
       </c>
       <c r="C111" t="s">
+        <v>367</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E111" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>369</v>
-      </c>
       <c r="F111" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="49.5">
       <c r="A112" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B112">
         <v>0.9</v>
       </c>
       <c r="C112" t="s">
+        <v>283</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="E112" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="E112" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="F112" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="99">
       <c r="A113" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B113">
         <v>5</v>
@@ -5189,18 +5190,18 @@
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E113" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="F113" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="99">
       <c r="A114" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B114">
         <v>3</v>
@@ -5209,18 +5210,18 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E114" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E114" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="F114" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="82.5">
       <c r="A115" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B115">
         <v>1.2</v>
@@ -5229,18 +5230,18 @@
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F115" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="99">
       <c r="A116" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B116">
         <v>2.5</v>
@@ -5249,18 +5250,18 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E116" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E116" s="1" t="s">
-        <v>298</v>
-      </c>
       <c r="F116" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="99">
       <c r="A117" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B117">
         <v>4</v>
@@ -5269,18 +5270,18 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E117" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="E117" s="1" t="s">
-        <v>301</v>
-      </c>
       <c r="F117" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="99">
       <c r="A118" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B118">
         <v>7</v>
@@ -5289,18 +5290,18 @@
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E118" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="E118" s="1" t="s">
-        <v>419</v>
-      </c>
       <c r="F118" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="82.5">
       <c r="A119" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B119">
         <v>8</v>
@@ -5309,18 +5310,18 @@
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F119" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="99">
       <c r="A120" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B120">
         <v>1.5</v>
@@ -5329,18 +5330,18 @@
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F120" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="82.5">
       <c r="A121" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B121">
         <v>5</v>
@@ -5349,18 +5350,18 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F121" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="99">
       <c r="A122" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B122">
         <v>5</v>
@@ -5369,18 +5370,18 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F122" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="99">
       <c r="A123" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B123">
         <v>5</v>
@@ -5389,18 +5390,18 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E123" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="E123" s="1" t="s">
-        <v>316</v>
-      </c>
       <c r="F123" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="99">
       <c r="A124" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B124">
         <v>4</v>
@@ -5409,18 +5410,18 @@
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E124" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="E124" s="1" t="s">
-        <v>319</v>
-      </c>
       <c r="F124" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="99">
       <c r="A125" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B125">
         <v>14</v>
@@ -5429,18 +5430,18 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F125" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="99">
       <c r="A126" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B126">
         <v>5</v>
@@ -5449,18 +5450,18 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F126" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="99">
       <c r="A127" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B127">
         <v>5</v>
@@ -5469,18 +5470,18 @@
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F127" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="99">
       <c r="A128" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B128">
         <v>9</v>
@@ -5489,18 +5490,18 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E128" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="E128" s="1" t="s">
-        <v>334</v>
-      </c>
       <c r="F128" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="99">
       <c r="A129" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B129">
         <v>8</v>
@@ -5509,18 +5510,18 @@
         <v>9</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F129" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="99">
       <c r="A130" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B130">
         <v>11</v>
@@ -5529,18 +5530,18 @@
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F130" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="99">
       <c r="A131" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B131">
         <v>9</v>
@@ -5549,18 +5550,18 @@
         <v>9</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F131" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="99">
       <c r="A132" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B132">
         <v>5</v>
@@ -5569,18 +5570,18 @@
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F132" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="99">
       <c r="A133" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B133">
         <v>6</v>
@@ -5589,18 +5590,18 @@
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E133" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="E133" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="F133" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="99">
       <c r="A134" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B134">
         <v>3</v>
@@ -5609,18 +5610,18 @@
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F134" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="99">
       <c r="A135" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B135">
         <v>4</v>
@@ -5629,18 +5630,18 @@
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F135" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="99">
       <c r="A136" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B136">
         <v>6</v>
@@ -5649,38 +5650,38 @@
         <v>9</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F136" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B137">
         <v>5</v>
       </c>
       <c r="C137" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E137" t="s">
         <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="99">
       <c r="A138" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B138">
         <v>5</v>
@@ -5689,18 +5690,18 @@
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E138" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="E138" s="1" t="s">
-        <v>389</v>
-      </c>
       <c r="F138" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="99">
       <c r="A139" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B139">
         <v>6</v>
@@ -5709,18 +5710,18 @@
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F139" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="99">
       <c r="A140" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B140">
         <v>4</v>
@@ -5729,18 +5730,18 @@
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F140" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="67.5">
       <c r="A141" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B141">
         <v>1.1000000000000001</v>
@@ -5749,18 +5750,18 @@
         <v>9</v>
       </c>
       <c r="D141" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="E141" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="E141" s="4" t="s">
-        <v>408</v>
-      </c>
       <c r="F141" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="82.5">
       <c r="A142" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B142">
         <v>1.3</v>
@@ -5769,18 +5770,18 @@
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E142" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="E142" s="1" t="s">
-        <v>411</v>
-      </c>
       <c r="F142" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="66">
       <c r="A143" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B143">
         <v>15</v>
@@ -5789,18 +5790,18 @@
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F143" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="99">
       <c r="A144" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B144">
         <v>8</v>
@@ -5809,18 +5810,18 @@
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E144" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="E144" s="1" t="s">
-        <v>426</v>
-      </c>
       <c r="F144" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="99">
       <c r="A145" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B145">
         <v>11</v>
@@ -5829,18 +5830,18 @@
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F145" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="82.5">
       <c r="A146" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B146">
         <v>9</v>
@@ -5849,18 +5850,18 @@
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F146" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="148.5">
       <c r="A147" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B147">
         <v>5</v>
@@ -5869,18 +5870,18 @@
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F147" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="99">
       <c r="A148" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B148">
         <v>5</v>
@@ -5889,18 +5890,18 @@
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E148" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="E148" s="1" t="s">
-        <v>435</v>
-      </c>
       <c r="F148" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="99">
       <c r="A149" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B149">
         <v>5</v>
@@ -5909,18 +5910,18 @@
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F149" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="99">
       <c r="A150" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B150">
         <v>11</v>
@@ -5929,13 +5930,13 @@
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F150" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -6058,9 +6059,10 @@
     <hyperlink ref="D89" r:id="rId115" xr:uid="{CFA38323-9624-4B72-BAD1-1DF28D103CC7}"/>
     <hyperlink ref="D56" r:id="rId116" xr:uid="{027425D3-4104-4019-9C56-9619BD774590}"/>
     <hyperlink ref="D150" r:id="rId117" xr:uid="{5E05232A-62B2-4A14-ABE0-B7C2FC8317E5}"/>
+    <hyperlink ref="D37" r:id="rId118" xr:uid="{E78167A9-C7BD-4913-A9BE-7D05FB372985}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId118"/>
-  <legacyDrawing r:id="rId119"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId119"/>
+  <legacyDrawing r:id="rId120"/>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new_news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4562F519-3126-4190-A6CE-84C9495263FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CDD28F-99DD-4E72-AD87-BCE0DA162350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="3720" windowWidth="25935" windowHeight="16650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="456">
   <si>
     <t>naver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -494,15 +494,6 @@
   </si>
   <si>
     <t>테크월드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url_list = soup.select("#section-list ul.type2 li")[:5];
-url_list = ["http://www.goodkyung.com" + i.select_one("a")["href"]for i in url_list];
-title_list = soup.select("#section-list ul.type2 li h4.titles")[:5];
-title_list = [i.text.strip() for i in title_list];
-body_list = soup.select("#section-list ul.type2 li p")[:5];
-body_list = [i.text.strip() for i in body_list];</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2475,10 +2466,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.financialpost.co.kr/news/articleList.html?view_type=sm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.ekn.kr/web/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2513,6 +2500,36 @@
   </si>
   <si>
     <t>http://www.goodkyung.com/news/articleList.html?view_type=sm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.financialpost.co.kr/news/articleList.html?page=1&amp;sc_order_by=E&amp;view_type=sm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이투데이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ftoday.co.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_list = soup.select("#section-list ul li")[:5];
+url_list = ["https://www.ftoday.co.kr" + i.select_one("a")["href"] for i in url_list];
+title_list = soup.select("#section-list ul li h2.titles")[:5];
+title_list = [i.text.strip() for i in title_list];
+body_list = soup.select("#section-list ul li p.lead")[:5];
+body_list = [i.text.strip() for i in body_list];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_list = soup.select("#section-list ul.type-sm li h2.titles")[:5];
+url_list = [i.select_one("a")["href"]for i in url_list];
+title_list = soup.select("#section-list ul.type-sm li h2.titles")[:5];
+title_list = [i.text.strip() for i in title_list];
+body_list = soup.select("#section-list ul.type-sm li p.lead")[:5];
+body_list = [i.text.strip() for i in body_list];</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2925,10 +2942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F150"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2956,7 +2973,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2970,38 +2987,38 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>344</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="99">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -3013,10 +3030,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="99">
@@ -3033,15 +3050,15 @@
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="104.25" customHeight="1">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -3056,7 +3073,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="81">
@@ -3070,13 +3087,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="81">
@@ -3096,7 +3113,7 @@
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="81">
@@ -3116,7 +3133,7 @@
         <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="81">
@@ -3136,7 +3153,7 @@
         <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="81">
@@ -3156,7 +3173,7 @@
         <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="99">
@@ -3176,7 +3193,7 @@
         <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="99">
@@ -3196,7 +3213,7 @@
         <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="99">
@@ -3216,12 +3233,12 @@
         <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="99">
       <c r="A15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -3230,13 +3247,13 @@
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="F15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="99">
@@ -3256,7 +3273,7 @@
         <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="99">
@@ -3270,13 +3287,13 @@
         <v>9</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="99">
@@ -3290,13 +3307,13 @@
         <v>9</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="99">
@@ -3316,7 +3333,7 @@
         <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="99">
@@ -3330,13 +3347,13 @@
         <v>9</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="99">
@@ -3356,7 +3373,7 @@
         <v>52</v>
       </c>
       <c r="F21" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="99">
@@ -3376,7 +3393,7 @@
         <v>55</v>
       </c>
       <c r="F22" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="99">
@@ -3396,7 +3413,7 @@
         <v>58</v>
       </c>
       <c r="F23" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="99">
@@ -3416,7 +3433,7 @@
         <v>61</v>
       </c>
       <c r="F24" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="82.5">
@@ -3430,13 +3447,13 @@
         <v>9</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F25" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="99">
@@ -3456,7 +3473,7 @@
         <v>65</v>
       </c>
       <c r="F26" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="82.5">
@@ -3470,13 +3487,13 @@
         <v>9</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F27" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="99">
@@ -3490,13 +3507,13 @@
         <v>9</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="82.5">
@@ -3513,10 +3530,10 @@
         <v>69</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="99">
@@ -3530,13 +3547,13 @@
         <v>9</v>
       </c>
       <c r="D30" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="F30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="82.5">
@@ -3553,10 +3570,10 @@
         <v>71</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F31" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="82.5">
@@ -3570,13 +3587,13 @@
         <v>9</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F32" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="81">
@@ -3596,7 +3613,7 @@
         <v>76</v>
       </c>
       <c r="F33" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="81">
@@ -3616,7 +3633,7 @@
         <v>79</v>
       </c>
       <c r="F34" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="81">
@@ -3630,13 +3647,13 @@
         <v>9</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>81</v>
       </c>
       <c r="F35" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="81">
@@ -3650,18 +3667,18 @@
         <v>9</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="81">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B37">
         <v>7</v>
@@ -3670,18 +3687,18 @@
         <v>9</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>83</v>
+        <v>455</v>
       </c>
       <c r="F37" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="81">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B38">
         <v>5</v>
@@ -3690,18 +3707,18 @@
         <v>9</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F38" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="99">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B39">
         <v>9</v>
@@ -3710,18 +3727,18 @@
         <v>9</v>
       </c>
       <c r="D39" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="F39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="99">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B40">
         <v>7</v>
@@ -3730,18 +3747,18 @@
         <v>9</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F40" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="99">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B41">
         <v>9</v>
@@ -3750,18 +3767,18 @@
         <v>9</v>
       </c>
       <c r="D41" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="F41" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="99">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B42">
         <v>6</v>
@@ -3770,18 +3787,18 @@
         <v>9</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F42" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="99">
       <c r="A43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B43">
         <v>9</v>
@@ -3790,18 +3807,18 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="F43" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="99">
       <c r="A44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -3810,18 +3827,18 @@
         <v>9</v>
       </c>
       <c r="D44" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="F44" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="99">
       <c r="A45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B45">
         <v>6</v>
@@ -3830,18 +3847,18 @@
         <v>9</v>
       </c>
       <c r="D45" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="F45" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="82.5">
       <c r="A46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B46">
         <v>7</v>
@@ -3850,18 +3867,18 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F46" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="99">
       <c r="A47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B47">
         <v>8</v>
@@ -3870,18 +3887,18 @@
         <v>9</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F47" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="99">
       <c r="A48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B48">
         <v>4</v>
@@ -3890,18 +3907,18 @@
         <v>9</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F48" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="99">
       <c r="A49" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -3910,18 +3927,18 @@
         <v>9</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F49" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="99">
       <c r="A50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B50">
         <v>6</v>
@@ -3930,38 +3947,38 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="F50" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="99">
       <c r="A51" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B51">
-        <v>9</v>
-      </c>
-      <c r="C51" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="F51" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="99">
       <c r="A52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B52">
         <v>8</v>
@@ -3970,18 +3987,18 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F52" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="99">
       <c r="A53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -3990,18 +4007,18 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="F53" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="82.5">
       <c r="A54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -4010,18 +4027,18 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F54" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="99">
       <c r="A55" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B55">
         <v>6</v>
@@ -4030,18 +4047,18 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F55" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="99">
       <c r="A56" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B56">
         <v>6</v>
@@ -4050,18 +4067,18 @@
         <v>9</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F56" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="99">
       <c r="A57" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B57">
         <v>5</v>
@@ -4070,18 +4087,18 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="F57" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="82.5">
       <c r="A58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B58">
         <v>5</v>
@@ -4090,18 +4107,18 @@
         <v>9</v>
       </c>
       <c r="D58" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="F58" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="99">
       <c r="A59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B59">
         <v>5</v>
@@ -4110,18 +4127,18 @@
         <v>9</v>
       </c>
       <c r="D59" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="F59" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="99">
       <c r="A60" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -4130,18 +4147,18 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="F60" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="99">
       <c r="A61" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B61">
         <v>6</v>
@@ -4150,18 +4167,18 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>396</v>
-      </c>
       <c r="F61" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="82.5">
       <c r="A62" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B62">
         <v>3</v>
@@ -4170,18 +4187,18 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="F62" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="82.5">
       <c r="A63" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B63">
         <v>6</v>
@@ -4190,18 +4207,18 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F63" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="99">
       <c r="A64" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B64">
         <v>8</v>
@@ -4210,18 +4227,18 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="F64" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="99">
       <c r="A65" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B65">
         <v>8</v>
@@ -4230,18 +4247,18 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="F65" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="99">
       <c r="A66" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B66">
         <v>3</v>
@@ -4250,118 +4267,118 @@
         <v>9</v>
       </c>
       <c r="D66" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="F66" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B67">
         <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B68">
         <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B69">
         <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
+        <v>410</v>
+      </c>
+      <c r="B70">
+        <v>9</v>
+      </c>
+      <c r="C70" t="s">
+        <v>158</v>
+      </c>
+      <c r="D70" s="8" t="s">
         <v>411</v>
-      </c>
-      <c r="B70">
-        <v>9</v>
-      </c>
-      <c r="C70" t="s">
-        <v>159</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>412</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B71">
         <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="99">
       <c r="A72" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B72">
         <v>3</v>
@@ -4370,78 +4387,78 @@
         <v>9</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F72" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B73">
         <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B74">
         <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E74" t="s">
         <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B75">
         <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="99">
       <c r="A76" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B76">
         <v>4</v>
@@ -4450,18 +4467,18 @@
         <v>9</v>
       </c>
       <c r="D76" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="F76" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="99">
       <c r="A77" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B77">
         <v>4</v>
@@ -4470,18 +4487,18 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F77" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="99">
       <c r="A78" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B78">
         <v>4</v>
@@ -4490,18 +4507,18 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F78" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="99">
       <c r="A79" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B79">
         <v>9</v>
@@ -4510,18 +4527,18 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F79" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="99">
       <c r="A80" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B80">
         <v>12</v>
@@ -4530,18 +4547,18 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F80" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="99">
       <c r="A81" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B81">
         <v>7</v>
@@ -4550,18 +4567,18 @@
         <v>9</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F81" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="99">
       <c r="A82" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B82">
         <v>6</v>
@@ -4570,18 +4587,18 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F82" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="82.5">
       <c r="A83" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B83">
         <v>10</v>
@@ -4590,18 +4607,18 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F83" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="99">
       <c r="A84" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B84">
         <v>5</v>
@@ -4610,18 +4627,18 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="F84" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="99">
       <c r="A85" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B85">
         <v>4</v>
@@ -4630,18 +4647,18 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="F85" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="99">
       <c r="A86" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B86">
         <v>6</v>
@@ -4650,18 +4667,18 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="F86" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="99">
       <c r="A87" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B87">
         <v>7</v>
@@ -4670,18 +4687,18 @@
         <v>9</v>
       </c>
       <c r="D87" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="F87" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="99">
       <c r="A88" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B88">
         <v>6</v>
@@ -4690,18 +4707,18 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F88" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="82.5">
       <c r="A89" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B89">
         <v>5</v>
@@ -4710,18 +4727,18 @@
         <v>9</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F89" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="99">
       <c r="A90" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B90">
         <v>4</v>
@@ -4730,18 +4747,18 @@
         <v>9</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F90" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="82.5">
       <c r="A91" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B91">
         <v>3</v>
@@ -4750,18 +4767,18 @@
         <v>9</v>
       </c>
       <c r="D91" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="F91" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="99">
       <c r="A92" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B92">
         <v>4</v>
@@ -4770,38 +4787,38 @@
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="F92" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="82.5">
       <c r="A93" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B93">
         <v>3</v>
       </c>
       <c r="C93" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F93" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="82.5">
       <c r="A94" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B94">
         <v>5</v>
@@ -4810,38 +4827,38 @@
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="F94" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="99">
       <c r="A95" t="s">
+        <v>229</v>
+      </c>
+      <c r="B95">
+        <v>9</v>
+      </c>
+      <c r="C95" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B95">
-        <v>9</v>
-      </c>
-      <c r="C95" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="F95" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="99">
       <c r="A96" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B96">
         <v>7</v>
@@ -4850,18 +4867,18 @@
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E96" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="F96" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="82.5">
       <c r="A97" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B97">
         <v>2</v>
@@ -4870,18 +4887,18 @@
         <v>9</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F97" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="99">
       <c r="A98" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -4890,18 +4907,18 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F98" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="99">
       <c r="A99" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -4910,18 +4927,18 @@
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E99" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="F99" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="99">
       <c r="A100" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B100">
         <v>3</v>
@@ -4930,18 +4947,18 @@
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F100" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="99">
       <c r="A101" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B101">
         <v>9</v>
@@ -4950,18 +4967,18 @@
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F101" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="99">
       <c r="A102" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B102">
         <v>5</v>
@@ -4970,18 +4987,18 @@
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F102" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="82.5">
       <c r="A103" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B103">
         <v>5</v>
@@ -4990,18 +5007,18 @@
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E103" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="F103" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="99">
       <c r="A104" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B104">
         <v>6</v>
@@ -5010,18 +5027,18 @@
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F104" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="99">
       <c r="A105" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B105">
         <v>0.9</v>
@@ -5030,18 +5047,18 @@
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E105" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="F105" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="99">
       <c r="A106" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B106">
         <v>2</v>
@@ -5050,18 +5067,18 @@
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E106" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E106" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="F106" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="99">
       <c r="A107" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B107">
         <v>4</v>
@@ -5070,18 +5087,18 @@
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E107" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="F107" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="99">
       <c r="A108" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B108">
         <v>7</v>
@@ -5090,18 +5107,18 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E108" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>263</v>
-      </c>
       <c r="F108" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="99">
       <c r="A109" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B109">
         <v>5</v>
@@ -5110,18 +5127,18 @@
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E109" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E109" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="F109" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="99">
       <c r="A110" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B110">
         <v>1.7</v>
@@ -5130,58 +5147,58 @@
         <v>9</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F110" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="99">
       <c r="A111" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B111">
         <v>0.8</v>
       </c>
       <c r="C111" t="s">
+        <v>366</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E111" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>368</v>
-      </c>
       <c r="F111" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="49.5">
       <c r="A112" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B112">
         <v>0.9</v>
       </c>
       <c r="C112" t="s">
+        <v>282</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="E112" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E112" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="F112" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="99">
       <c r="A113" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B113">
         <v>5</v>
@@ -5190,18 +5207,18 @@
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E113" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="F113" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="99">
       <c r="A114" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B114">
         <v>3</v>
@@ -5210,18 +5227,18 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E114" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E114" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="F114" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="82.5">
       <c r="A115" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B115">
         <v>1.2</v>
@@ -5230,18 +5247,18 @@
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F115" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="99">
       <c r="A116" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B116">
         <v>2.5</v>
@@ -5250,18 +5267,18 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E116" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E116" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="F116" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="99">
       <c r="A117" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B117">
         <v>4</v>
@@ -5270,18 +5287,18 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E117" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E117" s="1" t="s">
-        <v>300</v>
-      </c>
       <c r="F117" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="99">
       <c r="A118" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B118">
         <v>7</v>
@@ -5290,18 +5307,18 @@
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E118" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="E118" s="1" t="s">
-        <v>418</v>
-      </c>
       <c r="F118" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="82.5">
       <c r="A119" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B119">
         <v>8</v>
@@ -5310,18 +5327,18 @@
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F119" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="99">
       <c r="A120" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B120">
         <v>1.5</v>
@@ -5330,18 +5347,18 @@
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F120" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="82.5">
       <c r="A121" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B121">
         <v>5</v>
@@ -5350,18 +5367,18 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F121" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="99">
       <c r="A122" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B122">
         <v>5</v>
@@ -5370,18 +5387,18 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F122" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="99">
       <c r="A123" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B123">
         <v>5</v>
@@ -5390,18 +5407,18 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E123" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="E123" s="1" t="s">
-        <v>315</v>
-      </c>
       <c r="F123" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="99">
       <c r="A124" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B124">
         <v>4</v>
@@ -5410,18 +5427,18 @@
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E124" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="E124" s="1" t="s">
-        <v>318</v>
-      </c>
       <c r="F124" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="99">
       <c r="A125" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B125">
         <v>14</v>
@@ -5430,18 +5447,18 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F125" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="99">
       <c r="A126" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B126">
         <v>5</v>
@@ -5450,18 +5467,18 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F126" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="99">
       <c r="A127" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B127">
         <v>5</v>
@@ -5470,18 +5487,18 @@
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F127" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="99">
       <c r="A128" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B128">
         <v>9</v>
@@ -5490,18 +5507,18 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E128" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="E128" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="F128" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="99">
       <c r="A129" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B129">
         <v>8</v>
@@ -5510,18 +5527,18 @@
         <v>9</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F129" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="99">
       <c r="A130" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B130">
         <v>11</v>
@@ -5530,18 +5547,18 @@
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F130" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="99">
       <c r="A131" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B131">
         <v>9</v>
@@ -5550,18 +5567,18 @@
         <v>9</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F131" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="99">
       <c r="A132" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B132">
         <v>5</v>
@@ -5570,18 +5587,18 @@
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F132" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="99">
       <c r="A133" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B133">
         <v>6</v>
@@ -5590,18 +5607,18 @@
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E133" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="E133" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="F133" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="99">
       <c r="A134" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B134">
         <v>3</v>
@@ -5610,18 +5627,18 @@
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F134" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="99">
       <c r="A135" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B135">
         <v>4</v>
@@ -5630,18 +5647,18 @@
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F135" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="99">
       <c r="A136" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B136">
         <v>6</v>
@@ -5650,38 +5667,38 @@
         <v>9</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F136" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B137">
         <v>5</v>
       </c>
       <c r="C137" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E137" t="s">
         <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="99">
       <c r="A138" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B138">
         <v>5</v>
@@ -5690,18 +5707,18 @@
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E138" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="E138" s="1" t="s">
-        <v>388</v>
-      </c>
       <c r="F138" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="99">
       <c r="A139" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B139">
         <v>6</v>
@@ -5710,18 +5727,18 @@
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F139" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="99">
       <c r="A140" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B140">
         <v>4</v>
@@ -5730,18 +5747,18 @@
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F140" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="67.5">
       <c r="A141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B141">
         <v>1.1000000000000001</v>
@@ -5750,18 +5767,18 @@
         <v>9</v>
       </c>
       <c r="D141" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E141" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="E141" s="4" t="s">
-        <v>407</v>
-      </c>
       <c r="F141" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="82.5">
       <c r="A142" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B142">
         <v>1.3</v>
@@ -5770,18 +5787,18 @@
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E142" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="E142" s="1" t="s">
-        <v>410</v>
-      </c>
       <c r="F142" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="66">
       <c r="A143" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B143">
         <v>15</v>
@@ -5790,18 +5807,18 @@
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F143" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="99">
       <c r="A144" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B144">
         <v>8</v>
@@ -5810,18 +5827,18 @@
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E144" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="E144" s="1" t="s">
-        <v>425</v>
-      </c>
       <c r="F144" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="99">
       <c r="A145" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B145">
         <v>11</v>
@@ -5830,18 +5847,18 @@
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F145" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="82.5">
       <c r="A146" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B146">
         <v>9</v>
@@ -5850,18 +5867,18 @@
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F146" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="148.5">
       <c r="A147" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B147">
         <v>5</v>
@@ -5870,18 +5887,18 @@
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F147" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="99">
       <c r="A148" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B148">
         <v>5</v>
@@ -5890,18 +5907,18 @@
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E148" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="E148" s="1" t="s">
-        <v>434</v>
-      </c>
       <c r="F148" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="99">
       <c r="A149" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B149">
         <v>5</v>
@@ -5910,18 +5927,18 @@
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F149" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="99">
       <c r="A150" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B150">
         <v>11</v>
@@ -5930,13 +5947,33 @@
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F150" t="s">
-        <v>353</v>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="99">
+      <c r="A151" t="s">
+        <v>452</v>
+      </c>
+      <c r="B151">
+        <v>10</v>
+      </c>
+      <c r="C151" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="F151" t="s">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -6060,9 +6097,10 @@
     <hyperlink ref="D56" r:id="rId116" xr:uid="{027425D3-4104-4019-9C56-9619BD774590}"/>
     <hyperlink ref="D150" r:id="rId117" xr:uid="{5E05232A-62B2-4A14-ABE0-B7C2FC8317E5}"/>
     <hyperlink ref="D37" r:id="rId118" xr:uid="{E78167A9-C7BD-4913-A9BE-7D05FB372985}"/>
+    <hyperlink ref="D151" r:id="rId119" xr:uid="{A09AECAB-6573-4BCA-B75F-5029DC873CE5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId119"/>
-  <legacyDrawing r:id="rId120"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId120"/>
+  <legacyDrawing r:id="rId121"/>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new_news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CDD28F-99DD-4E72-AD87-BCE0DA162350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648E5E6A-61E9-4565-B74B-DF1A31BB927B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="3720" windowWidth="25935" windowHeight="16650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1410" yWindow="3375" windowWidth="25935" windowHeight="16650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2511,10 +2511,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.ftoday.co.kr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>url_list = soup.select("#section-list ul li")[:5];
 url_list = ["https://www.ftoday.co.kr" + i.select_one("a")["href"] for i in url_list];
 title_list = soup.select("#section-list ul li h2.titles")[:5];
@@ -2530,6 +2526,10 @@
 title_list = [i.text.strip() for i in title_list];
 body_list = soup.select("#section-list ul.type-sm li p.lead")[:5];
 body_list = [i.text.strip() for i in body_list];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ftoday.co.kr/news/articleList.html?page=1&amp;sc_order_by=E&amp;view_type=sm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2944,8 +2944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E153" sqref="E153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3690,7 +3690,7 @@
         <v>450</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F37" t="s">
         <v>352</v>
@@ -5967,10 +5967,10 @@
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E151" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>454</v>
       </c>
       <c r="F151" t="s">
         <v>352</v>

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new_news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648E5E6A-61E9-4565-B74B-DF1A31BB927B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADA3426-14CF-40ED-987C-EE167E08831F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="3375" windowWidth="25935" windowHeight="16650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3660" yWindow="45" windowWidth="32520" windowHeight="19365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="460">
   <si>
     <t>naver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -351,9 +351,6 @@
   <si>
     <t>k트렌디뉴스</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.k-trendynews.com/news/articleList.html?view_type=sm</t>
   </si>
   <si>
     <t>url_list = soup.select("#section-list ul li")[:5];
@@ -1456,19 +1453,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.viva100.com/main/list_news.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url_list = soup.select("div.N_left div.allnews_list p.allnews_tit")[:5];
-url_list = ["http://www.viva100.com/main/" + i.select_one("a")["href"]for i in url_list];
-title_list = soup.select("div.N_left div.allnews_list p.allnews_tit")[:5];
-title_list = [i.text.strip() for i in title_list];
-body_list = soup.select("div.N_left div.allnews_list p.allnews_txt")[:5];
-body_list = [i.text.strip() for i in body_list];</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>브릿지경제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1527,15 +1511,6 @@
     <t>https://news.tf.co.kr/list/all?mode=img</t>
   </si>
   <si>
-    <t>url_list = soup.select("ul.list_news li")[:10];
-url_list = ["https://www.etnews.com" + i.select_one("a")["href"]for i in url_list];
-title_list = soup.select("ul.list_news li dt")[:10];
-title_list = [i.text.strip() for i in title_list];
-body_list = soup.select("ul.list_news li dd.summury")[:10];
-body_list = [i.text.strip() for i in body_list];</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://m.daishin.com/g.ds?m=3807&amp;p=3654&amp;v=2699</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1625,27 +1600,6 @@
   </si>
   <si>
     <t>http://www.greenpostkorea.co.kr/news/articleList.html?view_type=sm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url_list = soup.select("div.bn_left div.art_list_wrap div.article_list ul li")[:5];
-url_list = ["https://cbiz.chosun.com" + i.select_one("a")["href"]for i in url_list];
-title_list = soup.select("div.bn_left div.art_list_wrap div.article_list ul li a.article")[:5];
-title_list = [i.text.strip() for i in title_list];
-body_list = ["" for i in range(5)];</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://m.ebn.co.kr/newslist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url_list = soup.select("div.articleBox div.textBox")[:5];
-url_list = ["https://ebn.co.kr" + i.select_one("a")["href"]for i in url_list];
-title_list = soup.select("div.articleBox div.textBox h2")[:5];
-title_list = [i.text.strip() for i in title_list];
-body_list = soup.select("div.articleBox div.textBox div.articleSubtitle")[:5];
-body_list = [i.text.strip() for i in body_list];</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2209,18 +2163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>url_list = soup.select("div.headline div.article_box_sl_section div.title_text")[:5];
-url_list = ["https://m.newsprime.co.kr/" + i.select_one("a")["href"] for i in url_list];
-title_list = soup.select("div.headline div.article_box_sl_section div.title_text")[:5];
-title_list = [i.text.strip() for i in title_list];
-body_list = ["" for i in range(5)];</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://m.newsprime.co.kr/search.html?search_text=%EA%B8%B0%EC%9E%90&amp;x=0&amp;y=0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>url_list = soup.select("section.sub_news_sec ul.row_list li div.news_body h4.tit")[:10];
 url_list = [i.select_one("a")["href"] for i in url_list];
 title_list = soup.select("section.sub_news_sec ul.row_list li div.news_body h4.tit")[:10];
@@ -2530,6 +2472,85 @@
   </si>
   <si>
     <t>https://www.ftoday.co.kr/news/articleList.html?page=1&amp;sc_order_by=E&amp;view_type=sm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_list = soup.select("ul.news_list li")[:10];
+url_list = ["https://www.etnews.com" + i.select_one("a")["href"]for i in url_list];
+title_list = soup.select("ul.news_list li div.text strong")[:10];
+title_list = [i.text.strip() for i in title_list];
+body_list = soup.select("ul.news_list li p")[:10];
+body_list = [i.text.strip() for i in body_list];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.k-trendynews.com/news/articleList.html?view_type=sm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_list = soup.select("div.article-list section.article-list-content div.list-block div.list-titles")[:5];
+url_list = ["https://www.cstimes.com" + i.select_one("a")["href"] for i in url_list];
+title_list = soup.select("div.article-list section.article-list-content div.list-block div.list-titles")[:5];
+title_list = [i.text.strip() for i in title_list];
+body_list = soup.select("div.article-list section.article-list-content div.list-block p.list-summary")[:5];
+body_list = [i.text.strip() for i in body_list];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨슈머타임즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_list = soup.select("#section-list ul li")[:5];
+url_list = [i.select_one("a")["href"] for i in url_list];
+title_list = soup.select("#section-list ul li h2.titles")[:5];
+title_list = [i.text.strip() for i in title_list];
+body_list = soup.select("#section-list ul li div.view-cont p.lead")[:5];
+body_list = [i.text.strip() for i in body_list];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ebn.co.kr/news/articleList.html?view_type=sm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_list = ["https://cbiz.chosun.com/svc/bulletin/index.html" for i in range(5)];
+title_list = soup.select("div.bn_left div.art_list_wrap div.article_list ul li a.article")[:5];
+title_list = [i.text.strip() for i in title_list];
+body_list = ["" for i in range(5)];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_list = soup.select("div.new_article_wrap div.articel_list div.thum_box div h3")[:5];
+url_list = ["http://www.viva100.com/" + i.select_one("a")["href"]for i in url_list];
+title_list = soup.select("div.new_article_wrap div.articel_list div.thum_box div h3")[:5];
+title_list = [i.text.strip() for i in title_list];
+body_list = soup.select("div.new_article_wrap div.articel_list div.thum_box div p a")[:5];
+body_list = [i.text.strip() for i in body_list];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.viva100.com/list/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.newsprime.co.kr/search.html?search_text=%EA%B8%B0%EC%9E%90&amp;x=0&amp;y=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_list = soup.select("div.headline div.article_box_sl_section div.title_text")[:5];
+url_list = ["https://m.newsprime.co.kr/" + i.select_one("a")["href"] for i in url_list];
+title_list = soup.select("div.headline div.article_box_sl_section div.title_text")[:5];
+title_list = [i.text.strip() for i in title_list];
+body_list = ["" for i in range(5)];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cstimes.com/news/articleList.html?sc_order_by=E&amp;view_type=sm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"User-Agent': 'Mozilla/5.0 (iPhone; CPU iPhone OS 13_2_3 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/13.0.3 Mobile/15E148 Safari/604.1"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2633,7 +2654,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2659,6 +2680,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2942,10 +2966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:F152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E153" sqref="E153"/>
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F149" sqref="F149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2973,7 +2997,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2987,38 +3011,38 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F2" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="99">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -3030,10 +3054,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F4" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="99">
@@ -3050,15 +3074,15 @@
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F5" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="104.25" customHeight="1">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -3073,7 +3097,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="81">
@@ -3087,13 +3111,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="81">
@@ -3113,7 +3137,7 @@
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="81">
@@ -3133,7 +3157,7 @@
         <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="81">
@@ -3153,7 +3177,7 @@
         <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="81">
@@ -3173,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="99">
@@ -3193,7 +3217,7 @@
         <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="99">
@@ -3213,7 +3237,7 @@
         <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="99">
@@ -3233,12 +3257,12 @@
         <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="99">
       <c r="A15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -3247,13 +3271,13 @@
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="F15" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="99">
@@ -3273,7 +3297,7 @@
         <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="99">
@@ -3287,13 +3311,13 @@
         <v>9</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="99">
@@ -3307,13 +3331,13 @@
         <v>9</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F18" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="99">
@@ -3333,7 +3357,7 @@
         <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="99">
@@ -3347,13 +3371,13 @@
         <v>9</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="99">
@@ -3373,7 +3397,7 @@
         <v>52</v>
       </c>
       <c r="F21" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="99">
@@ -3381,24 +3405,24 @@
         <v>53</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" t="s">
-        <v>352</v>
+      <c r="F22" s="9" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="99">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -3407,18 +3431,18 @@
         <v>9</v>
       </c>
       <c r="D23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="F23" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="99">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -3427,18 +3451,18 @@
         <v>9</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F24" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="82.5">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B25">
         <v>9</v>
@@ -3447,18 +3471,18 @@
         <v>9</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F25" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="99">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -3467,18 +3491,18 @@
         <v>9</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F26" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="82.5">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27">
         <v>6</v>
@@ -3487,18 +3511,18 @@
         <v>9</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F27" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="99">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B28">
         <v>5</v>
@@ -3507,18 +3531,18 @@
         <v>9</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F28" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="82.5">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29">
         <v>5</v>
@@ -3527,18 +3551,18 @@
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F29" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="99">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -3547,18 +3571,18 @@
         <v>9</v>
       </c>
       <c r="D30" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="F30" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="82.5">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -3567,18 +3591,18 @@
         <v>9</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F31" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="82.5">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -3587,18 +3611,18 @@
         <v>9</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="F32" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="81">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B33">
         <v>8</v>
@@ -3607,58 +3631,58 @@
         <v>9</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F33" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="81">
       <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B34">
-        <v>9</v>
-      </c>
-      <c r="C34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="F34" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="81">
       <c r="A35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B35">
-        <v>9</v>
-      </c>
-      <c r="C35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="F35" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="81">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B36">
         <v>8</v>
@@ -3667,18 +3691,18 @@
         <v>9</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="F36" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="81">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B37">
         <v>7</v>
@@ -3687,18 +3711,18 @@
         <v>9</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="F37" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="81">
       <c r="A38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B38">
         <v>5</v>
@@ -3707,38 +3731,38 @@
         <v>9</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F38" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="99">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B39">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="F39" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="99">
       <c r="A40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B40">
         <v>7</v>
@@ -3747,38 +3771,38 @@
         <v>9</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F40" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="99">
       <c r="A41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B41">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="F41" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="99">
       <c r="A42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B42">
         <v>6</v>
@@ -3787,38 +3811,38 @@
         <v>9</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F42" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="99">
       <c r="A43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B43">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C43" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="F43" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="99">
       <c r="A44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -3827,18 +3851,18 @@
         <v>9</v>
       </c>
       <c r="D44" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="F44" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="99">
       <c r="A45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B45">
         <v>6</v>
@@ -3847,18 +3871,18 @@
         <v>9</v>
       </c>
       <c r="D45" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="F45" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="82.5">
       <c r="A46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B46">
         <v>7</v>
@@ -3867,18 +3891,18 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="F46" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="99">
       <c r="A47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B47">
         <v>8</v>
@@ -3887,18 +3911,18 @@
         <v>9</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F47" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="99">
       <c r="A48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B48">
         <v>4</v>
@@ -3907,18 +3931,18 @@
         <v>9</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F48" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="99">
       <c r="A49" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -3927,18 +3951,18 @@
         <v>9</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>274</v>
+        <v>447</v>
       </c>
       <c r="F49" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="99">
       <c r="A50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B50">
         <v>6</v>
@@ -3947,38 +3971,38 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="F50" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="99">
       <c r="A51" t="s">
+        <v>117</v>
+      </c>
+      <c r="B51">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B51">
-        <v>9</v>
-      </c>
-      <c r="C51" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="F51" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="99">
       <c r="A52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B52">
         <v>8</v>
@@ -3987,18 +4011,18 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F52" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="99">
       <c r="A53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -4007,18 +4031,18 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="F53" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="82.5">
       <c r="A54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -4027,18 +4051,18 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F54" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="99">
       <c r="A55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B55">
         <v>6</v>
@@ -4047,18 +4071,18 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F55" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="99">
       <c r="A56" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="B56">
         <v>6</v>
@@ -4067,18 +4091,18 @@
         <v>9</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="F56" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="99">
       <c r="A57" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B57">
         <v>5</v>
@@ -4087,18 +4111,18 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="F57" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="82.5">
       <c r="A58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B58">
         <v>5</v>
@@ -4107,18 +4131,18 @@
         <v>9</v>
       </c>
       <c r="D58" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="F58" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="99">
       <c r="A59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B59">
         <v>5</v>
@@ -4127,18 +4151,18 @@
         <v>9</v>
       </c>
       <c r="D59" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="F59" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="99">
       <c r="A60" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -4147,18 +4171,18 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="F60" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="99">
       <c r="A61" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B61">
         <v>6</v>
@@ -4167,18 +4191,18 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F61" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="82.5">
       <c r="A62" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B62">
         <v>3</v>
@@ -4187,18 +4211,18 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="F62" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="82.5">
       <c r="A63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B63">
         <v>6</v>
@@ -4207,18 +4231,18 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F63" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="99">
       <c r="A64" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B64">
         <v>8</v>
@@ -4227,38 +4251,38 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="F64" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="99">
       <c r="A65" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B65">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="C65" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="F65" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="99">
       <c r="A66" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B66">
         <v>3</v>
@@ -4267,118 +4291,118 @@
         <v>9</v>
       </c>
       <c r="D66" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="F66" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B67">
         <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B68">
         <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B69">
         <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="B70">
         <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="B71">
         <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="99">
       <c r="A72" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B72">
         <v>3</v>
@@ -4387,78 +4411,78 @@
         <v>9</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F72" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B73">
         <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B74">
         <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E74" t="s">
         <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B75">
         <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="99">
       <c r="A76" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B76">
         <v>4</v>
@@ -4467,18 +4491,18 @@
         <v>9</v>
       </c>
       <c r="D76" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="F76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="99">
       <c r="A77" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B77">
         <v>4</v>
@@ -4487,18 +4511,18 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F77" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="99">
       <c r="A78" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B78">
         <v>4</v>
@@ -4507,18 +4531,18 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F78" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="99">
       <c r="A79" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B79">
         <v>9</v>
@@ -4527,18 +4551,18 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F79" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="99">
       <c r="A80" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B80">
         <v>12</v>
@@ -4547,18 +4571,18 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F80" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="99">
       <c r="A81" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B81">
         <v>7</v>
@@ -4567,18 +4591,18 @@
         <v>9</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F81" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="99">
       <c r="A82" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B82">
         <v>6</v>
@@ -4587,18 +4611,18 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F82" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="82.5">
       <c r="A83" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B83">
         <v>10</v>
@@ -4607,18 +4631,18 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F83" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="99">
       <c r="A84" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B84">
         <v>5</v>
@@ -4627,18 +4651,18 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="F84" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="99">
       <c r="A85" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B85">
         <v>4</v>
@@ -4647,18 +4671,18 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="F85" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="99">
       <c r="A86" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B86">
         <v>6</v>
@@ -4667,18 +4691,18 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="F86" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="99">
       <c r="A87" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B87">
         <v>7</v>
@@ -4687,18 +4711,18 @@
         <v>9</v>
       </c>
       <c r="D87" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="F87" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="99">
       <c r="A88" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B88">
         <v>6</v>
@@ -4707,18 +4731,18 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F88" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="82.5">
       <c r="A89" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="B89">
         <v>5</v>
@@ -4727,18 +4751,18 @@
         <v>9</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F89" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="99">
       <c r="A90" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B90">
         <v>4</v>
@@ -4747,18 +4771,18 @@
         <v>9</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F90" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="82.5">
       <c r="A91" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B91">
         <v>3</v>
@@ -4767,18 +4791,18 @@
         <v>9</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="F91" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="99">
       <c r="A92" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B92">
         <v>4</v>
@@ -4787,38 +4811,38 @@
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="F92" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="82.5">
       <c r="A93" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B93">
         <v>3</v>
       </c>
       <c r="C93" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>398</v>
+        <v>456</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>397</v>
+        <v>457</v>
       </c>
       <c r="F93" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="82.5">
       <c r="A94" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B94">
         <v>5</v>
@@ -4827,38 +4851,38 @@
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="F94" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="99">
       <c r="A95" t="s">
+        <v>228</v>
+      </c>
+      <c r="B95">
+        <v>9</v>
+      </c>
+      <c r="C95" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B95">
-        <v>9</v>
-      </c>
-      <c r="C95" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="F95" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="99">
       <c r="A96" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B96">
         <v>7</v>
@@ -4867,18 +4891,18 @@
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E96" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="F96" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="82.5">
       <c r="A97" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B97">
         <v>2</v>
@@ -4887,18 +4911,18 @@
         <v>9</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F97" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="99">
       <c r="A98" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -4907,18 +4931,18 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F98" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="99">
       <c r="A99" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -4927,18 +4951,18 @@
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E99" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="F99" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="99">
       <c r="A100" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B100">
         <v>3</v>
@@ -4947,18 +4971,18 @@
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F100" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="99">
       <c r="A101" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B101">
         <v>9</v>
@@ -4967,18 +4991,18 @@
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F101" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="99">
       <c r="A102" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B102">
         <v>5</v>
@@ -4987,18 +5011,18 @@
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="F102" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="82.5">
       <c r="A103" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B103">
         <v>5</v>
@@ -5007,18 +5031,18 @@
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E103" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="F103" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="99">
       <c r="A104" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B104">
         <v>6</v>
@@ -5027,18 +5051,18 @@
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F104" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="99">
       <c r="A105" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B105">
         <v>0.9</v>
@@ -5047,18 +5071,18 @@
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E105" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="F105" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="99">
       <c r="A106" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B106">
         <v>2</v>
@@ -5067,18 +5091,18 @@
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E106" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E106" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="F106" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="99">
       <c r="A107" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B107">
         <v>4</v>
@@ -5087,18 +5111,18 @@
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E107" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="F107" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="99">
       <c r="A108" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B108">
         <v>7</v>
@@ -5106,19 +5130,19 @@
       <c r="C108" t="s">
         <v>9</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>261</v>
+      <c r="D108" s="8" t="s">
+        <v>455</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>262</v>
+        <v>454</v>
       </c>
       <c r="F108" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="99">
       <c r="A109" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B109">
         <v>5</v>
@@ -5127,18 +5151,18 @@
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F109" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="99">
       <c r="A110" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B110">
         <v>1.7</v>
@@ -5147,58 +5171,58 @@
         <v>9</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F110" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="99">
       <c r="A111" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B111">
         <v>0.8</v>
       </c>
       <c r="C111" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F111" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="49.5">
       <c r="A112" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B112">
         <v>0.9</v>
       </c>
       <c r="C112" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F112" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="99">
       <c r="A113" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B113">
         <v>5</v>
@@ -5207,18 +5231,18 @@
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F113" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="99">
       <c r="A114" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B114">
         <v>3</v>
@@ -5227,18 +5251,18 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F114" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="82.5">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="66">
       <c r="A115" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B115">
         <v>1.2</v>
@@ -5247,38 +5271,38 @@
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>294</v>
+        <v>453</v>
       </c>
       <c r="F115" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="99">
       <c r="A116" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B116">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="C116" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>295</v>
+        <v>452</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>296</v>
+        <v>451</v>
       </c>
       <c r="F116" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="99">
       <c r="A117" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B117">
         <v>4</v>
@@ -5287,18 +5311,18 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F117" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="99">
       <c r="A118" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="B118">
         <v>7</v>
@@ -5307,18 +5331,18 @@
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="F118" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="82.5">
       <c r="A119" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B119">
         <v>8</v>
@@ -5327,18 +5351,18 @@
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F119" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="99">
       <c r="A120" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B120">
         <v>1.5</v>
@@ -5347,18 +5371,18 @@
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F120" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="82.5">
       <c r="A121" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B121">
         <v>5</v>
@@ -5367,18 +5391,18 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="F121" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="99">
       <c r="A122" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B122">
         <v>5</v>
@@ -5387,18 +5411,18 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F122" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="99">
       <c r="A123" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B123">
         <v>5</v>
@@ -5407,18 +5431,18 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="F123" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="99">
       <c r="A124" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B124">
         <v>4</v>
@@ -5427,18 +5451,18 @@
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F124" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="99">
       <c r="A125" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B125">
         <v>14</v>
@@ -5447,18 +5471,18 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F125" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="99">
       <c r="A126" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B126">
         <v>5</v>
@@ -5467,18 +5491,18 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F126" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="99">
       <c r="A127" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B127">
         <v>5</v>
@@ -5487,18 +5511,18 @@
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F127" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="99">
       <c r="A128" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B128">
         <v>9</v>
@@ -5507,18 +5531,18 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="F128" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="99">
       <c r="A129" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B129">
         <v>8</v>
@@ -5527,38 +5551,38 @@
         <v>9</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F129" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="99">
       <c r="A130" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B130">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C130" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="F130" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="99">
       <c r="A131" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B131">
         <v>9</v>
@@ -5567,18 +5591,18 @@
         <v>9</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="F131" t="s">
-        <v>352</v>
+        <v>358</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="99">
       <c r="A132" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B132">
         <v>5</v>
@@ -5587,18 +5611,18 @@
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="F132" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="99">
       <c r="A133" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B133">
         <v>6</v>
@@ -5607,18 +5631,18 @@
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F133" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="99">
       <c r="A134" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B134">
         <v>3</v>
@@ -5627,18 +5651,18 @@
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="F134" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="99">
       <c r="A135" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B135">
         <v>4</v>
@@ -5647,18 +5671,18 @@
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F135" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="99">
       <c r="A136" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B136">
         <v>6</v>
@@ -5667,38 +5691,38 @@
         <v>9</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F136" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B137">
         <v>5</v>
       </c>
       <c r="C137" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="E137" t="s">
         <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="99">
       <c r="A138" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B138">
         <v>5</v>
@@ -5707,18 +5731,18 @@
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F138" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="99">
       <c r="A139" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B139">
         <v>6</v>
@@ -5727,18 +5751,18 @@
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F139" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="99">
       <c r="A140" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B140">
         <v>4</v>
@@ -5747,18 +5771,18 @@
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="F140" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="67.5">
       <c r="A141" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="B141">
         <v>1.1000000000000001</v>
@@ -5767,18 +5791,18 @@
         <v>9</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="F141" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="82.5">
       <c r="A142" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="B142">
         <v>1.3</v>
@@ -5787,18 +5811,18 @@
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="F142" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="66">
       <c r="A143" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="B143">
         <v>15</v>
@@ -5807,18 +5831,18 @@
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="F143" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="99">
       <c r="A144" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="B144">
         <v>8</v>
@@ -5827,18 +5851,18 @@
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="F144" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="99">
       <c r="A145" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B145">
         <v>11</v>
@@ -5847,18 +5871,18 @@
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="F145" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="82.5">
       <c r="A146" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="B146">
         <v>9</v>
@@ -5867,18 +5891,18 @@
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="F146" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="148.5">
       <c r="A147" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="B147">
         <v>5</v>
@@ -5887,18 +5911,18 @@
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="F147" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="99">
       <c r="A148" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B148">
         <v>5</v>
@@ -5907,18 +5931,18 @@
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F148" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="99">
       <c r="A149" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="B149">
         <v>5</v>
@@ -5927,18 +5951,18 @@
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="F149" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="99">
       <c r="A150" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="B150">
         <v>11</v>
@@ -5947,18 +5971,18 @@
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="F150" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="99">
       <c r="A151" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="B151">
         <v>10</v>
@@ -5967,13 +5991,33 @@
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="F151" t="s">
-        <v>352</v>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="99">
+      <c r="A152" t="s">
+        <v>450</v>
+      </c>
+      <c r="B152">
+        <v>7</v>
+      </c>
+      <c r="C152" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F152" s="9" t="s">
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -6024,83 +6068,85 @@
     <hyperlink ref="D86" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
     <hyperlink ref="D88" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
     <hyperlink ref="D92" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D93" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="D94" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D95" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="D96" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="D20" r:id="rId50" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D98" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="D99" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="D100" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D101" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D102" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D103" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="D105" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D106" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D107" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D108" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D109" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="D110" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D90" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="D112" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="D113" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D114" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="D115" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="D32" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="D38" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D116" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D117" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D119" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D121" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="D122" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="D123" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="D124" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="D25" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="D97" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D125" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="D81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="D17" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="D126" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="D127" r:id="rId83" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="D120" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="D36" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D3" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="D130" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D132" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D133" r:id="rId89" xr:uid="{A16A5099-7DDF-4370-95B7-BE0B27B5431C}"/>
-    <hyperlink ref="D134" r:id="rId90" xr:uid="{708EF35E-20E2-4320-AADE-685E01E763F7}"/>
-    <hyperlink ref="D129" r:id="rId91" xr:uid="{FB61B29C-091A-4DDA-AE79-D04CD219E120}"/>
-    <hyperlink ref="D111" r:id="rId92" xr:uid="{ECA328F5-23A6-4DE4-B068-F02A7D98D168}"/>
-    <hyperlink ref="D135" r:id="rId93" xr:uid="{9AD90610-B454-4A84-8345-BC650F57996E}"/>
-    <hyperlink ref="D40" r:id="rId94" xr:uid="{93E22CFB-0916-4E6E-ACC3-EEAD067C806F}"/>
-    <hyperlink ref="D138" r:id="rId95" xr:uid="{B9A9083D-DAAC-4EB9-A1EF-8226D6CE0569}"/>
-    <hyperlink ref="D137" r:id="rId96" xr:uid="{7BB4446E-C399-4A10-A149-71E6F6C21625}"/>
-    <hyperlink ref="D69" r:id="rId97" xr:uid="{26848A2D-A2E9-4D35-A878-4E94AA4528CC}"/>
-    <hyperlink ref="D75" r:id="rId98" xr:uid="{4F6D0E3F-842E-4538-B42C-64D38060BB59}"/>
-    <hyperlink ref="D139" r:id="rId99" xr:uid="{302CF079-F4AA-41D6-A7B3-02085878B25C}"/>
-    <hyperlink ref="D61" r:id="rId100" xr:uid="{FFC2D208-AEF3-4089-93F4-56B6F4845C6D}"/>
-    <hyperlink ref="D140" r:id="rId101" xr:uid="{537861A6-5879-4590-973E-CAB8004B1F94}"/>
-    <hyperlink ref="D18" r:id="rId102" xr:uid="{09DC9E19-5EF7-447C-A207-F065EAABBA9E}"/>
-    <hyperlink ref="D142" r:id="rId103" xr:uid="{B0679566-FA54-444D-8C38-A9B1A78EA00B}"/>
-    <hyperlink ref="D118" r:id="rId104" xr:uid="{548C8289-7EC3-401B-8394-4658D1E44626}"/>
-    <hyperlink ref="D143" r:id="rId105" xr:uid="{DC77A0A1-75B4-4037-BF20-173723D2E1A0}"/>
-    <hyperlink ref="D144" r:id="rId106" xr:uid="{68B8ABE4-7971-4B92-873E-57FB9E5E8E7B}"/>
-    <hyperlink ref="D71" r:id="rId107" xr:uid="{CE9629E1-6341-48A8-A515-14208ED02ACE}"/>
-    <hyperlink ref="D145" r:id="rId108" xr:uid="{7906C34E-95E6-4C1B-9565-B8B6F37DE732}"/>
-    <hyperlink ref="D146" r:id="rId109" xr:uid="{EE076CB7-11A0-4FF0-9825-6A412491927F}"/>
-    <hyperlink ref="D147" r:id="rId110" xr:uid="{155BFA89-2A1E-4E9B-9D34-97E8FE7BFBB8}"/>
-    <hyperlink ref="D148" r:id="rId111" xr:uid="{5B90FF2B-C561-4007-AD0E-86645E787947}"/>
-    <hyperlink ref="D149" r:id="rId112" xr:uid="{4B1CBD95-B37A-4E49-99CD-5B0FAFB1DD68}"/>
-    <hyperlink ref="D131" r:id="rId113" xr:uid="{933F49CC-7CBE-4246-BED0-85666C83AD9C}"/>
-    <hyperlink ref="D46" r:id="rId114" xr:uid="{44BF8FFF-EFEF-4626-91C2-16E5A0463084}"/>
-    <hyperlink ref="D89" r:id="rId115" xr:uid="{CFA38323-9624-4B72-BAD1-1DF28D103CC7}"/>
-    <hyperlink ref="D56" r:id="rId116" xr:uid="{027425D3-4104-4019-9C56-9619BD774590}"/>
-    <hyperlink ref="D150" r:id="rId117" xr:uid="{5E05232A-62B2-4A14-ABE0-B7C2FC8317E5}"/>
-    <hyperlink ref="D37" r:id="rId118" xr:uid="{E78167A9-C7BD-4913-A9BE-7D05FB372985}"/>
-    <hyperlink ref="D151" r:id="rId119" xr:uid="{A09AECAB-6573-4BCA-B75F-5029DC873CE5}"/>
+    <hyperlink ref="D94" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="D95" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="D96" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D20" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D98" r:id="rId50" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="D99" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="D100" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D101" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D102" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D103" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="D105" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D106" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D107" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D109" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D110" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D90" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="D112" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="D113" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D114" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="D115" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="D32" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="D38" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D116" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D117" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D119" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D121" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D122" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="D123" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="D124" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="D25" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="D97" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D125" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="D81" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="D17" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="D126" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="D127" r:id="rId81" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="D120" r:id="rId82" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="D36" r:id="rId83" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D3" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="D130" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D132" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D133" r:id="rId87" xr:uid="{A16A5099-7DDF-4370-95B7-BE0B27B5431C}"/>
+    <hyperlink ref="D134" r:id="rId88" xr:uid="{708EF35E-20E2-4320-AADE-685E01E763F7}"/>
+    <hyperlink ref="D129" r:id="rId89" xr:uid="{FB61B29C-091A-4DDA-AE79-D04CD219E120}"/>
+    <hyperlink ref="D111" r:id="rId90" xr:uid="{ECA328F5-23A6-4DE4-B068-F02A7D98D168}"/>
+    <hyperlink ref="D135" r:id="rId91" xr:uid="{9AD90610-B454-4A84-8345-BC650F57996E}"/>
+    <hyperlink ref="D40" r:id="rId92" xr:uid="{93E22CFB-0916-4E6E-ACC3-EEAD067C806F}"/>
+    <hyperlink ref="D138" r:id="rId93" xr:uid="{B9A9083D-DAAC-4EB9-A1EF-8226D6CE0569}"/>
+    <hyperlink ref="D137" r:id="rId94" xr:uid="{7BB4446E-C399-4A10-A149-71E6F6C21625}"/>
+    <hyperlink ref="D69" r:id="rId95" xr:uid="{26848A2D-A2E9-4D35-A878-4E94AA4528CC}"/>
+    <hyperlink ref="D75" r:id="rId96" xr:uid="{4F6D0E3F-842E-4538-B42C-64D38060BB59}"/>
+    <hyperlink ref="D139" r:id="rId97" xr:uid="{302CF079-F4AA-41D6-A7B3-02085878B25C}"/>
+    <hyperlink ref="D61" r:id="rId98" xr:uid="{FFC2D208-AEF3-4089-93F4-56B6F4845C6D}"/>
+    <hyperlink ref="D140" r:id="rId99" xr:uid="{537861A6-5879-4590-973E-CAB8004B1F94}"/>
+    <hyperlink ref="D18" r:id="rId100" xr:uid="{09DC9E19-5EF7-447C-A207-F065EAABBA9E}"/>
+    <hyperlink ref="D142" r:id="rId101" xr:uid="{B0679566-FA54-444D-8C38-A9B1A78EA00B}"/>
+    <hyperlink ref="D118" r:id="rId102" xr:uid="{548C8289-7EC3-401B-8394-4658D1E44626}"/>
+    <hyperlink ref="D143" r:id="rId103" xr:uid="{DC77A0A1-75B4-4037-BF20-173723D2E1A0}"/>
+    <hyperlink ref="D144" r:id="rId104" xr:uid="{68B8ABE4-7971-4B92-873E-57FB9E5E8E7B}"/>
+    <hyperlink ref="D71" r:id="rId105" xr:uid="{CE9629E1-6341-48A8-A515-14208ED02ACE}"/>
+    <hyperlink ref="D145" r:id="rId106" xr:uid="{7906C34E-95E6-4C1B-9565-B8B6F37DE732}"/>
+    <hyperlink ref="D146" r:id="rId107" xr:uid="{EE076CB7-11A0-4FF0-9825-6A412491927F}"/>
+    <hyperlink ref="D147" r:id="rId108" xr:uid="{155BFA89-2A1E-4E9B-9D34-97E8FE7BFBB8}"/>
+    <hyperlink ref="D148" r:id="rId109" xr:uid="{5B90FF2B-C561-4007-AD0E-86645E787947}"/>
+    <hyperlink ref="D149" r:id="rId110" xr:uid="{4B1CBD95-B37A-4E49-99CD-5B0FAFB1DD68}"/>
+    <hyperlink ref="D131" r:id="rId111" xr:uid="{933F49CC-7CBE-4246-BED0-85666C83AD9C}"/>
+    <hyperlink ref="D46" r:id="rId112" xr:uid="{44BF8FFF-EFEF-4626-91C2-16E5A0463084}"/>
+    <hyperlink ref="D89" r:id="rId113" xr:uid="{CFA38323-9624-4B72-BAD1-1DF28D103CC7}"/>
+    <hyperlink ref="D56" r:id="rId114" xr:uid="{027425D3-4104-4019-9C56-9619BD774590}"/>
+    <hyperlink ref="D150" r:id="rId115" xr:uid="{5E05232A-62B2-4A14-ABE0-B7C2FC8317E5}"/>
+    <hyperlink ref="D37" r:id="rId116" xr:uid="{E78167A9-C7BD-4913-A9BE-7D05FB372985}"/>
+    <hyperlink ref="D151" r:id="rId117" xr:uid="{A09AECAB-6573-4BCA-B75F-5029DC873CE5}"/>
+    <hyperlink ref="D22" r:id="rId118" xr:uid="{F0EA2884-0417-443D-ABC1-941CEB7EBB01}"/>
+    <hyperlink ref="D152" r:id="rId119" xr:uid="{3E967917-087B-4C24-883E-25347224DBDC}"/>
+    <hyperlink ref="D108" r:id="rId120" xr:uid="{EE590C67-17CF-44CB-8F7D-B042342203EE}"/>
+    <hyperlink ref="D93" r:id="rId121" xr:uid="{72BBC2F8-4E6F-4DFD-B837-9BFEBE7BA406}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId120"/>
-  <legacyDrawing r:id="rId121"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId122"/>
+  <legacyDrawing r:id="rId123"/>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new_news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADA3426-14CF-40ED-987C-EE167E08831F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAF6827-3BBE-4995-8719-1A6BCFE4C9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="45" windowWidth="32520" windowHeight="19365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3660" yWindow="45" windowWidth="30165" windowHeight="19365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2550,7 +2550,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"User-Agent': 'Mozilla/5.0 (iPhone; CPU iPhone OS 13_2_3 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/13.0.3 Mobile/15E148 Safari/604.1"}</t>
+    <t>{"User-Agent": "Mozilla/5.0 (iPhone; CPU iPhone OS 13_2_3 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/13.0.3 Mobile/15E148 Safari/604.1"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2968,8 +2968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F149" sqref="F149"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new_news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAF6827-3BBE-4995-8719-1A6BCFE4C9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7463B3F4-A53D-4006-B3A4-64F23041CC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="45" windowWidth="30165" windowHeight="19365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="1530" windowWidth="22785" windowHeight="19365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="463">
   <si>
     <t>naver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1084,10 +1084,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>국민일보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.kpanews.co.kr/article/list.asp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1903,15 +1899,6 @@
   </si>
   <si>
     <t>headers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url_list = soup.select("div.nws_list div.nws dl.nws dt")[:5];
-url_list = [i.select_one("a")["href"] for i in url_list];
-title_list = soup.select("div.nws_list div.nws dl.nws dt a")[:5];
-title_list = [i.text.strip() for i in title_list];
-body_list = soup.select("div.nws_list div.nws dd.tx")[:5];
-body_list = [i.text.strip() for i in body_list];</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2159,10 +2146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.kmib.co.kr/article/list.asp?sid1=all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>url_list = soup.select("section.sub_news_sec ul.row_list li div.news_body h4.tit")[:10];
 url_list = [i.select_one("a")["href"] for i in url_list];
 title_list = soup.select("section.sub_news_sec ul.row_list li div.news_body h4.tit")[:10];
@@ -2551,6 +2534,38 @@
   </si>
   <si>
     <t>{"User-Agent": "Mozilla/5.0 (iPhone; CPU iPhone OS 13_2_3 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/13.0.3 Mobile/15E148 Safari/604.1"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_list = soup.select("#listWrap div.listPhoto dl dt")[:5];
+url_list = ["https://www.kpinews.kr" + i.select_one("a")["href"] for i in url_list];
+title_list = soup.select("#listWrap div.listPhoto dl dt")[:5];
+title_list = [i.text.strip() for i in title_list];
+body_list = ["" for i in range(5)];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.kpinews.kr/newsList/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KPI뉴스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_list = soup.select("#flashList li")[:5];
+url_list = ["https://news.mt.co.kr/mt" + i.select_one("a")["href"].replace("javascript:movePage('","").replace("')","").replace(".html",".php") for i in url_list];
+title_list = soup.select("#flashList li a span.txt strong.subject")[:5];
+title_list = [i.text.strip() for i in title_list];
+body_list = ["" for i in range(5)];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$머니투데이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.mt.co.kr/renew/flashnews.html?page=1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2966,10 +2981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F152"/>
+  <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2997,7 +3012,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3017,27 +3032,27 @@
         <v>170</v>
       </c>
       <c r="F2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="99">
@@ -3057,7 +3072,7 @@
         <v>168</v>
       </c>
       <c r="F4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="99">
@@ -3077,7 +3092,7 @@
         <v>169</v>
       </c>
       <c r="F5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="104.25" customHeight="1">
@@ -3097,7 +3112,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="81">
@@ -3117,7 +3132,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="81">
@@ -3137,7 +3152,7 @@
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="81">
@@ -3157,7 +3172,7 @@
         <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="81">
@@ -3177,7 +3192,7 @@
         <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="81">
@@ -3197,7 +3212,7 @@
         <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="99">
@@ -3217,7 +3232,7 @@
         <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="99">
@@ -3237,7 +3252,7 @@
         <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="99">
@@ -3257,7 +3272,7 @@
         <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="99">
@@ -3277,7 +3292,7 @@
         <v>183</v>
       </c>
       <c r="F15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="99">
@@ -3297,7 +3312,7 @@
         <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="99">
@@ -3311,13 +3326,13 @@
         <v>9</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="99">
@@ -3331,13 +3346,13 @@
         <v>9</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F18" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="99">
@@ -3357,7 +3372,7 @@
         <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="99">
@@ -3371,13 +3386,13 @@
         <v>9</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="99">
@@ -3397,7 +3412,7 @@
         <v>52</v>
       </c>
       <c r="F21" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="99">
@@ -3411,13 +3426,13 @@
         <v>9</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="99">
@@ -3437,7 +3452,7 @@
         <v>57</v>
       </c>
       <c r="F23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="99">
@@ -3457,7 +3472,7 @@
         <v>60</v>
       </c>
       <c r="F24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="82.5">
@@ -3471,13 +3486,13 @@
         <v>9</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="99">
@@ -3497,7 +3512,7 @@
         <v>64</v>
       </c>
       <c r="F26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="82.5">
@@ -3517,7 +3532,7 @@
         <v>172</v>
       </c>
       <c r="F27" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="99">
@@ -3537,7 +3552,7 @@
         <v>166</v>
       </c>
       <c r="F28" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="82.5">
@@ -3557,7 +3572,7 @@
         <v>173</v>
       </c>
       <c r="F29" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="99">
@@ -3577,7 +3592,7 @@
         <v>177</v>
       </c>
       <c r="F30" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="82.5">
@@ -3597,7 +3612,7 @@
         <v>105</v>
       </c>
       <c r="F31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="82.5">
@@ -3611,13 +3626,13 @@
         <v>9</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F32" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="81">
@@ -3637,7 +3652,7 @@
         <v>75</v>
       </c>
       <c r="F33" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="81">
@@ -3657,7 +3672,7 @@
         <v>78</v>
       </c>
       <c r="F34" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="81">
@@ -3671,13 +3686,13 @@
         <v>9</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>80</v>
       </c>
       <c r="F35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="81">
@@ -3691,13 +3706,13 @@
         <v>9</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F36" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="81">
@@ -3711,13 +3726,13 @@
         <v>9</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F37" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="81">
@@ -3731,13 +3746,13 @@
         <v>9</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>83</v>
       </c>
       <c r="F38" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="99">
@@ -3757,7 +3772,7 @@
         <v>86</v>
       </c>
       <c r="F39" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="99">
@@ -3771,13 +3786,13 @@
         <v>9</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F40" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="99">
@@ -3797,7 +3812,7 @@
         <v>90</v>
       </c>
       <c r="F41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="99">
@@ -3817,7 +3832,7 @@
         <v>94</v>
       </c>
       <c r="F42" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="99">
@@ -3837,7 +3852,7 @@
         <v>96</v>
       </c>
       <c r="F43" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="99">
@@ -3857,7 +3872,7 @@
         <v>99</v>
       </c>
       <c r="F44" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="99">
@@ -3877,7 +3892,7 @@
         <v>102</v>
       </c>
       <c r="F45" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="82.5">
@@ -3891,13 +3906,13 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F46" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="99">
@@ -3914,10 +3929,10 @@
         <v>109</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F47" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="99">
@@ -3937,12 +3952,12 @@
         <v>112</v>
       </c>
       <c r="F48" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="99">
       <c r="A49" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -3954,10 +3969,10 @@
         <v>156</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F49" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="99">
@@ -3977,7 +3992,7 @@
         <v>114</v>
       </c>
       <c r="F50" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="99">
@@ -3997,7 +4012,7 @@
         <v>118</v>
       </c>
       <c r="F51" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="99">
@@ -4017,7 +4032,7 @@
         <v>119</v>
       </c>
       <c r="F52" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="99">
@@ -4037,7 +4052,7 @@
         <v>124</v>
       </c>
       <c r="F53" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="82.5">
@@ -4057,7 +4072,7 @@
         <v>171</v>
       </c>
       <c r="F54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="99">
@@ -4077,12 +4092,12 @@
         <v>178</v>
       </c>
       <c r="F55" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="99">
       <c r="A56" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B56">
         <v>6</v>
@@ -4091,13 +4106,13 @@
         <v>9</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F56" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="99">
@@ -4117,7 +4132,7 @@
         <v>127</v>
       </c>
       <c r="F57" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="82.5">
@@ -4137,7 +4152,7 @@
         <v>130</v>
       </c>
       <c r="F58" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="99">
@@ -4157,7 +4172,7 @@
         <v>133</v>
       </c>
       <c r="F59" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="99">
@@ -4177,7 +4192,7 @@
         <v>139</v>
       </c>
       <c r="F60" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="99">
@@ -4191,13 +4206,13 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F61" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="82.5">
@@ -4217,7 +4232,7 @@
         <v>175</v>
       </c>
       <c r="F62" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="82.5">
@@ -4234,10 +4249,10 @@
         <v>143</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F63" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="99">
@@ -4257,7 +4272,7 @@
         <v>146</v>
       </c>
       <c r="F64" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="99">
@@ -4277,7 +4292,7 @@
         <v>150</v>
       </c>
       <c r="F65" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="99">
@@ -4297,7 +4312,7 @@
         <v>152</v>
       </c>
       <c r="F66" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4317,7 +4332,7 @@
         <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4337,12 +4352,12 @@
         <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B69">
         <v>2</v>
@@ -4351,18 +4366,18 @@
         <v>157</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B70">
         <v>9</v>
@@ -4371,18 +4386,18 @@
         <v>157</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B71">
         <v>9</v>
@@ -4391,18 +4406,18 @@
         <v>157</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="99">
       <c r="A72" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B72">
         <v>3</v>
@@ -4411,13 +4426,13 @@
         <v>9</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F72" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -4437,7 +4452,7 @@
         <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -4457,12 +4472,12 @@
         <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B75">
         <v>9</v>
@@ -4471,13 +4486,13 @@
         <v>157</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="99">
@@ -4497,7 +4512,7 @@
         <v>186</v>
       </c>
       <c r="F76" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="99">
@@ -4517,7 +4532,7 @@
         <v>189</v>
       </c>
       <c r="F77" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="99">
@@ -4537,392 +4552,392 @@
         <v>192</v>
       </c>
       <c r="F78" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="99">
       <c r="A79" t="s">
+        <v>194</v>
+      </c>
+      <c r="B79">
+        <v>12</v>
+      </c>
+      <c r="C79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B79">
-        <v>9</v>
-      </c>
-      <c r="C79" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>389</v>
-      </c>
       <c r="E79" s="1" t="s">
-        <v>347</v>
+        <v>195</v>
       </c>
       <c r="F79" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="99">
       <c r="A80" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B80">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>9</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>194</v>
+      <c r="D80" s="8" t="s">
+        <v>315</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F80" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="99">
       <c r="A81" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B81">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
         <v>9</v>
       </c>
-      <c r="D81" s="8" t="s">
-        <v>316</v>
+      <c r="D81" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F81" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="99">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="82.5">
       <c r="A82" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B82">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C82" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>199</v>
+        <v>267</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>201</v>
+        <v>312</v>
       </c>
       <c r="F82" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="82.5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="99">
       <c r="A83" t="s">
         <v>202</v>
       </c>
       <c r="B83">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>268</v>
+        <v>203</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>313</v>
+        <v>204</v>
       </c>
       <c r="F83" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="99">
       <c r="A84" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B84">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C84" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F84" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="99">
       <c r="A85" t="s">
+        <v>210</v>
+      </c>
+      <c r="B85">
+        <v>6</v>
+      </c>
+      <c r="C85" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B85">
-        <v>4</v>
-      </c>
-      <c r="C85" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="E85" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F85" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="99">
       <c r="A86" t="s">
+        <v>213</v>
+      </c>
+      <c r="B86">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B86">
-        <v>6</v>
-      </c>
-      <c r="C86" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="E86" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F86" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="99">
       <c r="A87" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B87">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
         <v>9</v>
       </c>
-      <c r="D87" s="7" t="s">
-        <v>212</v>
+      <c r="D87" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F87" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="99">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="82.5">
       <c r="A88" t="s">
-        <v>216</v>
+        <v>390</v>
       </c>
       <c r="B88">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
         <v>9</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F88" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="99">
+      <c r="A89" t="s">
         <v>218</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F88" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="82.5">
-      <c r="A89" t="s">
-        <v>393</v>
-      </c>
       <c r="B89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C89" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>435</v>
+        <v>266</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>342</v>
+        <v>219</v>
       </c>
       <c r="F89" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="99">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="82.5">
       <c r="A90" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="C90" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F90" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="99">
+      <c r="A91" t="s">
+        <v>223</v>
+      </c>
+      <c r="B91">
         <v>4</v>
       </c>
-      <c r="C90" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F90" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="82.5">
-      <c r="A91" t="s">
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B91">
+      <c r="E91" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F91" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="82.5">
+      <c r="A92" t="s">
+        <v>272</v>
+      </c>
+      <c r="B92">
         <v>3</v>
       </c>
-      <c r="C91" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F91" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="99">
-      <c r="A92" t="s">
-        <v>224</v>
-      </c>
-      <c r="B92">
-        <v>4</v>
-      </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>275</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>222</v>
+        <v>453</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>223</v>
+        <v>454</v>
       </c>
       <c r="F92" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="82.5">
       <c r="A93" t="s">
-        <v>273</v>
+        <v>226</v>
       </c>
       <c r="B93">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
-        <v>276</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>456</v>
+        <v>224</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>457</v>
+        <v>225</v>
       </c>
       <c r="F93" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="82.5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="99">
       <c r="A94" t="s">
         <v>227</v>
       </c>
       <c r="B94">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>225</v>
+        <v>437</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F94" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="99">
       <c r="A95" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B95">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>440</v>
+        <v>230</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F95" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="99">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="82.5">
       <c r="A96" t="s">
-        <v>230</v>
+        <v>274</v>
       </c>
       <c r="B96">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C96" t="s">
         <v>9</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>231</v>
+      <c r="D96" s="8" t="s">
+        <v>311</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>232</v>
       </c>
       <c r="F96" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="82.5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="99">
       <c r="A97" t="s">
-        <v>275</v>
+        <v>234</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
         <v>9</v>
       </c>
-      <c r="D97" s="8" t="s">
-        <v>312</v>
+      <c r="D97" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F97" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="99">
       <c r="A98" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -4931,13 +4946,13 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F98" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="99">
@@ -4945,64 +4960,64 @@
         <v>239</v>
       </c>
       <c r="B99">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C99" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="F99" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="99">
       <c r="A100" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B100">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>269</v>
+        <v>368</v>
       </c>
       <c r="F100" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="99">
       <c r="A101" t="s">
+        <v>245</v>
+      </c>
+      <c r="B101">
+        <v>5</v>
+      </c>
+      <c r="C101" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B101">
-        <v>9</v>
-      </c>
-      <c r="C101" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>243</v>
-      </c>
       <c r="E101" s="1" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="F101" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="99">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="82.5">
       <c r="A102" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B102">
         <v>5</v>
@@ -5011,93 +5026,93 @@
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>363</v>
+        <v>247</v>
       </c>
       <c r="F102" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="82.5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="99">
       <c r="A103" t="s">
+        <v>250</v>
+      </c>
+      <c r="B103">
+        <v>6</v>
+      </c>
+      <c r="C103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E103" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B103">
-        <v>5</v>
-      </c>
-      <c r="C103" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="F103" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="99">
       <c r="A104" t="s">
+        <v>273</v>
+      </c>
+      <c r="B104">
+        <v>0.9</v>
+      </c>
+      <c r="C104" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B104">
-        <v>6</v>
-      </c>
-      <c r="C104" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="E104" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F104" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="99">
       <c r="A105" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="B105">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="C105" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F105" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="99">
       <c r="A106" t="s">
+        <v>258</v>
+      </c>
+      <c r="B106">
+        <v>4</v>
+      </c>
+      <c r="C106" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B106">
-        <v>2</v>
-      </c>
-      <c r="C106" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="E106" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F106" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="99">
@@ -5105,119 +5120,119 @@
         <v>259</v>
       </c>
       <c r="B107">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>9</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>257</v>
+      <c r="D107" s="8" t="s">
+        <v>452</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>258</v>
+        <v>451</v>
       </c>
       <c r="F107" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="99">
       <c r="A108" t="s">
+        <v>262</v>
+      </c>
+      <c r="B108">
+        <v>5</v>
+      </c>
+      <c r="C108" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B108">
-        <v>7</v>
-      </c>
-      <c r="C108" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>455</v>
-      </c>
       <c r="E108" s="1" t="s">
-        <v>454</v>
+        <v>261</v>
       </c>
       <c r="F108" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="99">
       <c r="A109" t="s">
+        <v>264</v>
+      </c>
+      <c r="B109">
+        <v>1.7</v>
+      </c>
+      <c r="C109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E109" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B109">
-        <v>5</v>
-      </c>
-      <c r="C109" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="F109" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="99">
       <c r="A110" t="s">
-        <v>265</v>
+        <v>359</v>
       </c>
       <c r="B110">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>266</v>
+        <v>357</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>264</v>
+        <v>358</v>
       </c>
       <c r="F110" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="99">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="49.5">
       <c r="A111" t="s">
-        <v>361</v>
+        <v>276</v>
       </c>
       <c r="B111">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="C111" t="s">
-        <v>359</v>
+        <v>277</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>360</v>
+        <v>279</v>
       </c>
       <c r="F111" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="49.5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="99">
       <c r="A112" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B112">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
-        <v>278</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F112" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="99">
@@ -5225,164 +5240,164 @@
         <v>283</v>
       </c>
       <c r="B113">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C113" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F113" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="99">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="66">
       <c r="A114" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B114">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="C114" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>286</v>
+        <v>450</v>
       </c>
       <c r="F114" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="66">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="99">
       <c r="A115" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B115">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="C115" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>287</v>
+        <v>449</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F115" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="99">
       <c r="A116" t="s">
+        <v>292</v>
+      </c>
+      <c r="B116">
+        <v>4</v>
+      </c>
+      <c r="C116" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B116">
-        <v>3.5</v>
-      </c>
-      <c r="C116" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>452</v>
-      </c>
       <c r="E116" s="1" t="s">
-        <v>451</v>
+        <v>291</v>
       </c>
       <c r="F116" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="99">
       <c r="A117" t="s">
+        <v>406</v>
+      </c>
+      <c r="B117">
+        <v>7</v>
+      </c>
+      <c r="C117" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F117" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="82.5">
+      <c r="A118" t="s">
+        <v>294</v>
+      </c>
+      <c r="B118">
+        <v>8</v>
+      </c>
+      <c r="C118" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B117">
-        <v>4</v>
-      </c>
-      <c r="C117" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="F117" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="99">
-      <c r="A118" t="s">
-        <v>409</v>
-      </c>
-      <c r="B118">
-        <v>7</v>
-      </c>
-      <c r="C118" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>407</v>
-      </c>
       <c r="E118" s="1" t="s">
-        <v>408</v>
+        <v>354</v>
       </c>
       <c r="F118" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="82.5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="99">
       <c r="A119" t="s">
         <v>295</v>
       </c>
       <c r="B119">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="C119" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>356</v>
+        <v>296</v>
       </c>
       <c r="F119" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="99">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="82.5">
       <c r="A120" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B120">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>297</v>
+        <v>403</v>
       </c>
       <c r="F120" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="82.5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="99">
       <c r="A121" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B121">
         <v>5</v>
@@ -5391,18 +5406,18 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>406</v>
+        <v>299</v>
       </c>
       <c r="F121" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="99">
       <c r="A122" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B122">
         <v>5</v>
@@ -5411,78 +5426,78 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="F122" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="99">
       <c r="A123" t="s">
+        <v>310</v>
+      </c>
+      <c r="B123">
+        <v>4</v>
+      </c>
+      <c r="C123" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B123">
-        <v>5</v>
-      </c>
-      <c r="C123" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>306</v>
-      </c>
       <c r="E123" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F123" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="99">
       <c r="A124" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B124">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C124" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="F124" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="99">
       <c r="A125" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B125">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="F125" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="99">
       <c r="A126" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B126">
         <v>5</v>
@@ -5491,21 +5506,21 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="F126" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="99">
       <c r="A127" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B127">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
         <v>9</v>
@@ -5514,318 +5529,318 @@
         <v>323</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F127" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="99">
       <c r="A128" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B128">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
         <v>9</v>
       </c>
-      <c r="D128" s="2" t="s">
-        <v>324</v>
+      <c r="D128" s="8" t="s">
+        <v>355</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="F128" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="99">
       <c r="A129" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B129">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C129" t="s">
         <v>9</v>
       </c>
-      <c r="D129" s="8" t="s">
-        <v>357</v>
+      <c r="D129" s="2" t="s">
+        <v>337</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F129" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="99">
       <c r="A130" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B130">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
         <v>9</v>
       </c>
-      <c r="D130" s="2" t="s">
-        <v>338</v>
+      <c r="D130" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="F130" t="s">
-        <v>345</v>
+        <v>356</v>
+      </c>
+      <c r="F130" s="9" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="99">
       <c r="A131" t="s">
+        <v>374</v>
+      </c>
+      <c r="B131">
+        <v>5</v>
+      </c>
+      <c r="C131" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B131">
-        <v>9</v>
-      </c>
-      <c r="C131" t="s">
-        <v>9</v>
-      </c>
-      <c r="D131" s="8" t="s">
-        <v>442</v>
-      </c>
       <c r="E131" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="F131" s="9" t="s">
-        <v>459</v>
+        <v>428</v>
+      </c>
+      <c r="F131" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="99">
       <c r="A132" t="s">
-        <v>376</v>
+        <v>346</v>
       </c>
       <c r="B132">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>431</v>
+        <v>348</v>
       </c>
       <c r="F132" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="99">
       <c r="A133" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B133">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C133" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E133" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="E133" s="1" t="s">
-        <v>350</v>
-      </c>
       <c r="F133" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="99">
       <c r="A134" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="B134">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C134" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="F134" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="99">
       <c r="A135" t="s">
+        <v>366</v>
+      </c>
+      <c r="B135">
+        <v>6</v>
+      </c>
+      <c r="C135" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B135">
-        <v>4</v>
-      </c>
-      <c r="C135" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>366</v>
-      </c>
       <c r="E135" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F135" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="99">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="B136">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>369</v>
+        <v>157</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E136" t="s">
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="99">
       <c r="A137" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B137">
         <v>5</v>
       </c>
       <c r="C137" t="s">
-        <v>157</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="E137" t="s">
-        <v>11</v>
+        <v>377</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="F137" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="99">
       <c r="A138" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="B138">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F138" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="99">
       <c r="A139" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B139">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C139" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F139" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="99">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="67.5">
       <c r="A140" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B140">
-        <v>4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C140" t="s">
         <v>9</v>
       </c>
-      <c r="D140" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>390</v>
+      <c r="D140" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>394</v>
       </c>
       <c r="F140" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="67.5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="82.5">
       <c r="A141" t="s">
         <v>395</v>
       </c>
       <c r="B141">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="C141" t="s">
         <v>9</v>
       </c>
-      <c r="D141" s="3" t="s">
+      <c r="D141" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="E141" s="4" t="s">
+      <c r="E141" s="1" t="s">
         <v>397</v>
       </c>
       <c r="F141" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="82.5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="66">
       <c r="A142" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="B142">
-        <v>1.3</v>
+        <v>15</v>
       </c>
       <c r="C142" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="F142" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="66">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="99">
       <c r="A143" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B143">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
         <v>9</v>
@@ -5834,73 +5849,73 @@
         <v>411</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F143" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="99">
       <c r="A144" t="s">
-        <v>413</v>
+        <v>148</v>
       </c>
       <c r="B144">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C144" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E144" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="E144" s="1" t="s">
-        <v>415</v>
-      </c>
       <c r="F144" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="99">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="82.5">
       <c r="A145" t="s">
-        <v>148</v>
+        <v>418</v>
       </c>
       <c r="B145">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F145" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="82.5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="148.5">
       <c r="A146" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B146">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="F146" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="148.5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="99">
       <c r="A147" t="s">
         <v>422</v>
       </c>
@@ -5911,18 +5926,18 @@
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="F147" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="99">
       <c r="A148" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B148">
         <v>5</v>
@@ -5931,81 +5946,81 @@
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F148" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="99">
       <c r="A149" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B149">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C149" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="F149" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="99">
       <c r="A150" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B150">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C150" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="F150" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="99">
       <c r="A151" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B151">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E151" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="E151" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="F151" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="99">
+      <c r="F151" s="9" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="82.5">
       <c r="A152" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="B152">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="C152" t="s">
         <v>9</v>
@@ -6014,10 +6029,30 @@
         <v>458</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="F152" s="9" t="s">
-        <v>459</v>
+        <v>457</v>
+      </c>
+      <c r="F152" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="82.5">
+      <c r="A153" t="s">
+        <v>461</v>
+      </c>
+      <c r="B153">
+        <v>1.6</v>
+      </c>
+      <c r="C153" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F153" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -6059,94 +6094,95 @@
     <hyperlink ref="D76" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
     <hyperlink ref="D77" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
     <hyperlink ref="D78" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="D79" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="D80" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="D82" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="D83" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="D84" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="D85" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="D86" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="D88" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D92" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D94" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D95" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="D96" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="D20" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D98" r:id="rId50" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="D99" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="D100" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D101" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D102" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D103" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="D105" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D106" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D107" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D109" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="D110" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D90" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="D112" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="D113" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D114" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="D115" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="D32" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="D38" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D116" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D117" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D119" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D121" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="D122" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="D123" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="D124" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="D25" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="D97" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D125" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="D81" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="D17" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="D126" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="D127" r:id="rId81" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="D120" r:id="rId82" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="D36" r:id="rId83" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D3" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="D130" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D132" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D133" r:id="rId87" xr:uid="{A16A5099-7DDF-4370-95B7-BE0B27B5431C}"/>
-    <hyperlink ref="D134" r:id="rId88" xr:uid="{708EF35E-20E2-4320-AADE-685E01E763F7}"/>
-    <hyperlink ref="D129" r:id="rId89" xr:uid="{FB61B29C-091A-4DDA-AE79-D04CD219E120}"/>
-    <hyperlink ref="D111" r:id="rId90" xr:uid="{ECA328F5-23A6-4DE4-B068-F02A7D98D168}"/>
-    <hyperlink ref="D135" r:id="rId91" xr:uid="{9AD90610-B454-4A84-8345-BC650F57996E}"/>
-    <hyperlink ref="D40" r:id="rId92" xr:uid="{93E22CFB-0916-4E6E-ACC3-EEAD067C806F}"/>
-    <hyperlink ref="D138" r:id="rId93" xr:uid="{B9A9083D-DAAC-4EB9-A1EF-8226D6CE0569}"/>
-    <hyperlink ref="D137" r:id="rId94" xr:uid="{7BB4446E-C399-4A10-A149-71E6F6C21625}"/>
-    <hyperlink ref="D69" r:id="rId95" xr:uid="{26848A2D-A2E9-4D35-A878-4E94AA4528CC}"/>
-    <hyperlink ref="D75" r:id="rId96" xr:uid="{4F6D0E3F-842E-4538-B42C-64D38060BB59}"/>
-    <hyperlink ref="D139" r:id="rId97" xr:uid="{302CF079-F4AA-41D6-A7B3-02085878B25C}"/>
-    <hyperlink ref="D61" r:id="rId98" xr:uid="{FFC2D208-AEF3-4089-93F4-56B6F4845C6D}"/>
-    <hyperlink ref="D140" r:id="rId99" xr:uid="{537861A6-5879-4590-973E-CAB8004B1F94}"/>
-    <hyperlink ref="D18" r:id="rId100" xr:uid="{09DC9E19-5EF7-447C-A207-F065EAABBA9E}"/>
-    <hyperlink ref="D142" r:id="rId101" xr:uid="{B0679566-FA54-444D-8C38-A9B1A78EA00B}"/>
-    <hyperlink ref="D118" r:id="rId102" xr:uid="{548C8289-7EC3-401B-8394-4658D1E44626}"/>
-    <hyperlink ref="D143" r:id="rId103" xr:uid="{DC77A0A1-75B4-4037-BF20-173723D2E1A0}"/>
-    <hyperlink ref="D144" r:id="rId104" xr:uid="{68B8ABE4-7971-4B92-873E-57FB9E5E8E7B}"/>
-    <hyperlink ref="D71" r:id="rId105" xr:uid="{CE9629E1-6341-48A8-A515-14208ED02ACE}"/>
-    <hyperlink ref="D145" r:id="rId106" xr:uid="{7906C34E-95E6-4C1B-9565-B8B6F37DE732}"/>
-    <hyperlink ref="D146" r:id="rId107" xr:uid="{EE076CB7-11A0-4FF0-9825-6A412491927F}"/>
-    <hyperlink ref="D147" r:id="rId108" xr:uid="{155BFA89-2A1E-4E9B-9D34-97E8FE7BFBB8}"/>
-    <hyperlink ref="D148" r:id="rId109" xr:uid="{5B90FF2B-C561-4007-AD0E-86645E787947}"/>
-    <hyperlink ref="D149" r:id="rId110" xr:uid="{4B1CBD95-B37A-4E49-99CD-5B0FAFB1DD68}"/>
-    <hyperlink ref="D131" r:id="rId111" xr:uid="{933F49CC-7CBE-4246-BED0-85666C83AD9C}"/>
-    <hyperlink ref="D46" r:id="rId112" xr:uid="{44BF8FFF-EFEF-4626-91C2-16E5A0463084}"/>
-    <hyperlink ref="D89" r:id="rId113" xr:uid="{CFA38323-9624-4B72-BAD1-1DF28D103CC7}"/>
-    <hyperlink ref="D56" r:id="rId114" xr:uid="{027425D3-4104-4019-9C56-9619BD774590}"/>
-    <hyperlink ref="D150" r:id="rId115" xr:uid="{5E05232A-62B2-4A14-ABE0-B7C2FC8317E5}"/>
-    <hyperlink ref="D37" r:id="rId116" xr:uid="{E78167A9-C7BD-4913-A9BE-7D05FB372985}"/>
-    <hyperlink ref="D151" r:id="rId117" xr:uid="{A09AECAB-6573-4BCA-B75F-5029DC873CE5}"/>
-    <hyperlink ref="D22" r:id="rId118" xr:uid="{F0EA2884-0417-443D-ABC1-941CEB7EBB01}"/>
-    <hyperlink ref="D152" r:id="rId119" xr:uid="{3E967917-087B-4C24-883E-25347224DBDC}"/>
-    <hyperlink ref="D108" r:id="rId120" xr:uid="{EE590C67-17CF-44CB-8F7D-B042342203EE}"/>
-    <hyperlink ref="D93" r:id="rId121" xr:uid="{72BBC2F8-4E6F-4DFD-B837-9BFEBE7BA406}"/>
+    <hyperlink ref="D79" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="D81" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D82" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="D83" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="D84" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="D85" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="D87" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D91" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D93" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="D94" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="D95" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D20" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D97" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="D98" r:id="rId50" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="D99" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D100" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D101" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D102" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="D104" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D105" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D106" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D108" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D109" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D89" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="D111" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="D112" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D113" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="D114" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="D32" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="D38" r:id="rId66" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D115" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D116" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D118" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D120" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D121" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="D122" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="D123" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="D25" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="D96" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D124" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="D80" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="D17" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="D125" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="D126" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="D119" r:id="rId81" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="D36" r:id="rId82" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D3" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="D129" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D131" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D132" r:id="rId86" xr:uid="{A16A5099-7DDF-4370-95B7-BE0B27B5431C}"/>
+    <hyperlink ref="D133" r:id="rId87" xr:uid="{708EF35E-20E2-4320-AADE-685E01E763F7}"/>
+    <hyperlink ref="D128" r:id="rId88" xr:uid="{FB61B29C-091A-4DDA-AE79-D04CD219E120}"/>
+    <hyperlink ref="D110" r:id="rId89" xr:uid="{ECA328F5-23A6-4DE4-B068-F02A7D98D168}"/>
+    <hyperlink ref="D134" r:id="rId90" xr:uid="{9AD90610-B454-4A84-8345-BC650F57996E}"/>
+    <hyperlink ref="D40" r:id="rId91" xr:uid="{93E22CFB-0916-4E6E-ACC3-EEAD067C806F}"/>
+    <hyperlink ref="D137" r:id="rId92" xr:uid="{B9A9083D-DAAC-4EB9-A1EF-8226D6CE0569}"/>
+    <hyperlink ref="D136" r:id="rId93" xr:uid="{7BB4446E-C399-4A10-A149-71E6F6C21625}"/>
+    <hyperlink ref="D69" r:id="rId94" xr:uid="{26848A2D-A2E9-4D35-A878-4E94AA4528CC}"/>
+    <hyperlink ref="D75" r:id="rId95" xr:uid="{4F6D0E3F-842E-4538-B42C-64D38060BB59}"/>
+    <hyperlink ref="D138" r:id="rId96" xr:uid="{302CF079-F4AA-41D6-A7B3-02085878B25C}"/>
+    <hyperlink ref="D61" r:id="rId97" xr:uid="{FFC2D208-AEF3-4089-93F4-56B6F4845C6D}"/>
+    <hyperlink ref="D139" r:id="rId98" xr:uid="{537861A6-5879-4590-973E-CAB8004B1F94}"/>
+    <hyperlink ref="D18" r:id="rId99" xr:uid="{09DC9E19-5EF7-447C-A207-F065EAABBA9E}"/>
+    <hyperlink ref="D141" r:id="rId100" xr:uid="{B0679566-FA54-444D-8C38-A9B1A78EA00B}"/>
+    <hyperlink ref="D117" r:id="rId101" xr:uid="{548C8289-7EC3-401B-8394-4658D1E44626}"/>
+    <hyperlink ref="D142" r:id="rId102" xr:uid="{DC77A0A1-75B4-4037-BF20-173723D2E1A0}"/>
+    <hyperlink ref="D143" r:id="rId103" xr:uid="{68B8ABE4-7971-4B92-873E-57FB9E5E8E7B}"/>
+    <hyperlink ref="D71" r:id="rId104" xr:uid="{CE9629E1-6341-48A8-A515-14208ED02ACE}"/>
+    <hyperlink ref="D144" r:id="rId105" xr:uid="{7906C34E-95E6-4C1B-9565-B8B6F37DE732}"/>
+    <hyperlink ref="D145" r:id="rId106" xr:uid="{EE076CB7-11A0-4FF0-9825-6A412491927F}"/>
+    <hyperlink ref="D146" r:id="rId107" xr:uid="{155BFA89-2A1E-4E9B-9D34-97E8FE7BFBB8}"/>
+    <hyperlink ref="D147" r:id="rId108" xr:uid="{5B90FF2B-C561-4007-AD0E-86645E787947}"/>
+    <hyperlink ref="D148" r:id="rId109" xr:uid="{4B1CBD95-B37A-4E49-99CD-5B0FAFB1DD68}"/>
+    <hyperlink ref="D130" r:id="rId110" xr:uid="{933F49CC-7CBE-4246-BED0-85666C83AD9C}"/>
+    <hyperlink ref="D46" r:id="rId111" xr:uid="{44BF8FFF-EFEF-4626-91C2-16E5A0463084}"/>
+    <hyperlink ref="D88" r:id="rId112" xr:uid="{CFA38323-9624-4B72-BAD1-1DF28D103CC7}"/>
+    <hyperlink ref="D56" r:id="rId113" xr:uid="{027425D3-4104-4019-9C56-9619BD774590}"/>
+    <hyperlink ref="D149" r:id="rId114" xr:uid="{5E05232A-62B2-4A14-ABE0-B7C2FC8317E5}"/>
+    <hyperlink ref="D37" r:id="rId115" xr:uid="{E78167A9-C7BD-4913-A9BE-7D05FB372985}"/>
+    <hyperlink ref="D150" r:id="rId116" xr:uid="{A09AECAB-6573-4BCA-B75F-5029DC873CE5}"/>
+    <hyperlink ref="D22" r:id="rId117" xr:uid="{F0EA2884-0417-443D-ABC1-941CEB7EBB01}"/>
+    <hyperlink ref="D151" r:id="rId118" xr:uid="{3E967917-087B-4C24-883E-25347224DBDC}"/>
+    <hyperlink ref="D107" r:id="rId119" xr:uid="{EE590C67-17CF-44CB-8F7D-B042342203EE}"/>
+    <hyperlink ref="D92" r:id="rId120" xr:uid="{72BBC2F8-4E6F-4DFD-B837-9BFEBE7BA406}"/>
+    <hyperlink ref="D152" r:id="rId121" xr:uid="{0B4ECC27-EC91-4F95-82E0-FD9CDCD9A93F}"/>
+    <hyperlink ref="D153" r:id="rId122" xr:uid="{49B38CC6-2C17-4FEF-90C9-05FEFA135B41}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId122"/>
-  <legacyDrawing r:id="rId123"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId123"/>
+  <legacyDrawing r:id="rId124"/>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new_news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7463B3F4-A53D-4006-B3A4-64F23041CC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEF8666-CDDA-4553-B216-D0ED576C119E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="1530" windowWidth="22785" windowHeight="19365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10275" yWindow="960" windowWidth="26040" windowHeight="19425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="466">
   <si>
     <t>naver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -547,19 +547,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.nextdaily.co.kr/news/articleList.html?view_type=sm</t>
-  </si>
-  <si>
     <t>넥스트데일리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url_list = soup.select("#section-list ul.type2 li")[:5];
-url_list = ["http://www.nextdaily.co.kr" + i.select_one("a")["href"]for i in url_list];
-title_list = soup.select("#section-list ul.type2 li h4.titles")[:5];
-title_list = [i.text.strip() for i in title_list];
-body_list = soup.select("#section-list ul.type2 li p")[:5];
-body_list = [i.text.strip() for i in body_list];</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1845,10 +1833,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://news.daum.net/breakingnews/?page=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>url_list = soup.select("#section-list ul li")[:5];
 url_list = ["http://www.hitnews.co.kr" + i.select_one("a")["href"] for i in url_list];
 title_list = soup.select("#section-list ul li h4.titles")[:5];
@@ -2566,6 +2550,39 @@
   </si>
   <si>
     <t>https://m.mt.co.kr/renew/flashnews.html?page=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$스코프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.finance-scope.com/article/list/scp_SC007000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_list = soup.select("div.analysis_wrap div.img_part2_keyword_m")[:3];
+url_list = ["https://www.finance-scope.com" + i.select_one("a")["href"] for i in url_list];
+title_list = soup.select("div.analysis_wrap div.img_part2_keyword_m div dl.analysis_sec_m dt")[:3];
+title_list = [i.text.strip() for i in title_list];
+body_list = ["" for i in range(3)];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.nextdaily.co.kr/news/articleList.html?view_type=sm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_list = soup.select("#section-list ul.type2 li")[:5];
+url_list = ["http://www.nextdaily.co.kr" + i.select_one("a")["href"]for i in url_list];
+title_list = soup.select("#section-list ul.type2 li h2.titles")[:5];
+title_list = [i.text.strip() for i in title_list];
+body_list = soup.select("#section-list ul.type2 li p")[:5];
+body_list = [i.text.strip() for i in body_list];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://news.daum.net</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2981,10 +2998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F153"/>
+  <dimension ref="A1:F154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3012,7 +3029,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3026,38 +3043,38 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>335</v>
+        <v>465</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="99">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -3069,10 +3086,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="99">
@@ -3089,15 +3106,15 @@
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="104.25" customHeight="1">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -3112,7 +3129,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="81">
@@ -3126,13 +3143,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="81">
@@ -3152,7 +3169,7 @@
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="81">
@@ -3172,7 +3189,7 @@
         <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="81">
@@ -3192,7 +3209,7 @@
         <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="81">
@@ -3212,7 +3229,7 @@
         <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="99">
@@ -3232,7 +3249,7 @@
         <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="99">
@@ -3252,7 +3269,7 @@
         <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="99">
@@ -3272,12 +3289,12 @@
         <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="99">
       <c r="A15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -3286,13 +3303,13 @@
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F15" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="99">
@@ -3312,7 +3329,7 @@
         <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="99">
@@ -3326,13 +3343,13 @@
         <v>9</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="99">
@@ -3346,13 +3363,13 @@
         <v>9</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F18" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="99">
@@ -3372,7 +3389,7 @@
         <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="99">
@@ -3386,13 +3403,13 @@
         <v>9</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="99">
@@ -3412,7 +3429,7 @@
         <v>52</v>
       </c>
       <c r="F21" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="99">
@@ -3426,13 +3443,13 @@
         <v>9</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="99">
@@ -3452,7 +3469,7 @@
         <v>57</v>
       </c>
       <c r="F23" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="99">
@@ -3472,7 +3489,7 @@
         <v>60</v>
       </c>
       <c r="F24" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="82.5">
@@ -3486,13 +3503,13 @@
         <v>9</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F25" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="99">
@@ -3512,7 +3529,7 @@
         <v>64</v>
       </c>
       <c r="F26" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="82.5">
@@ -3526,13 +3543,13 @@
         <v>9</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F27" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="99">
@@ -3546,13 +3563,13 @@
         <v>9</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F28" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="82.5">
@@ -3569,10 +3586,10 @@
         <v>68</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F29" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="99">
@@ -3586,13 +3603,13 @@
         <v>9</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F30" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="82.5">
@@ -3609,10 +3626,10 @@
         <v>70</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F31" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="82.5">
@@ -3626,13 +3643,13 @@
         <v>9</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F32" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="81">
@@ -3652,7 +3669,7 @@
         <v>75</v>
       </c>
       <c r="F33" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="81">
@@ -3672,7 +3689,7 @@
         <v>78</v>
       </c>
       <c r="F34" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="81">
@@ -3686,13 +3703,13 @@
         <v>9</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>80</v>
       </c>
       <c r="F35" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="81">
@@ -3706,13 +3723,13 @@
         <v>9</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F36" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="81">
@@ -3726,13 +3743,13 @@
         <v>9</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F37" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="81">
@@ -3746,13 +3763,13 @@
         <v>9</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>83</v>
       </c>
       <c r="F38" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="99">
@@ -3772,7 +3789,7 @@
         <v>86</v>
       </c>
       <c r="F39" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="99">
@@ -3786,13 +3803,13 @@
         <v>9</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F40" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="99">
@@ -3812,12 +3829,12 @@
         <v>90</v>
       </c>
       <c r="F41" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="99">
       <c r="A42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B42">
         <v>6</v>
@@ -3825,19 +3842,19 @@
       <c r="C42" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>92</v>
+      <c r="D42" s="8" t="s">
+        <v>463</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>94</v>
+        <v>464</v>
       </c>
       <c r="F42" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="99">
       <c r="A43" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B43">
         <v>11</v>
@@ -3846,18 +3863,18 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F43" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="99">
       <c r="A44" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -3866,18 +3883,18 @@
         <v>9</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F44" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="99">
       <c r="A45" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B45">
         <v>6</v>
@@ -3886,18 +3903,18 @@
         <v>9</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F45" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="82.5">
       <c r="A46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B46">
         <v>7</v>
@@ -3906,18 +3923,18 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F46" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="99">
       <c r="A47" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B47">
         <v>8</v>
@@ -3926,18 +3943,18 @@
         <v>9</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F47" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="99">
       <c r="A48" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B48">
         <v>4</v>
@@ -3946,18 +3963,18 @@
         <v>9</v>
       </c>
       <c r="D48" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="F48" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="99">
       <c r="A49" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -3966,18 +3983,18 @@
         <v>9</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F49" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="99">
       <c r="A50" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B50">
         <v>6</v>
@@ -3986,18 +4003,18 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F50" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="99">
       <c r="A51" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B51">
         <v>9</v>
@@ -4006,18 +4023,18 @@
         <v>9</v>
       </c>
       <c r="D51" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="F51" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="99">
       <c r="A52" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B52">
         <v>8</v>
@@ -4026,18 +4043,18 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F52" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="99">
       <c r="A53" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -4046,18 +4063,18 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F53" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="82.5">
       <c r="A54" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -4066,18 +4083,18 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F54" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="99">
       <c r="A55" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B55">
         <v>6</v>
@@ -4086,18 +4103,18 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F55" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="99">
       <c r="A56" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B56">
         <v>6</v>
@@ -4106,18 +4123,18 @@
         <v>9</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F56" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="99">
       <c r="A57" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B57">
         <v>5</v>
@@ -4126,18 +4143,18 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F57" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="82.5">
       <c r="A58" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B58">
         <v>5</v>
@@ -4146,18 +4163,18 @@
         <v>9</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F58" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="99">
       <c r="A59" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B59">
         <v>5</v>
@@ -4166,18 +4183,18 @@
         <v>9</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F59" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="99">
       <c r="A60" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -4186,18 +4203,18 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F60" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="99">
       <c r="A61" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B61">
         <v>6</v>
@@ -4206,18 +4223,18 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F61" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="82.5">
       <c r="A62" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B62">
         <v>3</v>
@@ -4226,18 +4243,18 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F62" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="82.5">
       <c r="A63" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B63">
         <v>6</v>
@@ -4246,18 +4263,18 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F63" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="99">
       <c r="A64" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B64">
         <v>8</v>
@@ -4266,18 +4283,18 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F64" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="99">
       <c r="A65" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B65">
         <v>10.5</v>
@@ -4286,18 +4303,18 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F65" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="99">
       <c r="A66" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B66">
         <v>3</v>
@@ -4306,118 +4323,118 @@
         <v>9</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F66" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B67">
         <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B68">
         <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B69">
         <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B70">
         <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B71">
         <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="99">
       <c r="A72" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B72">
         <v>3</v>
@@ -4426,78 +4443,78 @@
         <v>9</v>
       </c>
       <c r="D72" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>304</v>
-      </c>
       <c r="F72" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B73">
         <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B74">
         <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E74" t="s">
         <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B75">
         <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="99">
       <c r="A76" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B76">
         <v>4</v>
@@ -4506,18 +4523,18 @@
         <v>9</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F76" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="99">
       <c r="A77" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B77">
         <v>4</v>
@@ -4526,18 +4543,18 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="F77" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="99">
       <c r="A78" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B78">
         <v>4</v>
@@ -4546,18 +4563,18 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="F78" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="99">
       <c r="A79" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B79">
         <v>12</v>
@@ -4566,18 +4583,18 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="F79" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="99">
       <c r="A80" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B80">
         <v>7</v>
@@ -4586,18 +4603,18 @@
         <v>9</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F80" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="99">
       <c r="A81" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B81">
         <v>6</v>
@@ -4606,18 +4623,18 @@
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="F81" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="82.5">
       <c r="A82" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B82">
         <v>10</v>
@@ -4626,18 +4643,18 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F82" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="99">
       <c r="A83" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B83">
         <v>5</v>
@@ -4646,18 +4663,18 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F83" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="99">
       <c r="A84" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B84">
         <v>4</v>
@@ -4666,18 +4683,18 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F84" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="99">
       <c r="A85" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B85">
         <v>6</v>
@@ -4686,18 +4703,18 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F85" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="99">
       <c r="A86" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B86">
         <v>7</v>
@@ -4706,18 +4723,18 @@
         <v>9</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F86" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="99">
       <c r="A87" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B87">
         <v>6</v>
@@ -4726,18 +4743,18 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F87" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="82.5">
       <c r="A88" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B88">
         <v>5</v>
@@ -4746,18 +4763,18 @@
         <v>9</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F88" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="99">
       <c r="A89" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B89">
         <v>4</v>
@@ -4766,18 +4783,18 @@
         <v>9</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F89" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="82.5">
       <c r="A90" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B90">
         <v>3</v>
@@ -4786,18 +4803,18 @@
         <v>9</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F90" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="99">
       <c r="A91" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B91">
         <v>4</v>
@@ -4806,38 +4823,38 @@
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F91" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="82.5">
       <c r="A92" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B92">
         <v>3</v>
       </c>
       <c r="C92" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F92" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="82.5">
       <c r="A93" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B93">
         <v>5</v>
@@ -4846,18 +4863,18 @@
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F93" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="99">
       <c r="A94" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B94">
         <v>9</v>
@@ -4866,18 +4883,18 @@
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F94" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="99">
       <c r="A95" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B95">
         <v>7</v>
@@ -4886,18 +4903,18 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F95" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="82.5">
       <c r="A96" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B96">
         <v>2</v>
@@ -4906,18 +4923,18 @@
         <v>9</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F96" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="99">
       <c r="A97" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B97">
         <v>5</v>
@@ -4926,18 +4943,18 @@
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E97" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="F97" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="99">
       <c r="A98" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -4946,18 +4963,18 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F98" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="99">
       <c r="A99" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B99">
         <v>3</v>
@@ -4966,18 +4983,18 @@
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F99" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="99">
       <c r="A100" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B100">
         <v>9</v>
@@ -4986,18 +5003,18 @@
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F100" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="99">
       <c r="A101" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B101">
         <v>5</v>
@@ -5006,18 +5023,18 @@
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F101" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="82.5">
       <c r="A102" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B102">
         <v>5</v>
@@ -5026,18 +5043,18 @@
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F102" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="99">
       <c r="A103" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B103">
         <v>6</v>
@@ -5046,18 +5063,18 @@
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F103" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="99">
       <c r="A104" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B104">
         <v>0.9</v>
@@ -5066,18 +5083,18 @@
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F104" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="99">
       <c r="A105" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B105">
         <v>2</v>
@@ -5086,18 +5103,18 @@
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F105" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="99">
       <c r="A106" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B106">
         <v>4</v>
@@ -5106,18 +5123,18 @@
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F106" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="99">
       <c r="A107" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B107">
         <v>7</v>
@@ -5126,18 +5143,18 @@
         <v>9</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F107" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="99">
       <c r="A108" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B108">
         <v>5</v>
@@ -5146,18 +5163,18 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F108" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="99">
       <c r="A109" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B109">
         <v>1.7</v>
@@ -5166,58 +5183,58 @@
         <v>9</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F109" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="99">
       <c r="A110" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B110">
         <v>0.8</v>
       </c>
       <c r="C110" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F110" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="49.5">
       <c r="A111" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B111">
         <v>0.9</v>
       </c>
       <c r="C111" t="s">
+        <v>275</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E111" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>279</v>
-      </c>
       <c r="F111" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="99">
       <c r="A112" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B112">
         <v>5</v>
@@ -5226,18 +5243,18 @@
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F112" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="99">
       <c r="A113" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B113">
         <v>3</v>
@@ -5246,18 +5263,18 @@
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F113" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="66">
       <c r="A114" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B114">
         <v>1.2</v>
@@ -5266,18 +5283,18 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F114" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="99">
       <c r="A115" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B115">
         <v>3.5</v>
@@ -5286,18 +5303,18 @@
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F115" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="99">
       <c r="A116" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B116">
         <v>4</v>
@@ -5306,18 +5323,18 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F116" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="99">
       <c r="A117" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B117">
         <v>7</v>
@@ -5326,18 +5343,18 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F117" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="82.5">
       <c r="A118" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B118">
         <v>8</v>
@@ -5346,18 +5363,18 @@
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F118" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="99">
       <c r="A119" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B119">
         <v>1.5</v>
@@ -5366,18 +5383,18 @@
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F119" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="82.5">
       <c r="A120" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B120">
         <v>5</v>
@@ -5386,18 +5403,18 @@
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F120" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="99">
       <c r="A121" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B121">
         <v>5</v>
@@ -5406,18 +5423,18 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F121" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="99">
       <c r="A122" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B122">
         <v>5</v>
@@ -5426,18 +5443,18 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F122" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="99">
       <c r="A123" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B123">
         <v>4</v>
@@ -5446,18 +5463,18 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F123" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="99">
       <c r="A124" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B124">
         <v>14</v>
@@ -5466,18 +5483,18 @@
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F124" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="99">
       <c r="A125" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B125">
         <v>5</v>
@@ -5486,18 +5503,18 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F125" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="99">
       <c r="A126" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B126">
         <v>5</v>
@@ -5506,18 +5523,18 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F126" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="99">
       <c r="A127" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B127">
         <v>9</v>
@@ -5526,18 +5543,18 @@
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F127" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="99">
       <c r="A128" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B128">
         <v>8</v>
@@ -5546,18 +5563,18 @@
         <v>9</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F128" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="99">
       <c r="A129" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B129">
         <v>12</v>
@@ -5566,18 +5583,18 @@
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F129" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="99">
       <c r="A130" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B130">
         <v>9</v>
@@ -5586,18 +5603,18 @@
         <v>9</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="99">
       <c r="A131" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B131">
         <v>5</v>
@@ -5606,18 +5623,18 @@
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F131" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="99">
       <c r="A132" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B132">
         <v>6</v>
@@ -5626,18 +5643,18 @@
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F132" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="99">
       <c r="A133" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B133">
         <v>3</v>
@@ -5646,18 +5663,18 @@
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F133" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="99">
       <c r="A134" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B134">
         <v>4</v>
@@ -5666,18 +5683,18 @@
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F134" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="99">
       <c r="A135" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B135">
         <v>6</v>
@@ -5686,38 +5703,38 @@
         <v>9</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F135" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B136">
         <v>5</v>
       </c>
       <c r="C136" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E136" t="s">
         <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="99">
       <c r="A137" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B137">
         <v>5</v>
@@ -5726,18 +5743,18 @@
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F137" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="99">
       <c r="A138" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B138">
         <v>6</v>
@@ -5746,18 +5763,18 @@
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F138" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="99">
       <c r="A139" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B139">
         <v>4</v>
@@ -5766,18 +5783,18 @@
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F139" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="67.5">
       <c r="A140" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B140">
         <v>1.1000000000000001</v>
@@ -5786,18 +5803,18 @@
         <v>9</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F140" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="82.5">
       <c r="A141" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B141">
         <v>1.3</v>
@@ -5806,18 +5823,18 @@
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F141" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="66">
       <c r="A142" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B142">
         <v>15</v>
@@ -5826,18 +5843,18 @@
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F142" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="99">
       <c r="A143" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B143">
         <v>8</v>
@@ -5846,18 +5863,18 @@
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F143" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="99">
       <c r="A144" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B144">
         <v>11</v>
@@ -5866,18 +5883,18 @@
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F144" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="82.5">
       <c r="A145" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B145">
         <v>9</v>
@@ -5886,18 +5903,18 @@
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F145" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="148.5">
       <c r="A146" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B146">
         <v>5</v>
@@ -5906,18 +5923,18 @@
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F146" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="99">
       <c r="A147" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B147">
         <v>5</v>
@@ -5926,18 +5943,18 @@
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F147" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="99">
       <c r="A148" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B148">
         <v>5</v>
@@ -5946,18 +5963,18 @@
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F148" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="99">
       <c r="A149" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B149">
         <v>11</v>
@@ -5966,18 +5983,18 @@
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F149" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="99">
       <c r="A150" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B150">
         <v>10</v>
@@ -5986,18 +6003,18 @@
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F150" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="99">
       <c r="A151" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B151">
         <v>7</v>
@@ -6006,18 +6023,18 @@
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F151" s="9" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="82.5">
       <c r="A152" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B152">
         <v>7.2</v>
@@ -6026,18 +6043,18 @@
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F152" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="82.5">
       <c r="A153" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B153">
         <v>1.6</v>
@@ -6046,13 +6063,33 @@
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F153" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="82.5">
+      <c r="A154" t="s">
+        <v>460</v>
+      </c>
+      <c r="B154">
+        <v>4</v>
+      </c>
+      <c r="C154" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E154" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="E153" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F153" t="s">
-        <v>344</v>
+      <c r="F154" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -6180,9 +6217,11 @@
     <hyperlink ref="D92" r:id="rId120" xr:uid="{72BBC2F8-4E6F-4DFD-B837-9BFEBE7BA406}"/>
     <hyperlink ref="D152" r:id="rId121" xr:uid="{0B4ECC27-EC91-4F95-82E0-FD9CDCD9A93F}"/>
     <hyperlink ref="D153" r:id="rId122" xr:uid="{49B38CC6-2C17-4FEF-90C9-05FEFA135B41}"/>
+    <hyperlink ref="D154" r:id="rId123" xr:uid="{AF977E07-3465-484E-A22D-D98816820D8E}"/>
+    <hyperlink ref="D42" r:id="rId124" xr:uid="{C2109FB0-C10E-4DCF-989E-E84149DE1EAC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId123"/>
-  <legacyDrawing r:id="rId124"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId125"/>
+  <legacyDrawing r:id="rId126"/>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new_news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEF8666-CDDA-4553-B216-D0ED576C119E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0708445B-3C5C-4A26-8BA2-056761EF23D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10275" yWindow="960" windowWidth="26040" windowHeight="19425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1830" yWindow="3255" windowWidth="31680" windowHeight="16875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -732,9 +732,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.ilyosisa.co.kr/</t>
-  </si>
-  <si>
     <t>url_list = soup.select("#lstPop3040 li")[:5];
 url_list = ["https://www.ilyosisa.co.kr" + i.select_one("a")["href"] for i in url_list];
 title_list = soup.select("#lstPop3040 li")[:5];
@@ -1761,9 +1758,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.businesskorea.co.kr/news/articleList.html?sc_multi_code=S2&amp;view_type=sm</t>
-  </si>
-  <si>
     <t>url_list = soup.select("#section-list ul li")[:5];
 url_list = ["https://www.businesskorea.co.kr" + i.select_one("a")["href"] for i in url_list];
 title_list = soup.select("#section-list ul li h2.titles")[:5];
@@ -2055,14 +2049,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>url_list = soup.select("div.live-news-li div div.live-news-box p.news-title")[:5];
-url_list = [i.select_one("a")["href"].replace("//","https://") for i in url_list];
-title_list = soup.select("div.live-news-li div div.live-news-box p.news-title a")[:5];
-title_list = [i.text.strip() for i in title_list];
-body_list = ["" for i in range(5)];</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>노컷뉴스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2375,10 +2361,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.ekn.kr/web/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.moneys.co.kr/realissue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2573,16 +2555,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>url_list = soup.select("#section-list ul.type2 li")[:5];
+    <t>https://news.daum.net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.businesskorea.co.kr/news/articleList.html?sc_multi_code=S2&amp;view_type=sm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ilyosisa.co.kr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_list = soup.select("#section-list ul li")[:5];
 url_list = ["http://www.nextdaily.co.kr" + i.select_one("a")["href"]for i in url_list];
-title_list = soup.select("#section-list ul.type2 li h2.titles")[:5];
-title_list = [i.text.strip() for i in title_list];
-body_list = soup.select("#section-list ul.type2 li p")[:5];
-body_list = [i.text.strip() for i in body_list];</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://news.daum.net</t>
+title_list = soup.select("#section-list ul li h2.titles")[:5];
+title_list = [i.text.strip() for i in title_list];
+body_list = soup.select("#section-list ul li p")[:5];
+body_list = [i.text.strip() for i in body_list];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_list = soup.select("section.news-list-wrap article.news-list-box")[:5];
+url_list = ["https://www.ekn.kr/web/" + i.select_one("a")["href"]for i in url_list];
+title_list = soup.select("section.news-list-wrap article.news-list-box h1")[:5];
+title_list = [i.text.strip() for i in title_list];
+body_list = soup.select("section.news-list-wrap article.news-list-box p")[:5];
+body_list = [i.text.strip() for i in body_list];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ekn.kr/web/search_detail.php?page=0&amp;sword=ekn&amp;w_gbn=titcont</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3000,8 +3003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3029,7 +3032,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3043,38 +3046,38 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="99">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -3086,10 +3089,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="99">
@@ -3106,15 +3109,15 @@
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="104.25" customHeight="1">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -3129,7 +3132,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="81">
@@ -3143,13 +3146,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="81">
@@ -3169,7 +3172,7 @@
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="81">
@@ -3189,7 +3192,7 @@
         <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="81">
@@ -3209,7 +3212,7 @@
         <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="81">
@@ -3229,7 +3232,7 @@
         <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="99">
@@ -3249,7 +3252,7 @@
         <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="99">
@@ -3269,7 +3272,7 @@
         <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="99">
@@ -3289,12 +3292,12 @@
         <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="99">
       <c r="A15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -3303,13 +3306,13 @@
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="F15" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="99">
@@ -3329,7 +3332,7 @@
         <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="99">
@@ -3343,13 +3346,13 @@
         <v>9</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="99">
@@ -3363,13 +3366,13 @@
         <v>9</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F18" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="99">
@@ -3389,7 +3392,7 @@
         <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="99">
@@ -3403,13 +3406,13 @@
         <v>9</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="99">
@@ -3429,7 +3432,7 @@
         <v>52</v>
       </c>
       <c r="F21" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="99">
@@ -3443,13 +3446,13 @@
         <v>9</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="99">
@@ -3469,7 +3472,7 @@
         <v>57</v>
       </c>
       <c r="F23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="99">
@@ -3489,7 +3492,7 @@
         <v>60</v>
       </c>
       <c r="F24" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="82.5">
@@ -3503,13 +3506,13 @@
         <v>9</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F25" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="99">
@@ -3529,7 +3532,7 @@
         <v>64</v>
       </c>
       <c r="F26" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="82.5">
@@ -3546,10 +3549,10 @@
         <v>102</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F27" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="99">
@@ -3566,10 +3569,10 @@
         <v>104</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F28" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="82.5">
@@ -3586,10 +3589,10 @@
         <v>68</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F29" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="99">
@@ -3603,13 +3606,13 @@
         <v>9</v>
       </c>
       <c r="D30" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="F30" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="82.5">
@@ -3629,7 +3632,7 @@
         <v>103</v>
       </c>
       <c r="F31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="82.5">
@@ -3643,13 +3646,13 @@
         <v>9</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F32" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="81">
@@ -3669,7 +3672,7 @@
         <v>75</v>
       </c>
       <c r="F33" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="81">
@@ -3689,7 +3692,7 @@
         <v>78</v>
       </c>
       <c r="F34" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="81">
@@ -3703,13 +3706,13 @@
         <v>9</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>80</v>
       </c>
       <c r="F35" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="81">
@@ -3723,13 +3726,13 @@
         <v>9</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F36" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="81">
@@ -3743,13 +3746,13 @@
         <v>9</v>
       </c>
       <c r="D37" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>439</v>
-      </c>
       <c r="F37" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="81">
@@ -3763,13 +3766,13 @@
         <v>9</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>83</v>
       </c>
       <c r="F38" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="99">
@@ -3789,7 +3792,7 @@
         <v>86</v>
       </c>
       <c r="F39" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="99">
@@ -3803,13 +3806,13 @@
         <v>9</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F40" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="99">
@@ -3829,7 +3832,7 @@
         <v>90</v>
       </c>
       <c r="F41" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="99">
@@ -3837,19 +3840,19 @@
         <v>92</v>
       </c>
       <c r="B42">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>464</v>
-      </c>
       <c r="F42" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="99">
@@ -3869,7 +3872,7 @@
         <v>94</v>
       </c>
       <c r="F43" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="99">
@@ -3889,7 +3892,7 @@
         <v>97</v>
       </c>
       <c r="F44" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="99">
@@ -3909,10 +3912,10 @@
         <v>100</v>
       </c>
       <c r="F45" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="82.5">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="99">
       <c r="A46" t="s">
         <v>105</v>
       </c>
@@ -3923,13 +3926,13 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>428</v>
+        <v>465</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>370</v>
+        <v>464</v>
       </c>
       <c r="F46" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="99">
@@ -3946,10 +3949,10 @@
         <v>107</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F47" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="99">
@@ -3969,12 +3972,12 @@
         <v>110</v>
       </c>
       <c r="F48" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="99">
       <c r="A49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -3983,13 +3986,13 @@
         <v>9</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F49" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="99">
@@ -4009,7 +4012,7 @@
         <v>112</v>
       </c>
       <c r="F50" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="99">
@@ -4029,7 +4032,7 @@
         <v>116</v>
       </c>
       <c r="F51" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="99">
@@ -4049,7 +4052,7 @@
         <v>117</v>
       </c>
       <c r="F52" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="99">
@@ -4069,7 +4072,7 @@
         <v>122</v>
       </c>
       <c r="F53" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="82.5">
@@ -4083,18 +4086,18 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F54" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="99">
       <c r="A55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B55">
         <v>6</v>
@@ -4103,18 +4106,18 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F55" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="99">
       <c r="A56" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B56">
         <v>6</v>
@@ -4123,13 +4126,13 @@
         <v>9</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F56" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="99">
@@ -4149,12 +4152,12 @@
         <v>125</v>
       </c>
       <c r="F57" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="82.5">
       <c r="A58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B58">
         <v>5</v>
@@ -4162,19 +4165,19 @@
       <c r="C58" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="F58" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="99">
       <c r="A59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B59">
         <v>5</v>
@@ -4183,18 +4186,18 @@
         <v>9</v>
       </c>
       <c r="D59" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="F59" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="99">
       <c r="A60" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -4203,18 +4206,18 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="F60" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="99">
       <c r="A61" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B61">
         <v>6</v>
@@ -4223,18 +4226,18 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F61" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="82.5">
       <c r="A62" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B62">
         <v>3</v>
@@ -4243,18 +4246,18 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="F62" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="82.5">
       <c r="A63" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B63">
         <v>6</v>
@@ -4263,18 +4266,18 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F63" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="99">
       <c r="A64" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B64">
         <v>8</v>
@@ -4283,18 +4286,18 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="F64" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="99">
       <c r="A65" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B65">
         <v>10.5</v>
@@ -4303,18 +4306,18 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="F65" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="99">
       <c r="A66" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B66">
         <v>3</v>
@@ -4323,118 +4326,118 @@
         <v>9</v>
       </c>
       <c r="D66" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="F66" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B67">
         <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B68">
         <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B69">
         <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B70">
         <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B71">
         <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="99">
       <c r="A72" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B72">
         <v>3</v>
@@ -4443,78 +4446,78 @@
         <v>9</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F72" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B73">
         <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B74">
         <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E74" t="s">
         <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B75">
         <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="99">
       <c r="A76" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B76">
         <v>4</v>
@@ -4523,18 +4526,18 @@
         <v>9</v>
       </c>
       <c r="D76" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="F76" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="99">
       <c r="A77" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B77">
         <v>4</v>
@@ -4543,18 +4546,18 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F77" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="99">
       <c r="A78" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B78">
         <v>4</v>
@@ -4563,18 +4566,18 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F78" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="99">
       <c r="A79" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B79">
         <v>12</v>
@@ -4583,18 +4586,18 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F79" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="99">
       <c r="A80" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B80">
         <v>7</v>
@@ -4603,18 +4606,18 @@
         <v>9</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F80" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="99">
       <c r="A81" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B81">
         <v>6</v>
@@ -4623,18 +4626,18 @@
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F81" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="82.5">
       <c r="A82" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B82">
         <v>10</v>
@@ -4643,18 +4646,18 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F82" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="99">
       <c r="A83" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B83">
         <v>5</v>
@@ -4663,18 +4666,18 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="F83" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="99">
       <c r="A84" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B84">
         <v>4</v>
@@ -4683,18 +4686,18 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="F84" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="99">
       <c r="A85" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B85">
         <v>6</v>
@@ -4703,18 +4706,18 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="F85" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="99">
       <c r="A86" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B86">
         <v>7</v>
@@ -4723,18 +4726,18 @@
         <v>9</v>
       </c>
       <c r="D86" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="F86" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="99">
       <c r="A87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B87">
         <v>6</v>
@@ -4743,18 +4746,18 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F87" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="82.5">
       <c r="A88" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B88">
         <v>5</v>
@@ -4763,18 +4766,18 @@
         <v>9</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F88" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="99">
       <c r="A89" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B89">
         <v>4</v>
@@ -4783,18 +4786,18 @@
         <v>9</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F89" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="82.5">
       <c r="A90" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B90">
         <v>3</v>
@@ -4803,18 +4806,18 @@
         <v>9</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F90" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="99">
       <c r="A91" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B91">
         <v>4</v>
@@ -4823,38 +4826,38 @@
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="F91" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="82.5">
       <c r="A92" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B92">
         <v>3</v>
       </c>
       <c r="C92" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F92" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="82.5">
       <c r="A93" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B93">
         <v>5</v>
@@ -4863,38 +4866,38 @@
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="F93" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="99">
       <c r="A94" t="s">
+        <v>224</v>
+      </c>
+      <c r="B94">
+        <v>9</v>
+      </c>
+      <c r="C94" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B94">
-        <v>9</v>
-      </c>
-      <c r="C94" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="F94" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="99">
       <c r="A95" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B95">
         <v>7</v>
@@ -4903,18 +4906,18 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="F95" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="82.5">
       <c r="A96" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B96">
         <v>2</v>
@@ -4923,18 +4926,18 @@
         <v>9</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F96" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="99">
       <c r="A97" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B97">
         <v>5</v>
@@ -4943,18 +4946,18 @@
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F97" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="99">
       <c r="A98" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -4963,18 +4966,18 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E98" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="F98" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="99">
       <c r="A99" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B99">
         <v>3</v>
@@ -4983,18 +4986,18 @@
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F99" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="99">
       <c r="A100" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B100">
         <v>9</v>
@@ -5003,18 +5006,18 @@
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F100" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="99">
       <c r="A101" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B101">
         <v>5</v>
@@ -5023,18 +5026,18 @@
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F101" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="82.5">
       <c r="A102" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B102">
         <v>5</v>
@@ -5043,18 +5046,18 @@
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E102" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E102" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="F102" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="99">
       <c r="A103" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B103">
         <v>6</v>
@@ -5063,18 +5066,18 @@
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F103" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="99">
       <c r="A104" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B104">
         <v>0.9</v>
@@ -5083,18 +5086,18 @@
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E104" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E104" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="F104" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="99">
       <c r="A105" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B105">
         <v>2</v>
@@ -5103,18 +5106,18 @@
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E105" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="F105" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="99">
       <c r="A106" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B106">
         <v>4</v>
@@ -5123,18 +5126,18 @@
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E106" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E106" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="F106" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="99">
       <c r="A107" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B107">
         <v>7</v>
@@ -5143,18 +5146,18 @@
         <v>9</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F107" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="99">
       <c r="A108" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B108">
         <v>5</v>
@@ -5163,18 +5166,18 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E108" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="F108" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="99">
       <c r="A109" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B109">
         <v>1.7</v>
@@ -5183,58 +5186,58 @@
         <v>9</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F109" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="99">
       <c r="A110" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B110">
         <v>0.8</v>
       </c>
       <c r="C110" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F110" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="49.5">
       <c r="A111" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B111">
         <v>0.9</v>
       </c>
       <c r="C111" t="s">
+        <v>274</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="E111" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E111" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="F111" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="99">
       <c r="A112" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B112">
         <v>5</v>
@@ -5243,18 +5246,18 @@
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E112" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="E112" s="1" t="s">
-        <v>279</v>
-      </c>
       <c r="F112" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="99">
       <c r="A113" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B113">
         <v>3</v>
@@ -5263,18 +5266,18 @@
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E113" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="F113" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="66">
       <c r="A114" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B114">
         <v>1.2</v>
@@ -5283,18 +5286,18 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F114" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="99">
       <c r="A115" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B115">
         <v>3.5</v>
@@ -5303,18 +5306,18 @@
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F115" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="99">
       <c r="A116" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B116">
         <v>4</v>
@@ -5323,18 +5326,18 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E116" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E116" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="F116" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="99">
       <c r="A117" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B117">
         <v>7</v>
@@ -5343,18 +5346,18 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F117" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="82.5">
       <c r="A118" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B118">
         <v>8</v>
@@ -5363,18 +5366,18 @@
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F118" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="99">
       <c r="A119" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B119">
         <v>1.5</v>
@@ -5383,18 +5386,18 @@
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F119" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="82.5">
       <c r="A120" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B120">
         <v>5</v>
@@ -5403,18 +5406,18 @@
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F120" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="99">
       <c r="A121" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B121">
         <v>5</v>
@@ -5423,18 +5426,18 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F121" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="99">
       <c r="A122" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B122">
         <v>5</v>
@@ -5443,18 +5446,18 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E122" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E122" s="1" t="s">
-        <v>304</v>
-      </c>
       <c r="F122" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="99">
       <c r="A123" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B123">
         <v>4</v>
@@ -5463,18 +5466,18 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E123" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="E123" s="1" t="s">
-        <v>307</v>
-      </c>
       <c r="F123" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="99">
       <c r="A124" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B124">
         <v>14</v>
@@ -5483,18 +5486,18 @@
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F124" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="99">
       <c r="A125" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B125">
         <v>5</v>
@@ -5503,18 +5506,18 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F125" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="99">
       <c r="A126" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B126">
         <v>5</v>
@@ -5523,18 +5526,18 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F126" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="99">
       <c r="A127" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B127">
         <v>9</v>
@@ -5543,18 +5546,18 @@
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>321</v>
+        <v>461</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F127" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="99">
       <c r="A128" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B128">
         <v>8</v>
@@ -5563,18 +5566,18 @@
         <v>9</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F128" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="99">
       <c r="A129" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B129">
         <v>12</v>
@@ -5583,18 +5586,18 @@
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F129" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="99">
       <c r="A130" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B130">
         <v>9</v>
@@ -5603,18 +5606,18 @@
         <v>9</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="99">
       <c r="A131" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B131">
         <v>5</v>
@@ -5623,18 +5626,18 @@
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F131" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="99">
       <c r="A132" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B132">
         <v>6</v>
@@ -5643,18 +5646,18 @@
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F132" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="99">
       <c r="A133" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B133">
         <v>3</v>
@@ -5663,18 +5666,18 @@
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F133" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="99">
       <c r="A134" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B134">
         <v>4</v>
@@ -5683,18 +5686,18 @@
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F134" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="99">
       <c r="A135" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B135">
         <v>6</v>
@@ -5703,38 +5706,38 @@
         <v>9</v>
       </c>
       <c r="D135" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E135" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="E135" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="F135" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B136">
         <v>5</v>
       </c>
       <c r="C136" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E136" t="s">
         <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="99">
       <c r="A137" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B137">
         <v>5</v>
@@ -5743,18 +5746,18 @@
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F137" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="99">
       <c r="A138" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B138">
         <v>6</v>
@@ -5763,18 +5766,18 @@
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F138" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="99">
       <c r="A139" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B139">
         <v>4</v>
@@ -5783,18 +5786,18 @@
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F139" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="67.5">
       <c r="A140" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B140">
         <v>1.1000000000000001</v>
@@ -5803,18 +5806,18 @@
         <v>9</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F140" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="82.5">
       <c r="A141" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B141">
         <v>1.3</v>
@@ -5823,18 +5826,18 @@
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F141" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="66">
       <c r="A142" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B142">
         <v>15</v>
@@ -5843,18 +5846,18 @@
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F142" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="99">
       <c r="A143" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B143">
         <v>8</v>
@@ -5863,18 +5866,18 @@
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F143" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="99">
       <c r="A144" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B144">
         <v>11</v>
@@ -5883,18 +5886,18 @@
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F144" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="82.5">
       <c r="A145" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B145">
         <v>9</v>
@@ -5903,18 +5906,18 @@
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F145" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="148.5">
       <c r="A146" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B146">
         <v>5</v>
@@ -5923,18 +5926,18 @@
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F146" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="99">
       <c r="A147" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B147">
         <v>5</v>
@@ -5943,18 +5946,18 @@
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F147" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="99">
       <c r="A148" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B148">
         <v>5</v>
@@ -5963,18 +5966,18 @@
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F148" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="99">
       <c r="A149" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B149">
         <v>11</v>
@@ -5983,18 +5986,18 @@
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F149" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="99">
       <c r="A150" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B150">
         <v>10</v>
@@ -6003,18 +6006,18 @@
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F150" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="99">
       <c r="A151" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B151">
         <v>7</v>
@@ -6023,18 +6026,18 @@
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F151" s="9" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="82.5">
       <c r="A152" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B152">
         <v>7.2</v>
@@ -6043,18 +6046,18 @@
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F152" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="82.5">
       <c r="A153" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B153">
         <v>1.6</v>
@@ -6063,18 +6066,18 @@
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F153" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="82.5">
       <c r="A154" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B154">
         <v>4</v>
@@ -6083,13 +6086,13 @@
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F154" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -6219,9 +6222,11 @@
     <hyperlink ref="D153" r:id="rId122" xr:uid="{49B38CC6-2C17-4FEF-90C9-05FEFA135B41}"/>
     <hyperlink ref="D154" r:id="rId123" xr:uid="{AF977E07-3465-484E-A22D-D98816820D8E}"/>
     <hyperlink ref="D42" r:id="rId124" xr:uid="{C2109FB0-C10E-4DCF-989E-E84149DE1EAC}"/>
+    <hyperlink ref="D127" r:id="rId125" xr:uid="{50BA8730-2B77-4DFA-A049-17427C1D7CC5}"/>
+    <hyperlink ref="D58" r:id="rId126" xr:uid="{C988080E-F4EB-46BF-AB72-D073DF5191B6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId125"/>
-  <legacyDrawing r:id="rId126"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId127"/>
+  <legacyDrawing r:id="rId128"/>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new_news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0708445B-3C5C-4A26-8BA2-056761EF23D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06D7139-5387-4C33-8D6B-F3A86A9A0094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1830" yWindow="3255" windowWidth="31680" windowHeight="16875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="2805" windowWidth="31680" windowHeight="16875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2543,14 +2543,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>url_list = soup.select("div.analysis_wrap div.img_part2_keyword_m")[:3];
-url_list = ["https://www.finance-scope.com" + i.select_one("a")["href"] for i in url_list];
-title_list = soup.select("div.analysis_wrap div.img_part2_keyword_m div dl.analysis_sec_m dt")[:3];
-title_list = [i.text.strip() for i in title_list];
-body_list = ["" for i in range(3)];</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.nextdaily.co.kr/news/articleList.html?view_type=sm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2586,6 +2578,14 @@
   </si>
   <si>
     <t>https://www.ekn.kr/web/search_detail.php?page=0&amp;sword=ekn&amp;w_gbn=titcont</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_list = soup.select("div.analysis_wrap div.img_part2_keyword_m")[:3];
+url_list = ["https://www.finance-scope.com" + i.select_one("a")["href"]for i in url_list];
+title_list = soup.select("div.analysis_wrap div.img_part2_keyword_m div dl dt")[:3];
+title_list = [i.text.strip() for i in title_list];
+body_list = ["" for i in range(3)];</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3003,8 +3003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E152" sqref="E152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3066,7 +3066,7 @@
         <v>330</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -3846,10 +3846,10 @@
         <v>9</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F42" t="s">
         <v>339</v>
@@ -3926,10 +3926,10 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F46" t="s">
         <v>339</v>
@@ -4166,7 +4166,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>127</v>
@@ -5546,7 +5546,7 @@
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>320</v>
@@ -6089,7 +6089,7 @@
         <v>457</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="F154" t="s">
         <v>339</v>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new_news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06D7139-5387-4C33-8D6B-F3A86A9A0094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEBAB32-87B8-449E-8FEC-CE1A66F257F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="2805" windowWidth="31680" windowHeight="16875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2539,10 +2539,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.finance-scope.com/article/list/scp_SC007000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.nextdaily.co.kr/news/articleList.html?view_type=sm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2587,6 +2583,9 @@
 title_list = [i.text.strip() for i in title_list];
 body_list = ["" for i in range(3)];</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.finance-scope.com/article/list/scp_SC001000000</t>
   </si>
 </sst>
 </file>
@@ -3004,7 +3003,7 @@
   <dimension ref="A1:F154"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A150" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E152" sqref="E152"/>
+      <selection activeCell="E151" sqref="E151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3066,7 +3065,7 @@
         <v>330</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -3846,10 +3845,10 @@
         <v>9</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F42" t="s">
         <v>339</v>
@@ -3926,10 +3925,10 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F46" t="s">
         <v>339</v>
@@ -4166,7 +4165,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>127</v>
@@ -5546,7 +5545,7 @@
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>320</v>
@@ -6086,10 +6085,10 @@
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F154" t="s">
         <v>339</v>
@@ -6220,13 +6219,12 @@
     <hyperlink ref="D92" r:id="rId120" xr:uid="{72BBC2F8-4E6F-4DFD-B837-9BFEBE7BA406}"/>
     <hyperlink ref="D152" r:id="rId121" xr:uid="{0B4ECC27-EC91-4F95-82E0-FD9CDCD9A93F}"/>
     <hyperlink ref="D153" r:id="rId122" xr:uid="{49B38CC6-2C17-4FEF-90C9-05FEFA135B41}"/>
-    <hyperlink ref="D154" r:id="rId123" xr:uid="{AF977E07-3465-484E-A22D-D98816820D8E}"/>
-    <hyperlink ref="D42" r:id="rId124" xr:uid="{C2109FB0-C10E-4DCF-989E-E84149DE1EAC}"/>
-    <hyperlink ref="D127" r:id="rId125" xr:uid="{50BA8730-2B77-4DFA-A049-17427C1D7CC5}"/>
-    <hyperlink ref="D58" r:id="rId126" xr:uid="{C988080E-F4EB-46BF-AB72-D073DF5191B6}"/>
+    <hyperlink ref="D42" r:id="rId123" xr:uid="{C2109FB0-C10E-4DCF-989E-E84149DE1EAC}"/>
+    <hyperlink ref="D127" r:id="rId124" xr:uid="{50BA8730-2B77-4DFA-A049-17427C1D7CC5}"/>
+    <hyperlink ref="D58" r:id="rId125" xr:uid="{C988080E-F4EB-46BF-AB72-D073DF5191B6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId127"/>
-  <legacyDrawing r:id="rId128"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId126"/>
+  <legacyDrawing r:id="rId127"/>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new_news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEBAB32-87B8-449E-8FEC-CE1A66F257F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D769B0D4-71F2-430B-A893-130992A0523F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="2805" windowWidth="31680" windowHeight="16875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="31680" windowHeight="16875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2577,15 +2577,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>url_list = soup.select("div.analysis_wrap div.img_part2_keyword_m")[:3];
+    <t>https://www.finance-scope.com/article/list/scp_SC007000000</t>
+  </si>
+  <si>
+    <t>url_list = soup.select("div.col-span-12 div.analysis_wrap div.img_part2_keyword_m")[:3];
 url_list = ["https://www.finance-scope.com" + i.select_one("a")["href"]for i in url_list];
-title_list = soup.select("div.analysis_wrap div.img_part2_keyword_m div dl dt")[:3];
+title_list = soup.select("div.col-span-12 div.analysis_wrap div.img_part2_keyword_m div dl dt")[:3];
 title_list = [i.text.strip() for i in title_list];
 body_list = ["" for i in range(3)];</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.finance-scope.com/article/list/scp_SC001000000</t>
   </si>
 </sst>
 </file>
@@ -3002,8 +3002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E151" sqref="E151"/>
+    <sheetView tabSelected="1" topLeftCell="E147" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F151" sqref="F151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6030,8 +6030,8 @@
       <c r="E151" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="F151" s="9" t="s">
-        <v>449</v>
+      <c r="F151" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="82.5">
@@ -6084,11 +6084,11 @@
       <c r="C154" t="s">
         <v>9</v>
       </c>
-      <c r="D154" s="2" t="s">
+      <c r="D154" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="E154" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>464</v>
       </c>
       <c r="F154" t="s">
         <v>339</v>

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new_news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D769B0D4-71F2-430B-A893-130992A0523F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDFCBCE-0F2D-4B33-83C5-F3ABC748BA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="31680" windowHeight="16875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="600" windowWidth="31680" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -289,15 +289,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>url_list = soup.select("#section-list ul li")[:5];
-url_list = ["https://www.getnews.co.kr" + i.select_one("a")["href"] for i in url_list];
-title_list = soup.select("#section-list ul li h3.titles")[:5];
-title_list = [i.text.strip() for i in title_list];
-body_list = soup.select("#section-list ul li p.lead")[:5];
-body_list = [i.text.strip() for i in body_list];</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>금강일보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1914,9 +1905,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://biz.newdaily.co.kr/news/section.html?catid=all</t>
-  </si>
-  <si>
     <t>url_list = soup.select("article.section-top div div.title")[:5];
 url_list = [i.select_one("a")["href"] for i in url_list];
 title_list = soup.select("article.section-top div div.title")[:5];
@@ -2577,14 +2565,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.finance-scope.com/article/list/scp_SC007000000</t>
-  </si>
-  <si>
     <t>url_list = soup.select("div.col-span-12 div.analysis_wrap div.img_part2_keyword_m")[:3];
 url_list = ["https://www.finance-scope.com" + i.select_one("a")["href"]for i in url_list];
 title_list = soup.select("div.col-span-12 div.analysis_wrap div.img_part2_keyword_m div dl dt")[:3];
 title_list = [i.text.strip() for i in title_list];
 body_list = ["" for i in range(3)];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.finance-scope.com/article/list/scp_SC001000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://biz.newdaily.co.kr/news/section.html?catid=all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_list = soup.select("#section-list ul li")[:5];
+url_list = ["https://www.getnews.co.kr" + i.select_one("a")["href"] for i in url_list];
+title_list = soup.select("#section-list ul li h2.titles")[:5];
+title_list = [i.text.strip() for i in title_list];
+body_list = soup.select("#section-list ul li p.lead")[:5];
+body_list = [i.text.strip() for i in body_list];</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3002,8 +3004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E147" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F151" sqref="F151"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3031,7 +3033,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3045,38 +3047,38 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="99">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -3088,10 +3090,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="99">
@@ -3108,15 +3110,15 @@
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="104.25" customHeight="1">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -3131,7 +3133,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="81">
@@ -3145,13 +3147,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="81">
@@ -3171,7 +3173,7 @@
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="81">
@@ -3191,7 +3193,7 @@
         <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="81">
@@ -3211,7 +3213,7 @@
         <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="81">
@@ -3231,7 +3233,7 @@
         <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="99">
@@ -3251,7 +3253,7 @@
         <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="99">
@@ -3271,7 +3273,7 @@
         <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="99">
@@ -3291,12 +3293,12 @@
         <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="99">
       <c r="A15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -3305,13 +3307,13 @@
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="F15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="99">
@@ -3331,7 +3333,7 @@
         <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="99">
@@ -3345,18 +3347,18 @@
         <v>9</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>43</v>
+        <v>465</v>
       </c>
       <c r="F17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="99">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18">
         <v>9</v>
@@ -3365,18 +3367,18 @@
         <v>9</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F18" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="99">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -3385,18 +3387,18 @@
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="F19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="99">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20">
         <v>7</v>
@@ -3405,18 +3407,18 @@
         <v>9</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="99">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -3425,18 +3427,18 @@
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F21" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="99">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22">
         <v>7</v>
@@ -3445,18 +3447,18 @@
         <v>9</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="99">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -3465,18 +3467,18 @@
         <v>9</v>
       </c>
       <c r="D23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="F23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="99">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -3485,18 +3487,18 @@
         <v>9</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="82.5">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25">
         <v>9</v>
@@ -3505,18 +3507,18 @@
         <v>9</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F25" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="99">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -3525,18 +3527,18 @@
         <v>9</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="F26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="82.5">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>6</v>
@@ -3545,18 +3547,18 @@
         <v>9</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="99">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>5</v>
@@ -3565,18 +3567,18 @@
         <v>9</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="82.5">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <v>5</v>
@@ -3585,18 +3587,18 @@
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F29" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="99">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -3605,18 +3607,18 @@
         <v>9</v>
       </c>
       <c r="D30" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="F30" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="82.5">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -3625,18 +3627,18 @@
         <v>9</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F31" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="82.5">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -3645,18 +3647,18 @@
         <v>9</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F32" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="81">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B33">
         <v>8</v>
@@ -3665,58 +3667,58 @@
         <v>9</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F33" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="81">
       <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B34">
-        <v>9</v>
-      </c>
-      <c r="C34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="F34" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="81">
       <c r="A35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B35">
-        <v>9</v>
-      </c>
-      <c r="C35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="F35" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="81">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B36">
         <v>8</v>
@@ -3725,18 +3727,18 @@
         <v>9</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F36" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="81">
       <c r="A37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B37">
         <v>7</v>
@@ -3745,18 +3747,18 @@
         <v>9</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F37" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="81">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B38">
         <v>5</v>
@@ -3765,18 +3767,18 @@
         <v>9</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F38" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="99">
       <c r="A39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B39">
         <v>12</v>
@@ -3785,18 +3787,18 @@
         <v>9</v>
       </c>
       <c r="D39" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="F39" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="99">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B40">
         <v>7</v>
@@ -3805,18 +3807,18 @@
         <v>9</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F40" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="99">
       <c r="A41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B41">
         <v>12</v>
@@ -3825,18 +3827,18 @@
         <v>9</v>
       </c>
       <c r="D41" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="F41" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="99">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B42">
         <v>8</v>
@@ -3845,18 +3847,18 @@
         <v>9</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F42" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="99">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B43">
         <v>11</v>
@@ -3865,18 +3867,18 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="F43" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="99">
       <c r="A44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -3885,18 +3887,18 @@
         <v>9</v>
       </c>
       <c r="D44" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="F44" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="99">
       <c r="A45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B45">
         <v>6</v>
@@ -3905,18 +3907,18 @@
         <v>9</v>
       </c>
       <c r="D45" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="F45" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="99">
       <c r="A46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B46">
         <v>7</v>
@@ -3925,18 +3927,18 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F46" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="99">
       <c r="A47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B47">
         <v>8</v>
@@ -3945,18 +3947,18 @@
         <v>9</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F47" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="99">
       <c r="A48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B48">
         <v>4</v>
@@ -3965,18 +3967,18 @@
         <v>9</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F48" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="99">
       <c r="A49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -3985,18 +3987,18 @@
         <v>9</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F49" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="99">
       <c r="A50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B50">
         <v>6</v>
@@ -4005,38 +4007,38 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="F50" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="99">
       <c r="A51" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B51">
-        <v>9</v>
-      </c>
-      <c r="C51" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="F51" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="99">
       <c r="A52" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B52">
         <v>8</v>
@@ -4045,18 +4047,18 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F52" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="99">
       <c r="A53" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -4065,18 +4067,18 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="F53" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="82.5">
       <c r="A54" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -4085,18 +4087,18 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F54" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="99">
       <c r="A55" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B55">
         <v>6</v>
@@ -4105,18 +4107,18 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F55" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="99">
       <c r="A56" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B56">
         <v>6</v>
@@ -4125,18 +4127,18 @@
         <v>9</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F56" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="99">
       <c r="A57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B57">
         <v>5</v>
@@ -4145,18 +4147,18 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="F57" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="82.5">
       <c r="A58" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B58">
         <v>5</v>
@@ -4165,18 +4167,18 @@
         <v>9</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F58" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="99">
       <c r="A59" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B59">
         <v>5</v>
@@ -4185,18 +4187,18 @@
         <v>9</v>
       </c>
       <c r="D59" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="F59" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="99">
       <c r="A60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -4205,18 +4207,18 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="F60" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="99">
       <c r="A61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B61">
         <v>6</v>
@@ -4225,18 +4227,18 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F61" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="82.5">
       <c r="A62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B62">
         <v>3</v>
@@ -4245,18 +4247,18 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="F62" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="82.5">
       <c r="A63" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B63">
         <v>6</v>
@@ -4265,18 +4267,18 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F63" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="99">
       <c r="A64" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B64">
         <v>8</v>
@@ -4285,18 +4287,18 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="F64" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="99">
       <c r="A65" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B65">
         <v>10.5</v>
@@ -4305,18 +4307,18 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="F65" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="99">
       <c r="A66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B66">
         <v>3</v>
@@ -4325,118 +4327,118 @@
         <v>9</v>
       </c>
       <c r="D66" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="F66" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B67">
         <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B68">
         <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B69">
         <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B70">
         <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B71">
         <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="99">
       <c r="A72" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B72">
         <v>3</v>
@@ -4445,78 +4447,78 @@
         <v>9</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F72" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B73">
         <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B74">
         <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E74" t="s">
         <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B75">
         <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="99">
       <c r="A76" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B76">
         <v>4</v>
@@ -4525,18 +4527,18 @@
         <v>9</v>
       </c>
       <c r="D76" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="F76" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="99">
       <c r="A77" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B77">
         <v>4</v>
@@ -4545,18 +4547,18 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F77" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="99">
       <c r="A78" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B78">
         <v>4</v>
@@ -4565,18 +4567,18 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F78" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="99">
       <c r="A79" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B79">
         <v>12</v>
@@ -4585,18 +4587,18 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F79" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="99">
       <c r="A80" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B80">
         <v>7</v>
@@ -4605,18 +4607,18 @@
         <v>9</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F80" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="99">
       <c r="A81" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B81">
         <v>6</v>
@@ -4625,18 +4627,18 @@
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F81" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="82.5">
       <c r="A82" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B82">
         <v>10</v>
@@ -4645,18 +4647,18 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F82" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="99">
       <c r="A83" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B83">
         <v>5</v>
@@ -4665,18 +4667,18 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="F83" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="99">
       <c r="A84" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B84">
         <v>4</v>
@@ -4685,18 +4687,18 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="F84" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="99">
       <c r="A85" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B85">
         <v>6</v>
@@ -4705,18 +4707,18 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="F85" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="99">
       <c r="A86" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B86">
         <v>7</v>
@@ -4725,18 +4727,18 @@
         <v>9</v>
       </c>
       <c r="D86" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="F86" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="99">
       <c r="A87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B87">
         <v>6</v>
@@ -4745,18 +4747,18 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F87" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="82.5">
       <c r="A88" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B88">
         <v>5</v>
@@ -4765,18 +4767,18 @@
         <v>9</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F88" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="99">
       <c r="A89" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B89">
         <v>4</v>
@@ -4785,18 +4787,18 @@
         <v>9</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F89" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="82.5">
       <c r="A90" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B90">
         <v>3</v>
@@ -4804,19 +4806,19 @@
       <c r="C90" t="s">
         <v>9</v>
       </c>
-      <c r="D90" s="3" t="s">
-        <v>347</v>
+      <c r="D90" s="8" t="s">
+        <v>464</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F90" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="99">
       <c r="A91" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B91">
         <v>4</v>
@@ -4825,38 +4827,38 @@
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="F91" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="82.5">
       <c r="A92" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B92">
         <v>3</v>
       </c>
       <c r="C92" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F92" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="82.5">
       <c r="A93" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B93">
         <v>5</v>
@@ -4865,38 +4867,38 @@
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="F93" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="99">
       <c r="A94" t="s">
+        <v>223</v>
+      </c>
+      <c r="B94">
+        <v>9</v>
+      </c>
+      <c r="C94" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B94">
-        <v>9</v>
-      </c>
-      <c r="C94" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="F94" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="99">
       <c r="A95" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B95">
         <v>7</v>
@@ -4905,18 +4907,18 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="F95" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="82.5">
       <c r="A96" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B96">
         <v>2</v>
@@ -4925,18 +4927,18 @@
         <v>9</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F96" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="99">
       <c r="A97" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B97">
         <v>5</v>
@@ -4945,18 +4947,18 @@
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F97" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="99">
       <c r="A98" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -4965,18 +4967,18 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E98" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="F98" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="99">
       <c r="A99" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B99">
         <v>3</v>
@@ -4985,18 +4987,18 @@
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F99" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="99">
       <c r="A100" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B100">
         <v>9</v>
@@ -5005,18 +5007,18 @@
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F100" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="99">
       <c r="A101" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B101">
         <v>5</v>
@@ -5025,18 +5027,18 @@
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F101" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="82.5">
       <c r="A102" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B102">
         <v>5</v>
@@ -5045,18 +5047,18 @@
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E102" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E102" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="F102" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="99">
       <c r="A103" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B103">
         <v>6</v>
@@ -5065,18 +5067,18 @@
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F103" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="99">
       <c r="A104" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B104">
         <v>0.9</v>
@@ -5085,18 +5087,18 @@
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E104" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E104" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="F104" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="99">
       <c r="A105" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B105">
         <v>2</v>
@@ -5105,18 +5107,18 @@
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E105" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="F105" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="99">
       <c r="A106" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B106">
         <v>4</v>
@@ -5125,18 +5127,18 @@
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E106" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E106" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="F106" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="99">
       <c r="A107" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B107">
         <v>7</v>
@@ -5145,38 +5147,38 @@
         <v>9</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F107" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="99">
       <c r="A108" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B108">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E108" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>258</v>
-      </c>
       <c r="F108" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="99">
       <c r="A109" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B109">
         <v>1.7</v>
@@ -5185,58 +5187,58 @@
         <v>9</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F109" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="99">
       <c r="A110" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B110">
         <v>0.8</v>
       </c>
       <c r="C110" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F110" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="49.5">
       <c r="A111" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B111">
         <v>0.9</v>
       </c>
       <c r="C111" t="s">
+        <v>273</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="E111" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E111" s="1" t="s">
-        <v>276</v>
-      </c>
       <c r="F111" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="99">
       <c r="A112" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B112">
         <v>5</v>
@@ -5245,18 +5247,18 @@
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E112" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E112" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="F112" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="99">
       <c r="A113" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B113">
         <v>3</v>
@@ -5265,18 +5267,18 @@
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E113" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="F113" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="66">
       <c r="A114" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B114">
         <v>1.2</v>
@@ -5285,18 +5287,18 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F114" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="99">
       <c r="A115" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B115">
         <v>3.5</v>
@@ -5305,18 +5307,18 @@
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F115" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="99">
       <c r="A116" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B116">
         <v>4</v>
@@ -5325,18 +5327,18 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E116" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E116" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="F116" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="99">
       <c r="A117" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B117">
         <v>7</v>
@@ -5345,18 +5347,18 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F117" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="82.5">
       <c r="A118" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B118">
         <v>8</v>
@@ -5365,18 +5367,18 @@
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F118" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="99">
       <c r="A119" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B119">
         <v>1.5</v>
@@ -5385,18 +5387,18 @@
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F119" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="82.5">
       <c r="A120" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B120">
         <v>5</v>
@@ -5405,18 +5407,18 @@
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F120" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="99">
       <c r="A121" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B121">
         <v>5</v>
@@ -5425,18 +5427,18 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F121" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="99">
       <c r="A122" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B122">
         <v>5</v>
@@ -5445,18 +5447,18 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E122" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E122" s="1" t="s">
-        <v>303</v>
-      </c>
       <c r="F122" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="99">
       <c r="A123" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B123">
         <v>4</v>
@@ -5465,18 +5467,18 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E123" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E123" s="1" t="s">
-        <v>306</v>
-      </c>
       <c r="F123" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="99">
       <c r="A124" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B124">
         <v>14</v>
@@ -5485,18 +5487,18 @@
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F124" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="99">
       <c r="A125" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B125">
         <v>5</v>
@@ -5505,18 +5507,18 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F125" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="99">
       <c r="A126" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B126">
         <v>5</v>
@@ -5525,18 +5527,18 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F126" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="99">
       <c r="A127" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B127">
         <v>9</v>
@@ -5545,18 +5547,18 @@
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F127" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="99">
       <c r="A128" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B128">
         <v>8</v>
@@ -5565,18 +5567,18 @@
         <v>9</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F128" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="99">
       <c r="A129" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B129">
         <v>12</v>
@@ -5585,18 +5587,18 @@
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F129" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="99">
       <c r="A130" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B130">
         <v>9</v>
@@ -5605,18 +5607,18 @@
         <v>9</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="99">
       <c r="A131" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B131">
         <v>5</v>
@@ -5625,18 +5627,18 @@
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F131" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="99">
       <c r="A132" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B132">
         <v>6</v>
@@ -5645,18 +5647,18 @@
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E132" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="E132" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="F132" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="99">
       <c r="A133" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B133">
         <v>3</v>
@@ -5665,18 +5667,18 @@
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F133" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="99">
       <c r="A134" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B134">
         <v>4</v>
@@ -5685,18 +5687,18 @@
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F134" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="99">
       <c r="A135" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B135">
         <v>6</v>
@@ -5705,38 +5707,38 @@
         <v>9</v>
       </c>
       <c r="D135" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E135" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="E135" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="F135" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B136">
         <v>5</v>
       </c>
       <c r="C136" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E136" t="s">
         <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="99">
       <c r="A137" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B137">
         <v>5</v>
@@ -5745,18 +5747,18 @@
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F137" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="99">
       <c r="A138" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B138">
         <v>6</v>
@@ -5765,18 +5767,18 @@
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F138" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="99">
       <c r="A139" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B139">
         <v>4</v>
@@ -5785,18 +5787,18 @@
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F139" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="67.5">
       <c r="A140" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B140">
         <v>1.1000000000000001</v>
@@ -5805,18 +5807,18 @@
         <v>9</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F140" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="82.5">
       <c r="A141" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B141">
         <v>1.3</v>
@@ -5825,18 +5827,18 @@
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F141" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="66">
       <c r="A142" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B142">
         <v>15</v>
@@ -5845,18 +5847,18 @@
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F142" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="99">
       <c r="A143" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B143">
         <v>8</v>
@@ -5865,18 +5867,18 @@
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F143" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="99">
       <c r="A144" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B144">
         <v>11</v>
@@ -5885,18 +5887,18 @@
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F144" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="82.5">
       <c r="A145" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B145">
         <v>9</v>
@@ -5905,18 +5907,18 @@
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F145" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="148.5">
       <c r="A146" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B146">
         <v>5</v>
@@ -5925,18 +5927,18 @@
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F146" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="99">
       <c r="A147" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B147">
         <v>5</v>
@@ -5945,18 +5947,18 @@
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F147" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="99">
       <c r="A148" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B148">
         <v>5</v>
@@ -5965,18 +5967,18 @@
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F148" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="99">
       <c r="A149" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B149">
         <v>11</v>
@@ -5985,18 +5987,18 @@
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F149" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="99">
       <c r="A150" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B150">
         <v>10</v>
@@ -6005,18 +6007,18 @@
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F150" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="99">
       <c r="A151" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B151">
         <v>7</v>
@@ -6025,18 +6027,18 @@
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F151" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="82.5">
       <c r="A152" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B152">
         <v>7.2</v>
@@ -6045,18 +6047,18 @@
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F152" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="82.5">
       <c r="A153" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B153">
         <v>1.6</v>
@@ -6065,18 +6067,18 @@
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F153" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="82.5">
       <c r="A154" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B154">
         <v>4</v>
@@ -6084,14 +6086,14 @@
       <c r="C154" t="s">
         <v>9</v>
       </c>
-      <c r="D154" s="3" t="s">
-        <v>464</v>
+      <c r="D154" s="8" t="s">
+        <v>463</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F154" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -6222,9 +6224,11 @@
     <hyperlink ref="D42" r:id="rId123" xr:uid="{C2109FB0-C10E-4DCF-989E-E84149DE1EAC}"/>
     <hyperlink ref="D127" r:id="rId124" xr:uid="{50BA8730-2B77-4DFA-A049-17427C1D7CC5}"/>
     <hyperlink ref="D58" r:id="rId125" xr:uid="{C988080E-F4EB-46BF-AB72-D073DF5191B6}"/>
+    <hyperlink ref="D154" r:id="rId126" xr:uid="{FB3A211A-F1B3-4151-917F-A8420DCE473C}"/>
+    <hyperlink ref="D90" r:id="rId127" xr:uid="{3B941BCF-E75D-4DA8-8A44-527E84ED7297}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId126"/>
-  <legacyDrawing r:id="rId127"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId128"/>
+  <legacyDrawing r:id="rId129"/>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new_news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDFCBCE-0F2D-4B33-83C5-F3ABC748BA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C094D48C-6F1A-4D2B-A9B0-AD1C244129E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="600" windowWidth="31680" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="600" windowWidth="31680" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2573,10 +2573,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.finance-scope.com/article/list/scp_SC001000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://biz.newdaily.co.kr/news/section.html?catid=all</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2587,6 +2583,10 @@
 title_list = [i.text.strip() for i in title_list];
 body_list = soup.select("#section-list ul li p.lead")[:5];
 body_list = [i.text.strip() for i in body_list];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.finance-scope.com/article/list/scp_SC007000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3004,8 +3004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E151" sqref="E151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3350,7 +3350,7 @@
         <v>313</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F17" t="s">
         <v>338</v>
@@ -4807,7 +4807,7 @@
         <v>9</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>346</v>
@@ -6087,7 +6087,7 @@
         <v>9</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>462</v>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new_news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C094D48C-6F1A-4D2B-A9B0-AD1C244129E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F3F669-EF79-403F-9100-A7C7518AF56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="600" windowWidth="31680" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7410" yWindow="1080" windowWidth="31680" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="460">
   <si>
     <t>naver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,19 +192,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.asiatoday.co.kr/kn_section.php?d1=all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url_list = soup.select("div.sub_section_news_box dl dd")[:5];
-url_list = ["https://www.asiatoday.co.kr" + i.select_one("a")["href"] for i in url_list];
-title_list = soup.select("div.sub_section_news_box dl dd h5.li_nt")[:5];
-title_list = [i.text.strip() for i in title_list];
-body_list = soup.select("div.sub_section_news_box dl dd span.ellipsis02")[:5];
-body_list = [i.text.strip() for i in body_list];</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>오토데일리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -253,22 +240,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.dailyimpact.co.kr/news/articleList.html?page=1&amp;view_type=sm</t>
-  </si>
-  <si>
-    <t>데일리임팩트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url_list = soup.select("#section-list ul li")[:5];
-url_list = ["https://www.dailyimpact.co.kr" + i.select_one("a")["href"] for i in url_list];
-title_list = soup.select("#section-list ul li h4.titles")[:5];
-title_list = [i.text.strip() for i in title_list];
-body_list = soup.select("#section-list ul li p.lead")[:5];
-body_list = [i.text.strip() for i in body_list];</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.electimes.com/news/articleList.html?view_type=sm</t>
   </si>
   <si>
@@ -393,9 +364,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.thekpm.com/news/articleList.html?page=1&amp;sc_order_by=E&amp;view_type=sm</t>
-  </si>
-  <si>
     <t>url_list = soup.select("#section-list ul li")[:5];
 url_list = ["https://www.thekpm.com" + i.select_one("a")["href"] for i in url_list];
 title_list = soup.select("#section-list ul li h4.titles")[:5];
@@ -446,22 +414,6 @@
     <t>url_list = soup.select("#section-list ul.type2 li")[:5];
 url_list = ["http://www.docdocdoc.co.kr" + i.select_one("a")["href"]for i in url_list];
 title_list = soup.select("#section-list ul.type2 li h4.titles")[:5];
-title_list = [i.text.strip() for i in title_list];
-body_list = soup.select("#section-list ul.type2 li p")[:5];
-body_list = [i.text.strip() for i in body_list];</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.e2news.com/news/articleList.html?view_type=sm</t>
-  </si>
-  <si>
-    <t>e2news</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url_list = soup.select("#section-list ul.type2 li")[:5];
-url_list = ["http://www.e2news.com" + i.select_one("a")["href"]for i in url_list];
-title_list = soup.select("#section-list ul.type2 li h2.titles")[:5];
 title_list = [i.text.strip() for i in title_list];
 body_list = soup.select("#section-list ul.type2 li p")[:5];
 body_list = [i.text.strip() for i in body_list];</t>
@@ -1365,15 +1317,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>url_list = soup.select("div.subWrapper ul.poll_list li div.p_l_conts")[:5];
-url_list = [i.select_one("a")["href"]for i in url_list];
-title_list = soup.select("div.subWrapper ul.poll_list li div.p_l_conts h3")[:5];
-title_list = [i.text.strip() for i in title_list];
-body_list = soup.select("div.subWrapper ul.poll_list li p.p_l_c_date")[:5];
-body_list = [i.text.strip() for i in body_list];</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>더팩트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1478,9 +1421,6 @@
 body_list = soup.select("section.article-list-content div.row div.article-column div.list-block-content div.list-summary")[:5];
 body_list = [i.text.strip() for i in body_list];</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://news.tf.co.kr/list/all?mode=img</t>
   </si>
   <si>
     <t>https://m.daishin.com/g.ds?m=3807&amp;p=3654&amp;v=2699</t>
@@ -2588,6 +2528,34 @@
   <si>
     <t>https://www.finance-scope.com/article/list/scp_SC007000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.thekpm.com/news/articleList.html?page=1&amp;sc_order_by=E&amp;view_type=sm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_list = soup.select("div.secBody div.lCol ul.aAtcList li")[:5];
+url_list = [i.select_one("a")["href"]for i in url_list];
+title_list = soup.select("div.secBody div.lCol ul.aAtcList li a")[:5];
+title_list = [i.text.strip() for i in title_list];
+body_list = ["" for i in range(5)];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://news.tf.co.kr/list/all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_list = soup.select("div.sub_news_list_box dl dd")[:5];
+url_list = ["https://www.asiatoday.co.kr" + i.select_one("a")["href"] for i in url_list];
+title_list = soup.select("div.sub_news_list_box dl dd h4")[:5];
+title_list = [i.text.strip() for i in title_list];
+body_list = soup.select("div.sub_news_list_box dl dd p")[:5];
+body_list = [i.text.strip() for i in body_list];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.asiatoday.co.kr/kn/section_list.php?d1=all</t>
   </si>
 </sst>
 </file>
@@ -3002,10 +2970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F154"/>
+  <dimension ref="A1:F152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E151" sqref="E151"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3033,7 +3001,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3047,38 +3015,38 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F2" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="99">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -3090,10 +3058,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F4" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="99">
@@ -3110,15 +3078,15 @@
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F5" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="104.25" customHeight="1">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -3133,7 +3101,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="81">
@@ -3147,13 +3115,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="81">
@@ -3173,7 +3141,7 @@
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="81">
@@ -3193,7 +3161,7 @@
         <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="81">
@@ -3207,18 +3175,18 @@
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>459</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>26</v>
+        <v>458</v>
       </c>
       <c r="F10" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="81">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -3227,38 +3195,38 @@
         <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="99">
       <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F12" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="99">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -3267,198 +3235,198 @@
         <v>9</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="F13" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="99">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>168</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>36</v>
+      <c r="D14" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="F14" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="99">
       <c r="A15" t="s">
-        <v>177</v>
+        <v>35</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>178</v>
+      <c r="D15" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>179</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="99">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>39</v>
+      <c r="D16" s="8" t="s">
+        <v>302</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>41</v>
+        <v>453</v>
       </c>
       <c r="F16" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="99">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>464</v>
-      </c>
       <c r="F17" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="99">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B18">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>383</v>
+      <c r="D18" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>324</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="99">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>45</v>
+      <c r="D19" s="8" t="s">
+        <v>201</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="99">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>210</v>
+      <c r="D20" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F20" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="99">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>49</v>
+      <c r="D21" s="8" t="s">
+        <v>425</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" t="s">
-        <v>338</v>
+        <v>48</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="99">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>436</v>
+      <c r="D22" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>447</v>
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="99">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -3467,98 +3435,98 @@
         <v>9</v>
       </c>
       <c r="D23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="82.5">
+      <c r="A24" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="B24">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F24" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="99">
+      <c r="A25" t="s">
         <v>56</v>
       </c>
-      <c r="F23" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="99">
-      <c r="A24" t="s">
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="82.5">
+      <c r="A26" t="s">
         <v>58</v>
       </c>
-      <c r="B24">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="99">
+      <c r="A27" t="s">
         <v>59</v>
       </c>
-      <c r="F24" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="82.5">
-      <c r="A25" t="s">
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F27" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="82.5">
+      <c r="A28" t="s">
         <v>60</v>
-      </c>
-      <c r="B25">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="F25" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="99">
-      <c r="A26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26">
-        <v>5</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="82.5">
-      <c r="A27" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F27" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="99">
-      <c r="A28" t="s">
-        <v>65</v>
       </c>
       <c r="B28">
         <v>5</v>
@@ -3566,59 +3534,59 @@
       <c r="C28" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>103</v>
+      <c r="D28" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F28" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="82.5">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="99">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>67</v>
+      <c r="D29" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F29" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="99">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="82.5">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>172</v>
+      <c r="D30" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>173</v>
+        <v>93</v>
       </c>
       <c r="F30" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="82.5">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -3626,159 +3594,159 @@
       <c r="C31" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>69</v>
+      <c r="D31" s="8" t="s">
+        <v>405</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>102</v>
+        <v>404</v>
       </c>
       <c r="F31" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="82.5">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="81">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>415</v>
+      <c r="D32" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="F32" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="81">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>72</v>
+      <c r="D33" s="8" t="s">
+        <v>323</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F33" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="81">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B34">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>75</v>
+      <c r="D34" s="8" t="s">
+        <v>314</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>77</v>
+        <v>351</v>
       </c>
       <c r="F34" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="81">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B35">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>334</v>
+        <v>418</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>79</v>
+        <v>422</v>
       </c>
       <c r="F35" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="81">
       <c r="A36" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B36">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>325</v>
+        <v>273</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>362</v>
+        <v>73</v>
       </c>
       <c r="F36" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="81">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="99">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B37">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="99">
+      <c r="A38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38">
         <v>7</v>
       </c>
-      <c r="C37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="F37" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="81">
-      <c r="A38" t="s">
-        <v>83</v>
-      </c>
-      <c r="B38">
-        <v>5</v>
-      </c>
       <c r="C38" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>82</v>
+        <v>354</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="F38" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="99">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B39">
         <v>12</v>
@@ -3787,358 +3755,358 @@
         <v>9</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F39" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="99">
       <c r="A40" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B40">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>365</v>
+        <v>444</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>364</v>
+        <v>448</v>
       </c>
       <c r="F40" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="99">
       <c r="A41" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B41">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>88</v>
+      <c r="D41" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F41" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="99">
       <c r="A42" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B42">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>455</v>
+      <c r="D42" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>459</v>
+        <v>87</v>
       </c>
       <c r="F42" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="99">
       <c r="A43" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B43">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>92</v>
+      <c r="D43" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F43" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="99">
       <c r="A44" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>95</v>
+      <c r="D44" s="2" t="s">
+        <v>450</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>96</v>
+        <v>449</v>
       </c>
       <c r="F44" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="99">
       <c r="A45" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B45">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>98</v>
+      <c r="D45" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>99</v>
+        <v>342</v>
       </c>
       <c r="F45" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="99">
       <c r="A46" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B46">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C46" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>461</v>
+      <c r="D46" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>460</v>
+        <v>100</v>
       </c>
       <c r="F46" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="99">
       <c r="A47" t="s">
-        <v>105</v>
+        <v>228</v>
       </c>
       <c r="B47">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C47" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>353</v>
+        <v>424</v>
       </c>
       <c r="F47" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="99">
       <c r="A48" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>107</v>
+      <c r="D48" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F48" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="99">
       <c r="A49" t="s">
-        <v>237</v>
+        <v>105</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="8" t="s">
-        <v>152</v>
+      <c r="D49" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>435</v>
+        <v>106</v>
       </c>
       <c r="F49" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="99">
       <c r="A50" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B50">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F50" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="99">
       <c r="A51" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B51">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C51" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F51" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="82.5">
+      <c r="A52" t="s">
         <v>113</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F51" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="99">
-      <c r="A52" t="s">
-        <v>117</v>
-      </c>
       <c r="B52">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C52" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="F52" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="99">
       <c r="A53" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="F53" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="82.5">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="99">
       <c r="A54" t="s">
-        <v>122</v>
+        <v>382</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>151</v>
+      <c r="D54" s="8" t="s">
+        <v>413</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>167</v>
+        <v>383</v>
       </c>
       <c r="F54" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="99">
       <c r="A55" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="B55">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>175</v>
+        <v>114</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="F55" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="99">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="82.5">
       <c r="A56" t="s">
-        <v>393</v>
+        <v>118</v>
       </c>
       <c r="B56">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>424</v>
+        <v>447</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>394</v>
+        <v>117</v>
       </c>
       <c r="F56" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="99">
       <c r="A57" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B57">
         <v>5</v>
@@ -4146,79 +4114,79 @@
       <c r="C57" t="s">
         <v>9</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>123</v>
+      <c r="D57" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F57" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="82.5">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="99">
       <c r="A58" t="s">
         <v>127</v>
       </c>
       <c r="B58">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C58" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="8" t="s">
-        <v>458</v>
+      <c r="D58" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>126</v>
       </c>
       <c r="F58" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="99">
       <c r="A59" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B59">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="8" t="s">
-        <v>128</v>
+      <c r="D59" s="2" t="s">
+        <v>366</v>
       </c>
       <c r="E59" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="F59" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="82.5">
+      <c r="A60" t="s">
         <v>129</v>
       </c>
-      <c r="F59" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="99">
-      <c r="A60" t="s">
-        <v>136</v>
-      </c>
       <c r="B60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C60" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="F60" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="99">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="82.5">
       <c r="A61" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B61">
         <v>6</v>
@@ -4227,298 +4195,298 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>377</v>
+        <v>130</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>378</v>
+        <v>256</v>
       </c>
       <c r="F61" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="82.5">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="99">
       <c r="A62" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="F62" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="82.5">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="99">
       <c r="A63" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="B63">
-        <v>6</v>
+        <v>10.5</v>
       </c>
       <c r="C63" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>267</v>
+        <v>137</v>
       </c>
       <c r="F63" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="99">
       <c r="A64" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B64">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C64" t="s">
         <v>9</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>141</v>
+      <c r="D64" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F64" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="99">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="B65">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E65" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E65" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
         <v>146</v>
       </c>
-      <c r="F65" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="99">
-      <c r="A66" t="s">
-        <v>149</v>
-      </c>
       <c r="B66">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E66" t="s">
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>154</v>
+        <v>352</v>
       </c>
       <c r="B67">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>158</v>
+        <v>361</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>155</v>
+        <v>379</v>
       </c>
       <c r="B68">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>159</v>
+        <v>380</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>372</v>
+        <v>394</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="99">
       <c r="A70" t="s">
-        <v>390</v>
+        <v>288</v>
       </c>
       <c r="B70">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>153</v>
+        <v>9</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="E70" t="s">
-        <v>11</v>
+        <v>287</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>289</v>
       </c>
       <c r="F70" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>392</v>
+        <v>147</v>
       </c>
       <c r="B71">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>405</v>
+        <v>152</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="99">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>299</v>
+        <v>148</v>
       </c>
       <c r="B72">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>300</v>
+        <v>151</v>
+      </c>
+      <c r="E72" t="s">
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>156</v>
+        <v>301</v>
       </c>
       <c r="B73">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>161</v>
+        <v>362</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="99">
       <c r="A74" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="B74">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>153</v>
+        <v>9</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E74" t="s">
-        <v>11</v>
+        <v>172</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="F74" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="99">
       <c r="A75" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="B75">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>153</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="E75" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="F75" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="99">
       <c r="A76" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B76">
         <v>4</v>
@@ -4526,179 +4494,179 @@
       <c r="C76" t="s">
         <v>9</v>
       </c>
-      <c r="D76" s="8" t="s">
-        <v>181</v>
+      <c r="D76" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F76" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="99">
       <c r="A77" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B77">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C77" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F77" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="99">
       <c r="A78" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B78">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>9</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>186</v>
+      <c r="D78" s="8" t="s">
+        <v>300</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F78" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="99">
       <c r="A79" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B79">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F79" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="99">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="82.5">
       <c r="A80" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B80">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C80" t="s">
         <v>9</v>
       </c>
-      <c r="D80" s="8" t="s">
-        <v>311</v>
+      <c r="D80" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>193</v>
+        <v>297</v>
       </c>
       <c r="F80" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="99">
       <c r="A81" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B81">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F81" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="99">
+      <c r="A82" t="s">
         <v>194</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F81" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="82.5">
-      <c r="A82" t="s">
-        <v>197</v>
-      </c>
       <c r="B82">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C82" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>263</v>
+        <v>192</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>308</v>
+        <v>193</v>
       </c>
       <c r="F82" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="99">
       <c r="A83" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B83">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F83" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="99">
       <c r="A84" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B84">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>201</v>
+      <c r="D84" s="7" t="s">
+        <v>198</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F84" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="99">
       <c r="A85" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B85">
         <v>6</v>
@@ -4710,75 +4678,75 @@
         <v>204</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F85" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="99">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="82.5">
       <c r="A86" t="s">
-        <v>209</v>
+        <v>371</v>
       </c>
       <c r="B86">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>9</v>
       </c>
-      <c r="D86" s="7" t="s">
-        <v>207</v>
+      <c r="D86" s="8" t="s">
+        <v>412</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="F86" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="99">
       <c r="A87" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B87">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C87" t="s">
         <v>9</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>213</v>
+      <c r="D87" s="8" t="s">
+        <v>252</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F87" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="82.5">
       <c r="A88" t="s">
-        <v>382</v>
+        <v>207</v>
       </c>
       <c r="B88">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C88" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>423</v>
+        <v>452</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>335</v>
       </c>
       <c r="F88" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="99">
       <c r="A89" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B89">
         <v>4</v>
@@ -4786,619 +4754,619 @@
       <c r="C89" t="s">
         <v>9</v>
       </c>
-      <c r="D89" s="8" t="s">
-        <v>262</v>
+      <c r="D89" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F89" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="82.5">
       <c r="A90" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="B90">
         <v>3</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>463</v>
+        <v>260</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>433</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>346</v>
+        <v>434</v>
       </c>
       <c r="F90" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="99">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="82.5">
       <c r="A91" t="s">
+        <v>213</v>
+      </c>
+      <c r="B91">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F91" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="99">
+      <c r="A92" t="s">
+        <v>214</v>
+      </c>
+      <c r="B92">
+        <v>9</v>
+      </c>
+      <c r="C92" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F92" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="99">
+      <c r="A93" t="s">
+        <v>216</v>
+      </c>
+      <c r="B93">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F93" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="82.5">
+      <c r="A94" t="s">
+        <v>259</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B91">
-        <v>4</v>
-      </c>
-      <c r="C91" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F91" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="82.5">
-      <c r="A92" t="s">
-        <v>268</v>
-      </c>
-      <c r="B92">
-        <v>3</v>
-      </c>
-      <c r="C92" t="s">
-        <v>271</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="F92" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="82.5">
-      <c r="A93" t="s">
-        <v>222</v>
-      </c>
-      <c r="B93">
-        <v>5</v>
-      </c>
-      <c r="C93" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F93" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="99">
-      <c r="A94" t="s">
-        <v>223</v>
-      </c>
-      <c r="B94">
-        <v>9</v>
-      </c>
-      <c r="C94" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="F94" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="99">
       <c r="A95" t="s">
+        <v>221</v>
+      </c>
+      <c r="B95">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F95" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="99">
+      <c r="A96" t="s">
         <v>225</v>
       </c>
-      <c r="B95">
-        <v>7</v>
-      </c>
-      <c r="C95" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="F95" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="82.5">
-      <c r="A96" t="s">
-        <v>270</v>
-      </c>
       <c r="B96">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
         <v>9</v>
       </c>
-      <c r="D96" s="8" t="s">
-        <v>307</v>
+      <c r="D96" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F96" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="99">
       <c r="A97" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B97">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C97" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="F97" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="99">
       <c r="A98" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B98">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>233</v>
+        <v>350</v>
       </c>
       <c r="F98" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="99">
       <c r="A99" t="s">
+        <v>232</v>
+      </c>
+      <c r="B99">
+        <v>5</v>
+      </c>
+      <c r="C99" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F99" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="82.5">
+      <c r="A100" t="s">
         <v>235</v>
       </c>
-      <c r="B99">
-        <v>3</v>
-      </c>
-      <c r="C99" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
+      <c r="B100">
+        <v>5</v>
+      </c>
+      <c r="C100" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F100" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="82.5">
+      <c r="A101" t="s">
         <v>236</v>
       </c>
-      <c r="E99" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F99" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="99">
-      <c r="A100" t="s">
-        <v>239</v>
-      </c>
-      <c r="B100">
-        <v>9</v>
-      </c>
-      <c r="C100" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
+      <c r="B101">
+        <v>6</v>
+      </c>
+      <c r="C101" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F101" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="99">
+      <c r="A102" t="s">
+        <v>258</v>
+      </c>
+      <c r="B102">
+        <v>0.9</v>
+      </c>
+      <c r="C102" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E102" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="F100" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="99">
-      <c r="A101" t="s">
-        <v>241</v>
-      </c>
-      <c r="B101">
-        <v>5</v>
-      </c>
-      <c r="C101" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="F101" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="82.5">
-      <c r="A102" t="s">
-        <v>244</v>
-      </c>
-      <c r="B102">
-        <v>5</v>
-      </c>
-      <c r="C102" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="F102" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="99">
       <c r="A103" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B103">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C103" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F103" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="99">
       <c r="A104" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="B104">
-        <v>0.9</v>
+        <v>4</v>
       </c>
       <c r="C104" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F104" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="99">
       <c r="A105" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B105">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
         <v>9</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>249</v>
+      <c r="D105" s="8" t="s">
+        <v>432</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>250</v>
+        <v>431</v>
       </c>
       <c r="F105" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="99">
       <c r="A106" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B106">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F106" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="99">
       <c r="A107" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B107">
-        <v>7</v>
+        <v>1.7</v>
       </c>
       <c r="C107" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>443</v>
+        <v>251</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>442</v>
+        <v>249</v>
       </c>
       <c r="F107" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="99">
       <c r="A108" t="s">
-        <v>258</v>
+        <v>341</v>
       </c>
       <c r="B108">
-        <v>7</v>
+        <v>0.8</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>339</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>257</v>
+        <v>340</v>
       </c>
       <c r="F108" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="99">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="49.5">
       <c r="A109" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B109">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="F109" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="99">
       <c r="A110" t="s">
-        <v>352</v>
+        <v>267</v>
       </c>
       <c r="B110">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
-        <v>350</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E110" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>351</v>
-      </c>
       <c r="F110" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="49.5">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="99">
       <c r="A111" t="s">
+        <v>268</v>
+      </c>
+      <c r="B111">
+        <v>3</v>
+      </c>
+      <c r="C111" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F111" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="66">
+      <c r="A112" t="s">
         <v>272</v>
       </c>
-      <c r="B111">
-        <v>0.9</v>
-      </c>
-      <c r="C111" t="s">
-        <v>273</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="F111" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="99">
-      <c r="A112" t="s">
-        <v>278</v>
-      </c>
       <c r="B112">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="C112" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>277</v>
+        <v>430</v>
       </c>
       <c r="F112" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="99">
       <c r="A113" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B113">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="C113" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>280</v>
+        <v>429</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>281</v>
+        <v>428</v>
       </c>
       <c r="F113" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="66">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="99">
       <c r="A114" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B114">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="C114" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>441</v>
+        <v>276</v>
       </c>
       <c r="F114" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="99">
       <c r="A115" t="s">
-        <v>285</v>
+        <v>387</v>
       </c>
       <c r="B115">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>440</v>
+        <v>385</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>439</v>
+        <v>386</v>
       </c>
       <c r="F115" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="99">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="82.5">
       <c r="A116" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B116">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>287</v>
+        <v>336</v>
       </c>
       <c r="F116" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="99">
       <c r="A117" t="s">
-        <v>398</v>
+        <v>280</v>
       </c>
       <c r="B117">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="C117" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>396</v>
+        <v>312</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>397</v>
+        <v>281</v>
       </c>
       <c r="F117" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="82.5">
       <c r="A118" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B118">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="F118" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="99">
       <c r="A119" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B119">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="E119" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F119" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="99">
+      <c r="A120" t="s">
         <v>292</v>
-      </c>
-      <c r="F119" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="82.5">
-      <c r="A120" t="s">
-        <v>294</v>
       </c>
       <c r="B120">
         <v>5</v>
@@ -5407,518 +5375,518 @@
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>395</v>
+        <v>291</v>
       </c>
       <c r="F120" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="99">
       <c r="A121" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B121">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C121" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F121" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="99">
       <c r="A122" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B122">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C122" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="F122" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="99">
       <c r="A123" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B123">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F123" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="99">
       <c r="A124" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B124">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="F124" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="99">
       <c r="A125" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B125">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>316</v>
+        <v>446</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F125" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="99">
       <c r="A126" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B126">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
         <v>9</v>
       </c>
-      <c r="D126" s="2" t="s">
-        <v>318</v>
+      <c r="D126" s="8" t="s">
+        <v>337</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="F126" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="99">
       <c r="A127" t="s">
+        <v>321</v>
+      </c>
+      <c r="B127">
+        <v>12</v>
+      </c>
+      <c r="C127" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="B127">
-        <v>9</v>
-      </c>
-      <c r="C127" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>457</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>319</v>
       </c>
       <c r="F127" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="99">
       <c r="A128" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B128">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>348</v>
+        <v>419</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="F128" t="s">
         <v>338</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="99">
       <c r="A129" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B129">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C129" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>330</v>
+        <v>409</v>
       </c>
       <c r="F129" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="99">
       <c r="A130" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B130">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>9</v>
       </c>
-      <c r="D130" s="8" t="s">
-        <v>430</v>
+      <c r="D130" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="F130" s="9" t="s">
-        <v>447</v>
+        <v>331</v>
+      </c>
+      <c r="F130" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="99">
       <c r="A131" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="B131">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C131" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>420</v>
+        <v>332</v>
       </c>
       <c r="F131" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="99">
       <c r="A132" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B132">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C132" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F132" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="99">
       <c r="A133" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B133">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
         <v>9</v>
       </c>
-      <c r="D133" s="2" t="s">
-        <v>345</v>
+      <c r="D133" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F133" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="99">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
         <v>356</v>
       </c>
       <c r="B134">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>355</v>
+        <v>360</v>
+      </c>
+      <c r="E134" t="s">
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="99">
       <c r="A135" t="s">
+        <v>357</v>
+      </c>
+      <c r="B135">
+        <v>5</v>
+      </c>
+      <c r="C135" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E135" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B135">
+      <c r="F135" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="99">
+      <c r="A136" t="s">
+        <v>364</v>
+      </c>
+      <c r="B136">
         <v>6</v>
       </c>
-      <c r="C135" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="F135" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136" t="s">
-        <v>367</v>
-      </c>
-      <c r="B136">
-        <v>5</v>
-      </c>
       <c r="C136" t="s">
-        <v>153</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="E136" t="s">
-        <v>11</v>
+        <v>365</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>363</v>
       </c>
       <c r="F136" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="99">
       <c r="A137" t="s">
+        <v>369</v>
+      </c>
+      <c r="B137">
+        <v>4</v>
+      </c>
+      <c r="C137" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E137" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B137">
+      <c r="F137" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="67.5">
+      <c r="A138" t="s">
+        <v>373</v>
+      </c>
+      <c r="B138">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C138" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="F138" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="82.5">
+      <c r="A139" t="s">
+        <v>376</v>
+      </c>
+      <c r="B139">
+        <v>1.3</v>
+      </c>
+      <c r="C139" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F139" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="66">
+      <c r="A140" t="s">
+        <v>390</v>
+      </c>
+      <c r="B140">
+        <v>15</v>
+      </c>
+      <c r="C140" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F140" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="99">
+      <c r="A141" t="s">
+        <v>391</v>
+      </c>
+      <c r="B141">
+        <v>8</v>
+      </c>
+      <c r="C141" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F141" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="99">
+      <c r="A142" t="s">
+        <v>135</v>
+      </c>
+      <c r="B142">
+        <v>11</v>
+      </c>
+      <c r="C142" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F142" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="82.5">
+      <c r="A143" t="s">
+        <v>399</v>
+      </c>
+      <c r="B143">
+        <v>9</v>
+      </c>
+      <c r="C143" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F143" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="148.5">
+      <c r="A144" t="s">
+        <v>400</v>
+      </c>
+      <c r="B144">
         <v>5</v>
       </c>
-      <c r="C137" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="F137" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="99">
-      <c r="A138" t="s">
-        <v>375</v>
-      </c>
-      <c r="B138">
-        <v>6</v>
-      </c>
-      <c r="C138" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="F138" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="99">
-      <c r="A139" t="s">
-        <v>380</v>
-      </c>
-      <c r="B139">
-        <v>4</v>
-      </c>
-      <c r="C139" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="F139" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="67.5">
-      <c r="A140" t="s">
-        <v>384</v>
-      </c>
-      <c r="B140">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C140" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="F140" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="82.5">
-      <c r="A141" t="s">
-        <v>387</v>
-      </c>
-      <c r="B141">
-        <v>1.3</v>
-      </c>
-      <c r="C141" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="F141" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="66">
-      <c r="A142" t="s">
+      <c r="C144" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F144" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="99">
+      <c r="A145" t="s">
+        <v>403</v>
+      </c>
+      <c r="B145">
+        <v>5</v>
+      </c>
+      <c r="C145" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B142">
-        <v>15</v>
-      </c>
-      <c r="C142" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="F142" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="99">
-      <c r="A143" t="s">
+      <c r="E145" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B143">
-        <v>8</v>
-      </c>
-      <c r="C143" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="F143" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="99">
-      <c r="A144" t="s">
-        <v>144</v>
-      </c>
-      <c r="B144">
-        <v>11</v>
-      </c>
-      <c r="C144" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="F144" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="82.5">
-      <c r="A145" t="s">
-        <v>410</v>
-      </c>
-      <c r="B145">
-        <v>9</v>
-      </c>
-      <c r="C145" t="s">
-        <v>9</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="E145" s="1" t="s">
+      <c r="F145" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="99">
+      <c r="A146" t="s">
         <v>408</v>
-      </c>
-      <c r="F145" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="148.5">
-      <c r="A146" t="s">
-        <v>411</v>
       </c>
       <c r="B146">
         <v>5</v>
@@ -5927,53 +5895,53 @@
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="F146" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="99">
       <c r="A147" t="s">
+        <v>416</v>
+      </c>
+      <c r="B147">
+        <v>11</v>
+      </c>
+      <c r="C147" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E147" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B147">
-        <v>5</v>
-      </c>
-      <c r="C147" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>413</v>
-      </c>
       <c r="F147" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="99">
       <c r="A148" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B148">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C148" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="F148" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="99">
@@ -5981,119 +5949,79 @@
         <v>427</v>
       </c>
       <c r="B149">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E149" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="E149" s="1" t="s">
-        <v>425</v>
-      </c>
       <c r="F149" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="99">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="82.5">
       <c r="A150" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="B150">
-        <v>10</v>
+        <v>7.2</v>
       </c>
       <c r="C150" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="F150" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="99">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="82.5">
       <c r="A151" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B151">
-        <v>7</v>
+        <v>1.6</v>
       </c>
       <c r="C151" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="F151" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="82.5">
       <c r="A152" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B152">
-        <v>7.2</v>
+        <v>4</v>
       </c>
       <c r="C152" t="s">
         <v>9</v>
       </c>
-      <c r="D152" s="2" t="s">
-        <v>449</v>
+      <c r="D152" s="8" t="s">
+        <v>454</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="F152" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="82.5">
-      <c r="A153" t="s">
-        <v>452</v>
-      </c>
-      <c r="B153">
-        <v>1.6</v>
-      </c>
-      <c r="C153" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="F153" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="82.5">
-      <c r="A154" t="s">
-        <v>454</v>
-      </c>
-      <c r="B154">
-        <v>4</v>
-      </c>
-      <c r="C154" t="s">
-        <v>9</v>
-      </c>
-      <c r="D154" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="F154" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -6103,132 +6031,133 @@
     <hyperlink ref="D4" r:id="rId2" location="22H94G9AOV" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="D6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D19" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D21" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D29" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D43" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D27" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D28" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="D35" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D47" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D50" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="D52" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="D53" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="D54" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="D55" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="D57" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="D59" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="D7" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="D60" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="D62" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="D63" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="D64" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="D65" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="D49" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="D67" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="D68" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="D73" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="D74" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="D30" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="D15" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="D76" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="D77" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="D78" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="D79" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="D81" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="D82" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="D83" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="D84" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="D85" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="D87" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D91" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D93" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D94" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="D95" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="D20" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D97" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="D98" r:id="rId50" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="D99" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D100" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D101" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D102" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="D104" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D105" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D106" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D108" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="D109" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D89" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="D111" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="D112" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D113" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="D114" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="D32" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="D38" r:id="rId66" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D115" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D116" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D118" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D120" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="D121" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="D122" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="D123" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="D25" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="D96" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D124" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="D80" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="D17" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="D125" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="D126" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="D119" r:id="rId81" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="D36" r:id="rId82" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D3" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="D129" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D131" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D132" r:id="rId86" xr:uid="{A16A5099-7DDF-4370-95B7-BE0B27B5431C}"/>
-    <hyperlink ref="D133" r:id="rId87" xr:uid="{708EF35E-20E2-4320-AADE-685E01E763F7}"/>
-    <hyperlink ref="D128" r:id="rId88" xr:uid="{FB61B29C-091A-4DDA-AE79-D04CD219E120}"/>
-    <hyperlink ref="D110" r:id="rId89" xr:uid="{ECA328F5-23A6-4DE4-B068-F02A7D98D168}"/>
-    <hyperlink ref="D134" r:id="rId90" xr:uid="{9AD90610-B454-4A84-8345-BC650F57996E}"/>
-    <hyperlink ref="D40" r:id="rId91" xr:uid="{93E22CFB-0916-4E6E-ACC3-EEAD067C806F}"/>
-    <hyperlink ref="D137" r:id="rId92" xr:uid="{B9A9083D-DAAC-4EB9-A1EF-8226D6CE0569}"/>
-    <hyperlink ref="D136" r:id="rId93" xr:uid="{7BB4446E-C399-4A10-A149-71E6F6C21625}"/>
-    <hyperlink ref="D69" r:id="rId94" xr:uid="{26848A2D-A2E9-4D35-A878-4E94AA4528CC}"/>
-    <hyperlink ref="D75" r:id="rId95" xr:uid="{4F6D0E3F-842E-4538-B42C-64D38060BB59}"/>
-    <hyperlink ref="D138" r:id="rId96" xr:uid="{302CF079-F4AA-41D6-A7B3-02085878B25C}"/>
-    <hyperlink ref="D61" r:id="rId97" xr:uid="{FFC2D208-AEF3-4089-93F4-56B6F4845C6D}"/>
-    <hyperlink ref="D139" r:id="rId98" xr:uid="{537861A6-5879-4590-973E-CAB8004B1F94}"/>
-    <hyperlink ref="D18" r:id="rId99" xr:uid="{09DC9E19-5EF7-447C-A207-F065EAABBA9E}"/>
-    <hyperlink ref="D141" r:id="rId100" xr:uid="{B0679566-FA54-444D-8C38-A9B1A78EA00B}"/>
-    <hyperlink ref="D117" r:id="rId101" xr:uid="{548C8289-7EC3-401B-8394-4658D1E44626}"/>
-    <hyperlink ref="D142" r:id="rId102" xr:uid="{DC77A0A1-75B4-4037-BF20-173723D2E1A0}"/>
-    <hyperlink ref="D143" r:id="rId103" xr:uid="{68B8ABE4-7971-4B92-873E-57FB9E5E8E7B}"/>
-    <hyperlink ref="D71" r:id="rId104" xr:uid="{CE9629E1-6341-48A8-A515-14208ED02ACE}"/>
-    <hyperlink ref="D144" r:id="rId105" xr:uid="{7906C34E-95E6-4C1B-9565-B8B6F37DE732}"/>
-    <hyperlink ref="D145" r:id="rId106" xr:uid="{EE076CB7-11A0-4FF0-9825-6A412491927F}"/>
-    <hyperlink ref="D146" r:id="rId107" xr:uid="{155BFA89-2A1E-4E9B-9D34-97E8FE7BFBB8}"/>
-    <hyperlink ref="D147" r:id="rId108" xr:uid="{5B90FF2B-C561-4007-AD0E-86645E787947}"/>
-    <hyperlink ref="D148" r:id="rId109" xr:uid="{4B1CBD95-B37A-4E49-99CD-5B0FAFB1DD68}"/>
-    <hyperlink ref="D130" r:id="rId110" xr:uid="{933F49CC-7CBE-4246-BED0-85666C83AD9C}"/>
-    <hyperlink ref="D46" r:id="rId111" xr:uid="{44BF8FFF-EFEF-4626-91C2-16E5A0463084}"/>
-    <hyperlink ref="D88" r:id="rId112" xr:uid="{CFA38323-9624-4B72-BAD1-1DF28D103CC7}"/>
-    <hyperlink ref="D56" r:id="rId113" xr:uid="{027425D3-4104-4019-9C56-9619BD774590}"/>
-    <hyperlink ref="D149" r:id="rId114" xr:uid="{5E05232A-62B2-4A14-ABE0-B7C2FC8317E5}"/>
-    <hyperlink ref="D37" r:id="rId115" xr:uid="{E78167A9-C7BD-4913-A9BE-7D05FB372985}"/>
-    <hyperlink ref="D150" r:id="rId116" xr:uid="{A09AECAB-6573-4BCA-B75F-5029DC873CE5}"/>
-    <hyperlink ref="D22" r:id="rId117" xr:uid="{F0EA2884-0417-443D-ABC1-941CEB7EBB01}"/>
-    <hyperlink ref="D151" r:id="rId118" xr:uid="{3E967917-087B-4C24-883E-25347224DBDC}"/>
-    <hyperlink ref="D107" r:id="rId119" xr:uid="{EE590C67-17CF-44CB-8F7D-B042342203EE}"/>
-    <hyperlink ref="D92" r:id="rId120" xr:uid="{72BBC2F8-4E6F-4DFD-B837-9BFEBE7BA406}"/>
-    <hyperlink ref="D152" r:id="rId121" xr:uid="{0B4ECC27-EC91-4F95-82E0-FD9CDCD9A93F}"/>
-    <hyperlink ref="D153" r:id="rId122" xr:uid="{49B38CC6-2C17-4FEF-90C9-05FEFA135B41}"/>
-    <hyperlink ref="D42" r:id="rId123" xr:uid="{C2109FB0-C10E-4DCF-989E-E84149DE1EAC}"/>
-    <hyperlink ref="D127" r:id="rId124" xr:uid="{50BA8730-2B77-4DFA-A049-17427C1D7CC5}"/>
-    <hyperlink ref="D58" r:id="rId125" xr:uid="{C988080E-F4EB-46BF-AB72-D073DF5191B6}"/>
-    <hyperlink ref="D154" r:id="rId126" xr:uid="{FB3A211A-F1B3-4151-917F-A8420DCE473C}"/>
-    <hyperlink ref="D90" r:id="rId127" xr:uid="{3B941BCF-E75D-4DA8-8A44-527E84ED7297}"/>
+    <hyperlink ref="D18" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D20" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D28" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D41" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D26" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D27" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D33" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D45" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D48" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D50" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D51" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="D52" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D53" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="D55" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D57" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="D7" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="D58" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D60" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="D61" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="D62" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="D63" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="D47" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="D65" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="D66" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="D71" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="D72" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="D29" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="D14" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="D74" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="D75" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="D76" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="D77" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="D79" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D80" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="D81" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="D82" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="D83" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="D85" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D89" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D91" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="D92" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="D93" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D19" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D95" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="D96" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="D97" r:id="rId50" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D98" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D99" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D100" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="D102" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D103" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D104" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D106" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D107" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D87" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="D109" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="D110" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D111" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="D112" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="D31" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="D36" r:id="rId65" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D113" r:id="rId66" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D114" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D116" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D118" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D119" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="D120" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="D121" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="D24" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="D94" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D122" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="D78" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="D16" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="D123" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="D124" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="D117" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="D34" r:id="rId81" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D3" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="D127" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D129" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D130" r:id="rId85" xr:uid="{A16A5099-7DDF-4370-95B7-BE0B27B5431C}"/>
+    <hyperlink ref="D131" r:id="rId86" xr:uid="{708EF35E-20E2-4320-AADE-685E01E763F7}"/>
+    <hyperlink ref="D126" r:id="rId87" xr:uid="{FB61B29C-091A-4DDA-AE79-D04CD219E120}"/>
+    <hyperlink ref="D108" r:id="rId88" xr:uid="{ECA328F5-23A6-4DE4-B068-F02A7D98D168}"/>
+    <hyperlink ref="D132" r:id="rId89" xr:uid="{9AD90610-B454-4A84-8345-BC650F57996E}"/>
+    <hyperlink ref="D38" r:id="rId90" xr:uid="{93E22CFB-0916-4E6E-ACC3-EEAD067C806F}"/>
+    <hyperlink ref="D135" r:id="rId91" xr:uid="{B9A9083D-DAAC-4EB9-A1EF-8226D6CE0569}"/>
+    <hyperlink ref="D134" r:id="rId92" xr:uid="{7BB4446E-C399-4A10-A149-71E6F6C21625}"/>
+    <hyperlink ref="D67" r:id="rId93" xr:uid="{26848A2D-A2E9-4D35-A878-4E94AA4528CC}"/>
+    <hyperlink ref="D73" r:id="rId94" xr:uid="{4F6D0E3F-842E-4538-B42C-64D38060BB59}"/>
+    <hyperlink ref="D136" r:id="rId95" xr:uid="{302CF079-F4AA-41D6-A7B3-02085878B25C}"/>
+    <hyperlink ref="D59" r:id="rId96" xr:uid="{FFC2D208-AEF3-4089-93F4-56B6F4845C6D}"/>
+    <hyperlink ref="D137" r:id="rId97" xr:uid="{537861A6-5879-4590-973E-CAB8004B1F94}"/>
+    <hyperlink ref="D17" r:id="rId98" xr:uid="{09DC9E19-5EF7-447C-A207-F065EAABBA9E}"/>
+    <hyperlink ref="D139" r:id="rId99" xr:uid="{B0679566-FA54-444D-8C38-A9B1A78EA00B}"/>
+    <hyperlink ref="D115" r:id="rId100" xr:uid="{548C8289-7EC3-401B-8394-4658D1E44626}"/>
+    <hyperlink ref="D140" r:id="rId101" xr:uid="{DC77A0A1-75B4-4037-BF20-173723D2E1A0}"/>
+    <hyperlink ref="D141" r:id="rId102" xr:uid="{68B8ABE4-7971-4B92-873E-57FB9E5E8E7B}"/>
+    <hyperlink ref="D69" r:id="rId103" xr:uid="{CE9629E1-6341-48A8-A515-14208ED02ACE}"/>
+    <hyperlink ref="D142" r:id="rId104" xr:uid="{7906C34E-95E6-4C1B-9565-B8B6F37DE732}"/>
+    <hyperlink ref="D143" r:id="rId105" xr:uid="{EE076CB7-11A0-4FF0-9825-6A412491927F}"/>
+    <hyperlink ref="D144" r:id="rId106" xr:uid="{155BFA89-2A1E-4E9B-9D34-97E8FE7BFBB8}"/>
+    <hyperlink ref="D145" r:id="rId107" xr:uid="{5B90FF2B-C561-4007-AD0E-86645E787947}"/>
+    <hyperlink ref="D146" r:id="rId108" xr:uid="{4B1CBD95-B37A-4E49-99CD-5B0FAFB1DD68}"/>
+    <hyperlink ref="D128" r:id="rId109" xr:uid="{933F49CC-7CBE-4246-BED0-85666C83AD9C}"/>
+    <hyperlink ref="D44" r:id="rId110" xr:uid="{44BF8FFF-EFEF-4626-91C2-16E5A0463084}"/>
+    <hyperlink ref="D86" r:id="rId111" xr:uid="{CFA38323-9624-4B72-BAD1-1DF28D103CC7}"/>
+    <hyperlink ref="D54" r:id="rId112" xr:uid="{027425D3-4104-4019-9C56-9619BD774590}"/>
+    <hyperlink ref="D147" r:id="rId113" xr:uid="{5E05232A-62B2-4A14-ABE0-B7C2FC8317E5}"/>
+    <hyperlink ref="D35" r:id="rId114" xr:uid="{E78167A9-C7BD-4913-A9BE-7D05FB372985}"/>
+    <hyperlink ref="D148" r:id="rId115" xr:uid="{A09AECAB-6573-4BCA-B75F-5029DC873CE5}"/>
+    <hyperlink ref="D21" r:id="rId116" xr:uid="{F0EA2884-0417-443D-ABC1-941CEB7EBB01}"/>
+    <hyperlink ref="D149" r:id="rId117" xr:uid="{3E967917-087B-4C24-883E-25347224DBDC}"/>
+    <hyperlink ref="D105" r:id="rId118" xr:uid="{EE590C67-17CF-44CB-8F7D-B042342203EE}"/>
+    <hyperlink ref="D90" r:id="rId119" xr:uid="{72BBC2F8-4E6F-4DFD-B837-9BFEBE7BA406}"/>
+    <hyperlink ref="D150" r:id="rId120" xr:uid="{0B4ECC27-EC91-4F95-82E0-FD9CDCD9A93F}"/>
+    <hyperlink ref="D151" r:id="rId121" xr:uid="{49B38CC6-2C17-4FEF-90C9-05FEFA135B41}"/>
+    <hyperlink ref="D40" r:id="rId122" xr:uid="{C2109FB0-C10E-4DCF-989E-E84149DE1EAC}"/>
+    <hyperlink ref="D125" r:id="rId123" xr:uid="{50BA8730-2B77-4DFA-A049-17427C1D7CC5}"/>
+    <hyperlink ref="D56" r:id="rId124" xr:uid="{C988080E-F4EB-46BF-AB72-D073DF5191B6}"/>
+    <hyperlink ref="D152" r:id="rId125" xr:uid="{FB3A211A-F1B3-4151-917F-A8420DCE473C}"/>
+    <hyperlink ref="D88" r:id="rId126" xr:uid="{3B941BCF-E75D-4DA8-8A44-527E84ED7297}"/>
+    <hyperlink ref="D25" r:id="rId127" xr:uid="{4CF61DDE-F761-41F1-A22D-2FF464DFA9A2}"/>
+    <hyperlink ref="D101" r:id="rId128" xr:uid="{F69F71F7-93FB-4517-A52D-2CB75FB91539}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId128"/>
-  <legacyDrawing r:id="rId129"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId129"/>
+  <legacyDrawing r:id="rId130"/>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new_news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F3F669-EF79-403F-9100-A7C7518AF56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E59CA3-D0A0-440E-92C5-2BA67F8F3200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7410" yWindow="1080" windowWidth="31680" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3105" yWindow="2265" windowWidth="31680" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="456">
   <si>
     <t>naver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,18 +173,6 @@
   </si>
   <si>
     <t>ASIAA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.asiaa.co.kr/news/articleList.html?page=1&amp;sc_order_by=E&amp;view_type=sm</t>
-  </si>
-  <si>
-    <t>url_list = soup.select("#section-list ul li")[:5];
-url_list = ["https://www.asiaa.co.kr" + i.select_one("a")["href"] for i in url_list];
-title_list = soup.select("#section-list ul li h4.titles")[:5];
-title_list = [i.text.strip() for i in title_list];
-body_list = soup.select("#section-list ul li div.view-cont p.lead")[:5];
-body_list = [i.text.strip() for i in body_list];</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -961,23 +949,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>잡포스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.job-post.co.kr/news/articleList.html?view_type=sm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url_list = soup.select("div.article-list section.article-list-content div.list-block")[:5];
-url_list = ["https://www.job-post.co.kr" + i.select_one("a")["href"] for i in url_list];
-title_list = soup.select("div.article-list section.article-list-content div.list-block strong")[:5];
-title_list = [i.text.strip() for i in title_list];
-body_list = soup.select("div.article-list section.article-list-content p")[:5];
-body_list = [i.text.strip() for i in body_list];</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.joseilbo.com/news/news_base.php?menu1=1&amp;menu2=1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1298,18 +1269,6 @@
   </si>
   <si>
     <t>시사저널e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://m.smartfn.co.kr/article/list/sfn000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url_list = soup.select("div.newslist div.list article.article")[:5];
-url_list = ["https://m.smartfn.co.kr" + i.select_one("a")["href"]for i in url_list];
-title_list = soup.select("div.newslist div.list article.article div.text_box")[:5];
-title_list = [i.text.strip() for i in title_list];
-body_list = ["" for i in range(5)];</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2526,10 +2485,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.finance-scope.com/article/list/scp_SC007000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.thekpm.com/news/articleList.html?page=1&amp;sc_order_by=E&amp;view_type=sm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2556,6 +2511,25 @@
   </si>
   <si>
     <t>https://www.asiatoday.co.kr/kn/section_list.php?d1=all</t>
+  </si>
+  <si>
+    <t>https://www.finance-scope.com/article/list/scp_SC007000000</t>
+  </si>
+  <si>
+    <t>https://www.asiaa.co.kr/news/articleList.html?page=1&amp;sc_order_by=E&amp;view_type=sm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_list = soup.select("#section-list ul li")[:5];
+url_list = ["https://www.asiaa.co.kr" + i.select_one("a")["href"] for i in url_list];
+title_list = soup.select("#section-list ul li h2.titles")[:5];
+title_list = [i.text.strip() for i in title_list];
+body_list = soup.select("#section-list ul li div.view-cont p.lead")[:5];
+body_list = [i.text.strip() for i in body_list];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.smartfn.co.kr/news/articleList.html?view_type=sm</t>
   </si>
 </sst>
 </file>
@@ -2970,10 +2944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F152"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3001,7 +2975,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3015,38 +2989,38 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F2" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="99">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -3058,10 +3032,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F4" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="99">
@@ -3078,15 +3052,15 @@
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F5" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="104.25" customHeight="1">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -3101,7 +3075,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="81">
@@ -3115,13 +3089,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="81">
@@ -3141,7 +3115,7 @@
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="81">
@@ -3154,19 +3128,19 @@
       <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>22</v>
+      <c r="D9" s="8" t="s">
+        <v>453</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>23</v>
+        <v>454</v>
       </c>
       <c r="F9" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="81">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -3175,18 +3149,18 @@
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="F10" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="81">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -3195,38 +3169,38 @@
         <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="99">
       <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F12" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="99">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -3235,18 +3209,18 @@
         <v>9</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="F13" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="99">
       <c r="A14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -3255,18 +3229,18 @@
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F14" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="99">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15">
         <v>7</v>
@@ -3275,18 +3249,18 @@
         <v>9</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="F15" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="99">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -3295,18 +3269,18 @@
         <v>9</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F16" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="99">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17">
         <v>9</v>
@@ -3315,18 +3289,18 @@
         <v>9</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F17" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="99">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -3335,18 +3309,18 @@
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="99">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B19">
         <v>7</v>
@@ -3355,18 +3329,18 @@
         <v>9</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="99">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -3375,18 +3349,18 @@
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="F20" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="99">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B21">
         <v>7</v>
@@ -3395,18 +3369,18 @@
         <v>9</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="99">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -3415,18 +3389,18 @@
         <v>9</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="99">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -3435,18 +3409,18 @@
         <v>9</v>
       </c>
       <c r="D23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="F23" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="82.5">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B24">
         <v>9</v>
@@ -3455,18 +3429,18 @@
         <v>9</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="F24" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="99">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -3475,18 +3449,18 @@
         <v>9</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="82.5">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B26">
         <v>6</v>
@@ -3495,18 +3469,18 @@
         <v>9</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F26" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="99">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -3515,18 +3489,18 @@
         <v>9</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F27" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="82.5">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B28">
         <v>5</v>
@@ -3535,18 +3509,18 @@
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F28" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="99">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -3555,18 +3529,18 @@
         <v>9</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F29" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="82.5">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -3575,18 +3549,18 @@
         <v>9</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F30" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="82.5">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -3595,18 +3569,18 @@
         <v>9</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="F31" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="81">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B32">
         <v>8</v>
@@ -3615,18 +3589,18 @@
         <v>9</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="F32" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="81">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B33">
         <v>9</v>
@@ -3635,18 +3609,18 @@
         <v>9</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F33" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="81">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B34">
         <v>8</v>
@@ -3655,18 +3629,18 @@
         <v>9</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F34" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="81">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B35">
         <v>7</v>
@@ -3675,18 +3649,18 @@
         <v>9</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="F35" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="81">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -3695,18 +3669,18 @@
         <v>9</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F36" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="99">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B37">
         <v>12</v>
@@ -3715,18 +3689,18 @@
         <v>9</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F37" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="99">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B38">
         <v>7</v>
@@ -3735,18 +3709,18 @@
         <v>9</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F38" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="99">
       <c r="A39" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B39">
         <v>12</v>
@@ -3755,18 +3729,18 @@
         <v>9</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F39" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="99">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B40">
         <v>8</v>
@@ -3775,18 +3749,18 @@
         <v>9</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="F40" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="99">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B41">
         <v>11</v>
@@ -3795,18 +3769,18 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F41" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="99">
       <c r="A42" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -3815,18 +3789,18 @@
         <v>9</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F42" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="99">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B43">
         <v>6</v>
@@ -3835,18 +3809,18 @@
         <v>9</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F43" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="99">
       <c r="A44" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B44">
         <v>7</v>
@@ -3855,18 +3829,18 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F44" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="99">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B45">
         <v>8</v>
@@ -3875,18 +3849,18 @@
         <v>9</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F45" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="99">
       <c r="A46" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B46">
         <v>4</v>
@@ -3895,18 +3869,18 @@
         <v>9</v>
       </c>
       <c r="D46" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="F46" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="99">
       <c r="A47" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -3915,18 +3889,18 @@
         <v>9</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="F47" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="99">
       <c r="A48" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B48">
         <v>6</v>
@@ -3935,18 +3909,18 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F48" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="99">
       <c r="A49" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B49">
         <v>9</v>
@@ -3955,18 +3929,18 @@
         <v>9</v>
       </c>
       <c r="D49" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="F49" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="99">
       <c r="A50" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B50">
         <v>8</v>
@@ -3975,18 +3949,18 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F50" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="99">
       <c r="A51" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -3995,18 +3969,18 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F51" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="82.5">
       <c r="A52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -4015,18 +3989,18 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F52" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="99">
       <c r="A53" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B53">
         <v>6</v>
@@ -4035,18 +4009,18 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F53" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="99">
       <c r="A54" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B54">
         <v>6</v>
@@ -4055,18 +4029,18 @@
         <v>9</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F54" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="99">
       <c r="A55" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B55">
         <v>5</v>
@@ -4075,18 +4049,18 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F55" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="82.5">
       <c r="A56" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B56">
         <v>5</v>
@@ -4095,18 +4069,18 @@
         <v>9</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F56" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="99">
       <c r="A57" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B57">
         <v>5</v>
@@ -4115,18 +4089,18 @@
         <v>9</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F57" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="99">
       <c r="A58" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -4135,18 +4109,18 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F58" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="99">
       <c r="A59" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B59">
         <v>6</v>
@@ -4155,18 +4129,18 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F59" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="82.5">
       <c r="A60" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B60">
         <v>3</v>
@@ -4175,18 +4149,18 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F60" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="82.5">
       <c r="A61" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B61">
         <v>6</v>
@@ -4195,18 +4169,18 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="F61" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="99">
       <c r="A62" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B62">
         <v>8</v>
@@ -4215,18 +4189,18 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F62" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="99">
       <c r="A63" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B63">
         <v>10.5</v>
@@ -4235,18 +4209,18 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F63" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="99">
       <c r="A64" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -4255,118 +4229,118 @@
         <v>9</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F64" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B65">
         <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B66">
         <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B67">
         <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B68">
         <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B69">
         <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="99">
       <c r="A70" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B70">
         <v>3</v>
@@ -4375,78 +4349,78 @@
         <v>9</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F70" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B71">
         <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B72">
         <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E72" t="s">
         <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B73">
         <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="99">
       <c r="A74" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B74">
         <v>4</v>
@@ -4454,19 +4428,19 @@
       <c r="C74" t="s">
         <v>9</v>
       </c>
-      <c r="D74" s="8" t="s">
-        <v>172</v>
+      <c r="D74" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F74" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="99">
       <c r="A75" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B75">
         <v>4</v>
@@ -4475,113 +4449,113 @@
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="F75" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="99">
       <c r="A76" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B76">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C76" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="F76" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="99">
       <c r="A77" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B77">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
         <v>9</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>180</v>
+      <c r="D77" s="8" t="s">
+        <v>293</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F77" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="99">
       <c r="A78" t="s">
+        <v>181</v>
+      </c>
+      <c r="B78">
+        <v>6</v>
+      </c>
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F78" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="82.5">
+      <c r="A79" t="s">
         <v>183</v>
       </c>
-      <c r="B78">
-        <v>7</v>
-      </c>
-      <c r="C78" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="E78" s="1" t="s">
+      <c r="B79">
+        <v>10</v>
+      </c>
+      <c r="C79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F79" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="99">
+      <c r="A80" t="s">
         <v>184</v>
       </c>
-      <c r="F78" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="99">
-      <c r="A79" t="s">
+      <c r="B80">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B79">
-        <v>6</v>
-      </c>
-      <c r="C79" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F79" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="82.5">
-      <c r="A80" t="s">
-        <v>188</v>
-      </c>
-      <c r="B80">
-        <v>10</v>
-      </c>
-      <c r="C80" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="F80" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="99">
@@ -4589,284 +4563,284 @@
         <v>189</v>
       </c>
       <c r="B81">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C81" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F81" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="99">
       <c r="A82" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B82">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F82" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="99">
       <c r="A83" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B83">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>9</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>195</v>
+      <c r="D83" s="7" t="s">
+        <v>193</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F83" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="99">
       <c r="A84" t="s">
+        <v>197</v>
+      </c>
+      <c r="B84">
+        <v>6</v>
+      </c>
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F84" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="82.5">
+      <c r="A85" t="s">
+        <v>364</v>
+      </c>
+      <c r="B85">
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F85" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="99">
+      <c r="A86" t="s">
         <v>200</v>
       </c>
-      <c r="B84">
-        <v>7</v>
-      </c>
-      <c r="C84" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F84" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="99">
-      <c r="A85" t="s">
+      <c r="B86">
+        <v>4</v>
+      </c>
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F86" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="82.5">
+      <c r="A87" t="s">
         <v>202</v>
       </c>
-      <c r="B85">
-        <v>6</v>
-      </c>
-      <c r="C85" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
+      <c r="B87">
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F87" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="99">
+      <c r="A88" t="s">
+        <v>205</v>
+      </c>
+      <c r="B88">
+        <v>4</v>
+      </c>
+      <c r="C88" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E88" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F85" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="82.5">
-      <c r="A86" t="s">
-        <v>371</v>
-      </c>
-      <c r="B86">
-        <v>5</v>
-      </c>
-      <c r="C86" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="F86" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="99">
-      <c r="A87" t="s">
-        <v>205</v>
-      </c>
-      <c r="B87">
-        <v>4</v>
-      </c>
-      <c r="C87" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F87" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="82.5">
-      <c r="A88" t="s">
-        <v>207</v>
-      </c>
-      <c r="B88">
+      <c r="F88" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="82.5">
+      <c r="A89" t="s">
+        <v>250</v>
+      </c>
+      <c r="B89">
         <v>3</v>
       </c>
-      <c r="C88" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="F88" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="99">
-      <c r="A89" t="s">
-        <v>210</v>
-      </c>
-      <c r="B89">
-        <v>4</v>
-      </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>253</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>208</v>
+        <v>426</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>209</v>
+        <v>427</v>
       </c>
       <c r="F89" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="82.5">
       <c r="A90" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="B90">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>260</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>433</v>
+        <v>206</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>434</v>
+        <v>207</v>
       </c>
       <c r="F90" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="82.5">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="99">
       <c r="A91" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B91">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>211</v>
+        <v>410</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F91" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="99">
       <c r="A92" t="s">
+        <v>211</v>
+      </c>
+      <c r="B92">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F92" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="82.5">
+      <c r="A93" t="s">
+        <v>252</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B92">
-        <v>9</v>
-      </c>
-      <c r="C92" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="E92" s="1" t="s">
+      <c r="F93" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="99">
+      <c r="A94" t="s">
+        <v>216</v>
+      </c>
+      <c r="B94">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F92" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="99">
-      <c r="A93" t="s">
-        <v>216</v>
-      </c>
-      <c r="B93">
-        <v>7</v>
-      </c>
-      <c r="C93" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2" t="s">
+      <c r="E94" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F93" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="82.5">
-      <c r="A94" t="s">
-        <v>259</v>
-      </c>
-      <c r="B94">
-        <v>2</v>
-      </c>
-      <c r="C94" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="F94" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="99">
       <c r="A95" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B95">
         <v>5</v>
@@ -4875,78 +4849,78 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F95" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="99">
       <c r="A96" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B96">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C96" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="F96" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="99">
       <c r="A97" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B97">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>254</v>
+        <v>343</v>
       </c>
       <c r="F97" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="99">
       <c r="A98" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B98">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="F98" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="99">
       <c r="A99" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -4955,118 +4929,118 @@
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>231</v>
+        <v>455</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>343</v>
+        <v>421</v>
       </c>
       <c r="F99" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="82.5">
       <c r="A100" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B100">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>233</v>
+        <v>449</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>234</v>
+        <v>448</v>
       </c>
       <c r="F100" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="82.5">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="99">
       <c r="A101" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="B101">
-        <v>6</v>
+        <v>0.9</v>
       </c>
       <c r="C101" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>457</v>
+        <v>230</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>456</v>
+        <v>231</v>
       </c>
       <c r="F101" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="99">
       <c r="A102" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="B102">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="C102" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F102" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="99">
       <c r="A103" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B103">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C103" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F103" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="99">
       <c r="A104" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B104">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
         <v>9</v>
       </c>
-      <c r="D104" s="2" t="s">
-        <v>242</v>
+      <c r="D104" s="8" t="s">
+        <v>425</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>243</v>
+        <v>424</v>
       </c>
       <c r="F104" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="99">
       <c r="A105" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B105">
         <v>7</v>
@@ -5074,259 +5048,259 @@
       <c r="C105" t="s">
         <v>9</v>
       </c>
-      <c r="D105" s="8" t="s">
-        <v>432</v>
+      <c r="D105" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>431</v>
+        <v>240</v>
       </c>
       <c r="F105" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="99">
       <c r="A106" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B106">
-        <v>7</v>
+        <v>1.7</v>
       </c>
       <c r="C106" t="s">
         <v>9</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>246</v>
+      <c r="D106" s="8" t="s">
+        <v>244</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F106" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="99">
       <c r="A107" t="s">
-        <v>250</v>
+        <v>334</v>
       </c>
       <c r="B107">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>251</v>
+        <v>332</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>249</v>
+        <v>333</v>
       </c>
       <c r="F107" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="99">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="49.5">
       <c r="A108" t="s">
-        <v>341</v>
+        <v>254</v>
       </c>
       <c r="B108">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="C108" t="s">
-        <v>339</v>
+        <v>255</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>340</v>
+        <v>257</v>
       </c>
       <c r="F108" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="49.5">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="99">
       <c r="A109" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B109">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
-        <v>262</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F109" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="99">
       <c r="A110" t="s">
+        <v>261</v>
+      </c>
+      <c r="B110">
+        <v>3</v>
+      </c>
+      <c r="C110" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F110" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="66">
+      <c r="A111" t="s">
+        <v>265</v>
+      </c>
+      <c r="B111">
+        <v>1.2</v>
+      </c>
+      <c r="C111" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="F111" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="99">
+      <c r="A112" t="s">
         <v>267</v>
       </c>
-      <c r="B110">
-        <v>5</v>
-      </c>
-      <c r="C110" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F110" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="99">
-      <c r="A111" t="s">
-        <v>268</v>
-      </c>
-      <c r="B111">
-        <v>3</v>
-      </c>
-      <c r="C111" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F111" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="66">
-      <c r="A112" t="s">
-        <v>272</v>
-      </c>
       <c r="B112">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="C112" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>271</v>
+        <v>422</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="F112" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="99">
       <c r="A113" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B113">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="C113" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>429</v>
+        <v>268</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>428</v>
+        <v>269</v>
       </c>
       <c r="F113" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="99">
       <c r="A114" t="s">
-        <v>277</v>
+        <v>380</v>
       </c>
       <c r="B114">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F114" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="82.5">
+      <c r="A115" t="s">
+        <v>272</v>
+      </c>
+      <c r="B115">
+        <v>8</v>
+      </c>
+      <c r="C115" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F115" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="99">
+      <c r="A116" t="s">
+        <v>273</v>
+      </c>
+      <c r="B116">
+        <v>1.5</v>
+      </c>
+      <c r="C116" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F116" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="82.5">
+      <c r="A117" t="s">
+        <v>276</v>
+      </c>
+      <c r="B117">
+        <v>8</v>
+      </c>
+      <c r="C117" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E114" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="F114" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="99">
-      <c r="A115" t="s">
-        <v>387</v>
-      </c>
-      <c r="B115">
-        <v>7</v>
-      </c>
-      <c r="C115" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="F115" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="82.5">
-      <c r="A116" t="s">
+      <c r="E117" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F117" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="99">
+      <c r="A118" t="s">
         <v>279</v>
-      </c>
-      <c r="B116">
-        <v>8</v>
-      </c>
-      <c r="C116" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="F116" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="99">
-      <c r="A117" t="s">
-        <v>280</v>
-      </c>
-      <c r="B117">
-        <v>1.5</v>
-      </c>
-      <c r="C117" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F117" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="82.5">
-      <c r="A118" t="s">
-        <v>283</v>
       </c>
       <c r="B118">
         <v>5</v>
@@ -5335,18 +5309,18 @@
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>384</v>
+        <v>277</v>
       </c>
       <c r="F118" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="99">
       <c r="A119" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B119">
         <v>5</v>
@@ -5355,61 +5329,61 @@
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>284</v>
       </c>
       <c r="F119" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="99">
       <c r="A120" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B120">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C120" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F120" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="99">
       <c r="A121" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B121">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C121" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="F121" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="99">
       <c r="A122" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B122">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
         <v>9</v>
@@ -5418,15 +5392,15 @@
         <v>298</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="F122" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="99">
       <c r="A123" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B123">
         <v>5</v>
@@ -5435,33 +5409,33 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F123" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="99">
       <c r="A124" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B124">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>307</v>
+        <v>439</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="F124" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="99">
@@ -5469,199 +5443,199 @@
         <v>309</v>
       </c>
       <c r="B125">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
         <v>9</v>
       </c>
-      <c r="D125" s="2" t="s">
-        <v>446</v>
+      <c r="D125" s="8" t="s">
+        <v>330</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>308</v>
       </c>
       <c r="F125" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="99">
       <c r="A126" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B126">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C126" t="s">
         <v>9</v>
       </c>
-      <c r="D126" s="8" t="s">
-        <v>337</v>
+      <c r="D126" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F126" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="99">
       <c r="A127" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B127">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
         <v>9</v>
       </c>
-      <c r="D127" s="2" t="s">
-        <v>320</v>
+      <c r="D127" s="8" t="s">
+        <v>412</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="F127" t="s">
-        <v>327</v>
+        <v>331</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="99">
       <c r="A128" t="s">
-        <v>325</v>
+        <v>348</v>
       </c>
       <c r="B128">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
         <v>9</v>
       </c>
-      <c r="D128" s="8" t="s">
-        <v>419</v>
+      <c r="D128" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="F128" s="9" t="s">
-        <v>436</v>
+        <v>402</v>
+      </c>
+      <c r="F128" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="99">
       <c r="A129" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="B129">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>409</v>
+        <v>324</v>
       </c>
       <c r="F129" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="99">
       <c r="A130" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B130">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C130" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F130" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="99">
       <c r="A131" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B131">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C131" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="F131" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="99">
       <c r="A132" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B132">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
         <v>9</v>
       </c>
-      <c r="D132" s="2" t="s">
-        <v>346</v>
+      <c r="D132" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F132" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="99">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B133">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>349</v>
+        <v>142</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E133" t="s">
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="99">
       <c r="A134" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B134">
         <v>5</v>
       </c>
       <c r="C134" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="E134" t="s">
-        <v>11</v>
+        <v>351</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>352</v>
       </c>
       <c r="F134" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="99">
@@ -5669,7 +5643,7 @@
         <v>357</v>
       </c>
       <c r="B135">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
         <v>9</v>
@@ -5678,175 +5652,175 @@
         <v>358</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F135" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="99">
       <c r="A136" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B136">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C136" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F136" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="99">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="67.5">
       <c r="A137" t="s">
+        <v>366</v>
+      </c>
+      <c r="B137">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C137" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="F137" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="82.5">
+      <c r="A138" t="s">
         <v>369</v>
       </c>
-      <c r="B137">
-        <v>4</v>
-      </c>
-      <c r="C137" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="2" t="s">
+      <c r="B138">
+        <v>1.3</v>
+      </c>
+      <c r="C138" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="E137" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="F137" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="67.5">
-      <c r="A138" t="s">
-        <v>373</v>
-      </c>
-      <c r="B138">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C138" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>375</v>
+      <c r="E138" s="1" t="s">
+        <v>371</v>
       </c>
       <c r="F138" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="82.5">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="66">
       <c r="A139" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="B139">
-        <v>1.3</v>
+        <v>15</v>
       </c>
       <c r="C139" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F139" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="66">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="99">
       <c r="A140" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B140">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F140" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="99">
       <c r="A141" t="s">
+        <v>133</v>
+      </c>
+      <c r="B141">
+        <v>11</v>
+      </c>
+      <c r="C141" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F141" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="82.5">
+      <c r="A142" t="s">
+        <v>392</v>
+      </c>
+      <c r="B142">
+        <v>9</v>
+      </c>
+      <c r="C142" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B141">
-        <v>8</v>
-      </c>
-      <c r="C141" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="E141" s="1" t="s">
+      <c r="E142" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F142" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="148.5">
+      <c r="A143" t="s">
         <v>393</v>
       </c>
-      <c r="F141" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="99">
-      <c r="A142" t="s">
-        <v>135</v>
-      </c>
-      <c r="B142">
-        <v>11</v>
-      </c>
-      <c r="C142" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="2" t="s">
+      <c r="B143">
+        <v>5</v>
+      </c>
+      <c r="C143" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F143" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="99">
+      <c r="A144" t="s">
         <v>396</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="F142" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="82.5">
-      <c r="A143" t="s">
-        <v>399</v>
-      </c>
-      <c r="B143">
-        <v>9</v>
-      </c>
-      <c r="C143" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="F143" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="148.5">
-      <c r="A144" t="s">
-        <v>400</v>
       </c>
       <c r="B144">
         <v>5</v>
@@ -5855,18 +5829,18 @@
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="F144" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="99">
       <c r="A145" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B145">
         <v>5</v>
@@ -5875,53 +5849,53 @@
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F145" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="99">
       <c r="A146" t="s">
+        <v>409</v>
+      </c>
+      <c r="B146">
+        <v>11</v>
+      </c>
+      <c r="C146" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B146">
-        <v>5</v>
-      </c>
-      <c r="C146" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" s="2" t="s">
+      <c r="E146" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="E146" s="1" t="s">
-        <v>406</v>
-      </c>
       <c r="F146" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="99">
       <c r="A147" t="s">
+        <v>413</v>
+      </c>
+      <c r="B147">
+        <v>10</v>
+      </c>
+      <c r="C147" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="B147">
-        <v>11</v>
-      </c>
-      <c r="C147" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>415</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>414</v>
       </c>
       <c r="F147" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="99">
@@ -5929,99 +5903,79 @@
         <v>420</v>
       </c>
       <c r="B148">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F148" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="99">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="82.5">
       <c r="A149" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="B149">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="C149" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F149" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="82.5">
       <c r="A150" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B150">
-        <v>7.2</v>
+        <v>1.6</v>
       </c>
       <c r="C150" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F150" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="82.5">
       <c r="A151" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B151">
-        <v>1.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C151" t="s">
         <v>9</v>
       </c>
-      <c r="D151" s="2" t="s">
-        <v>442</v>
+      <c r="D151" s="8" t="s">
+        <v>452</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="F151" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="82.5">
-      <c r="A152" t="s">
-        <v>443</v>
-      </c>
-      <c r="B152">
-        <v>4</v>
-      </c>
-      <c r="C152" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="F152" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -6059,105 +6013,103 @@
     <hyperlink ref="D72" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
     <hyperlink ref="D29" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
     <hyperlink ref="D14" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="D74" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="D75" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="D76" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="D77" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="D79" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="D80" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="D81" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="D82" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="D83" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="D85" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D89" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D91" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D92" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="D93" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="D19" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D95" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="D96" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="D97" r:id="rId50" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D98" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D99" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D100" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="D102" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D103" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D104" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D106" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="D107" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D87" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="D109" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="D110" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D111" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="D112" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="D31" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="D36" r:id="rId65" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D113" r:id="rId66" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D114" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D116" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D118" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="D119" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="D120" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="D121" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="D24" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="D94" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D122" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="D78" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="D16" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="D123" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="D124" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="D117" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="D34" r:id="rId81" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D3" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="D127" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D129" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D130" r:id="rId85" xr:uid="{A16A5099-7DDF-4370-95B7-BE0B27B5431C}"/>
-    <hyperlink ref="D131" r:id="rId86" xr:uid="{708EF35E-20E2-4320-AADE-685E01E763F7}"/>
-    <hyperlink ref="D126" r:id="rId87" xr:uid="{FB61B29C-091A-4DDA-AE79-D04CD219E120}"/>
-    <hyperlink ref="D108" r:id="rId88" xr:uid="{ECA328F5-23A6-4DE4-B068-F02A7D98D168}"/>
-    <hyperlink ref="D132" r:id="rId89" xr:uid="{9AD90610-B454-4A84-8345-BC650F57996E}"/>
-    <hyperlink ref="D38" r:id="rId90" xr:uid="{93E22CFB-0916-4E6E-ACC3-EEAD067C806F}"/>
-    <hyperlink ref="D135" r:id="rId91" xr:uid="{B9A9083D-DAAC-4EB9-A1EF-8226D6CE0569}"/>
-    <hyperlink ref="D134" r:id="rId92" xr:uid="{7BB4446E-C399-4A10-A149-71E6F6C21625}"/>
-    <hyperlink ref="D67" r:id="rId93" xr:uid="{26848A2D-A2E9-4D35-A878-4E94AA4528CC}"/>
-    <hyperlink ref="D73" r:id="rId94" xr:uid="{4F6D0E3F-842E-4538-B42C-64D38060BB59}"/>
-    <hyperlink ref="D136" r:id="rId95" xr:uid="{302CF079-F4AA-41D6-A7B3-02085878B25C}"/>
-    <hyperlink ref="D59" r:id="rId96" xr:uid="{FFC2D208-AEF3-4089-93F4-56B6F4845C6D}"/>
-    <hyperlink ref="D137" r:id="rId97" xr:uid="{537861A6-5879-4590-973E-CAB8004B1F94}"/>
-    <hyperlink ref="D17" r:id="rId98" xr:uid="{09DC9E19-5EF7-447C-A207-F065EAABBA9E}"/>
-    <hyperlink ref="D139" r:id="rId99" xr:uid="{B0679566-FA54-444D-8C38-A9B1A78EA00B}"/>
-    <hyperlink ref="D115" r:id="rId100" xr:uid="{548C8289-7EC3-401B-8394-4658D1E44626}"/>
-    <hyperlink ref="D140" r:id="rId101" xr:uid="{DC77A0A1-75B4-4037-BF20-173723D2E1A0}"/>
-    <hyperlink ref="D141" r:id="rId102" xr:uid="{68B8ABE4-7971-4B92-873E-57FB9E5E8E7B}"/>
-    <hyperlink ref="D69" r:id="rId103" xr:uid="{CE9629E1-6341-48A8-A515-14208ED02ACE}"/>
-    <hyperlink ref="D142" r:id="rId104" xr:uid="{7906C34E-95E6-4C1B-9565-B8B6F37DE732}"/>
-    <hyperlink ref="D143" r:id="rId105" xr:uid="{EE076CB7-11A0-4FF0-9825-6A412491927F}"/>
-    <hyperlink ref="D144" r:id="rId106" xr:uid="{155BFA89-2A1E-4E9B-9D34-97E8FE7BFBB8}"/>
-    <hyperlink ref="D145" r:id="rId107" xr:uid="{5B90FF2B-C561-4007-AD0E-86645E787947}"/>
-    <hyperlink ref="D146" r:id="rId108" xr:uid="{4B1CBD95-B37A-4E49-99CD-5B0FAFB1DD68}"/>
-    <hyperlink ref="D128" r:id="rId109" xr:uid="{933F49CC-7CBE-4246-BED0-85666C83AD9C}"/>
-    <hyperlink ref="D44" r:id="rId110" xr:uid="{44BF8FFF-EFEF-4626-91C2-16E5A0463084}"/>
-    <hyperlink ref="D86" r:id="rId111" xr:uid="{CFA38323-9624-4B72-BAD1-1DF28D103CC7}"/>
-    <hyperlink ref="D54" r:id="rId112" xr:uid="{027425D3-4104-4019-9C56-9619BD774590}"/>
-    <hyperlink ref="D147" r:id="rId113" xr:uid="{5E05232A-62B2-4A14-ABE0-B7C2FC8317E5}"/>
-    <hyperlink ref="D35" r:id="rId114" xr:uid="{E78167A9-C7BD-4913-A9BE-7D05FB372985}"/>
-    <hyperlink ref="D148" r:id="rId115" xr:uid="{A09AECAB-6573-4BCA-B75F-5029DC873CE5}"/>
-    <hyperlink ref="D21" r:id="rId116" xr:uid="{F0EA2884-0417-443D-ABC1-941CEB7EBB01}"/>
-    <hyperlink ref="D149" r:id="rId117" xr:uid="{3E967917-087B-4C24-883E-25347224DBDC}"/>
-    <hyperlink ref="D105" r:id="rId118" xr:uid="{EE590C67-17CF-44CB-8F7D-B042342203EE}"/>
-    <hyperlink ref="D90" r:id="rId119" xr:uid="{72BBC2F8-4E6F-4DFD-B837-9BFEBE7BA406}"/>
-    <hyperlink ref="D150" r:id="rId120" xr:uid="{0B4ECC27-EC91-4F95-82E0-FD9CDCD9A93F}"/>
-    <hyperlink ref="D151" r:id="rId121" xr:uid="{49B38CC6-2C17-4FEF-90C9-05FEFA135B41}"/>
-    <hyperlink ref="D40" r:id="rId122" xr:uid="{C2109FB0-C10E-4DCF-989E-E84149DE1EAC}"/>
-    <hyperlink ref="D125" r:id="rId123" xr:uid="{50BA8730-2B77-4DFA-A049-17427C1D7CC5}"/>
-    <hyperlink ref="D56" r:id="rId124" xr:uid="{C988080E-F4EB-46BF-AB72-D073DF5191B6}"/>
-    <hyperlink ref="D152" r:id="rId125" xr:uid="{FB3A211A-F1B3-4151-917F-A8420DCE473C}"/>
-    <hyperlink ref="D88" r:id="rId126" xr:uid="{3B941BCF-E75D-4DA8-8A44-527E84ED7297}"/>
-    <hyperlink ref="D25" r:id="rId127" xr:uid="{4CF61DDE-F761-41F1-A22D-2FF464DFA9A2}"/>
-    <hyperlink ref="D101" r:id="rId128" xr:uid="{F69F71F7-93FB-4517-A52D-2CB75FB91539}"/>
+    <hyperlink ref="D74" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="D75" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="D76" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="D78" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D79" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="D80" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="D81" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="D82" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="D84" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D88" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D90" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="D91" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="D92" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D19" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D94" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="D95" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="D96" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D97" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D98" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D101" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D102" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D103" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D105" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D106" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D86" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="D108" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="D109" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D110" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="D111" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="D31" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="D36" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D112" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D113" r:id="rId65" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D115" r:id="rId66" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D117" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D118" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="D119" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="D120" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="D24" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="D93" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D121" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="D77" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="D16" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="D122" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="D123" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="D116" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="D34" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D3" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="D126" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D128" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D129" r:id="rId83" xr:uid="{A16A5099-7DDF-4370-95B7-BE0B27B5431C}"/>
+    <hyperlink ref="D130" r:id="rId84" xr:uid="{708EF35E-20E2-4320-AADE-685E01E763F7}"/>
+    <hyperlink ref="D125" r:id="rId85" xr:uid="{FB61B29C-091A-4DDA-AE79-D04CD219E120}"/>
+    <hyperlink ref="D107" r:id="rId86" xr:uid="{ECA328F5-23A6-4DE4-B068-F02A7D98D168}"/>
+    <hyperlink ref="D131" r:id="rId87" xr:uid="{9AD90610-B454-4A84-8345-BC650F57996E}"/>
+    <hyperlink ref="D38" r:id="rId88" xr:uid="{93E22CFB-0916-4E6E-ACC3-EEAD067C806F}"/>
+    <hyperlink ref="D134" r:id="rId89" xr:uid="{B9A9083D-DAAC-4EB9-A1EF-8226D6CE0569}"/>
+    <hyperlink ref="D133" r:id="rId90" xr:uid="{7BB4446E-C399-4A10-A149-71E6F6C21625}"/>
+    <hyperlink ref="D67" r:id="rId91" xr:uid="{26848A2D-A2E9-4D35-A878-4E94AA4528CC}"/>
+    <hyperlink ref="D73" r:id="rId92" xr:uid="{4F6D0E3F-842E-4538-B42C-64D38060BB59}"/>
+    <hyperlink ref="D135" r:id="rId93" xr:uid="{302CF079-F4AA-41D6-A7B3-02085878B25C}"/>
+    <hyperlink ref="D59" r:id="rId94" xr:uid="{FFC2D208-AEF3-4089-93F4-56B6F4845C6D}"/>
+    <hyperlink ref="D136" r:id="rId95" xr:uid="{537861A6-5879-4590-973E-CAB8004B1F94}"/>
+    <hyperlink ref="D17" r:id="rId96" xr:uid="{09DC9E19-5EF7-447C-A207-F065EAABBA9E}"/>
+    <hyperlink ref="D138" r:id="rId97" xr:uid="{B0679566-FA54-444D-8C38-A9B1A78EA00B}"/>
+    <hyperlink ref="D114" r:id="rId98" xr:uid="{548C8289-7EC3-401B-8394-4658D1E44626}"/>
+    <hyperlink ref="D139" r:id="rId99" xr:uid="{DC77A0A1-75B4-4037-BF20-173723D2E1A0}"/>
+    <hyperlink ref="D140" r:id="rId100" xr:uid="{68B8ABE4-7971-4B92-873E-57FB9E5E8E7B}"/>
+    <hyperlink ref="D69" r:id="rId101" xr:uid="{CE9629E1-6341-48A8-A515-14208ED02ACE}"/>
+    <hyperlink ref="D141" r:id="rId102" xr:uid="{7906C34E-95E6-4C1B-9565-B8B6F37DE732}"/>
+    <hyperlink ref="D142" r:id="rId103" xr:uid="{EE076CB7-11A0-4FF0-9825-6A412491927F}"/>
+    <hyperlink ref="D143" r:id="rId104" xr:uid="{155BFA89-2A1E-4E9B-9D34-97E8FE7BFBB8}"/>
+    <hyperlink ref="D144" r:id="rId105" xr:uid="{5B90FF2B-C561-4007-AD0E-86645E787947}"/>
+    <hyperlink ref="D145" r:id="rId106" xr:uid="{4B1CBD95-B37A-4E49-99CD-5B0FAFB1DD68}"/>
+    <hyperlink ref="D127" r:id="rId107" xr:uid="{933F49CC-7CBE-4246-BED0-85666C83AD9C}"/>
+    <hyperlink ref="D44" r:id="rId108" xr:uid="{44BF8FFF-EFEF-4626-91C2-16E5A0463084}"/>
+    <hyperlink ref="D85" r:id="rId109" xr:uid="{CFA38323-9624-4B72-BAD1-1DF28D103CC7}"/>
+    <hyperlink ref="D54" r:id="rId110" xr:uid="{027425D3-4104-4019-9C56-9619BD774590}"/>
+    <hyperlink ref="D146" r:id="rId111" xr:uid="{5E05232A-62B2-4A14-ABE0-B7C2FC8317E5}"/>
+    <hyperlink ref="D35" r:id="rId112" xr:uid="{E78167A9-C7BD-4913-A9BE-7D05FB372985}"/>
+    <hyperlink ref="D147" r:id="rId113" xr:uid="{A09AECAB-6573-4BCA-B75F-5029DC873CE5}"/>
+    <hyperlink ref="D21" r:id="rId114" xr:uid="{F0EA2884-0417-443D-ABC1-941CEB7EBB01}"/>
+    <hyperlink ref="D148" r:id="rId115" xr:uid="{3E967917-087B-4C24-883E-25347224DBDC}"/>
+    <hyperlink ref="D104" r:id="rId116" xr:uid="{EE590C67-17CF-44CB-8F7D-B042342203EE}"/>
+    <hyperlink ref="D89" r:id="rId117" xr:uid="{72BBC2F8-4E6F-4DFD-B837-9BFEBE7BA406}"/>
+    <hyperlink ref="D149" r:id="rId118" xr:uid="{0B4ECC27-EC91-4F95-82E0-FD9CDCD9A93F}"/>
+    <hyperlink ref="D150" r:id="rId119" xr:uid="{49B38CC6-2C17-4FEF-90C9-05FEFA135B41}"/>
+    <hyperlink ref="D40" r:id="rId120" xr:uid="{C2109FB0-C10E-4DCF-989E-E84149DE1EAC}"/>
+    <hyperlink ref="D124" r:id="rId121" xr:uid="{50BA8730-2B77-4DFA-A049-17427C1D7CC5}"/>
+    <hyperlink ref="D56" r:id="rId122" xr:uid="{C988080E-F4EB-46BF-AB72-D073DF5191B6}"/>
+    <hyperlink ref="D87" r:id="rId123" xr:uid="{3B941BCF-E75D-4DA8-8A44-527E84ED7297}"/>
+    <hyperlink ref="D25" r:id="rId124" xr:uid="{4CF61DDE-F761-41F1-A22D-2FF464DFA9A2}"/>
+    <hyperlink ref="D100" r:id="rId125" xr:uid="{F69F71F7-93FB-4517-A52D-2CB75FB91539}"/>
+    <hyperlink ref="D9" r:id="rId126" xr:uid="{AA062347-DE7E-42D9-B1FA-F6DBC67BC5A3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId129"/>
-  <legacyDrawing r:id="rId130"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId127"/>
+  <legacyDrawing r:id="rId128"/>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new_news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E59CA3-D0A0-440E-92C5-2BA67F8F3200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B0B081-0DD0-4F33-8681-1BF151BA2938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="2265" windowWidth="31680" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="3240" windowWidth="31680" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="454">
   <si>
     <t>naver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1331,23 +1331,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.whosaeng.com/sub_view.html?type=abs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url_list = soup.select("#news_list2_area div.news_list2 dl dd.title")[:5];
-url_list = ["http://www.whosaeng.com" + i.select_one("a")["href"]for i in url_list];
-title_list = soup.select("#news_list2_area div.news_list2 dl dd.title")[:5];
-title_list = [i.text.strip() for i in title_list];
-body_list = soup.select("#news_list2_area div.news_list2 dl dd.body")[:5];
-body_list = [i.text.strip() for i in body_list];</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>후생신보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>url_list = soup.select("div.left_cont div.news_box div.newsPost")[:5];
 url_list = ["https://zdnet.co.kr" + i.select_one("a")["href"]for i in url_list];
 title_list = soup.select("div.left_cont div.news_box div.newsPost div.assetText h3")[:5];
@@ -1783,15 +1766,6 @@
 title_list = soup.select("section.text-left div.list-titles a strong")[:5];
 title_list = [i.text.strip() for i in title_list];
 body_list = soup.select("section.text-left p.list-summary")[:5];
-body_list = [i.text.strip() for i in body_list];</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url_list = soup.select("section.media_wrap div.news_item_list ul li")[:1];
-url_list = ["https://news.zum.com" + i.select_one("a.item")["href"]for i in url_list];
-title_list = soup.select("section.media_wrap div.news_item_list ul li h2.title")[:1];
-title_list = [i.text.strip() for i in title_list];
-body_list = soup.select("section.media_wrap div.news_item_list ul li div.text")[:1];
 body_list = [i.text.strip() for i in body_list];</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2194,18 +2168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>url_list = soup.select("#roll-106 div.item")[:5];
-url_list = ["https://www.digitaltoday.co.kr" + i.select_one("a")["href"] for i in url_list];
-title_list = soup.select("#roll-106 div.item span")[:5];
-title_list = [i.text.strip() for i in title_list];
-body_list = ["" for i in range(5)];</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.digitaltoday.co.kr/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>url_list = soup.select("#section-list ul li")[:5];
 url_list = ["https://www.bloter.net" + i.select_one("a")["href"] for i in url_list];
 title_list = soup.select("#section-list ul li h2.titles")[:5];
@@ -2530,6 +2492,29 @@
   </si>
   <si>
     <t>https://www.smartfn.co.kr/news/articleList.html?view_type=sm</t>
+  </si>
+  <si>
+    <t>url_list = soup.select("#section-list ul.type2 li")[:5];
+url_list = ["https://www.digitaltoday.co.kr" + i.select_one("a")["href"]for i in url_list];
+title_list = soup.select("#section-list ul.type2 li h4.titles")[:5];
+title_list = [i.text.strip() for i in title_list];
+body_list = soup.select("#section-list ul.type2 li p")[:5];
+body_list = [i.text.strip() for i in body_list];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.digitaltoday.co.kr/news/articleList.html?view_type=sm</t>
+  </si>
+  <si>
+    <t>'{"User-Agent": "Mozilla/5.0 (iPhone; CPU iPhone OS 13_2_3 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/13.0.3 Mobile/15E148 Safari/604.1"}</t>
+  </si>
+  <si>
+    <t>url_list = ["https://news.zum.com/media/81" for i in range(8)];
+title_list = soup.select("section.media_wrap div.news_item_list ul li h2.title")[:8];
+title_list = [i.text.strip() for i in title_list];
+body_list = soup.select("section.media_wrap div.news_item_list ul li div.text")[:8];
+body_list = [i.text.strip() for i in body_list];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2944,10 +2929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:F150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2975,7 +2960,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2995,27 +2980,27 @@
         <v>155</v>
       </c>
       <c r="F2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="99">
@@ -3035,7 +3020,7 @@
         <v>153</v>
       </c>
       <c r="F4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="99">
@@ -3055,7 +3040,7 @@
         <v>154</v>
       </c>
       <c r="F5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="104.25" customHeight="1">
@@ -3075,7 +3060,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="81">
@@ -3095,7 +3080,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="81">
@@ -3115,7 +3100,7 @@
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="81">
@@ -3129,13 +3114,13 @@
         <v>9</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="F9" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="81">
@@ -3149,13 +3134,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="F10" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="81">
@@ -3175,7 +3160,7 @@
         <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="99">
@@ -3195,7 +3180,7 @@
         <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="99">
@@ -3215,7 +3200,7 @@
         <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="99">
@@ -3235,7 +3220,7 @@
         <v>168</v>
       </c>
       <c r="F14" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="99">
@@ -3255,7 +3240,7 @@
         <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="99">
@@ -3269,13 +3254,13 @@
         <v>9</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="F16" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="99">
@@ -3289,13 +3274,13 @@
         <v>9</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F17" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="99">
@@ -3315,7 +3300,7 @@
         <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="99">
@@ -3335,7 +3320,7 @@
         <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="99">
@@ -3355,7 +3340,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="99">
@@ -3369,13 +3354,13 @@
         <v>9</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="99">
@@ -3395,7 +3380,7 @@
         <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="99">
@@ -3415,7 +3400,7 @@
         <v>52</v>
       </c>
       <c r="F23" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="82.5">
@@ -3429,13 +3414,13 @@
         <v>9</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F24" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="99">
@@ -3449,13 +3434,13 @@
         <v>9</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="82.5">
@@ -3475,7 +3460,7 @@
         <v>157</v>
       </c>
       <c r="F26" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="99">
@@ -3495,7 +3480,7 @@
         <v>151</v>
       </c>
       <c r="F27" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="82.5">
@@ -3515,7 +3500,7 @@
         <v>158</v>
       </c>
       <c r="F28" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="99">
@@ -3535,7 +3520,7 @@
         <v>162</v>
       </c>
       <c r="F29" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="82.5">
@@ -3555,27 +3540,27 @@
         <v>91</v>
       </c>
       <c r="F30" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="82.5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="99">
       <c r="A31" t="s">
         <v>63</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>397</v>
+        <v>450</v>
       </c>
       <c r="F31" t="s">
-        <v>320</v>
+        <v>452</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="81">
@@ -3595,7 +3580,7 @@
         <v>66</v>
       </c>
       <c r="F32" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="81">
@@ -3609,13 +3594,13 @@
         <v>9</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>68</v>
       </c>
       <c r="F33" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="81">
@@ -3629,13 +3614,13 @@
         <v>9</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F34" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="81">
@@ -3649,13 +3634,13 @@
         <v>9</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F35" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="81">
@@ -3669,13 +3654,13 @@
         <v>9</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>71</v>
       </c>
       <c r="F36" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="99">
@@ -3695,7 +3680,7 @@
         <v>74</v>
       </c>
       <c r="F37" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="99">
@@ -3709,13 +3694,13 @@
         <v>9</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F38" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="99">
@@ -3735,7 +3720,7 @@
         <v>78</v>
       </c>
       <c r="F39" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="99">
@@ -3749,13 +3734,13 @@
         <v>9</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F40" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="99">
@@ -3775,7 +3760,7 @@
         <v>82</v>
       </c>
       <c r="F41" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="99">
@@ -3795,7 +3780,7 @@
         <v>85</v>
       </c>
       <c r="F42" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="99">
@@ -3815,7 +3800,7 @@
         <v>88</v>
       </c>
       <c r="F43" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="99">
@@ -3829,13 +3814,13 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="F44" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="99">
@@ -3852,10 +3837,10 @@
         <v>95</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F45" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="99">
@@ -3875,7 +3860,7 @@
         <v>98</v>
       </c>
       <c r="F46" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="99">
@@ -3892,10 +3877,10 @@
         <v>141</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F47" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="99">
@@ -3915,7 +3900,7 @@
         <v>100</v>
       </c>
       <c r="F48" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="99">
@@ -3935,7 +3920,7 @@
         <v>104</v>
       </c>
       <c r="F49" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="99">
@@ -3955,7 +3940,7 @@
         <v>105</v>
       </c>
       <c r="F50" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="99">
@@ -3975,7 +3960,7 @@
         <v>110</v>
       </c>
       <c r="F51" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="82.5">
@@ -3995,7 +3980,7 @@
         <v>156</v>
       </c>
       <c r="F52" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="99">
@@ -4015,12 +4000,12 @@
         <v>163</v>
       </c>
       <c r="F53" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="99">
       <c r="A54" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B54">
         <v>6</v>
@@ -4029,13 +4014,13 @@
         <v>9</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F54" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="99">
@@ -4055,7 +4040,7 @@
         <v>113</v>
       </c>
       <c r="F55" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="82.5">
@@ -4069,13 +4054,13 @@
         <v>9</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>115</v>
       </c>
       <c r="F56" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="99">
@@ -4095,7 +4080,7 @@
         <v>118</v>
       </c>
       <c r="F57" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="99">
@@ -4115,7 +4100,7 @@
         <v>124</v>
       </c>
       <c r="F58" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="99">
@@ -4129,13 +4114,13 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F59" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="82.5">
@@ -4155,7 +4140,7 @@
         <v>160</v>
       </c>
       <c r="F60" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="82.5">
@@ -4172,10 +4157,10 @@
         <v>128</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F61" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="99">
@@ -4195,7 +4180,7 @@
         <v>131</v>
       </c>
       <c r="F62" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="99">
@@ -4215,7 +4200,7 @@
         <v>135</v>
       </c>
       <c r="F63" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="99">
@@ -4235,7 +4220,7 @@
         <v>137</v>
       </c>
       <c r="F64" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4255,7 +4240,7 @@
         <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4275,12 +4260,12 @@
         <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -4289,18 +4274,18 @@
         <v>142</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B68">
         <v>9</v>
@@ -4309,18 +4294,18 @@
         <v>142</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B69">
         <v>9</v>
@@ -4329,18 +4314,18 @@
         <v>142</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="99">
       <c r="A70" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B70">
         <v>3</v>
@@ -4349,13 +4334,13 @@
         <v>9</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F70" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4375,7 +4360,7 @@
         <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -4395,12 +4380,12 @@
         <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B73">
         <v>9</v>
@@ -4409,13 +4394,13 @@
         <v>142</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="99">
@@ -4435,7 +4420,7 @@
         <v>171</v>
       </c>
       <c r="F74" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="99">
@@ -4455,7 +4440,7 @@
         <v>174</v>
       </c>
       <c r="F75" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="99">
@@ -4475,7 +4460,7 @@
         <v>177</v>
       </c>
       <c r="F76" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="99">
@@ -4489,13 +4474,13 @@
         <v>9</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>179</v>
       </c>
       <c r="F77" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="99">
@@ -4515,7 +4500,7 @@
         <v>182</v>
       </c>
       <c r="F78" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="82.5">
@@ -4529,13 +4514,13 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F79" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="99">
@@ -4555,7 +4540,7 @@
         <v>186</v>
       </c>
       <c r="F80" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="99">
@@ -4575,7 +4560,7 @@
         <v>188</v>
       </c>
       <c r="F81" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="99">
@@ -4595,7 +4580,7 @@
         <v>191</v>
       </c>
       <c r="F82" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="99">
@@ -4615,7 +4600,7 @@
         <v>194</v>
       </c>
       <c r="F83" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="99">
@@ -4635,12 +4620,12 @@
         <v>198</v>
       </c>
       <c r="F84" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="82.5">
       <c r="A85" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B85">
         <v>5</v>
@@ -4649,13 +4634,13 @@
         <v>9</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F85" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="99">
@@ -4669,13 +4654,13 @@
         <v>9</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>201</v>
       </c>
       <c r="F86" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="82.5">
@@ -4689,13 +4674,13 @@
         <v>9</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F87" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="99">
@@ -4715,27 +4700,27 @@
         <v>204</v>
       </c>
       <c r="F88" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="82.5">
       <c r="A89" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B89">
         <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="F89" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="82.5">
@@ -4755,7 +4740,7 @@
         <v>207</v>
       </c>
       <c r="F90" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="99">
@@ -4769,13 +4754,13 @@
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>210</v>
       </c>
       <c r="F91" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="99">
@@ -4795,12 +4780,12 @@
         <v>213</v>
       </c>
       <c r="F92" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="82.5">
       <c r="A93" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B93">
         <v>2</v>
@@ -4809,13 +4794,13 @@
         <v>9</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>214</v>
       </c>
       <c r="F93" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="99">
@@ -4835,7 +4820,7 @@
         <v>217</v>
       </c>
       <c r="F94" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="99">
@@ -4855,7 +4840,7 @@
         <v>219</v>
       </c>
       <c r="F95" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="99">
@@ -4872,10 +4857,10 @@
         <v>222</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F96" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="99">
@@ -4892,10 +4877,10 @@
         <v>224</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F97" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="99">
@@ -4912,10 +4897,10 @@
         <v>226</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F98" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="99">
@@ -4929,13 +4914,13 @@
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F99" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="82.5">
@@ -4949,18 +4934,18 @@
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="F100" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="99">
       <c r="A101" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B101">
         <v>0.9</v>
@@ -4975,7 +4960,7 @@
         <v>231</v>
       </c>
       <c r="F101" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="99">
@@ -4995,7 +4980,7 @@
         <v>233</v>
       </c>
       <c r="F102" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="99">
@@ -5015,7 +5000,7 @@
         <v>236</v>
       </c>
       <c r="F103" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="99">
@@ -5029,153 +5014,153 @@
         <v>9</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="F104" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="99">
       <c r="A105" t="s">
+        <v>240</v>
+      </c>
+      <c r="B105">
+        <v>1.7</v>
+      </c>
+      <c r="C105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="B105">
-        <v>7</v>
-      </c>
-      <c r="C105" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
+      <c r="E105" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="F105" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="99">
       <c r="A106" t="s">
-        <v>243</v>
+        <v>330</v>
       </c>
       <c r="B106">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>244</v>
+        <v>328</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>242</v>
+        <v>329</v>
       </c>
       <c r="F106" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="99">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="49.5">
       <c r="A107" t="s">
-        <v>334</v>
+        <v>251</v>
       </c>
       <c r="B107">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="C107" t="s">
-        <v>332</v>
+        <v>252</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>333</v>
+        <v>254</v>
       </c>
       <c r="F107" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="49.5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="99">
       <c r="A108" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B108">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="E108" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="F108" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="99">
       <c r="A109" t="s">
+        <v>258</v>
+      </c>
+      <c r="B109">
+        <v>3</v>
+      </c>
+      <c r="C109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E109" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B109">
-        <v>5</v>
-      </c>
-      <c r="C109" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="F109" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="99">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="66">
       <c r="A110" t="s">
+        <v>262</v>
+      </c>
+      <c r="B110">
+        <v>1.2</v>
+      </c>
+      <c r="C110" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B110">
-        <v>3</v>
-      </c>
-      <c r="C110" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="E110" s="1" t="s">
-        <v>263</v>
+        <v>417</v>
       </c>
       <c r="F110" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="66">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="99">
       <c r="A111" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B111">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="C111" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>264</v>
+        <v>416</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="F111" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="99">
@@ -5183,107 +5168,107 @@
         <v>267</v>
       </c>
       <c r="B112">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="C112" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>422</v>
+        <v>265</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>421</v>
+        <v>266</v>
       </c>
       <c r="F112" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="99">
       <c r="A113" t="s">
+        <v>376</v>
+      </c>
+      <c r="B113">
+        <v>7</v>
+      </c>
+      <c r="C113" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F113" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="82.5">
+      <c r="A114" t="s">
+        <v>269</v>
+      </c>
+      <c r="B114">
+        <v>8</v>
+      </c>
+      <c r="C114" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F114" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="99">
+      <c r="A115" t="s">
         <v>270</v>
       </c>
-      <c r="B113">
-        <v>4</v>
-      </c>
-      <c r="C113" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F113" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="99">
-      <c r="A114" t="s">
-        <v>380</v>
-      </c>
-      <c r="B114">
-        <v>7</v>
-      </c>
-      <c r="C114" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="F114" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="82.5">
-      <c r="A115" t="s">
-        <v>272</v>
-      </c>
       <c r="B115">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="C115" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E115" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E115" s="1" t="s">
-        <v>329</v>
-      </c>
       <c r="F115" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="99">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="82.5">
       <c r="A116" t="s">
         <v>273</v>
       </c>
       <c r="B116">
-        <v>1.5</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>274</v>
+        <v>373</v>
       </c>
       <c r="F116" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="82.5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="99">
       <c r="A117" t="s">
         <v>276</v>
       </c>
       <c r="B117">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
         <v>9</v>
@@ -5292,15 +5277,15 @@
         <v>275</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>377</v>
+        <v>274</v>
       </c>
       <c r="F117" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="99">
       <c r="A118" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B118">
         <v>5</v>
@@ -5309,13 +5294,13 @@
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F118" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="99">
@@ -5323,7 +5308,7 @@
         <v>285</v>
       </c>
       <c r="B119">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C119" t="s">
         <v>9</v>
@@ -5335,52 +5320,52 @@
         <v>284</v>
       </c>
       <c r="F119" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="99">
       <c r="A120" t="s">
+        <v>289</v>
+      </c>
+      <c r="B120">
+        <v>14</v>
+      </c>
+      <c r="C120" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B120">
-        <v>4</v>
-      </c>
-      <c r="C120" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="E120" s="1" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="F120" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="99">
       <c r="A121" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B121">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F121" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="99">
       <c r="A122" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B122">
         <v>5</v>
@@ -5389,13 +5374,13 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="F122" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="99">
@@ -5403,127 +5388,127 @@
         <v>299</v>
       </c>
       <c r="B123">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>300</v>
+        <v>433</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F123" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="99">
       <c r="A124" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B124">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
         <v>9</v>
       </c>
-      <c r="D124" s="2" t="s">
-        <v>439</v>
+      <c r="D124" s="8" t="s">
+        <v>326</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F124" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="99">
       <c r="A125" t="s">
+        <v>311</v>
+      </c>
+      <c r="B125">
+        <v>12</v>
+      </c>
+      <c r="C125" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E125" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B125">
-        <v>8</v>
-      </c>
-      <c r="C125" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>308</v>
-      </c>
       <c r="F125" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="99">
       <c r="A126" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B126">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
         <v>9</v>
       </c>
-      <c r="D126" s="2" t="s">
-        <v>313</v>
+      <c r="D126" s="8" t="s">
+        <v>406</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="F126" t="s">
-        <v>320</v>
+        <v>327</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="99">
       <c r="A127" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="B127">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
         <v>9</v>
       </c>
-      <c r="D127" s="8" t="s">
-        <v>412</v>
+      <c r="D127" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="F127" s="9" t="s">
-        <v>429</v>
+        <v>396</v>
+      </c>
+      <c r="F127" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="99">
       <c r="A128" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="B128">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>402</v>
+        <v>321</v>
       </c>
       <c r="F128" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="99">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="82.5">
       <c r="A129" t="s">
         <v>322</v>
       </c>
       <c r="B129">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C129" t="s">
         <v>9</v>
@@ -5532,218 +5517,218 @@
         <v>323</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>324</v>
+        <v>453</v>
       </c>
       <c r="F129" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="99">
       <c r="A130" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B130">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C130" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="F130" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="99">
       <c r="A131" t="s">
+        <v>337</v>
+      </c>
+      <c r="B131">
+        <v>6</v>
+      </c>
+      <c r="C131" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E131" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B131">
-        <v>4</v>
-      </c>
-      <c r="C131" t="s">
-        <v>9</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>337</v>
-      </c>
       <c r="F131" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="99">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B132">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>342</v>
+        <v>142</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E132" t="s">
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="99">
       <c r="A133" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B133">
         <v>5</v>
       </c>
       <c r="C133" t="s">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="E133" t="s">
-        <v>11</v>
+        <v>347</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="F133" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="99">
       <c r="A134" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B134">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>352</v>
       </c>
       <c r="F134" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="99">
       <c r="A135" t="s">
+        <v>358</v>
+      </c>
+      <c r="B135">
+        <v>4</v>
+      </c>
+      <c r="C135" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E135" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B135">
-        <v>6</v>
-      </c>
-      <c r="C135" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>356</v>
-      </c>
       <c r="F135" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="99">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="67.5">
       <c r="A136" t="s">
         <v>362</v>
       </c>
       <c r="B136">
-        <v>4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C136" t="s">
         <v>9</v>
       </c>
-      <c r="D136" s="2" t="s">
+      <c r="D136" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="E136" s="1" t="s">
-        <v>361</v>
+      <c r="E136" s="4" t="s">
+        <v>364</v>
       </c>
       <c r="F136" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="67.5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="82.5">
       <c r="A137" t="s">
+        <v>365</v>
+      </c>
+      <c r="B137">
+        <v>1.3</v>
+      </c>
+      <c r="C137" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B137">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C137" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="3" t="s">
+      <c r="E137" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="E137" s="4" t="s">
-        <v>368</v>
-      </c>
       <c r="F137" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="82.5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="66">
       <c r="A138" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B138">
-        <v>1.3</v>
+        <v>15</v>
       </c>
       <c r="C138" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F138" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="66">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="99">
       <c r="A139" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B139">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E139" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="E139" s="1" t="s">
-        <v>381</v>
-      </c>
       <c r="F139" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="99">
       <c r="A140" t="s">
-        <v>384</v>
+        <v>133</v>
       </c>
       <c r="B140">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C140" t="s">
         <v>9</v>
@@ -5752,55 +5737,55 @@
         <v>385</v>
       </c>
       <c r="E140" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F140" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="82.5">
+      <c r="A141" t="s">
+        <v>388</v>
+      </c>
+      <c r="B141">
+        <v>9</v>
+      </c>
+      <c r="C141" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E141" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="F140" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="99">
-      <c r="A141" t="s">
-        <v>133</v>
-      </c>
-      <c r="B141">
-        <v>11</v>
-      </c>
-      <c r="C141" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="2" t="s">
+      <c r="F141" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="148.5">
+      <c r="A142" t="s">
         <v>389</v>
       </c>
-      <c r="E141" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="F141" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="82.5">
-      <c r="A142" t="s">
+      <c r="B142">
+        <v>5</v>
+      </c>
+      <c r="C142" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F142" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="99">
+      <c r="A143" t="s">
         <v>392</v>
-      </c>
-      <c r="B142">
-        <v>9</v>
-      </c>
-      <c r="C142" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="F142" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="148.5">
-      <c r="A143" t="s">
-        <v>393</v>
       </c>
       <c r="B143">
         <v>5</v>
@@ -5809,18 +5794,18 @@
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="F143" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="99">
       <c r="A144" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B144">
         <v>5</v>
@@ -5832,150 +5817,130 @@
         <v>394</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F144" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="99">
       <c r="A145" t="s">
+        <v>403</v>
+      </c>
+      <c r="B145">
+        <v>11</v>
+      </c>
+      <c r="C145" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E145" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B145">
-        <v>5</v>
-      </c>
-      <c r="C145" t="s">
-        <v>9</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="F145" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="99">
       <c r="A146" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B146">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C146" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E146" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="E146" s="1" t="s">
-        <v>407</v>
-      </c>
       <c r="F146" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="99">
       <c r="A147" t="s">
+        <v>414</v>
+      </c>
+      <c r="B147">
+        <v>7</v>
+      </c>
+      <c r="C147" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E147" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B147">
-        <v>10</v>
-      </c>
-      <c r="C147" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>414</v>
-      </c>
       <c r="F147" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="99">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="82.5">
       <c r="A148" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B148">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="C148" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="F148" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="82.5">
       <c r="A149" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B149">
-        <v>7.2</v>
+        <v>1.6</v>
       </c>
       <c r="C149" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F149" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="82.5">
       <c r="A150" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B150">
-        <v>1.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C150" t="s">
         <v>9</v>
       </c>
-      <c r="D150" s="2" t="s">
-        <v>435</v>
+      <c r="D150" s="8" t="s">
+        <v>446</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="F150" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="82.5">
-      <c r="A151" t="s">
-        <v>436</v>
-      </c>
-      <c r="B151">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C151" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="F151" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -6035,81 +6000,79 @@
     <hyperlink ref="D101" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
     <hyperlink ref="D102" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
     <hyperlink ref="D103" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D105" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="D106" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D86" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="D108" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="D109" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D110" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="D111" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="D31" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="D36" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D112" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D113" r:id="rId65" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D115" r:id="rId66" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D117" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="D118" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="D119" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="D120" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="D24" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="D93" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D121" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="D77" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="D16" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="D122" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="D123" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="D116" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="D34" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D3" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="D126" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D128" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D129" r:id="rId83" xr:uid="{A16A5099-7DDF-4370-95B7-BE0B27B5431C}"/>
-    <hyperlink ref="D130" r:id="rId84" xr:uid="{708EF35E-20E2-4320-AADE-685E01E763F7}"/>
-    <hyperlink ref="D125" r:id="rId85" xr:uid="{FB61B29C-091A-4DDA-AE79-D04CD219E120}"/>
-    <hyperlink ref="D107" r:id="rId86" xr:uid="{ECA328F5-23A6-4DE4-B068-F02A7D98D168}"/>
-    <hyperlink ref="D131" r:id="rId87" xr:uid="{9AD90610-B454-4A84-8345-BC650F57996E}"/>
-    <hyperlink ref="D38" r:id="rId88" xr:uid="{93E22CFB-0916-4E6E-ACC3-EEAD067C806F}"/>
-    <hyperlink ref="D134" r:id="rId89" xr:uid="{B9A9083D-DAAC-4EB9-A1EF-8226D6CE0569}"/>
-    <hyperlink ref="D133" r:id="rId90" xr:uid="{7BB4446E-C399-4A10-A149-71E6F6C21625}"/>
-    <hyperlink ref="D67" r:id="rId91" xr:uid="{26848A2D-A2E9-4D35-A878-4E94AA4528CC}"/>
-    <hyperlink ref="D73" r:id="rId92" xr:uid="{4F6D0E3F-842E-4538-B42C-64D38060BB59}"/>
-    <hyperlink ref="D135" r:id="rId93" xr:uid="{302CF079-F4AA-41D6-A7B3-02085878B25C}"/>
-    <hyperlink ref="D59" r:id="rId94" xr:uid="{FFC2D208-AEF3-4089-93F4-56B6F4845C6D}"/>
-    <hyperlink ref="D136" r:id="rId95" xr:uid="{537861A6-5879-4590-973E-CAB8004B1F94}"/>
-    <hyperlink ref="D17" r:id="rId96" xr:uid="{09DC9E19-5EF7-447C-A207-F065EAABBA9E}"/>
-    <hyperlink ref="D138" r:id="rId97" xr:uid="{B0679566-FA54-444D-8C38-A9B1A78EA00B}"/>
-    <hyperlink ref="D114" r:id="rId98" xr:uid="{548C8289-7EC3-401B-8394-4658D1E44626}"/>
-    <hyperlink ref="D139" r:id="rId99" xr:uid="{DC77A0A1-75B4-4037-BF20-173723D2E1A0}"/>
-    <hyperlink ref="D140" r:id="rId100" xr:uid="{68B8ABE4-7971-4B92-873E-57FB9E5E8E7B}"/>
-    <hyperlink ref="D69" r:id="rId101" xr:uid="{CE9629E1-6341-48A8-A515-14208ED02ACE}"/>
-    <hyperlink ref="D141" r:id="rId102" xr:uid="{7906C34E-95E6-4C1B-9565-B8B6F37DE732}"/>
-    <hyperlink ref="D142" r:id="rId103" xr:uid="{EE076CB7-11A0-4FF0-9825-6A412491927F}"/>
-    <hyperlink ref="D143" r:id="rId104" xr:uid="{155BFA89-2A1E-4E9B-9D34-97E8FE7BFBB8}"/>
-    <hyperlink ref="D144" r:id="rId105" xr:uid="{5B90FF2B-C561-4007-AD0E-86645E787947}"/>
-    <hyperlink ref="D145" r:id="rId106" xr:uid="{4B1CBD95-B37A-4E49-99CD-5B0FAFB1DD68}"/>
-    <hyperlink ref="D127" r:id="rId107" xr:uid="{933F49CC-7CBE-4246-BED0-85666C83AD9C}"/>
-    <hyperlink ref="D44" r:id="rId108" xr:uid="{44BF8FFF-EFEF-4626-91C2-16E5A0463084}"/>
-    <hyperlink ref="D85" r:id="rId109" xr:uid="{CFA38323-9624-4B72-BAD1-1DF28D103CC7}"/>
-    <hyperlink ref="D54" r:id="rId110" xr:uid="{027425D3-4104-4019-9C56-9619BD774590}"/>
-    <hyperlink ref="D146" r:id="rId111" xr:uid="{5E05232A-62B2-4A14-ABE0-B7C2FC8317E5}"/>
-    <hyperlink ref="D35" r:id="rId112" xr:uid="{E78167A9-C7BD-4913-A9BE-7D05FB372985}"/>
-    <hyperlink ref="D147" r:id="rId113" xr:uid="{A09AECAB-6573-4BCA-B75F-5029DC873CE5}"/>
-    <hyperlink ref="D21" r:id="rId114" xr:uid="{F0EA2884-0417-443D-ABC1-941CEB7EBB01}"/>
-    <hyperlink ref="D148" r:id="rId115" xr:uid="{3E967917-087B-4C24-883E-25347224DBDC}"/>
-    <hyperlink ref="D104" r:id="rId116" xr:uid="{EE590C67-17CF-44CB-8F7D-B042342203EE}"/>
-    <hyperlink ref="D89" r:id="rId117" xr:uid="{72BBC2F8-4E6F-4DFD-B837-9BFEBE7BA406}"/>
-    <hyperlink ref="D149" r:id="rId118" xr:uid="{0B4ECC27-EC91-4F95-82E0-FD9CDCD9A93F}"/>
-    <hyperlink ref="D150" r:id="rId119" xr:uid="{49B38CC6-2C17-4FEF-90C9-05FEFA135B41}"/>
-    <hyperlink ref="D40" r:id="rId120" xr:uid="{C2109FB0-C10E-4DCF-989E-E84149DE1EAC}"/>
-    <hyperlink ref="D124" r:id="rId121" xr:uid="{50BA8730-2B77-4DFA-A049-17427C1D7CC5}"/>
-    <hyperlink ref="D56" r:id="rId122" xr:uid="{C988080E-F4EB-46BF-AB72-D073DF5191B6}"/>
-    <hyperlink ref="D87" r:id="rId123" xr:uid="{3B941BCF-E75D-4DA8-8A44-527E84ED7297}"/>
-    <hyperlink ref="D25" r:id="rId124" xr:uid="{4CF61DDE-F761-41F1-A22D-2FF464DFA9A2}"/>
-    <hyperlink ref="D100" r:id="rId125" xr:uid="{F69F71F7-93FB-4517-A52D-2CB75FB91539}"/>
-    <hyperlink ref="D9" r:id="rId126" xr:uid="{AA062347-DE7E-42D9-B1FA-F6DBC67BC5A3}"/>
+    <hyperlink ref="D105" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D86" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="D107" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="D108" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D109" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="D110" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="D36" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D111" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D112" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D114" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D116" r:id="rId65" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D117" r:id="rId66" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="D118" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="D119" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="D24" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="D93" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D120" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="D77" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="D16" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="D121" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="D122" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="D115" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="D34" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D3" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="D125" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D127" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D128" r:id="rId81" xr:uid="{A16A5099-7DDF-4370-95B7-BE0B27B5431C}"/>
+    <hyperlink ref="D129" r:id="rId82" xr:uid="{708EF35E-20E2-4320-AADE-685E01E763F7}"/>
+    <hyperlink ref="D124" r:id="rId83" xr:uid="{FB61B29C-091A-4DDA-AE79-D04CD219E120}"/>
+    <hyperlink ref="D106" r:id="rId84" xr:uid="{ECA328F5-23A6-4DE4-B068-F02A7D98D168}"/>
+    <hyperlink ref="D130" r:id="rId85" xr:uid="{9AD90610-B454-4A84-8345-BC650F57996E}"/>
+    <hyperlink ref="D38" r:id="rId86" xr:uid="{93E22CFB-0916-4E6E-ACC3-EEAD067C806F}"/>
+    <hyperlink ref="D133" r:id="rId87" xr:uid="{B9A9083D-DAAC-4EB9-A1EF-8226D6CE0569}"/>
+    <hyperlink ref="D132" r:id="rId88" xr:uid="{7BB4446E-C399-4A10-A149-71E6F6C21625}"/>
+    <hyperlink ref="D67" r:id="rId89" xr:uid="{26848A2D-A2E9-4D35-A878-4E94AA4528CC}"/>
+    <hyperlink ref="D73" r:id="rId90" xr:uid="{4F6D0E3F-842E-4538-B42C-64D38060BB59}"/>
+    <hyperlink ref="D134" r:id="rId91" xr:uid="{302CF079-F4AA-41D6-A7B3-02085878B25C}"/>
+    <hyperlink ref="D59" r:id="rId92" xr:uid="{FFC2D208-AEF3-4089-93F4-56B6F4845C6D}"/>
+    <hyperlink ref="D135" r:id="rId93" xr:uid="{537861A6-5879-4590-973E-CAB8004B1F94}"/>
+    <hyperlink ref="D17" r:id="rId94" xr:uid="{09DC9E19-5EF7-447C-A207-F065EAABBA9E}"/>
+    <hyperlink ref="D137" r:id="rId95" xr:uid="{B0679566-FA54-444D-8C38-A9B1A78EA00B}"/>
+    <hyperlink ref="D113" r:id="rId96" xr:uid="{548C8289-7EC3-401B-8394-4658D1E44626}"/>
+    <hyperlink ref="D138" r:id="rId97" xr:uid="{DC77A0A1-75B4-4037-BF20-173723D2E1A0}"/>
+    <hyperlink ref="D139" r:id="rId98" xr:uid="{68B8ABE4-7971-4B92-873E-57FB9E5E8E7B}"/>
+    <hyperlink ref="D69" r:id="rId99" xr:uid="{CE9629E1-6341-48A8-A515-14208ED02ACE}"/>
+    <hyperlink ref="D140" r:id="rId100" xr:uid="{7906C34E-95E6-4C1B-9565-B8B6F37DE732}"/>
+    <hyperlink ref="D141" r:id="rId101" xr:uid="{EE076CB7-11A0-4FF0-9825-6A412491927F}"/>
+    <hyperlink ref="D142" r:id="rId102" xr:uid="{155BFA89-2A1E-4E9B-9D34-97E8FE7BFBB8}"/>
+    <hyperlink ref="D143" r:id="rId103" xr:uid="{5B90FF2B-C561-4007-AD0E-86645E787947}"/>
+    <hyperlink ref="D144" r:id="rId104" xr:uid="{4B1CBD95-B37A-4E49-99CD-5B0FAFB1DD68}"/>
+    <hyperlink ref="D126" r:id="rId105" xr:uid="{933F49CC-7CBE-4246-BED0-85666C83AD9C}"/>
+    <hyperlink ref="D44" r:id="rId106" xr:uid="{44BF8FFF-EFEF-4626-91C2-16E5A0463084}"/>
+    <hyperlink ref="D85" r:id="rId107" xr:uid="{CFA38323-9624-4B72-BAD1-1DF28D103CC7}"/>
+    <hyperlink ref="D54" r:id="rId108" xr:uid="{027425D3-4104-4019-9C56-9619BD774590}"/>
+    <hyperlink ref="D145" r:id="rId109" xr:uid="{5E05232A-62B2-4A14-ABE0-B7C2FC8317E5}"/>
+    <hyperlink ref="D35" r:id="rId110" xr:uid="{E78167A9-C7BD-4913-A9BE-7D05FB372985}"/>
+    <hyperlink ref="D146" r:id="rId111" xr:uid="{A09AECAB-6573-4BCA-B75F-5029DC873CE5}"/>
+    <hyperlink ref="D21" r:id="rId112" xr:uid="{F0EA2884-0417-443D-ABC1-941CEB7EBB01}"/>
+    <hyperlink ref="D147" r:id="rId113" xr:uid="{3E967917-087B-4C24-883E-25347224DBDC}"/>
+    <hyperlink ref="D104" r:id="rId114" xr:uid="{EE590C67-17CF-44CB-8F7D-B042342203EE}"/>
+    <hyperlink ref="D89" r:id="rId115" xr:uid="{72BBC2F8-4E6F-4DFD-B837-9BFEBE7BA406}"/>
+    <hyperlink ref="D148" r:id="rId116" xr:uid="{0B4ECC27-EC91-4F95-82E0-FD9CDCD9A93F}"/>
+    <hyperlink ref="D149" r:id="rId117" xr:uid="{49B38CC6-2C17-4FEF-90C9-05FEFA135B41}"/>
+    <hyperlink ref="D40" r:id="rId118" xr:uid="{C2109FB0-C10E-4DCF-989E-E84149DE1EAC}"/>
+    <hyperlink ref="D123" r:id="rId119" xr:uid="{50BA8730-2B77-4DFA-A049-17427C1D7CC5}"/>
+    <hyperlink ref="D56" r:id="rId120" xr:uid="{C988080E-F4EB-46BF-AB72-D073DF5191B6}"/>
+    <hyperlink ref="D87" r:id="rId121" xr:uid="{3B941BCF-E75D-4DA8-8A44-527E84ED7297}"/>
+    <hyperlink ref="D25" r:id="rId122" xr:uid="{4CF61DDE-F761-41F1-A22D-2FF464DFA9A2}"/>
+    <hyperlink ref="D100" r:id="rId123" xr:uid="{F69F71F7-93FB-4517-A52D-2CB75FB91539}"/>
+    <hyperlink ref="D9" r:id="rId124" xr:uid="{AA062347-DE7E-42D9-B1FA-F6DBC67BC5A3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId127"/>
-  <legacyDrawing r:id="rId128"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId125"/>
+  <legacyDrawing r:id="rId126"/>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new_news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B0B081-0DD0-4F33-8681-1BF151BA2938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998528C4-9117-4DB2-9F34-FE29786A31FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="3240" windowWidth="31680" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="31680" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="453">
   <si>
     <t>naver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2504,9 +2504,6 @@
   </si>
   <si>
     <t>https://www.digitaltoday.co.kr/news/articleList.html?view_type=sm</t>
-  </si>
-  <si>
-    <t>'{"User-Agent": "Mozilla/5.0 (iPhone; CPU iPhone OS 13_2_3 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/13.0.3 Mobile/15E148 Safari/604.1"}</t>
   </si>
   <si>
     <t>url_list = ["https://news.zum.com/media/81" for i in range(8)];
@@ -2931,8 +2928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+    <sheetView tabSelected="1" topLeftCell="E25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3559,8 +3556,8 @@
       <c r="E31" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="F31" t="s">
-        <v>452</v>
+      <c r="F31" s="9" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="81">
@@ -5517,7 +5514,7 @@
         <v>323</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F129" t="s">
         <v>317</v>

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new_news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998528C4-9117-4DB2-9F34-FE29786A31FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9502C6FA-B61C-406B-9465-E8B6522AAA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="31680" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="0" windowWidth="30300" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -72,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="462">
   <si>
     <t>naver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -426,15 +437,6 @@
   </si>
   <si>
     <t>굿모닝경제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url_list = soup.select("#section-list ul.type2 li")[:5];
-url_list = ["http://www.greenpostkorea.co.kr" + i.select_one("a")["href"]for i in url_list];
-title_list = soup.select("#section-list ul.type2 li h4.titles")[:5];
-title_list = [i.text.strip() for i in title_list];
-body_list = soup.select("#section-list ul.type2 li p")[:5];
-body_list = [i.text.strip() for i in body_list];</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1264,14 +1266,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.sisajournal-e.com/news/articleList.html?view_type=sm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시사저널e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>smartfn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1465,15 +1459,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>url_list = soup.select("#section-list ul li")[:5];
-url_list = ["https://www.energykorea.co.kr" + i.select_one("a")["href"] for i in url_list];
-title_list = soup.select("#section-list ul li h4.titles")[:5];
-title_list = [i.text.strip() for i in title_list];
-body_list = soup.select("#section-list ul li div.view-cont p.lead")[:5];
-body_list = [i.text.strip() for i in body_list];</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>에너지코리아</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1487,15 +1472,6 @@
   </si>
   <si>
     <t>#연합뉴스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url_list = soup.select("div.section01 div ul li")[:5];
-url_list = [i.select_one("a")["href"].replace("//","https://") for i in url_list];
-title_list = soup.select("div.section01 div ul li strong.tit-news")[:5];
-title_list = [i.text.strip() for i in title_list];
-body_list = soup.select("div.section01 div ul li p.lead")[:5];
-body_list = [i.text.strip() for i in body_list];</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1833,15 +1809,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>url_list = soup.select("#section-list ul li")[:5];
-url_list = ["http://www.sisajournal-e.com" + i.select_one("a")["href"] for i in url_list];
-title_list = soup.select("#section-list ul li h2.titles")[:5];
-title_list = [i.text.strip() for i in title_list];
-body_list = soup.select("#section-list ul li p.lead")[:5];
-body_list = [i.text.strip() for i in body_list];</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>url_list = soup.select("ul.art_list_all &gt; li ")[:5];
 url_list = ["http://www.fdaily.co.kr" + i.select_one("a")["href"]for i in url_list];
 title_list = soup.select("ul.art_list_all &gt; li &gt; a &gt;h2")[:5];
@@ -2082,21 +2049,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>url_list = ["https://ebid.knoc.co.kr/supplier/index.jsp" for i in range(5)];
-title_list = soup.select("#divBidResult ul li span a")[:5];
-title_list = ["$$$$$$$$"+i.text.strip() for i in title_list];
-body_list = ["https://ebid.knoc.co.kr/supplier/index.jsp" for i in range(5)];</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://ebid.knoc.co.kr/supplier/index.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$석유공사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스마트투데이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2148,19 +2100,6 @@
   </si>
   <si>
     <t>쿠키뉴스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.playforum.net/news/articleList.html?sc_section_code=S1N10&amp;view_type=sm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url_list = soup.select("#section-list ul li")[:5];
-url_list = ["https://www.playforum.net" + i.select_one("a")["href"] for i in url_list];
-title_list = soup.select("#section-list ul li h4.titles")[:5];
-title_list = [i.text.strip() for i in title_list];
-body_list = soup.select("#section-list ul li div.view-cont p.lead")[:5];
-body_list = [i.text.strip() for i in body_list];</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2511,6 +2450,130 @@
 title_list = [i.text.strip() for i in title_list];
 body_list = soup.select("section.media_wrap div.news_item_list ul li div.text")[:8];
 body_list = [i.text.strip() for i in body_list];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡포스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.job-post.co.kr/news/articleList.html?view_type=sm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_list = soup.select("div.article-list section.article-list-content div.list-block")[:5];
+url_list = ["https://www.job-post.co.kr" + i.select_one("a")["href"] for i in url_list];
+title_list = soup.select("div.article-list section.article-list-content div.list-block strong")[:5];
+title_list = [i.text.strip() for i in title_list];
+body_list = soup.select("div.article-list section.article-list-content p")[:5];
+body_list = [i.text.strip() for i in body_list];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시사저널e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.sisajournal-e.com/news/articleList.html?view_type=sm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_list = soup.select("#section-list ul li")[:5];
+url_list = ["http://www.sisajournal-e.com" + i.select_one("a")["href"] for i in url_list];
+title_list = soup.select("#section-list ul li h2.titles")[:5];
+title_list = [i.text.strip() for i in title_list];
+body_list = soup.select("#section-list ul li p.lead")[:5];
+body_list = [i.text.strip() for i in body_list];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_list = soup.select("#section-list ul li")[:5];
+url_list = ["https://www.energykorea.co.kr" + i.select_one("a")["href"] for i in url_list];
+title_list = soup.select("#section-list ul li h2.titles")[:5];
+title_list = [i.text.strip() for i in title_list];
+body_list = soup.select("#section-list ul li div.view-cont p.lead")[:5];
+body_list = [i.text.strip() for i in body_list];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_list = soup.select("#section-list ul.type2 li")[:5];
+url_list = ["http://www.greenpostkorea.co.kr" + i.select_one("a")["href"]for i in url_list];
+title_list = soup.select("#section-list ul.type2 li h2.titles")[:5];
+title_list = [i.text.strip() for i in title_list];
+body_list = soup.select("#section-list ul.type2 li p")[:5];
+body_list = [i.text.strip() for i in body_list];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_list = soup.select("div.section01 div ul li")[:5];
+url_list = [i.select_one("a")["href"] for i in url_list];
+title_list = soup.select("div.section01 div ul li strong.tit-wrap")[:5];
+title_list = [i.text.strip() for i in title_list];
+body_list = soup.select("div.section01 div ul li p.lead")[:5];
+body_list = [i.text.strip() for i in body_list];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중앙이코</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.joongangenews.com/news/articleList.html?view_type=sm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_list = soup.select("#section-list ul li")[:5];
+url_list = ["https://www.joongangenews.com" + i.select_one("a")["href"] for i in url_list];
+title_list = soup.select("#section-list ul li h2.titles")[:5];
+title_list = [i.text.strip() for i in title_list];
+body_list = soup.select("#section-list ul li div.view-cont p.lead")[:5];
+body_list = [i.text.strip() for i in body_list];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.playforum.net/news/articleList.html?sc_section_code=S1N7&amp;view_type=sm</t>
+  </si>
+  <si>
+    <t>url_list = soup.select("#section-list ul li")[:5];
+url_list = ["https://www.playforum.net" + i.select_one("a")["href"] for i in url_list];
+title_list = soup.select("#section-list ul li h2")[:5];
+title_list = [i.text.strip() for i in title_list];
+body_list = soup.select("#section-list ul li p")[:5];
+body_list = [i.text.strip() for i in body_list];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_list = soup.select("#section-list ul li")[:5];
+url_list = ["https://www.topstarnews.net" + i.select_one("a")["href"] for i in url_list];
+title_list = soup.select("#section-list ul li h2.titles")[:5];
+title_list = [i.text.strip() for i in title_list];
+body_list = soup.select("#section-list ul li p.lead")[:5];
+body_list = [i.text.strip() for i in body_list];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탑스타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.topstarnews.net/news/articleList.html?sc_section_code=S1N2&amp;view_type=sm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.aitimes.com/news/articleList.html?view_type=sm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_list = soup.select("#section-list ul li")[:5];
+url_list = ["https://www.aitimes.com" + i.select_one("a")["href"] for i in url_list];
+title_list = soup.select("#section-list ul li h4.titles")[:5];
+title_list = [i.text.strip() for i in title_list];
+body_list = soup.select("#section-list ul li p.lead")[:5];
+body_list = [i.text.strip() for i in body_list];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI타임즈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2926,10 +2989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F150"/>
+  <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A144" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2957,7 +3020,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2971,38 +3034,38 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="99">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -3014,10 +3077,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F4" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="99">
@@ -3034,15 +3097,15 @@
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F5" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="104.25" customHeight="1">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -3057,7 +3120,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="81">
@@ -3071,13 +3134,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="81">
@@ -3097,7 +3160,7 @@
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="81">
@@ -3111,13 +3174,13 @@
         <v>9</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="F9" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="81">
@@ -3131,13 +3194,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="F10" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="81">
@@ -3157,7 +3220,7 @@
         <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="99">
@@ -3177,7 +3240,7 @@
         <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="99">
@@ -3197,12 +3260,12 @@
         <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="99">
       <c r="A14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -3211,13 +3274,13 @@
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="F14" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="99">
@@ -3237,7 +3300,7 @@
         <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="99">
@@ -3251,13 +3314,13 @@
         <v>9</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="F16" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="99">
@@ -3271,13 +3334,13 @@
         <v>9</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F17" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="99">
@@ -3297,7 +3360,7 @@
         <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="99">
@@ -3311,13 +3374,13 @@
         <v>9</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="99">
@@ -3337,7 +3400,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="99">
@@ -3351,13 +3414,13 @@
         <v>9</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="99">
@@ -3377,7 +3440,7 @@
         <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="99">
@@ -3397,7 +3460,7 @@
         <v>52</v>
       </c>
       <c r="F23" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="82.5">
@@ -3411,13 +3474,13 @@
         <v>9</v>
       </c>
       <c r="D24" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>312</v>
-      </c>
       <c r="F24" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="99">
@@ -3431,13 +3494,13 @@
         <v>9</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="82.5">
@@ -3451,13 +3514,13 @@
         <v>9</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F26" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="99">
@@ -3471,13 +3534,13 @@
         <v>9</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F27" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="82.5">
@@ -3494,10 +3557,10 @@
         <v>59</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F28" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="99">
@@ -3511,13 +3574,13 @@
         <v>9</v>
       </c>
       <c r="D29" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="F29" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="82.5">
@@ -3534,10 +3597,10 @@
         <v>61</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F30" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="99">
@@ -3551,13 +3614,13 @@
         <v>9</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="81">
@@ -3577,7 +3640,7 @@
         <v>66</v>
       </c>
       <c r="F32" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="81">
@@ -3591,13 +3654,13 @@
         <v>9</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>68</v>
       </c>
       <c r="F33" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="81">
@@ -3611,13 +3674,13 @@
         <v>9</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F34" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="81">
@@ -3631,18 +3694,18 @@
         <v>9</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="F35" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="81">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -3651,18 +3714,18 @@
         <v>9</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>71</v>
+        <v>449</v>
       </c>
       <c r="F36" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="99">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B37">
         <v>12</v>
@@ -3671,18 +3734,18 @@
         <v>9</v>
       </c>
       <c r="D37" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="F37" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="99">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B38">
         <v>7</v>
@@ -3691,18 +3754,18 @@
         <v>9</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="F38" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="99">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B39">
         <v>12</v>
@@ -3711,18 +3774,18 @@
         <v>9</v>
       </c>
       <c r="D39" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="F39" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="99">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B40">
         <v>8</v>
@@ -3731,18 +3794,18 @@
         <v>9</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="F40" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="99">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B41">
         <v>11</v>
@@ -3751,18 +3814,18 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="F41" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="99">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -3771,18 +3834,18 @@
         <v>9</v>
       </c>
       <c r="D42" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="F42" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="99">
       <c r="A43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B43">
         <v>6</v>
@@ -3791,18 +3854,18 @@
         <v>9</v>
       </c>
       <c r="D43" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="F43" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="99">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B44">
         <v>7</v>
@@ -3811,18 +3874,18 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="F44" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="99">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B45">
         <v>8</v>
@@ -3831,18 +3894,18 @@
         <v>9</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F45" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="99">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B46">
         <v>4</v>
@@ -3851,18 +3914,18 @@
         <v>9</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F46" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="99">
       <c r="A47" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -3871,18 +3934,18 @@
         <v>9</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="F47" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="99">
       <c r="A48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B48">
         <v>6</v>
@@ -3891,38 +3954,38 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="F48" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="99">
       <c r="A49" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B49">
-        <v>9</v>
-      </c>
-      <c r="C49" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="F49" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="99">
       <c r="A50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B50">
         <v>8</v>
@@ -3931,18 +3994,18 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F50" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="99">
       <c r="A51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -3951,18 +4014,18 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="F51" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="82.5">
       <c r="A52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -3971,18 +4034,18 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F52" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="99">
       <c r="A53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B53">
         <v>6</v>
@@ -3991,18 +4054,18 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F53" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="99">
       <c r="A54" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B54">
         <v>6</v>
@@ -4011,18 +4074,18 @@
         <v>9</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F54" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="99">
       <c r="A55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B55">
         <v>5</v>
@@ -4031,18 +4094,18 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="F55" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="82.5">
       <c r="A56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B56">
         <v>5</v>
@@ -4051,18 +4114,18 @@
         <v>9</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F56" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="99">
       <c r="A57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B57">
         <v>5</v>
@@ -4071,18 +4134,18 @@
         <v>9</v>
       </c>
       <c r="D57" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="F57" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="99">
       <c r="A58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -4091,18 +4154,18 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="F58" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="99">
       <c r="A59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B59">
         <v>6</v>
@@ -4111,18 +4174,18 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="F59" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="82.5">
       <c r="A60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B60">
         <v>3</v>
@@ -4131,18 +4194,18 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="F60" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="82.5">
       <c r="A61" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B61">
         <v>6</v>
@@ -4151,18 +4214,18 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F61" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="99">
       <c r="A62" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B62">
         <v>8</v>
@@ -4171,18 +4234,18 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="F62" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="99">
       <c r="A63" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B63">
         <v>10.5</v>
@@ -4191,18 +4254,18 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="F63" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="99">
       <c r="A64" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -4211,118 +4274,118 @@
         <v>9</v>
       </c>
       <c r="D64" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="F64" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B65">
         <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B66">
         <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B67">
         <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B68">
         <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B69">
         <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="99">
       <c r="A70" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B70">
         <v>3</v>
@@ -4331,78 +4394,78 @@
         <v>9</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F70" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B71">
         <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B72">
         <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E72" t="s">
         <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B73">
         <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="99">
       <c r="A74" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B74">
         <v>4</v>
@@ -4411,18 +4474,18 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F74" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="99">
       <c r="A75" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B75">
         <v>4</v>
@@ -4431,18 +4494,18 @@
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F75" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="99">
       <c r="A76" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B76">
         <v>12</v>
@@ -4451,18 +4514,18 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F76" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="99">
       <c r="A77" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B77">
         <v>7</v>
@@ -4471,18 +4534,18 @@
         <v>9</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F77" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="99">
       <c r="A78" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B78">
         <v>6</v>
@@ -4491,18 +4554,18 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F78" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="82.5">
       <c r="A79" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B79">
         <v>10</v>
@@ -4511,18 +4574,18 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F79" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="99">
       <c r="A80" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B80">
         <v>5</v>
@@ -4531,18 +4594,18 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="F80" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="99">
       <c r="A81" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B81">
         <v>4</v>
@@ -4551,18 +4614,18 @@
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="F81" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="99">
       <c r="A82" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B82">
         <v>6</v>
@@ -4571,18 +4634,18 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="F82" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="99">
       <c r="A83" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B83">
         <v>7</v>
@@ -4591,18 +4654,18 @@
         <v>9</v>
       </c>
       <c r="D83" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="F83" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="99">
       <c r="A84" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B84">
         <v>6</v>
@@ -4611,18 +4674,18 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F84" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="82.5">
       <c r="A85" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B85">
         <v>5</v>
@@ -4631,18 +4694,18 @@
         <v>9</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F85" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="99">
       <c r="A86" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B86">
         <v>4</v>
@@ -4651,18 +4714,18 @@
         <v>9</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F86" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="82.5">
       <c r="A87" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B87">
         <v>3</v>
@@ -4671,18 +4734,18 @@
         <v>9</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="F87" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="99">
       <c r="A88" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B88">
         <v>4</v>
@@ -4691,38 +4754,38 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E88" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="F88" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="82.5">
       <c r="A89" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B89">
         <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="F89" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="82.5">
       <c r="A90" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B90">
         <v>5</v>
@@ -4731,38 +4794,38 @@
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="F90" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="99">
       <c r="A91" t="s">
+        <v>208</v>
+      </c>
+      <c r="B91">
+        <v>9</v>
+      </c>
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B91">
-        <v>9</v>
-      </c>
-      <c r="C91" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="F91" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="99">
       <c r="A92" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B92">
         <v>7</v>
@@ -4771,18 +4834,18 @@
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="F92" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="82.5">
       <c r="A93" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B93">
         <v>2</v>
@@ -4791,18 +4854,18 @@
         <v>9</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F93" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="99">
       <c r="A94" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B94">
         <v>5</v>
@@ -4811,18 +4874,18 @@
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F94" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="99">
       <c r="A95" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B95">
         <v>5</v>
@@ -4831,18 +4894,18 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="F95" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="99">
       <c r="A96" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B96">
         <v>3</v>
@@ -4851,18 +4914,18 @@
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F96" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="99">
       <c r="A97" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B97">
         <v>9</v>
@@ -4871,18 +4934,18 @@
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F97" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="99">
       <c r="A98" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -4891,73 +4954,73 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F98" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="82.5">
+      <c r="A99" t="s">
         <v>226</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="F98" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="99">
-      <c r="A99" t="s">
+      <c r="B99">
+        <v>6</v>
+      </c>
+      <c r="C99" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="F99" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="99">
+      <c r="A100" t="s">
+        <v>245</v>
+      </c>
+      <c r="B100">
+        <v>0.9</v>
+      </c>
+      <c r="C100" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B99">
-        <v>5</v>
-      </c>
-      <c r="C99" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="F99" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="82.5">
-      <c r="A100" t="s">
-        <v>229</v>
-      </c>
-      <c r="B100">
-        <v>6</v>
-      </c>
-      <c r="C100" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>442</v>
-      </c>
       <c r="F100" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="99">
       <c r="A101" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="B101">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="C101" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="F101" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="99">
@@ -4965,7 +5028,7 @@
         <v>234</v>
       </c>
       <c r="B102">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C102" t="s">
         <v>9</v>
@@ -4977,292 +5040,292 @@
         <v>233</v>
       </c>
       <c r="F102" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="99">
       <c r="A103" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B103">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>9</v>
       </c>
-      <c r="D103" s="2" t="s">
-        <v>235</v>
+      <c r="D103" s="8" t="s">
+        <v>408</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>236</v>
+        <v>407</v>
       </c>
       <c r="F103" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="99">
       <c r="A104" t="s">
+        <v>237</v>
+      </c>
+      <c r="B104">
+        <v>1.7</v>
+      </c>
+      <c r="C104" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="B104">
-        <v>7</v>
-      </c>
-      <c r="C104" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>419</v>
-      </c>
       <c r="E104" s="1" t="s">
-        <v>418</v>
+        <v>236</v>
       </c>
       <c r="F104" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="99">
       <c r="A105" t="s">
-        <v>240</v>
+        <v>325</v>
       </c>
       <c r="B105">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>241</v>
+        <v>323</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="F105" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="99">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="49.5">
       <c r="A106" t="s">
-        <v>330</v>
+        <v>248</v>
       </c>
       <c r="B106">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="C106" t="s">
-        <v>328</v>
+        <v>249</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>329</v>
+        <v>251</v>
       </c>
       <c r="F106" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="49.5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="99">
       <c r="A107" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B107">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="C107" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="E107" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="F107" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="99">
       <c r="A108" t="s">
+        <v>255</v>
+      </c>
+      <c r="B108">
+        <v>3</v>
+      </c>
+      <c r="C108" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E108" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B108">
-        <v>5</v>
-      </c>
-      <c r="C108" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="F108" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="99">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="66">
       <c r="A109" t="s">
+        <v>259</v>
+      </c>
+      <c r="B109">
+        <v>1.2</v>
+      </c>
+      <c r="C109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B109">
-        <v>3</v>
-      </c>
-      <c r="C109" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="E109" s="1" t="s">
-        <v>260</v>
+        <v>406</v>
       </c>
       <c r="F109" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="66">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="99">
       <c r="A110" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B110">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="C110" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>261</v>
+        <v>405</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="F110" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="99">
       <c r="A111" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B111">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="C111" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>416</v>
+        <v>262</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>415</v>
+        <v>448</v>
       </c>
       <c r="F111" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="99">
       <c r="A112" t="s">
+        <v>370</v>
+      </c>
+      <c r="B112">
+        <v>7</v>
+      </c>
+      <c r="C112" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F112" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="82.5">
+      <c r="A113" t="s">
+        <v>265</v>
+      </c>
+      <c r="B113">
+        <v>8</v>
+      </c>
+      <c r="C113" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F113" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="99">
+      <c r="A114" t="s">
+        <v>266</v>
+      </c>
+      <c r="B114">
+        <v>1.5</v>
+      </c>
+      <c r="C114" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F114" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="82.5">
+      <c r="A115" t="s">
+        <v>268</v>
+      </c>
+      <c r="B115">
+        <v>8</v>
+      </c>
+      <c r="C115" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B112">
-        <v>4</v>
-      </c>
-      <c r="C112" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F112" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="99">
-      <c r="A113" t="s">
-        <v>376</v>
-      </c>
-      <c r="B113">
-        <v>7</v>
-      </c>
-      <c r="C113" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="F113" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="82.5">
-      <c r="A114" t="s">
+      <c r="E115" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="F115" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="99">
+      <c r="A116" t="s">
+        <v>271</v>
+      </c>
+      <c r="B116">
+        <v>5</v>
+      </c>
+      <c r="C116" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E116" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B114">
-        <v>8</v>
-      </c>
-      <c r="C114" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F114" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="99">
-      <c r="A115" t="s">
-        <v>270</v>
-      </c>
-      <c r="B115">
-        <v>1.5</v>
-      </c>
-      <c r="C115" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F115" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="82.5">
-      <c r="A116" t="s">
-        <v>273</v>
-      </c>
-      <c r="B116">
-        <v>8</v>
-      </c>
-      <c r="C116" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="F116" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="99">
       <c r="A117" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B117">
         <v>5</v>
@@ -5274,38 +5337,38 @@
         <v>275</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F117" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="99">
       <c r="A118" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B118">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C118" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F118" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="99">
       <c r="A119" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B119">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C119" t="s">
         <v>9</v>
@@ -5314,10 +5377,10 @@
         <v>283</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="F119" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="99">
@@ -5325,24 +5388,24 @@
         <v>289</v>
       </c>
       <c r="B120">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E120" s="1" t="s">
-        <v>300</v>
-      </c>
       <c r="F120" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="99">
       <c r="A121" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B121">
         <v>5</v>
@@ -5351,53 +5414,53 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F121" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="99">
       <c r="A122" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B122">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>297</v>
+        <v>422</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F122" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="99">
       <c r="A123" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B123">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
         <v>9</v>
       </c>
-      <c r="D123" s="2" t="s">
-        <v>433</v>
+      <c r="D123" s="8" t="s">
+        <v>321</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F123" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="99">
@@ -5405,184 +5468,184 @@
         <v>306</v>
       </c>
       <c r="B124">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C124" t="s">
         <v>9</v>
       </c>
-      <c r="D124" s="8" t="s">
-        <v>326</v>
+      <c r="D124" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F124" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="99">
       <c r="A125" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B125">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
         <v>9</v>
       </c>
-      <c r="D125" s="2" t="s">
-        <v>310</v>
+      <c r="D125" s="8" t="s">
+        <v>395</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="F125" t="s">
-        <v>317</v>
+        <v>322</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="99">
       <c r="A126" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="B126">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
         <v>9</v>
       </c>
-      <c r="D126" s="8" t="s">
-        <v>406</v>
+      <c r="D126" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="F126" s="9" t="s">
-        <v>423</v>
+        <v>385</v>
+      </c>
+      <c r="F126" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="99">
       <c r="A127" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="B127">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E127" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="E127" s="1" t="s">
-        <v>396</v>
-      </c>
       <c r="F127" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="82.5">
+      <c r="A128" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" ht="99">
-      <c r="A128" t="s">
-        <v>319</v>
-      </c>
       <c r="B128">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C128" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>321</v>
+        <v>441</v>
       </c>
       <c r="F128" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="82.5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="99">
       <c r="A129" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B129">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C129" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>452</v>
+        <v>327</v>
       </c>
       <c r="F129" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="99">
       <c r="A130" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B130">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>9</v>
       </c>
-      <c r="D130" s="2" t="s">
-        <v>335</v>
+      <c r="D130" s="1" t="s">
+        <v>330</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F130" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="99">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B131">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>338</v>
+        <v>141</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E131" t="s">
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="99">
       <c r="A132" t="s">
-        <v>345</v>
+        <v>445</v>
       </c>
       <c r="B132">
         <v>5</v>
       </c>
       <c r="C132" t="s">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="E132" t="s">
-        <v>11</v>
+        <v>446</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>447</v>
       </c>
       <c r="F132" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="99">
       <c r="A133" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B133">
         <v>5</v>
@@ -5591,18 +5654,18 @@
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F133" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="99">
       <c r="A134" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B134">
         <v>6</v>
@@ -5611,18 +5674,18 @@
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="F134" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="99">
       <c r="A135" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B135">
         <v>4</v>
@@ -5631,18 +5694,18 @@
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F135" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="67.5">
       <c r="A136" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B136">
         <v>1.1000000000000001</v>
@@ -5651,18 +5714,18 @@
         <v>9</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F136" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="82.5">
       <c r="A137" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B137">
         <v>1.3</v>
@@ -5671,81 +5734,81 @@
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F137" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="66">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="99">
       <c r="A138" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B138">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F138" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="99">
       <c r="A139" t="s">
+        <v>132</v>
+      </c>
+      <c r="B139">
+        <v>11</v>
+      </c>
+      <c r="C139" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F139" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="82.5">
+      <c r="A140" t="s">
+        <v>379</v>
+      </c>
+      <c r="B140">
+        <v>9</v>
+      </c>
+      <c r="C140" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F140" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="148.5">
+      <c r="A141" t="s">
         <v>380</v>
       </c>
-      <c r="B139">
-        <v>8</v>
-      </c>
-      <c r="C139" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="F139" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="99">
-      <c r="A140" t="s">
-        <v>133</v>
-      </c>
-      <c r="B140">
-        <v>11</v>
-      </c>
-      <c r="C140" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="F140" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="82.5">
-      <c r="A141" t="s">
-        <v>388</v>
-      </c>
       <c r="B141">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>9</v>
@@ -5757,12 +5820,12 @@
         <v>386</v>
       </c>
       <c r="F141" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="148.5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="99">
       <c r="A142" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B142">
         <v>5</v>
@@ -5771,18 +5834,18 @@
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>397</v>
+        <v>455</v>
       </c>
       <c r="F142" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="99">
       <c r="A143" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B143">
         <v>5</v>
@@ -5791,153 +5854,213 @@
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="F143" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="99">
       <c r="A144" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B144">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C144" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F144" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="99">
       <c r="A145" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B145">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C145" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F145" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="99">
       <c r="A146" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B146">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C146" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="F146" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="99">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="82.5">
       <c r="A147" t="s">
+        <v>415</v>
+      </c>
+      <c r="B147">
+        <v>7.2</v>
+      </c>
+      <c r="C147" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="B147">
-        <v>7</v>
-      </c>
-      <c r="C147" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>422</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>413</v>
       </c>
       <c r="F147" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="82.5">
       <c r="A148" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="B148">
-        <v>7.2</v>
+        <v>1.6</v>
       </c>
       <c r="C148" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F148" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="82.5">
       <c r="A149" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="B149">
-        <v>1.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C149" t="s">
         <v>9</v>
       </c>
-      <c r="D149" s="2" t="s">
-        <v>429</v>
+      <c r="D149" s="8" t="s">
+        <v>435</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>427</v>
       </c>
       <c r="F149" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="82.5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="99">
       <c r="A150" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="B150">
-        <v>2.2000000000000002</v>
+        <v>4</v>
       </c>
       <c r="C150" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="F150" t="s">
-        <v>317</v>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="99">
+      <c r="A151" t="s">
+        <v>451</v>
+      </c>
+      <c r="B151">
+        <v>5</v>
+      </c>
+      <c r="C151" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F151" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="99">
+      <c r="A152" t="s">
+        <v>457</v>
+      </c>
+      <c r="B152">
+        <v>6</v>
+      </c>
+      <c r="C152" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F152" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="99">
+      <c r="A153" t="s">
+        <v>461</v>
+      </c>
+      <c r="B153">
+        <v>6</v>
+      </c>
+      <c r="C153" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F153" t="s">
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -5993,83 +6116,85 @@
     <hyperlink ref="D95" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
     <hyperlink ref="D96" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
     <hyperlink ref="D97" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D98" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D101" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D102" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D103" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D105" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D86" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="D107" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="D108" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D109" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="D110" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="D36" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D111" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D112" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D114" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D116" r:id="rId65" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="D117" r:id="rId66" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="D118" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="D119" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="D24" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="D93" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D120" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="D77" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="D16" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="D121" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="D122" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="D115" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="D34" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D3" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="D125" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D127" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D128" r:id="rId81" xr:uid="{A16A5099-7DDF-4370-95B7-BE0B27B5431C}"/>
-    <hyperlink ref="D129" r:id="rId82" xr:uid="{708EF35E-20E2-4320-AADE-685E01E763F7}"/>
-    <hyperlink ref="D124" r:id="rId83" xr:uid="{FB61B29C-091A-4DDA-AE79-D04CD219E120}"/>
-    <hyperlink ref="D106" r:id="rId84" xr:uid="{ECA328F5-23A6-4DE4-B068-F02A7D98D168}"/>
-    <hyperlink ref="D130" r:id="rId85" xr:uid="{9AD90610-B454-4A84-8345-BC650F57996E}"/>
-    <hyperlink ref="D38" r:id="rId86" xr:uid="{93E22CFB-0916-4E6E-ACC3-EEAD067C806F}"/>
-    <hyperlink ref="D133" r:id="rId87" xr:uid="{B9A9083D-DAAC-4EB9-A1EF-8226D6CE0569}"/>
-    <hyperlink ref="D132" r:id="rId88" xr:uid="{7BB4446E-C399-4A10-A149-71E6F6C21625}"/>
-    <hyperlink ref="D67" r:id="rId89" xr:uid="{26848A2D-A2E9-4D35-A878-4E94AA4528CC}"/>
-    <hyperlink ref="D73" r:id="rId90" xr:uid="{4F6D0E3F-842E-4538-B42C-64D38060BB59}"/>
-    <hyperlink ref="D134" r:id="rId91" xr:uid="{302CF079-F4AA-41D6-A7B3-02085878B25C}"/>
-    <hyperlink ref="D59" r:id="rId92" xr:uid="{FFC2D208-AEF3-4089-93F4-56B6F4845C6D}"/>
-    <hyperlink ref="D135" r:id="rId93" xr:uid="{537861A6-5879-4590-973E-CAB8004B1F94}"/>
-    <hyperlink ref="D17" r:id="rId94" xr:uid="{09DC9E19-5EF7-447C-A207-F065EAABBA9E}"/>
-    <hyperlink ref="D137" r:id="rId95" xr:uid="{B0679566-FA54-444D-8C38-A9B1A78EA00B}"/>
-    <hyperlink ref="D113" r:id="rId96" xr:uid="{548C8289-7EC3-401B-8394-4658D1E44626}"/>
-    <hyperlink ref="D138" r:id="rId97" xr:uid="{DC77A0A1-75B4-4037-BF20-173723D2E1A0}"/>
-    <hyperlink ref="D139" r:id="rId98" xr:uid="{68B8ABE4-7971-4B92-873E-57FB9E5E8E7B}"/>
-    <hyperlink ref="D69" r:id="rId99" xr:uid="{CE9629E1-6341-48A8-A515-14208ED02ACE}"/>
-    <hyperlink ref="D140" r:id="rId100" xr:uid="{7906C34E-95E6-4C1B-9565-B8B6F37DE732}"/>
-    <hyperlink ref="D141" r:id="rId101" xr:uid="{EE076CB7-11A0-4FF0-9825-6A412491927F}"/>
-    <hyperlink ref="D142" r:id="rId102" xr:uid="{155BFA89-2A1E-4E9B-9D34-97E8FE7BFBB8}"/>
-    <hyperlink ref="D143" r:id="rId103" xr:uid="{5B90FF2B-C561-4007-AD0E-86645E787947}"/>
-    <hyperlink ref="D144" r:id="rId104" xr:uid="{4B1CBD95-B37A-4E49-99CD-5B0FAFB1DD68}"/>
-    <hyperlink ref="D126" r:id="rId105" xr:uid="{933F49CC-7CBE-4246-BED0-85666C83AD9C}"/>
-    <hyperlink ref="D44" r:id="rId106" xr:uid="{44BF8FFF-EFEF-4626-91C2-16E5A0463084}"/>
-    <hyperlink ref="D85" r:id="rId107" xr:uid="{CFA38323-9624-4B72-BAD1-1DF28D103CC7}"/>
-    <hyperlink ref="D54" r:id="rId108" xr:uid="{027425D3-4104-4019-9C56-9619BD774590}"/>
-    <hyperlink ref="D145" r:id="rId109" xr:uid="{5E05232A-62B2-4A14-ABE0-B7C2FC8317E5}"/>
-    <hyperlink ref="D35" r:id="rId110" xr:uid="{E78167A9-C7BD-4913-A9BE-7D05FB372985}"/>
-    <hyperlink ref="D146" r:id="rId111" xr:uid="{A09AECAB-6573-4BCA-B75F-5029DC873CE5}"/>
-    <hyperlink ref="D21" r:id="rId112" xr:uid="{F0EA2884-0417-443D-ABC1-941CEB7EBB01}"/>
-    <hyperlink ref="D147" r:id="rId113" xr:uid="{3E967917-087B-4C24-883E-25347224DBDC}"/>
-    <hyperlink ref="D104" r:id="rId114" xr:uid="{EE590C67-17CF-44CB-8F7D-B042342203EE}"/>
-    <hyperlink ref="D89" r:id="rId115" xr:uid="{72BBC2F8-4E6F-4DFD-B837-9BFEBE7BA406}"/>
-    <hyperlink ref="D148" r:id="rId116" xr:uid="{0B4ECC27-EC91-4F95-82E0-FD9CDCD9A93F}"/>
-    <hyperlink ref="D149" r:id="rId117" xr:uid="{49B38CC6-2C17-4FEF-90C9-05FEFA135B41}"/>
-    <hyperlink ref="D40" r:id="rId118" xr:uid="{C2109FB0-C10E-4DCF-989E-E84149DE1EAC}"/>
-    <hyperlink ref="D123" r:id="rId119" xr:uid="{50BA8730-2B77-4DFA-A049-17427C1D7CC5}"/>
-    <hyperlink ref="D56" r:id="rId120" xr:uid="{C988080E-F4EB-46BF-AB72-D073DF5191B6}"/>
-    <hyperlink ref="D87" r:id="rId121" xr:uid="{3B941BCF-E75D-4DA8-8A44-527E84ED7297}"/>
-    <hyperlink ref="D25" r:id="rId122" xr:uid="{4CF61DDE-F761-41F1-A22D-2FF464DFA9A2}"/>
-    <hyperlink ref="D100" r:id="rId123" xr:uid="{F69F71F7-93FB-4517-A52D-2CB75FB91539}"/>
-    <hyperlink ref="D9" r:id="rId124" xr:uid="{AA062347-DE7E-42D9-B1FA-F6DBC67BC5A3}"/>
+    <hyperlink ref="D100" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D101" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D102" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D104" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D86" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="D106" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="D107" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D108" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="D109" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="D36" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D110" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D111" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D113" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D115" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D116" r:id="rId65" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="D117" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="D118" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="D24" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="D93" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D119" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="D77" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="D16" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="D120" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="D121" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="D114" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="D34" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D3" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="D124" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D126" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D127" r:id="rId80" xr:uid="{A16A5099-7DDF-4370-95B7-BE0B27B5431C}"/>
+    <hyperlink ref="D128" r:id="rId81" xr:uid="{708EF35E-20E2-4320-AADE-685E01E763F7}"/>
+    <hyperlink ref="D123" r:id="rId82" xr:uid="{FB61B29C-091A-4DDA-AE79-D04CD219E120}"/>
+    <hyperlink ref="D105" r:id="rId83" xr:uid="{ECA328F5-23A6-4DE4-B068-F02A7D98D168}"/>
+    <hyperlink ref="D129" r:id="rId84" xr:uid="{9AD90610-B454-4A84-8345-BC650F57996E}"/>
+    <hyperlink ref="D38" r:id="rId85" xr:uid="{93E22CFB-0916-4E6E-ACC3-EEAD067C806F}"/>
+    <hyperlink ref="D133" r:id="rId86" xr:uid="{B9A9083D-DAAC-4EB9-A1EF-8226D6CE0569}"/>
+    <hyperlink ref="D131" r:id="rId87" xr:uid="{7BB4446E-C399-4A10-A149-71E6F6C21625}"/>
+    <hyperlink ref="D67" r:id="rId88" xr:uid="{26848A2D-A2E9-4D35-A878-4E94AA4528CC}"/>
+    <hyperlink ref="D73" r:id="rId89" xr:uid="{4F6D0E3F-842E-4538-B42C-64D38060BB59}"/>
+    <hyperlink ref="D134" r:id="rId90" xr:uid="{302CF079-F4AA-41D6-A7B3-02085878B25C}"/>
+    <hyperlink ref="D59" r:id="rId91" xr:uid="{FFC2D208-AEF3-4089-93F4-56B6F4845C6D}"/>
+    <hyperlink ref="D135" r:id="rId92" xr:uid="{537861A6-5879-4590-973E-CAB8004B1F94}"/>
+    <hyperlink ref="D17" r:id="rId93" xr:uid="{09DC9E19-5EF7-447C-A207-F065EAABBA9E}"/>
+    <hyperlink ref="D137" r:id="rId94" xr:uid="{B0679566-FA54-444D-8C38-A9B1A78EA00B}"/>
+    <hyperlink ref="D112" r:id="rId95" xr:uid="{548C8289-7EC3-401B-8394-4658D1E44626}"/>
+    <hyperlink ref="D138" r:id="rId96" xr:uid="{68B8ABE4-7971-4B92-873E-57FB9E5E8E7B}"/>
+    <hyperlink ref="D69" r:id="rId97" xr:uid="{CE9629E1-6341-48A8-A515-14208ED02ACE}"/>
+    <hyperlink ref="D139" r:id="rId98" xr:uid="{7906C34E-95E6-4C1B-9565-B8B6F37DE732}"/>
+    <hyperlink ref="D140" r:id="rId99" xr:uid="{EE076CB7-11A0-4FF0-9825-6A412491927F}"/>
+    <hyperlink ref="D141" r:id="rId100" xr:uid="{155BFA89-2A1E-4E9B-9D34-97E8FE7BFBB8}"/>
+    <hyperlink ref="D143" r:id="rId101" xr:uid="{4B1CBD95-B37A-4E49-99CD-5B0FAFB1DD68}"/>
+    <hyperlink ref="D125" r:id="rId102" xr:uid="{933F49CC-7CBE-4246-BED0-85666C83AD9C}"/>
+    <hyperlink ref="D44" r:id="rId103" xr:uid="{44BF8FFF-EFEF-4626-91C2-16E5A0463084}"/>
+    <hyperlink ref="D85" r:id="rId104" xr:uid="{CFA38323-9624-4B72-BAD1-1DF28D103CC7}"/>
+    <hyperlink ref="D54" r:id="rId105" xr:uid="{027425D3-4104-4019-9C56-9619BD774590}"/>
+    <hyperlink ref="D144" r:id="rId106" xr:uid="{5E05232A-62B2-4A14-ABE0-B7C2FC8317E5}"/>
+    <hyperlink ref="D35" r:id="rId107" xr:uid="{E78167A9-C7BD-4913-A9BE-7D05FB372985}"/>
+    <hyperlink ref="D145" r:id="rId108" xr:uid="{A09AECAB-6573-4BCA-B75F-5029DC873CE5}"/>
+    <hyperlink ref="D21" r:id="rId109" xr:uid="{F0EA2884-0417-443D-ABC1-941CEB7EBB01}"/>
+    <hyperlink ref="D146" r:id="rId110" xr:uid="{3E967917-087B-4C24-883E-25347224DBDC}"/>
+    <hyperlink ref="D103" r:id="rId111" xr:uid="{EE590C67-17CF-44CB-8F7D-B042342203EE}"/>
+    <hyperlink ref="D89" r:id="rId112" xr:uid="{72BBC2F8-4E6F-4DFD-B837-9BFEBE7BA406}"/>
+    <hyperlink ref="D147" r:id="rId113" xr:uid="{0B4ECC27-EC91-4F95-82E0-FD9CDCD9A93F}"/>
+    <hyperlink ref="D148" r:id="rId114" xr:uid="{49B38CC6-2C17-4FEF-90C9-05FEFA135B41}"/>
+    <hyperlink ref="D40" r:id="rId115" xr:uid="{C2109FB0-C10E-4DCF-989E-E84149DE1EAC}"/>
+    <hyperlink ref="D122" r:id="rId116" xr:uid="{50BA8730-2B77-4DFA-A049-17427C1D7CC5}"/>
+    <hyperlink ref="D56" r:id="rId117" xr:uid="{C988080E-F4EB-46BF-AB72-D073DF5191B6}"/>
+    <hyperlink ref="D87" r:id="rId118" xr:uid="{3B941BCF-E75D-4DA8-8A44-527E84ED7297}"/>
+    <hyperlink ref="D25" r:id="rId119" xr:uid="{4CF61DDE-F761-41F1-A22D-2FF464DFA9A2}"/>
+    <hyperlink ref="D99" r:id="rId120" xr:uid="{F69F71F7-93FB-4517-A52D-2CB75FB91539}"/>
+    <hyperlink ref="D9" r:id="rId121" xr:uid="{AA062347-DE7E-42D9-B1FA-F6DBC67BC5A3}"/>
+    <hyperlink ref="D150" r:id="rId122" xr:uid="{03FCC17F-5E5A-4BB9-AB6F-E913ABCF9296}"/>
+    <hyperlink ref="D132" r:id="rId123" xr:uid="{341B611A-2A3E-4D76-979C-A6AC19CF8A2E}"/>
+    <hyperlink ref="D151" r:id="rId124" xr:uid="{B0BACB11-8EAB-444A-A367-89EF9AE91442}"/>
+    <hyperlink ref="D152" r:id="rId125" xr:uid="{8A3E3722-3D34-4679-8500-A153D053D8CE}"/>
+    <hyperlink ref="D153" r:id="rId126" xr:uid="{7FBFF53A-F5DE-4AA6-87C3-5F341F2A40D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId125"/>
-  <legacyDrawing r:id="rId126"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId127"/>
+  <legacyDrawing r:id="rId128"/>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new_news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9502C6FA-B61C-406B-9465-E8B6522AAA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2277144-A9ED-4051-B9FA-45A998D7672F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="0" windowWidth="30300" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="600" windowWidth="30300" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="459">
   <si>
     <t>naver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,18 +208,6 @@
   </si>
   <si>
     <t>비욘드포스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.beyondpost.co.kr/list.php?ct=g0000</t>
-  </si>
-  <si>
-    <t>url_list = soup.select("div.wrap2 div.l2d ul li")[:5];
-url_list = [i.select_one("a")["href"] for i in url_list];
-title_list = soup.select("div.wrap2 div.l2d ul li span.w1")[:5];
-title_list = [i.text.strip() for i in title_list];
-body_list = soup.select("div.wrap2 div.l2d ul li span.w2")[:5];
-body_list = [i.text.strip() for i in body_list];</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1174,19 +1162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>뉴스웨이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url_list = soup.select("div.content-left-bottom article")[:5];
-url_list = ["https://www.newsway.co.kr" + i.select_one("a")["href"] for i in url_list];
-title_list = soup.select("div.content-left-bottom article div.news-text p.headline")[:5];
-title_list = [i.text.strip() for i in title_list];
-body_list = soup.select("div.content-left-bottom article div.news-text p.description")[:5];
-body_list = [i.text.strip() for i in body_list];</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$$팍스tv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2174,10 +2149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.newsway.co.kr/search?q=+&amp;t=&amp;d=week</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.goodkyung.com/news/articleList.html?view_type=sm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2574,6 +2545,19 @@
   </si>
   <si>
     <t>AI타임즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.beyondpost.co.kr/list.php?ct=g0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_list = soup.select("div.lcon_in div div.ldv2 ul li")[:5];
+url_list = [i.select_one("a")["href"] for i in url_list];
+title_list = soup.select("div.lcon_in div div.ldv2 ul li h4")[:5];
+title_list = [i.text.strip() for i in title_list];
+body_list = soup.select("div.lcon_in div div.ldv2 ul li p")[:5];
+body_list = [i.text.strip() for i in body_list];</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2989,10 +2973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F153"/>
+  <dimension ref="A1:F152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E146" sqref="E146"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3020,7 +3004,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3034,38 +3018,38 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="99">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -3077,10 +3061,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="99">
@@ -3097,15 +3081,15 @@
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F5" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="104.25" customHeight="1">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -3120,7 +3104,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="81">
@@ -3134,13 +3118,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="81">
@@ -3160,7 +3144,7 @@
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="81">
@@ -3174,13 +3158,13 @@
         <v>9</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F9" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="81">
@@ -3194,13 +3178,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F10" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="81">
@@ -3220,7 +3204,7 @@
         <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="99">
@@ -3233,19 +3217,19 @@
       <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>27</v>
+      <c r="D12" s="8" t="s">
+        <v>457</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>28</v>
+        <v>458</v>
       </c>
       <c r="F12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="99">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -3254,18 +3238,18 @@
         <v>9</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="F13" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="99">
       <c r="A14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -3274,18 +3258,18 @@
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F14" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="99">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B15">
         <v>7</v>
@@ -3294,18 +3278,18 @@
         <v>9</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="F15" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="99">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -3314,18 +3298,18 @@
         <v>9</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F16" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="99">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B17">
         <v>9</v>
@@ -3334,18 +3318,18 @@
         <v>9</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F17" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="99">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -3354,18 +3338,18 @@
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="99">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B19">
         <v>7</v>
@@ -3374,18 +3358,18 @@
         <v>9</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="99">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -3394,18 +3378,18 @@
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="F20" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="99">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>7</v>
@@ -3414,18 +3398,18 @@
         <v>9</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="99">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -3434,18 +3418,18 @@
         <v>9</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F22" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="99">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -3454,18 +3438,18 @@
         <v>9</v>
       </c>
       <c r="D23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="F23" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="82.5">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B24">
         <v>9</v>
@@ -3474,18 +3458,18 @@
         <v>9</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F24" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="99">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -3494,18 +3478,18 @@
         <v>9</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F25" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="82.5">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B26">
         <v>6</v>
@@ -3514,18 +3498,18 @@
         <v>9</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F26" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="99">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -3534,18 +3518,18 @@
         <v>9</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F27" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="82.5">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B28">
         <v>5</v>
@@ -3554,18 +3538,18 @@
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F28" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="99">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -3574,18 +3558,18 @@
         <v>9</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F29" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="82.5">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -3594,18 +3578,18 @@
         <v>9</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F30" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="99">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B31">
         <v>6</v>
@@ -3614,18 +3598,18 @@
         <v>9</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="81">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B32">
         <v>8</v>
@@ -3634,18 +3618,18 @@
         <v>9</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="F32" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="81">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B33">
         <v>9</v>
@@ -3654,18 +3638,18 @@
         <v>9</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F33" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="81">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B34">
         <v>8</v>
@@ -3674,18 +3658,18 @@
         <v>9</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F34" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="81">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B35">
         <v>7</v>
@@ -3694,18 +3678,18 @@
         <v>9</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F35" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="81">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -3714,18 +3698,18 @@
         <v>9</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F36" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="99">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B37">
         <v>12</v>
@@ -3734,18 +3718,18 @@
         <v>9</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="99">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B38">
         <v>7</v>
@@ -3754,18 +3738,18 @@
         <v>9</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F38" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="99">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B39">
         <v>12</v>
@@ -3774,18 +3758,18 @@
         <v>9</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="99">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B40">
         <v>8</v>
@@ -3794,18 +3778,18 @@
         <v>9</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="F40" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="99">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B41">
         <v>11</v>
@@ -3814,18 +3798,18 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="99">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -3834,18 +3818,18 @@
         <v>9</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F42" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="99">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B43">
         <v>6</v>
@@ -3854,18 +3838,18 @@
         <v>9</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F43" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="99">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B44">
         <v>7</v>
@@ -3874,18 +3858,18 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F44" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="99">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B45">
         <v>8</v>
@@ -3894,18 +3878,18 @@
         <v>9</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F45" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="99">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B46">
         <v>4</v>
@@ -3914,18 +3898,18 @@
         <v>9</v>
       </c>
       <c r="D46" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="F46" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="99">
       <c r="A47" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -3934,18 +3918,18 @@
         <v>9</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="F47" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="99">
       <c r="A48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B48">
         <v>6</v>
@@ -3954,18 +3938,18 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F48" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="99">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B49">
         <v>9</v>
@@ -3974,18 +3958,18 @@
         <v>9</v>
       </c>
       <c r="D49" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="F49" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="99">
       <c r="A50" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B50">
         <v>8</v>
@@ -3994,38 +3978,38 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F50" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="99">
       <c r="A51" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51">
+        <v>2.5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B51">
-        <v>3</v>
-      </c>
-      <c r="C51" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="F51" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="82.5">
       <c r="A52" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -4034,18 +4018,18 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F52" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="99">
       <c r="A53" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B53">
         <v>6</v>
@@ -4054,18 +4038,18 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F53" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="99">
       <c r="A54" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B54">
         <v>6</v>
@@ -4074,18 +4058,18 @@
         <v>9</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F54" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="99">
       <c r="A55" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B55">
         <v>5</v>
@@ -4094,18 +4078,18 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F55" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="82.5">
       <c r="A56" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B56">
         <v>5</v>
@@ -4114,18 +4098,18 @@
         <v>9</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F56" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="99">
       <c r="A57" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B57">
         <v>5</v>
@@ -4134,18 +4118,18 @@
         <v>9</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F57" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="99">
       <c r="A58" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -4154,18 +4138,18 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F58" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="99">
       <c r="A59" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B59">
         <v>6</v>
@@ -4174,18 +4158,18 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F59" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="82.5">
       <c r="A60" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B60">
         <v>3</v>
@@ -4194,18 +4178,18 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F60" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="82.5">
       <c r="A61" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B61">
         <v>6</v>
@@ -4214,18 +4198,18 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F61" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="99">
       <c r="A62" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B62">
         <v>8</v>
@@ -4234,18 +4218,18 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F62" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="99">
       <c r="A63" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B63">
         <v>10.5</v>
@@ -4254,18 +4238,18 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F63" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="99">
       <c r="A64" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -4274,118 +4258,118 @@
         <v>9</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F64" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B65">
         <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B66">
         <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B67">
         <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B68">
         <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B69">
         <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="99">
       <c r="A70" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B70">
         <v>3</v>
@@ -4394,78 +4378,78 @@
         <v>9</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F70" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B71">
         <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B72">
         <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E72" t="s">
         <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B73">
         <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="99">
       <c r="A74" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B74">
         <v>4</v>
@@ -4474,18 +4458,18 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="F74" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="99">
       <c r="A75" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B75">
         <v>4</v>
@@ -4494,18 +4478,18 @@
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="F75" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="99">
       <c r="A76" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B76">
         <v>12</v>
@@ -4514,18 +4498,18 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="F76" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="99">
       <c r="A77" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B77">
         <v>7</v>
@@ -4534,18 +4518,18 @@
         <v>9</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F77" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="99">
       <c r="A78" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B78">
         <v>6</v>
@@ -4554,18 +4538,18 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="F78" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="82.5">
       <c r="A79" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B79">
         <v>10</v>
@@ -4574,18 +4558,18 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F79" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="99">
       <c r="A80" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B80">
         <v>5</v>
@@ -4594,18 +4578,18 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F80" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="99">
       <c r="A81" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B81">
         <v>4</v>
@@ -4614,18 +4598,18 @@
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F81" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="99">
       <c r="A82" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B82">
         <v>6</v>
@@ -4634,18 +4618,18 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F82" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="99">
       <c r="A83" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B83">
         <v>7</v>
@@ -4654,18 +4638,18 @@
         <v>9</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F83" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="99">
       <c r="A84" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B84">
         <v>6</v>
@@ -4674,18 +4658,18 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F84" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="82.5">
       <c r="A85" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B85">
         <v>5</v>
@@ -4694,18 +4678,18 @@
         <v>9</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F85" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="99">
       <c r="A86" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B86">
         <v>4</v>
@@ -4714,18 +4698,18 @@
         <v>9</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F86" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="82.5">
       <c r="A87" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B87">
         <v>3</v>
@@ -4734,18 +4718,18 @@
         <v>9</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F87" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="99">
       <c r="A88" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B88">
         <v>4</v>
@@ -4754,38 +4738,38 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F88" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="82.5">
       <c r="A89" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B89">
         <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F89" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="82.5">
       <c r="A90" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B90">
         <v>5</v>
@@ -4794,73 +4778,73 @@
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F90" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="99">
       <c r="A91" t="s">
+        <v>206</v>
+      </c>
+      <c r="B91">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B91">
-        <v>9</v>
-      </c>
-      <c r="C91" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E91" s="1" t="s">
+      <c r="F91" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="82.5">
+      <c r="A92" t="s">
+        <v>242</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F91" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="99">
-      <c r="A92" t="s">
+      <c r="F92" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="99">
+      <c r="A93" t="s">
+        <v>211</v>
+      </c>
+      <c r="B93">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B92">
-        <v>7</v>
-      </c>
-      <c r="C92" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E92" s="1" t="s">
+      <c r="E93" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F92" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="82.5">
-      <c r="A93" t="s">
-        <v>246</v>
-      </c>
-      <c r="B93">
-        <v>2</v>
-      </c>
-      <c r="C93" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="F93" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="99">
@@ -4874,21 +4858,21 @@
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="F94" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="99">
       <c r="A95" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B95">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C95" t="s">
         <v>9</v>
@@ -4897,10 +4881,10 @@
         <v>217</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="F95" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="99">
@@ -4908,227 +4892,227 @@
         <v>220</v>
       </c>
       <c r="B96">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>241</v>
+        <v>329</v>
       </c>
       <c r="F96" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="99">
       <c r="A97" t="s">
+        <v>221</v>
+      </c>
+      <c r="B97">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F97" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="82.5">
+      <c r="A98" t="s">
+        <v>222</v>
+      </c>
+      <c r="B98">
+        <v>6</v>
+      </c>
+      <c r="C98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F98" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="99">
+      <c r="A99" t="s">
+        <v>241</v>
+      </c>
+      <c r="B99">
+        <v>0.9</v>
+      </c>
+      <c r="C99" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B97">
-        <v>9</v>
-      </c>
-      <c r="C97" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="F97" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="99">
-      <c r="A98" t="s">
-        <v>225</v>
-      </c>
-      <c r="B98">
-        <v>5</v>
-      </c>
-      <c r="C98" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="F98" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="82.5">
-      <c r="A99" t="s">
-        <v>226</v>
-      </c>
-      <c r="B99">
-        <v>6</v>
-      </c>
-      <c r="C99" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>431</v>
-      </c>
       <c r="F99" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="99">
       <c r="A100" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="B100">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="C100" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F100" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="99">
       <c r="A101" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B101">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C101" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="F101" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="99">
       <c r="A102" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B102">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
         <v>9</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>232</v>
+      <c r="D102" s="8" t="s">
+        <v>403</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>233</v>
+        <v>402</v>
       </c>
       <c r="F102" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="99">
       <c r="A103" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B103">
-        <v>7</v>
+        <v>1.7</v>
       </c>
       <c r="C103" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>408</v>
+        <v>234</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>407</v>
+        <v>232</v>
       </c>
       <c r="F103" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="99">
       <c r="A104" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="B104">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>238</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="F104" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="99">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="49.5">
       <c r="A105" t="s">
-        <v>325</v>
+        <v>244</v>
       </c>
       <c r="B105">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="C105" t="s">
-        <v>323</v>
+        <v>245</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>324</v>
+        <v>247</v>
       </c>
       <c r="F105" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="49.5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="99">
       <c r="A106" t="s">
+        <v>250</v>
+      </c>
+      <c r="B106">
+        <v>5</v>
+      </c>
+      <c r="C106" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B106">
-        <v>0.9</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="E106" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="F106" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="99">
       <c r="A107" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B107">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C107" t="s">
         <v>9</v>
@@ -5140,172 +5124,172 @@
         <v>253</v>
       </c>
       <c r="F107" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="99">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="66">
       <c r="A108" t="s">
         <v>255</v>
       </c>
       <c r="B108">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="C108" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E108" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F108" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="99">
+      <c r="A109" t="s">
         <v>257</v>
       </c>
-      <c r="F108" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="66">
-      <c r="A109" t="s">
-        <v>259</v>
-      </c>
       <c r="B109">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="C109" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>258</v>
+        <v>400</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="F109" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="99">
       <c r="A110" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B110">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="C110" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>404</v>
+        <v>443</v>
       </c>
       <c r="F110" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="99">
       <c r="A111" t="s">
+        <v>366</v>
+      </c>
+      <c r="B111">
+        <v>7</v>
+      </c>
+      <c r="C111" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F111" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="82.5">
+      <c r="A112" t="s">
+        <v>261</v>
+      </c>
+      <c r="B112">
+        <v>8</v>
+      </c>
+      <c r="C112" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F112" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="99">
+      <c r="A113" t="s">
+        <v>262</v>
+      </c>
+      <c r="B113">
+        <v>1.5</v>
+      </c>
+      <c r="C113" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F113" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="82.5">
+      <c r="A114" t="s">
+        <v>264</v>
+      </c>
+      <c r="B114">
+        <v>8</v>
+      </c>
+      <c r="C114" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B111">
-        <v>4</v>
-      </c>
-      <c r="C111" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="F111" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="99">
-      <c r="A112" t="s">
-        <v>370</v>
-      </c>
-      <c r="B112">
-        <v>7</v>
-      </c>
-      <c r="C112" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="F112" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="82.5">
-      <c r="A113" t="s">
+      <c r="E114" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F114" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="99">
+      <c r="A115" t="s">
+        <v>267</v>
+      </c>
+      <c r="B115">
+        <v>5</v>
+      </c>
+      <c r="C115" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E115" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B113">
-        <v>8</v>
-      </c>
-      <c r="C113" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="F113" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="99">
-      <c r="A114" t="s">
-        <v>266</v>
-      </c>
-      <c r="B114">
-        <v>1.5</v>
-      </c>
-      <c r="C114" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="F114" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="82.5">
-      <c r="A115" t="s">
-        <v>268</v>
-      </c>
-      <c r="B115">
-        <v>8</v>
-      </c>
-      <c r="C115" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>367</v>
-      </c>
       <c r="F115" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="99">
       <c r="A116" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B116">
         <v>5</v>
@@ -5314,33 +5298,33 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F116" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="99">
       <c r="A117" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B117">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C117" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E117" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E117" s="1" t="s">
-        <v>276</v>
-      </c>
       <c r="F117" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="99">
@@ -5348,44 +5332,44 @@
         <v>280</v>
       </c>
       <c r="B118">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C118" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="F118" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="99">
       <c r="A119" t="s">
+        <v>285</v>
+      </c>
+      <c r="B119">
+        <v>5</v>
+      </c>
+      <c r="C119" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E119" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B119">
-        <v>14</v>
-      </c>
-      <c r="C119" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="F119" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="99">
       <c r="A120" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B120">
         <v>5</v>
@@ -5394,73 +5378,73 @@
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F120" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="99">
       <c r="A121" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B121">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>292</v>
+        <v>417</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F121" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="99">
       <c r="A122" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B122">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
         <v>9</v>
       </c>
-      <c r="D122" s="2" t="s">
-        <v>422</v>
+      <c r="D122" s="8" t="s">
+        <v>317</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F122" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="99">
       <c r="A123" t="s">
+        <v>302</v>
+      </c>
+      <c r="B123">
+        <v>12</v>
+      </c>
+      <c r="C123" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="B123">
-        <v>8</v>
-      </c>
-      <c r="C123" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>321</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>300</v>
       </c>
       <c r="F123" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="99">
@@ -5468,47 +5452,47 @@
         <v>306</v>
       </c>
       <c r="B124">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
         <v>9</v>
       </c>
-      <c r="D124" s="2" t="s">
-        <v>305</v>
+      <c r="D124" s="8" t="s">
+        <v>390</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F124" t="s">
-        <v>312</v>
+        <v>318</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="99">
       <c r="A125" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="B125">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
         <v>9</v>
       </c>
-      <c r="D125" s="8" t="s">
-        <v>395</v>
+      <c r="D125" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="F125" s="9" t="s">
-        <v>412</v>
+        <v>381</v>
+      </c>
+      <c r="F125" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="99">
       <c r="A126" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B126">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C126" t="s">
         <v>9</v>
@@ -5517,115 +5501,115 @@
         <v>311</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>385</v>
+        <v>312</v>
       </c>
       <c r="F126" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="99">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="82.5">
       <c r="A127" t="s">
+        <v>313</v>
+      </c>
+      <c r="B127">
+        <v>3</v>
+      </c>
+      <c r="C127" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B127">
-        <v>6</v>
-      </c>
-      <c r="C127" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>315</v>
-      </c>
       <c r="E127" s="1" t="s">
-        <v>316</v>
+        <v>436</v>
       </c>
       <c r="F127" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="82.5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="99">
       <c r="A128" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="B128">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C128" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>441</v>
+        <v>323</v>
       </c>
       <c r="F128" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="99">
       <c r="A129" t="s">
+        <v>327</v>
+      </c>
+      <c r="B129">
+        <v>6</v>
+      </c>
+      <c r="C129" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E129" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B129">
-        <v>4</v>
-      </c>
-      <c r="C129" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>327</v>
-      </c>
       <c r="F129" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="99">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B130">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>332</v>
+        <v>139</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E130" t="s">
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="99">
       <c r="A131" t="s">
-        <v>339</v>
+        <v>440</v>
       </c>
       <c r="B131">
         <v>5</v>
       </c>
       <c r="C131" t="s">
-        <v>141</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="E131" t="s">
-        <v>11</v>
+        <v>441</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>442</v>
       </c>
       <c r="F131" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="99">
       <c r="A132" t="s">
-        <v>445</v>
+        <v>336</v>
       </c>
       <c r="B132">
         <v>5</v>
@@ -5634,121 +5618,121 @@
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>446</v>
+        <v>337</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>447</v>
+        <v>338</v>
       </c>
       <c r="F132" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="99">
       <c r="A133" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B133">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>342</v>
       </c>
       <c r="F133" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="99">
       <c r="A134" t="s">
+        <v>348</v>
+      </c>
+      <c r="B134">
+        <v>4</v>
+      </c>
+      <c r="C134" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E134" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B134">
-        <v>6</v>
-      </c>
-      <c r="C134" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>346</v>
-      </c>
       <c r="F134" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="99">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="67.5">
       <c r="A135" t="s">
         <v>352</v>
       </c>
       <c r="B135">
-        <v>4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C135" t="s">
         <v>9</v>
       </c>
-      <c r="D135" s="2" t="s">
+      <c r="D135" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="E135" s="1" t="s">
-        <v>351</v>
+      <c r="E135" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="F135" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="67.5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="82.5">
       <c r="A136" t="s">
+        <v>355</v>
+      </c>
+      <c r="B136">
+        <v>1.3</v>
+      </c>
+      <c r="C136" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B136">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C136" t="s">
-        <v>9</v>
-      </c>
-      <c r="D136" s="3" t="s">
+      <c r="E136" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="E136" s="4" t="s">
-        <v>358</v>
-      </c>
       <c r="F136" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="82.5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="99">
       <c r="A137" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B137">
-        <v>1.3</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="F137" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="99">
       <c r="A138" t="s">
-        <v>371</v>
+        <v>130</v>
       </c>
       <c r="B138">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C138" t="s">
         <v>9</v>
@@ -5757,55 +5741,55 @@
         <v>372</v>
       </c>
       <c r="E138" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F138" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="82.5">
+      <c r="A139" t="s">
+        <v>375</v>
+      </c>
+      <c r="B139">
+        <v>9</v>
+      </c>
+      <c r="C139" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E139" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="F138" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="99">
-      <c r="A139" t="s">
-        <v>132</v>
-      </c>
-      <c r="B139">
-        <v>11</v>
-      </c>
-      <c r="C139" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="2" t="s">
+      <c r="F139" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="148.5">
+      <c r="A140" t="s">
         <v>376</v>
       </c>
-      <c r="E139" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="F139" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="82.5">
-      <c r="A140" t="s">
-        <v>379</v>
-      </c>
       <c r="B140">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="E140" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F140" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="99">
+      <c r="A141" t="s">
         <v>377</v>
-      </c>
-      <c r="F140" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="148.5">
-      <c r="A141" t="s">
-        <v>380</v>
       </c>
       <c r="B141">
         <v>5</v>
@@ -5814,18 +5798,18 @@
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>387</v>
+        <v>449</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>386</v>
+        <v>450</v>
       </c>
       <c r="F141" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="99">
       <c r="A142" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B142">
         <v>5</v>
@@ -5834,198 +5818,198 @@
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>454</v>
+        <v>379</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>455</v>
+        <v>378</v>
       </c>
       <c r="F142" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="99">
       <c r="A143" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B143">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C143" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F143" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="99">
       <c r="A144" t="s">
+        <v>391</v>
+      </c>
+      <c r="B144">
+        <v>10</v>
+      </c>
+      <c r="C144" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E144" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B144">
-        <v>11</v>
-      </c>
-      <c r="C144" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="F144" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="99">
       <c r="A145" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B145">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>397</v>
       </c>
       <c r="F145" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="99">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="82.5">
       <c r="A146" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="B146">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="C146" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="F146" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="82.5">
       <c r="A147" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B147">
-        <v>7.2</v>
+        <v>1.6</v>
       </c>
       <c r="C147" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F147" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="82.5">
       <c r="A148" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B148">
-        <v>1.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C148" t="s">
         <v>9</v>
       </c>
-      <c r="D148" s="2" t="s">
-        <v>418</v>
+      <c r="D148" s="8" t="s">
+        <v>430</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="F148" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="82.5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="99">
       <c r="A149" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="B149">
-        <v>2.2000000000000002</v>
+        <v>4</v>
       </c>
       <c r="C149" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="F149" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="99">
       <c r="A150" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B150">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C150" t="s">
         <v>9</v>
       </c>
-      <c r="D150" s="8" t="s">
-        <v>443</v>
+      <c r="D150" s="2" t="s">
+        <v>447</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="F150" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="99">
       <c r="A151" t="s">
+        <v>452</v>
+      </c>
+      <c r="B151">
+        <v>6</v>
+      </c>
+      <c r="C151" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E151" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B151">
-        <v>5</v>
-      </c>
-      <c r="C151" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>453</v>
-      </c>
       <c r="F151" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="99">
       <c r="A152" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B152">
         <v>6</v>
@@ -6034,33 +6018,13 @@
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F152" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="99">
-      <c r="A153" t="s">
-        <v>461</v>
-      </c>
-      <c r="B153">
-        <v>6</v>
-      </c>
-      <c r="C153" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F153" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -6109,89 +6073,89 @@
     <hyperlink ref="D84" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
     <hyperlink ref="D88" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
     <hyperlink ref="D90" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D91" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="D92" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="D19" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D94" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="D95" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="D96" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D97" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D100" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D101" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D102" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D104" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D86" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="D106" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="D107" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D108" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="D109" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="D36" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D110" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D111" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D113" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D115" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="D116" r:id="rId65" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="D117" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="D118" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="D24" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="D93" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D119" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="D77" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="D16" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="D120" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="D121" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="D114" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="D34" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D3" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="D124" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D126" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D127" r:id="rId80" xr:uid="{A16A5099-7DDF-4370-95B7-BE0B27B5431C}"/>
-    <hyperlink ref="D128" r:id="rId81" xr:uid="{708EF35E-20E2-4320-AADE-685E01E763F7}"/>
-    <hyperlink ref="D123" r:id="rId82" xr:uid="{FB61B29C-091A-4DDA-AE79-D04CD219E120}"/>
-    <hyperlink ref="D105" r:id="rId83" xr:uid="{ECA328F5-23A6-4DE4-B068-F02A7D98D168}"/>
-    <hyperlink ref="D129" r:id="rId84" xr:uid="{9AD90610-B454-4A84-8345-BC650F57996E}"/>
-    <hyperlink ref="D38" r:id="rId85" xr:uid="{93E22CFB-0916-4E6E-ACC3-EEAD067C806F}"/>
-    <hyperlink ref="D133" r:id="rId86" xr:uid="{B9A9083D-DAAC-4EB9-A1EF-8226D6CE0569}"/>
-    <hyperlink ref="D131" r:id="rId87" xr:uid="{7BB4446E-C399-4A10-A149-71E6F6C21625}"/>
-    <hyperlink ref="D67" r:id="rId88" xr:uid="{26848A2D-A2E9-4D35-A878-4E94AA4528CC}"/>
-    <hyperlink ref="D73" r:id="rId89" xr:uid="{4F6D0E3F-842E-4538-B42C-64D38060BB59}"/>
-    <hyperlink ref="D134" r:id="rId90" xr:uid="{302CF079-F4AA-41D6-A7B3-02085878B25C}"/>
-    <hyperlink ref="D59" r:id="rId91" xr:uid="{FFC2D208-AEF3-4089-93F4-56B6F4845C6D}"/>
-    <hyperlink ref="D135" r:id="rId92" xr:uid="{537861A6-5879-4590-973E-CAB8004B1F94}"/>
-    <hyperlink ref="D17" r:id="rId93" xr:uid="{09DC9E19-5EF7-447C-A207-F065EAABBA9E}"/>
-    <hyperlink ref="D137" r:id="rId94" xr:uid="{B0679566-FA54-444D-8C38-A9B1A78EA00B}"/>
-    <hyperlink ref="D112" r:id="rId95" xr:uid="{548C8289-7EC3-401B-8394-4658D1E44626}"/>
-    <hyperlink ref="D138" r:id="rId96" xr:uid="{68B8ABE4-7971-4B92-873E-57FB9E5E8E7B}"/>
-    <hyperlink ref="D69" r:id="rId97" xr:uid="{CE9629E1-6341-48A8-A515-14208ED02ACE}"/>
-    <hyperlink ref="D139" r:id="rId98" xr:uid="{7906C34E-95E6-4C1B-9565-B8B6F37DE732}"/>
-    <hyperlink ref="D140" r:id="rId99" xr:uid="{EE076CB7-11A0-4FF0-9825-6A412491927F}"/>
-    <hyperlink ref="D141" r:id="rId100" xr:uid="{155BFA89-2A1E-4E9B-9D34-97E8FE7BFBB8}"/>
-    <hyperlink ref="D143" r:id="rId101" xr:uid="{4B1CBD95-B37A-4E49-99CD-5B0FAFB1DD68}"/>
-    <hyperlink ref="D125" r:id="rId102" xr:uid="{933F49CC-7CBE-4246-BED0-85666C83AD9C}"/>
-    <hyperlink ref="D44" r:id="rId103" xr:uid="{44BF8FFF-EFEF-4626-91C2-16E5A0463084}"/>
-    <hyperlink ref="D85" r:id="rId104" xr:uid="{CFA38323-9624-4B72-BAD1-1DF28D103CC7}"/>
-    <hyperlink ref="D54" r:id="rId105" xr:uid="{027425D3-4104-4019-9C56-9619BD774590}"/>
-    <hyperlink ref="D144" r:id="rId106" xr:uid="{5E05232A-62B2-4A14-ABE0-B7C2FC8317E5}"/>
-    <hyperlink ref="D35" r:id="rId107" xr:uid="{E78167A9-C7BD-4913-A9BE-7D05FB372985}"/>
-    <hyperlink ref="D145" r:id="rId108" xr:uid="{A09AECAB-6573-4BCA-B75F-5029DC873CE5}"/>
-    <hyperlink ref="D21" r:id="rId109" xr:uid="{F0EA2884-0417-443D-ABC1-941CEB7EBB01}"/>
-    <hyperlink ref="D146" r:id="rId110" xr:uid="{3E967917-087B-4C24-883E-25347224DBDC}"/>
-    <hyperlink ref="D103" r:id="rId111" xr:uid="{EE590C67-17CF-44CB-8F7D-B042342203EE}"/>
-    <hyperlink ref="D89" r:id="rId112" xr:uid="{72BBC2F8-4E6F-4DFD-B837-9BFEBE7BA406}"/>
-    <hyperlink ref="D147" r:id="rId113" xr:uid="{0B4ECC27-EC91-4F95-82E0-FD9CDCD9A93F}"/>
-    <hyperlink ref="D148" r:id="rId114" xr:uid="{49B38CC6-2C17-4FEF-90C9-05FEFA135B41}"/>
-    <hyperlink ref="D40" r:id="rId115" xr:uid="{C2109FB0-C10E-4DCF-989E-E84149DE1EAC}"/>
-    <hyperlink ref="D122" r:id="rId116" xr:uid="{50BA8730-2B77-4DFA-A049-17427C1D7CC5}"/>
-    <hyperlink ref="D56" r:id="rId117" xr:uid="{C988080E-F4EB-46BF-AB72-D073DF5191B6}"/>
-    <hyperlink ref="D87" r:id="rId118" xr:uid="{3B941BCF-E75D-4DA8-8A44-527E84ED7297}"/>
-    <hyperlink ref="D25" r:id="rId119" xr:uid="{4CF61DDE-F761-41F1-A22D-2FF464DFA9A2}"/>
-    <hyperlink ref="D99" r:id="rId120" xr:uid="{F69F71F7-93FB-4517-A52D-2CB75FB91539}"/>
-    <hyperlink ref="D9" r:id="rId121" xr:uid="{AA062347-DE7E-42D9-B1FA-F6DBC67BC5A3}"/>
-    <hyperlink ref="D150" r:id="rId122" xr:uid="{03FCC17F-5E5A-4BB9-AB6F-E913ABCF9296}"/>
-    <hyperlink ref="D132" r:id="rId123" xr:uid="{341B611A-2A3E-4D76-979C-A6AC19CF8A2E}"/>
-    <hyperlink ref="D151" r:id="rId124" xr:uid="{B0BACB11-8EAB-444A-A367-89EF9AE91442}"/>
-    <hyperlink ref="D152" r:id="rId125" xr:uid="{8A3E3722-3D34-4679-8500-A153D053D8CE}"/>
-    <hyperlink ref="D153" r:id="rId126" xr:uid="{7FBFF53A-F5DE-4AA6-87C3-5F341F2A40D7}"/>
+    <hyperlink ref="D91" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D19" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D93" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="D94" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="D95" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D96" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D99" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D100" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D101" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D103" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D86" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="D105" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="D106" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D107" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="D108" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="D36" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D109" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D110" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D112" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D114" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D115" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="D116" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="D117" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="D24" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="D92" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D118" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="D77" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="D16" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="D119" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="D120" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="D113" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="D34" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D3" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="D123" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D125" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D126" r:id="rId79" xr:uid="{A16A5099-7DDF-4370-95B7-BE0B27B5431C}"/>
+    <hyperlink ref="D127" r:id="rId80" xr:uid="{708EF35E-20E2-4320-AADE-685E01E763F7}"/>
+    <hyperlink ref="D122" r:id="rId81" xr:uid="{FB61B29C-091A-4DDA-AE79-D04CD219E120}"/>
+    <hyperlink ref="D104" r:id="rId82" xr:uid="{ECA328F5-23A6-4DE4-B068-F02A7D98D168}"/>
+    <hyperlink ref="D128" r:id="rId83" xr:uid="{9AD90610-B454-4A84-8345-BC650F57996E}"/>
+    <hyperlink ref="D38" r:id="rId84" xr:uid="{93E22CFB-0916-4E6E-ACC3-EEAD067C806F}"/>
+    <hyperlink ref="D132" r:id="rId85" xr:uid="{B9A9083D-DAAC-4EB9-A1EF-8226D6CE0569}"/>
+    <hyperlink ref="D130" r:id="rId86" xr:uid="{7BB4446E-C399-4A10-A149-71E6F6C21625}"/>
+    <hyperlink ref="D67" r:id="rId87" xr:uid="{26848A2D-A2E9-4D35-A878-4E94AA4528CC}"/>
+    <hyperlink ref="D73" r:id="rId88" xr:uid="{4F6D0E3F-842E-4538-B42C-64D38060BB59}"/>
+    <hyperlink ref="D133" r:id="rId89" xr:uid="{302CF079-F4AA-41D6-A7B3-02085878B25C}"/>
+    <hyperlink ref="D59" r:id="rId90" xr:uid="{FFC2D208-AEF3-4089-93F4-56B6F4845C6D}"/>
+    <hyperlink ref="D134" r:id="rId91" xr:uid="{537861A6-5879-4590-973E-CAB8004B1F94}"/>
+    <hyperlink ref="D17" r:id="rId92" xr:uid="{09DC9E19-5EF7-447C-A207-F065EAABBA9E}"/>
+    <hyperlink ref="D136" r:id="rId93" xr:uid="{B0679566-FA54-444D-8C38-A9B1A78EA00B}"/>
+    <hyperlink ref="D111" r:id="rId94" xr:uid="{548C8289-7EC3-401B-8394-4658D1E44626}"/>
+    <hyperlink ref="D137" r:id="rId95" xr:uid="{68B8ABE4-7971-4B92-873E-57FB9E5E8E7B}"/>
+    <hyperlink ref="D69" r:id="rId96" xr:uid="{CE9629E1-6341-48A8-A515-14208ED02ACE}"/>
+    <hyperlink ref="D138" r:id="rId97" xr:uid="{7906C34E-95E6-4C1B-9565-B8B6F37DE732}"/>
+    <hyperlink ref="D139" r:id="rId98" xr:uid="{EE076CB7-11A0-4FF0-9825-6A412491927F}"/>
+    <hyperlink ref="D140" r:id="rId99" xr:uid="{155BFA89-2A1E-4E9B-9D34-97E8FE7BFBB8}"/>
+    <hyperlink ref="D142" r:id="rId100" xr:uid="{4B1CBD95-B37A-4E49-99CD-5B0FAFB1DD68}"/>
+    <hyperlink ref="D124" r:id="rId101" xr:uid="{933F49CC-7CBE-4246-BED0-85666C83AD9C}"/>
+    <hyperlink ref="D44" r:id="rId102" xr:uid="{44BF8FFF-EFEF-4626-91C2-16E5A0463084}"/>
+    <hyperlink ref="D85" r:id="rId103" xr:uid="{CFA38323-9624-4B72-BAD1-1DF28D103CC7}"/>
+    <hyperlink ref="D54" r:id="rId104" xr:uid="{027425D3-4104-4019-9C56-9619BD774590}"/>
+    <hyperlink ref="D143" r:id="rId105" xr:uid="{5E05232A-62B2-4A14-ABE0-B7C2FC8317E5}"/>
+    <hyperlink ref="D35" r:id="rId106" xr:uid="{E78167A9-C7BD-4913-A9BE-7D05FB372985}"/>
+    <hyperlink ref="D144" r:id="rId107" xr:uid="{A09AECAB-6573-4BCA-B75F-5029DC873CE5}"/>
+    <hyperlink ref="D21" r:id="rId108" xr:uid="{F0EA2884-0417-443D-ABC1-941CEB7EBB01}"/>
+    <hyperlink ref="D145" r:id="rId109" xr:uid="{3E967917-087B-4C24-883E-25347224DBDC}"/>
+    <hyperlink ref="D102" r:id="rId110" xr:uid="{EE590C67-17CF-44CB-8F7D-B042342203EE}"/>
+    <hyperlink ref="D89" r:id="rId111" xr:uid="{72BBC2F8-4E6F-4DFD-B837-9BFEBE7BA406}"/>
+    <hyperlink ref="D146" r:id="rId112" xr:uid="{0B4ECC27-EC91-4F95-82E0-FD9CDCD9A93F}"/>
+    <hyperlink ref="D147" r:id="rId113" xr:uid="{49B38CC6-2C17-4FEF-90C9-05FEFA135B41}"/>
+    <hyperlink ref="D40" r:id="rId114" xr:uid="{C2109FB0-C10E-4DCF-989E-E84149DE1EAC}"/>
+    <hyperlink ref="D121" r:id="rId115" xr:uid="{50BA8730-2B77-4DFA-A049-17427C1D7CC5}"/>
+    <hyperlink ref="D56" r:id="rId116" xr:uid="{C988080E-F4EB-46BF-AB72-D073DF5191B6}"/>
+    <hyperlink ref="D87" r:id="rId117" xr:uid="{3B941BCF-E75D-4DA8-8A44-527E84ED7297}"/>
+    <hyperlink ref="D25" r:id="rId118" xr:uid="{4CF61DDE-F761-41F1-A22D-2FF464DFA9A2}"/>
+    <hyperlink ref="D98" r:id="rId119" xr:uid="{F69F71F7-93FB-4517-A52D-2CB75FB91539}"/>
+    <hyperlink ref="D9" r:id="rId120" xr:uid="{AA062347-DE7E-42D9-B1FA-F6DBC67BC5A3}"/>
+    <hyperlink ref="D149" r:id="rId121" xr:uid="{03FCC17F-5E5A-4BB9-AB6F-E913ABCF9296}"/>
+    <hyperlink ref="D131" r:id="rId122" xr:uid="{341B611A-2A3E-4D76-979C-A6AC19CF8A2E}"/>
+    <hyperlink ref="D150" r:id="rId123" xr:uid="{B0BACB11-8EAB-444A-A367-89EF9AE91442}"/>
+    <hyperlink ref="D151" r:id="rId124" xr:uid="{8A3E3722-3D34-4679-8500-A153D053D8CE}"/>
+    <hyperlink ref="D152" r:id="rId125" xr:uid="{7FBFF53A-F5DE-4AA6-87C3-5F341F2A40D7}"/>
+    <hyperlink ref="D12" r:id="rId126" xr:uid="{C1015149-910B-4F41-82F6-2D476AB38D4A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId127"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new_news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2277144-A9ED-4051-B9FA-45A998D7672F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E948B5-F183-4489-8F90-1B2402A5ADF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="600" windowWidth="30300" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="840" windowWidth="30300" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="461">
   <si>
     <t>naver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -616,19 +616,6 @@
   </si>
   <si>
     <t>##게임포커스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://gamefocus.co.kr/html_file.php?file=normal_all_news.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url_list = soup.select("#container_c div.f_l td.smfont2")[:5];
-url_list = ["https://gamefocus.co.kr/" + i.select_one("a")["href"] for i in url_list];
-title_list = soup.select("#container_c div.f_l td a b")[:5];
-title_list = [i.text.strip() for i in title_list];
-body_list = soup.select("#container_c div.f_l td.smfont2")[:5];
-body_list = [i.text.strip() for i in body_list];</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2558,6 +2545,26 @@
 title_list = [i.text.strip() for i in title_list];
 body_list = soup.select("div.lcon_in div div.ldv2 ul li p")[:5];
 body_list = [i.text.strip() for i in body_list];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>td_elements = soup.select('td[style="padding-bottom:3px;"]')[:5];
+url_list = ['https://gamefocus.co.kr/' + i.select_one("a")["href"] for i in td_elements];
+title_list = [i.text.strip() for i in td_elements];
+td_elements = soup.select('td.smfont2')[:5];
+body_list = [i.text.strip() for i in td_elements];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더스탁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.the-stock.kr/news/articleList.html?view_type=sm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gamefocus.co.kr/section.php?thread=22r09</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2973,10 +2980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F152"/>
+  <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3004,7 +3011,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3018,38 +3025,38 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="99">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -3061,10 +3068,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="99">
@@ -3081,15 +3088,15 @@
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="104.25" customHeight="1">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -3104,7 +3111,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="81">
@@ -3118,13 +3125,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="81">
@@ -3144,7 +3151,7 @@
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="81">
@@ -3158,13 +3165,13 @@
         <v>9</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="81">
@@ -3178,13 +3185,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="81">
@@ -3204,7 +3211,7 @@
         <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="99">
@@ -3218,13 +3225,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="99">
@@ -3244,12 +3251,12 @@
         <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="99">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -3258,13 +3265,13 @@
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F14" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="99">
@@ -3284,7 +3291,7 @@
         <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="99">
@@ -3298,13 +3305,13 @@
         <v>9</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F16" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="99">
@@ -3318,13 +3325,13 @@
         <v>9</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F17" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="99">
@@ -3344,7 +3351,7 @@
         <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="99">
@@ -3358,13 +3365,13 @@
         <v>9</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="99">
@@ -3384,7 +3391,7 @@
         <v>42</v>
       </c>
       <c r="F20" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="99">
@@ -3398,13 +3405,13 @@
         <v>9</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="99">
@@ -3424,7 +3431,7 @@
         <v>47</v>
       </c>
       <c r="F22" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="99">
@@ -3444,7 +3451,7 @@
         <v>50</v>
       </c>
       <c r="F23" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="82.5">
@@ -3458,13 +3465,13 @@
         <v>9</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F24" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="99">
@@ -3478,13 +3485,13 @@
         <v>9</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F25" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="82.5">
@@ -3501,10 +3508,10 @@
         <v>87</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F26" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="99">
@@ -3521,10 +3528,10 @@
         <v>89</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F27" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="82.5">
@@ -3541,10 +3548,10 @@
         <v>57</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F28" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="99">
@@ -3558,13 +3565,13 @@
         <v>9</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F29" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="82.5">
@@ -3584,7 +3591,7 @@
         <v>88</v>
       </c>
       <c r="F30" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="99">
@@ -3598,13 +3605,13 @@
         <v>9</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="81">
@@ -3624,7 +3631,7 @@
         <v>64</v>
       </c>
       <c r="F32" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="81">
@@ -3638,13 +3645,13 @@
         <v>9</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>66</v>
       </c>
       <c r="F33" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="81">
@@ -3658,13 +3665,13 @@
         <v>9</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F34" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="81">
@@ -3678,13 +3685,13 @@
         <v>9</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F35" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="81">
@@ -3698,13 +3705,13 @@
         <v>9</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F36" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="99">
@@ -3724,7 +3731,7 @@
         <v>71</v>
       </c>
       <c r="F37" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="99">
@@ -3738,13 +3745,13 @@
         <v>9</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F38" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="99">
@@ -3764,7 +3771,7 @@
         <v>75</v>
       </c>
       <c r="F39" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="99">
@@ -3778,13 +3785,13 @@
         <v>9</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F40" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="99">
@@ -3804,7 +3811,7 @@
         <v>79</v>
       </c>
       <c r="F41" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="99">
@@ -3824,7 +3831,7 @@
         <v>82</v>
       </c>
       <c r="F42" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="99">
@@ -3844,7 +3851,7 @@
         <v>85</v>
       </c>
       <c r="F43" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="99">
@@ -3858,13 +3865,13 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F44" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="99">
@@ -3881,10 +3888,10 @@
         <v>92</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F45" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="99">
@@ -3904,12 +3911,12 @@
         <v>95</v>
       </c>
       <c r="F46" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="99">
       <c r="A47" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -3918,13 +3925,13 @@
         <v>9</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F47" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="99">
@@ -3944,7 +3951,7 @@
         <v>97</v>
       </c>
       <c r="F48" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="99">
@@ -3964,7 +3971,7 @@
         <v>101</v>
       </c>
       <c r="F49" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="99">
@@ -3984,10 +3991,10 @@
         <v>102</v>
       </c>
       <c r="F50" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="99">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="82.5">
       <c r="A51" t="s">
         <v>105</v>
       </c>
@@ -3997,19 +4004,19 @@
       <c r="C51" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>106</v>
+      <c r="D51" s="8" t="s">
+        <v>460</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>107</v>
+        <v>457</v>
       </c>
       <c r="F51" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="82.5">
       <c r="A52" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -4018,18 +4025,18 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F52" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="99">
       <c r="A53" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B53">
         <v>6</v>
@@ -4038,18 +4045,18 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F53" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="99">
       <c r="A54" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B54">
         <v>6</v>
@@ -4058,18 +4065,18 @@
         <v>9</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F54" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="99">
       <c r="A55" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B55">
         <v>5</v>
@@ -4078,18 +4085,18 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F55" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="82.5">
       <c r="A56" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B56">
         <v>5</v>
@@ -4098,18 +4105,18 @@
         <v>9</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F56" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="99">
       <c r="A57" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B57">
         <v>5</v>
@@ -4118,18 +4125,18 @@
         <v>9</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F57" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="99">
       <c r="A58" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -4138,18 +4145,18 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F58" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="99">
       <c r="A59" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B59">
         <v>6</v>
@@ -4158,18 +4165,18 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F59" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="82.5">
       <c r="A60" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B60">
         <v>3</v>
@@ -4178,18 +4185,18 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F60" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="82.5">
       <c r="A61" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B61">
         <v>6</v>
@@ -4198,18 +4205,18 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F61" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="99">
       <c r="A62" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B62">
         <v>8</v>
@@ -4218,18 +4225,18 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F62" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="99">
       <c r="A63" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B63">
         <v>10.5</v>
@@ -4238,18 +4245,18 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F63" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="99">
       <c r="A64" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -4258,118 +4265,118 @@
         <v>9</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F64" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B65">
         <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B66">
         <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B67">
         <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B68">
         <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B69">
         <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="99">
       <c r="A70" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B70">
         <v>3</v>
@@ -4378,78 +4385,78 @@
         <v>9</v>
       </c>
       <c r="D70" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="F70" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B71">
         <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B72">
         <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E72" t="s">
         <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B73">
         <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="99">
       <c r="A74" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B74">
         <v>4</v>
@@ -4458,18 +4465,18 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="F74" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="99">
       <c r="A75" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B75">
         <v>4</v>
@@ -4478,18 +4485,18 @@
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="F75" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="99">
       <c r="A76" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B76">
         <v>12</v>
@@ -4498,18 +4505,18 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="F76" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="99">
       <c r="A77" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B77">
         <v>7</v>
@@ -4518,18 +4525,18 @@
         <v>9</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F77" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="99">
       <c r="A78" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B78">
         <v>6</v>
@@ -4538,18 +4545,18 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="F78" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="82.5">
       <c r="A79" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B79">
         <v>10</v>
@@ -4558,18 +4565,18 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F79" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="99">
       <c r="A80" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B80">
         <v>5</v>
@@ -4578,18 +4585,18 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F80" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="99">
       <c r="A81" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B81">
         <v>4</v>
@@ -4598,18 +4605,18 @@
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F81" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="99">
       <c r="A82" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B82">
         <v>6</v>
@@ -4618,18 +4625,18 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F82" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="99">
       <c r="A83" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B83">
         <v>7</v>
@@ -4638,18 +4645,18 @@
         <v>9</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F83" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="99">
       <c r="A84" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B84">
         <v>6</v>
@@ -4658,18 +4665,18 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F84" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="82.5">
       <c r="A85" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B85">
         <v>5</v>
@@ -4678,18 +4685,18 @@
         <v>9</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F85" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="99">
       <c r="A86" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B86">
         <v>4</v>
@@ -4698,18 +4705,18 @@
         <v>9</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F86" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="82.5">
       <c r="A87" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B87">
         <v>3</v>
@@ -4718,18 +4725,18 @@
         <v>9</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F87" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="99">
       <c r="A88" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B88">
         <v>4</v>
@@ -4738,38 +4745,38 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F88" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="82.5">
       <c r="A89" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B89">
         <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F89" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="82.5">
       <c r="A90" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B90">
         <v>5</v>
@@ -4778,18 +4785,18 @@
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F90" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="99">
       <c r="A91" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B91">
         <v>7</v>
@@ -4798,18 +4805,18 @@
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F91" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="82.5">
       <c r="A92" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -4818,18 +4825,18 @@
         <v>9</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F92" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="99">
       <c r="A93" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B93">
         <v>5</v>
@@ -4838,18 +4845,18 @@
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="F93" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="99">
       <c r="A94" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B94">
         <v>5</v>
@@ -4858,18 +4865,18 @@
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F94" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="99">
       <c r="A95" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B95">
         <v>3</v>
@@ -4878,18 +4885,18 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F95" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="99">
       <c r="A96" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B96">
         <v>9</v>
@@ -4898,18 +4905,18 @@
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F96" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="99">
       <c r="A97" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B97">
         <v>5</v>
@@ -4918,18 +4925,18 @@
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F97" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="82.5">
       <c r="A98" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B98">
         <v>6</v>
@@ -4938,18 +4945,18 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F98" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="99">
       <c r="A99" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B99">
         <v>0.9</v>
@@ -4958,18 +4965,18 @@
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F99" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="99">
       <c r="A100" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B100">
         <v>2</v>
@@ -4978,18 +4985,18 @@
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F100" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="99">
       <c r="A101" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B101">
         <v>4</v>
@@ -4998,18 +5005,18 @@
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F101" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="99">
       <c r="A102" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B102">
         <v>7</v>
@@ -5018,18 +5025,18 @@
         <v>9</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F102" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="99">
       <c r="A103" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B103">
         <v>1.7</v>
@@ -5038,58 +5045,58 @@
         <v>9</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F103" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="99">
       <c r="A104" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B104">
         <v>0.8</v>
       </c>
       <c r="C104" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F104" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="49.5">
       <c r="A105" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B105">
         <v>0.9</v>
       </c>
       <c r="C105" t="s">
+        <v>243</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E105" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="F105" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="99">
       <c r="A106" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B106">
         <v>5</v>
@@ -5098,18 +5105,18 @@
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F106" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="99">
       <c r="A107" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B107">
         <v>3</v>
@@ -5118,18 +5125,18 @@
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F107" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="66">
       <c r="A108" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B108">
         <v>1.2</v>
@@ -5138,18 +5145,18 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F108" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="99">
       <c r="A109" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B109">
         <v>3.5</v>
@@ -5158,18 +5165,18 @@
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F109" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="99">
       <c r="A110" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B110">
         <v>4</v>
@@ -5178,18 +5185,18 @@
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F110" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="99">
       <c r="A111" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B111">
         <v>7</v>
@@ -5198,18 +5205,18 @@
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F111" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="82.5">
       <c r="A112" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B112">
         <v>8</v>
@@ -5218,18 +5225,18 @@
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F112" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="99">
       <c r="A113" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B113">
         <v>1.5</v>
@@ -5238,18 +5245,18 @@
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F113" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="82.5">
       <c r="A114" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B114">
         <v>8</v>
@@ -5258,18 +5265,18 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F114" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="99">
       <c r="A115" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B115">
         <v>5</v>
@@ -5278,18 +5285,18 @@
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F115" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="99">
       <c r="A116" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B116">
         <v>5</v>
@@ -5298,18 +5305,18 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F116" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="99">
       <c r="A117" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B117">
         <v>4</v>
@@ -5318,18 +5325,18 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F117" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="99">
       <c r="A118" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B118">
         <v>14</v>
@@ -5338,18 +5345,18 @@
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F118" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="99">
       <c r="A119" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B119">
         <v>5</v>
@@ -5358,18 +5365,18 @@
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F119" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="99">
       <c r="A120" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B120">
         <v>5</v>
@@ -5378,18 +5385,18 @@
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F120" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="99">
       <c r="A121" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B121">
         <v>9</v>
@@ -5398,18 +5405,18 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F121" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="99">
       <c r="A122" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B122">
         <v>8</v>
@@ -5418,18 +5425,18 @@
         <v>9</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F122" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="99">
       <c r="A123" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B123">
         <v>12</v>
@@ -5438,18 +5445,18 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F123" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="99">
       <c r="A124" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B124">
         <v>9</v>
@@ -5458,18 +5465,18 @@
         <v>9</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="99">
       <c r="A125" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B125">
         <v>5</v>
@@ -5478,18 +5485,18 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F125" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="99">
       <c r="A126" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B126">
         <v>6</v>
@@ -5498,18 +5505,18 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F126" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="82.5">
       <c r="A127" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B127">
         <v>3</v>
@@ -5518,18 +5525,18 @@
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F127" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="99">
       <c r="A128" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B128">
         <v>4</v>
@@ -5538,18 +5545,18 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F128" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="99">
       <c r="A129" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B129">
         <v>6</v>
@@ -5558,38 +5565,38 @@
         <v>9</v>
       </c>
       <c r="D129" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E129" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="E129" s="1" t="s">
-        <v>328</v>
-      </c>
       <c r="F129" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B130">
         <v>5</v>
       </c>
       <c r="C130" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E130" t="s">
         <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="99">
       <c r="A131" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B131">
         <v>5</v>
@@ -5598,18 +5605,18 @@
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F131" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="99">
       <c r="A132" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B132">
         <v>5</v>
@@ -5618,18 +5625,18 @@
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F132" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="99">
       <c r="A133" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B133">
         <v>6</v>
@@ -5638,18 +5645,18 @@
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F133" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="99">
       <c r="A134" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B134">
         <v>4</v>
@@ -5658,18 +5665,18 @@
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F134" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="67.5">
       <c r="A135" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B135">
         <v>1.1000000000000001</v>
@@ -5678,18 +5685,18 @@
         <v>9</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F135" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="82.5">
       <c r="A136" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B136">
         <v>1.3</v>
@@ -5698,18 +5705,18 @@
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F136" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="99">
       <c r="A137" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B137">
         <v>8</v>
@@ -5718,18 +5725,18 @@
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F137" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="99">
       <c r="A138" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B138">
         <v>11</v>
@@ -5738,18 +5745,18 @@
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F138" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="82.5">
       <c r="A139" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B139">
         <v>9</v>
@@ -5758,18 +5765,18 @@
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F139" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="148.5">
       <c r="A140" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B140">
         <v>5</v>
@@ -5778,18 +5785,18 @@
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F140" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="99">
       <c r="A141" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B141">
         <v>5</v>
@@ -5798,18 +5805,18 @@
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F141" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="99">
       <c r="A142" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B142">
         <v>5</v>
@@ -5818,18 +5825,18 @@
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F142" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="99">
       <c r="A143" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B143">
         <v>11</v>
@@ -5838,18 +5845,18 @@
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F143" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="99">
       <c r="A144" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B144">
         <v>10</v>
@@ -5858,18 +5865,18 @@
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F144" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="99">
       <c r="A145" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B145">
         <v>7</v>
@@ -5878,18 +5885,18 @@
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F145" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="82.5">
       <c r="A146" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B146">
         <v>7.2</v>
@@ -5898,18 +5905,18 @@
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F146" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="82.5">
       <c r="A147" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B147">
         <v>1.6</v>
@@ -5918,18 +5925,18 @@
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F147" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="82.5">
       <c r="A148" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B148">
         <v>2.2000000000000002</v>
@@ -5938,18 +5945,18 @@
         <v>9</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F148" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="99">
       <c r="A149" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B149">
         <v>4</v>
@@ -5958,18 +5965,18 @@
         <v>9</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F149" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="99">
       <c r="A150" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B150">
         <v>5</v>
@@ -5978,18 +5985,18 @@
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F150" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="99">
       <c r="A151" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B151">
         <v>6</v>
@@ -5998,18 +6005,18 @@
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F151" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="99">
       <c r="A152" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B152">
         <v>6</v>
@@ -6018,13 +6025,33 @@
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F152" t="s">
-        <v>308</v>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="99">
+      <c r="A153" t="s">
+        <v>458</v>
+      </c>
+      <c r="B153">
+        <v>6</v>
+      </c>
+      <c r="C153" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F153" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -6044,121 +6071,122 @@
     <hyperlink ref="D45" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="D48" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="D50" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="D51" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="D52" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="D53" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="D55" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="D57" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="D7" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="D58" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="D60" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="D61" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="D62" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="D63" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="D47" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="D65" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="D66" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="D71" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="D72" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="D29" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="D14" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="D74" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="D75" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="D76" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="D78" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="D79" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="D80" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="D81" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="D82" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="D84" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D88" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D90" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D91" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="D19" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D93" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="D94" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="D95" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D96" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D99" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D100" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D101" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D103" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D86" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="D105" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="D106" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D107" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="D108" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="D36" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D109" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D110" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D112" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D114" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="D115" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="D116" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="D117" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="D24" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="D92" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D118" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="D77" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="D16" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="D119" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="D120" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="D113" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="D34" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D3" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="D123" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D125" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D126" r:id="rId79" xr:uid="{A16A5099-7DDF-4370-95B7-BE0B27B5431C}"/>
-    <hyperlink ref="D127" r:id="rId80" xr:uid="{708EF35E-20E2-4320-AADE-685E01E763F7}"/>
-    <hyperlink ref="D122" r:id="rId81" xr:uid="{FB61B29C-091A-4DDA-AE79-D04CD219E120}"/>
-    <hyperlink ref="D104" r:id="rId82" xr:uid="{ECA328F5-23A6-4DE4-B068-F02A7D98D168}"/>
-    <hyperlink ref="D128" r:id="rId83" xr:uid="{9AD90610-B454-4A84-8345-BC650F57996E}"/>
-    <hyperlink ref="D38" r:id="rId84" xr:uid="{93E22CFB-0916-4E6E-ACC3-EEAD067C806F}"/>
-    <hyperlink ref="D132" r:id="rId85" xr:uid="{B9A9083D-DAAC-4EB9-A1EF-8226D6CE0569}"/>
-    <hyperlink ref="D130" r:id="rId86" xr:uid="{7BB4446E-C399-4A10-A149-71E6F6C21625}"/>
-    <hyperlink ref="D67" r:id="rId87" xr:uid="{26848A2D-A2E9-4D35-A878-4E94AA4528CC}"/>
-    <hyperlink ref="D73" r:id="rId88" xr:uid="{4F6D0E3F-842E-4538-B42C-64D38060BB59}"/>
-    <hyperlink ref="D133" r:id="rId89" xr:uid="{302CF079-F4AA-41D6-A7B3-02085878B25C}"/>
-    <hyperlink ref="D59" r:id="rId90" xr:uid="{FFC2D208-AEF3-4089-93F4-56B6F4845C6D}"/>
-    <hyperlink ref="D134" r:id="rId91" xr:uid="{537861A6-5879-4590-973E-CAB8004B1F94}"/>
-    <hyperlink ref="D17" r:id="rId92" xr:uid="{09DC9E19-5EF7-447C-A207-F065EAABBA9E}"/>
-    <hyperlink ref="D136" r:id="rId93" xr:uid="{B0679566-FA54-444D-8C38-A9B1A78EA00B}"/>
-    <hyperlink ref="D111" r:id="rId94" xr:uid="{548C8289-7EC3-401B-8394-4658D1E44626}"/>
-    <hyperlink ref="D137" r:id="rId95" xr:uid="{68B8ABE4-7971-4B92-873E-57FB9E5E8E7B}"/>
-    <hyperlink ref="D69" r:id="rId96" xr:uid="{CE9629E1-6341-48A8-A515-14208ED02ACE}"/>
-    <hyperlink ref="D138" r:id="rId97" xr:uid="{7906C34E-95E6-4C1B-9565-B8B6F37DE732}"/>
-    <hyperlink ref="D139" r:id="rId98" xr:uid="{EE076CB7-11A0-4FF0-9825-6A412491927F}"/>
-    <hyperlink ref="D140" r:id="rId99" xr:uid="{155BFA89-2A1E-4E9B-9D34-97E8FE7BFBB8}"/>
-    <hyperlink ref="D142" r:id="rId100" xr:uid="{4B1CBD95-B37A-4E49-99CD-5B0FAFB1DD68}"/>
-    <hyperlink ref="D124" r:id="rId101" xr:uid="{933F49CC-7CBE-4246-BED0-85666C83AD9C}"/>
-    <hyperlink ref="D44" r:id="rId102" xr:uid="{44BF8FFF-EFEF-4626-91C2-16E5A0463084}"/>
-    <hyperlink ref="D85" r:id="rId103" xr:uid="{CFA38323-9624-4B72-BAD1-1DF28D103CC7}"/>
-    <hyperlink ref="D54" r:id="rId104" xr:uid="{027425D3-4104-4019-9C56-9619BD774590}"/>
-    <hyperlink ref="D143" r:id="rId105" xr:uid="{5E05232A-62B2-4A14-ABE0-B7C2FC8317E5}"/>
-    <hyperlink ref="D35" r:id="rId106" xr:uid="{E78167A9-C7BD-4913-A9BE-7D05FB372985}"/>
-    <hyperlink ref="D144" r:id="rId107" xr:uid="{A09AECAB-6573-4BCA-B75F-5029DC873CE5}"/>
-    <hyperlink ref="D21" r:id="rId108" xr:uid="{F0EA2884-0417-443D-ABC1-941CEB7EBB01}"/>
-    <hyperlink ref="D145" r:id="rId109" xr:uid="{3E967917-087B-4C24-883E-25347224DBDC}"/>
-    <hyperlink ref="D102" r:id="rId110" xr:uid="{EE590C67-17CF-44CB-8F7D-B042342203EE}"/>
-    <hyperlink ref="D89" r:id="rId111" xr:uid="{72BBC2F8-4E6F-4DFD-B837-9BFEBE7BA406}"/>
-    <hyperlink ref="D146" r:id="rId112" xr:uid="{0B4ECC27-EC91-4F95-82E0-FD9CDCD9A93F}"/>
-    <hyperlink ref="D147" r:id="rId113" xr:uid="{49B38CC6-2C17-4FEF-90C9-05FEFA135B41}"/>
-    <hyperlink ref="D40" r:id="rId114" xr:uid="{C2109FB0-C10E-4DCF-989E-E84149DE1EAC}"/>
-    <hyperlink ref="D121" r:id="rId115" xr:uid="{50BA8730-2B77-4DFA-A049-17427C1D7CC5}"/>
-    <hyperlink ref="D56" r:id="rId116" xr:uid="{C988080E-F4EB-46BF-AB72-D073DF5191B6}"/>
-    <hyperlink ref="D87" r:id="rId117" xr:uid="{3B941BCF-E75D-4DA8-8A44-527E84ED7297}"/>
-    <hyperlink ref="D25" r:id="rId118" xr:uid="{4CF61DDE-F761-41F1-A22D-2FF464DFA9A2}"/>
-    <hyperlink ref="D98" r:id="rId119" xr:uid="{F69F71F7-93FB-4517-A52D-2CB75FB91539}"/>
-    <hyperlink ref="D9" r:id="rId120" xr:uid="{AA062347-DE7E-42D9-B1FA-F6DBC67BC5A3}"/>
-    <hyperlink ref="D149" r:id="rId121" xr:uid="{03FCC17F-5E5A-4BB9-AB6F-E913ABCF9296}"/>
-    <hyperlink ref="D131" r:id="rId122" xr:uid="{341B611A-2A3E-4D76-979C-A6AC19CF8A2E}"/>
-    <hyperlink ref="D150" r:id="rId123" xr:uid="{B0BACB11-8EAB-444A-A367-89EF9AE91442}"/>
-    <hyperlink ref="D151" r:id="rId124" xr:uid="{8A3E3722-3D34-4679-8500-A153D053D8CE}"/>
-    <hyperlink ref="D152" r:id="rId125" xr:uid="{7FBFF53A-F5DE-4AA6-87C3-5F341F2A40D7}"/>
-    <hyperlink ref="D12" r:id="rId126" xr:uid="{C1015149-910B-4F41-82F6-2D476AB38D4A}"/>
+    <hyperlink ref="D53" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="D55" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D57" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="D7" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="D58" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D60" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="D61" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="D62" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="D63" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="D47" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="D65" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="D66" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="D71" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="D72" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="D29" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="D14" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="D74" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="D75" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="D76" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="D78" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D79" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="D80" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="D81" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="D82" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="D84" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D88" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D90" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="D91" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D19" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D93" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="D94" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="D95" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D96" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D99" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D100" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D101" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D103" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D86" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="D105" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="D106" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D107" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="D108" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="D36" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D109" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D110" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D112" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D114" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D115" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="D116" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="D117" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="D24" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="D92" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D118" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="D77" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="D16" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="D119" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="D120" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="D113" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="D34" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D3" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="D123" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D125" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D126" r:id="rId77" xr:uid="{A16A5099-7DDF-4370-95B7-BE0B27B5431C}"/>
+    <hyperlink ref="D127" r:id="rId78" xr:uid="{708EF35E-20E2-4320-AADE-685E01E763F7}"/>
+    <hyperlink ref="D122" r:id="rId79" xr:uid="{FB61B29C-091A-4DDA-AE79-D04CD219E120}"/>
+    <hyperlink ref="D104" r:id="rId80" xr:uid="{ECA328F5-23A6-4DE4-B068-F02A7D98D168}"/>
+    <hyperlink ref="D128" r:id="rId81" xr:uid="{9AD90610-B454-4A84-8345-BC650F57996E}"/>
+    <hyperlink ref="D38" r:id="rId82" xr:uid="{93E22CFB-0916-4E6E-ACC3-EEAD067C806F}"/>
+    <hyperlink ref="D132" r:id="rId83" xr:uid="{B9A9083D-DAAC-4EB9-A1EF-8226D6CE0569}"/>
+    <hyperlink ref="D130" r:id="rId84" xr:uid="{7BB4446E-C399-4A10-A149-71E6F6C21625}"/>
+    <hyperlink ref="D67" r:id="rId85" xr:uid="{26848A2D-A2E9-4D35-A878-4E94AA4528CC}"/>
+    <hyperlink ref="D73" r:id="rId86" xr:uid="{4F6D0E3F-842E-4538-B42C-64D38060BB59}"/>
+    <hyperlink ref="D133" r:id="rId87" xr:uid="{302CF079-F4AA-41D6-A7B3-02085878B25C}"/>
+    <hyperlink ref="D59" r:id="rId88" xr:uid="{FFC2D208-AEF3-4089-93F4-56B6F4845C6D}"/>
+    <hyperlink ref="D134" r:id="rId89" xr:uid="{537861A6-5879-4590-973E-CAB8004B1F94}"/>
+    <hyperlink ref="D17" r:id="rId90" xr:uid="{09DC9E19-5EF7-447C-A207-F065EAABBA9E}"/>
+    <hyperlink ref="D136" r:id="rId91" xr:uid="{B0679566-FA54-444D-8C38-A9B1A78EA00B}"/>
+    <hyperlink ref="D111" r:id="rId92" xr:uid="{548C8289-7EC3-401B-8394-4658D1E44626}"/>
+    <hyperlink ref="D137" r:id="rId93" xr:uid="{68B8ABE4-7971-4B92-873E-57FB9E5E8E7B}"/>
+    <hyperlink ref="D69" r:id="rId94" xr:uid="{CE9629E1-6341-48A8-A515-14208ED02ACE}"/>
+    <hyperlink ref="D138" r:id="rId95" xr:uid="{7906C34E-95E6-4C1B-9565-B8B6F37DE732}"/>
+    <hyperlink ref="D139" r:id="rId96" xr:uid="{EE076CB7-11A0-4FF0-9825-6A412491927F}"/>
+    <hyperlink ref="D140" r:id="rId97" xr:uid="{155BFA89-2A1E-4E9B-9D34-97E8FE7BFBB8}"/>
+    <hyperlink ref="D142" r:id="rId98" xr:uid="{4B1CBD95-B37A-4E49-99CD-5B0FAFB1DD68}"/>
+    <hyperlink ref="D124" r:id="rId99" xr:uid="{933F49CC-7CBE-4246-BED0-85666C83AD9C}"/>
+    <hyperlink ref="D44" r:id="rId100" xr:uid="{44BF8FFF-EFEF-4626-91C2-16E5A0463084}"/>
+    <hyperlink ref="D85" r:id="rId101" xr:uid="{CFA38323-9624-4B72-BAD1-1DF28D103CC7}"/>
+    <hyperlink ref="D54" r:id="rId102" xr:uid="{027425D3-4104-4019-9C56-9619BD774590}"/>
+    <hyperlink ref="D143" r:id="rId103" xr:uid="{5E05232A-62B2-4A14-ABE0-B7C2FC8317E5}"/>
+    <hyperlink ref="D35" r:id="rId104" xr:uid="{E78167A9-C7BD-4913-A9BE-7D05FB372985}"/>
+    <hyperlink ref="D144" r:id="rId105" xr:uid="{A09AECAB-6573-4BCA-B75F-5029DC873CE5}"/>
+    <hyperlink ref="D21" r:id="rId106" xr:uid="{F0EA2884-0417-443D-ABC1-941CEB7EBB01}"/>
+    <hyperlink ref="D145" r:id="rId107" xr:uid="{3E967917-087B-4C24-883E-25347224DBDC}"/>
+    <hyperlink ref="D102" r:id="rId108" xr:uid="{EE590C67-17CF-44CB-8F7D-B042342203EE}"/>
+    <hyperlink ref="D89" r:id="rId109" xr:uid="{72BBC2F8-4E6F-4DFD-B837-9BFEBE7BA406}"/>
+    <hyperlink ref="D146" r:id="rId110" xr:uid="{0B4ECC27-EC91-4F95-82E0-FD9CDCD9A93F}"/>
+    <hyperlink ref="D147" r:id="rId111" xr:uid="{49B38CC6-2C17-4FEF-90C9-05FEFA135B41}"/>
+    <hyperlink ref="D40" r:id="rId112" xr:uid="{C2109FB0-C10E-4DCF-989E-E84149DE1EAC}"/>
+    <hyperlink ref="D121" r:id="rId113" xr:uid="{50BA8730-2B77-4DFA-A049-17427C1D7CC5}"/>
+    <hyperlink ref="D56" r:id="rId114" xr:uid="{C988080E-F4EB-46BF-AB72-D073DF5191B6}"/>
+    <hyperlink ref="D87" r:id="rId115" xr:uid="{3B941BCF-E75D-4DA8-8A44-527E84ED7297}"/>
+    <hyperlink ref="D25" r:id="rId116" xr:uid="{4CF61DDE-F761-41F1-A22D-2FF464DFA9A2}"/>
+    <hyperlink ref="D98" r:id="rId117" xr:uid="{F69F71F7-93FB-4517-A52D-2CB75FB91539}"/>
+    <hyperlink ref="D9" r:id="rId118" xr:uid="{AA062347-DE7E-42D9-B1FA-F6DBC67BC5A3}"/>
+    <hyperlink ref="D149" r:id="rId119" xr:uid="{03FCC17F-5E5A-4BB9-AB6F-E913ABCF9296}"/>
+    <hyperlink ref="D131" r:id="rId120" xr:uid="{341B611A-2A3E-4D76-979C-A6AC19CF8A2E}"/>
+    <hyperlink ref="D150" r:id="rId121" xr:uid="{B0BACB11-8EAB-444A-A367-89EF9AE91442}"/>
+    <hyperlink ref="D151" r:id="rId122" xr:uid="{8A3E3722-3D34-4679-8500-A153D053D8CE}"/>
+    <hyperlink ref="D152" r:id="rId123" xr:uid="{7FBFF53A-F5DE-4AA6-87C3-5F341F2A40D7}"/>
+    <hyperlink ref="D12" r:id="rId124" xr:uid="{C1015149-910B-4F41-82F6-2D476AB38D4A}"/>
+    <hyperlink ref="D52" r:id="rId125" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D153" r:id="rId126" xr:uid="{FC1D08C5-4F0C-4164-B550-527FBA8746F5}"/>
+    <hyperlink ref="D51" r:id="rId127" xr:uid="{F6097893-F4AA-43ED-A91C-7FCDBA31F9A5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId127"/>
-  <legacyDrawing r:id="rId128"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId128"/>
+  <legacyDrawing r:id="rId129"/>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new_news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E948B5-F183-4489-8F90-1B2402A5ADF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB72F2D-6E78-411D-9D6D-D23ED1EA3AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="840" windowWidth="30300" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="975" yWindow="5520" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2323,14 +2323,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>url_list = soup.select("div.col-span-12 div.analysis_wrap div.img_part2_keyword_m")[:3];
-url_list = ["https://www.finance-scope.com" + i.select_one("a")["href"]for i in url_list];
-title_list = soup.select("div.col-span-12 div.analysis_wrap div.img_part2_keyword_m div dl dt")[:3];
-title_list = [i.text.strip() for i in title_list];
-body_list = ["" for i in range(3)];</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://biz.newdaily.co.kr/news/section.html?catid=all</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2370,9 +2362,6 @@
   </si>
   <si>
     <t>https://www.asiatoday.co.kr/kn/section_list.php?d1=all</t>
-  </si>
-  <si>
-    <t>https://www.finance-scope.com/article/list/scp_SC007000000</t>
   </si>
   <si>
     <t>https://www.asiaa.co.kr/news/articleList.html?page=1&amp;sc_order_by=E&amp;view_type=sm</t>
@@ -2556,6 +2545,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>https://gamefocus.co.kr/section.php?thread=22r09</t>
+  </si>
+  <si>
     <t>더스탁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2564,7 +2556,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://gamefocus.co.kr/section.php?thread=22r09</t>
+    <t>https://www.finance-scope.com/article/list/scp_SC007000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_list = soup.select("dt.analysis_ttl, div.pick_ttl")[:6];
+url_list = ["https://www.finance-scope.com" + i.select_one("a")["href"] for i in url_list];
+title_list = soup.select("dt.analysis_ttl, div.pick_ttl")[:6];
+title_list = [i.text.strip() for i in title_list];
+body_list = ["" for i in range(6)];</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2982,8 +2982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E143" sqref="E143"/>
+    <sheetView tabSelected="1" topLeftCell="A147" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E148" sqref="E148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3165,10 +3165,10 @@
         <v>9</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F9" t="s">
         <v>306</v>
@@ -3185,10 +3185,10 @@
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F10" t="s">
         <v>306</v>
@@ -3225,10 +3225,10 @@
         <v>9</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F12" t="s">
         <v>306</v>
@@ -3308,7 +3308,7 @@
         <v>281</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F16" t="s">
         <v>306</v>
@@ -3485,7 +3485,7 @@
         <v>9</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>53</v>
@@ -3605,10 +3605,10 @@
         <v>9</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>405</v>
@@ -3708,7 +3708,7 @@
         <v>254</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F36" t="s">
         <v>306</v>
@@ -4004,11 +4004,11 @@
       <c r="C51" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>460</v>
+      <c r="D51" s="3" t="s">
+        <v>456</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F51" t="s">
         <v>306</v>
@@ -4725,7 +4725,7 @@
         <v>9</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>313</v>
@@ -4925,7 +4925,7 @@
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>397</v>
@@ -4945,10 +4945,10 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F98" t="s">
         <v>306</v>
@@ -5188,7 +5188,7 @@
         <v>256</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F110" t="s">
         <v>306</v>
@@ -5248,7 +5248,7 @@
         <v>291</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F113" t="s">
         <v>306</v>
@@ -5528,7 +5528,7 @@
         <v>312</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F127" t="s">
         <v>306</v>
@@ -5596,7 +5596,7 @@
     </row>
     <row r="131" spans="1:6" ht="99">
       <c r="A131" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B131">
         <v>5</v>
@@ -5605,10 +5605,10 @@
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F131" t="s">
         <v>306</v>
@@ -5805,10 +5805,10 @@
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F141" t="s">
         <v>306</v>
@@ -5945,10 +5945,10 @@
         <v>9</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>428</v>
+        <v>459</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="F148" t="s">
         <v>306</v>
@@ -5956,7 +5956,7 @@
     </row>
     <row r="149" spans="1:6" ht="99">
       <c r="A149" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B149">
         <v>4</v>
@@ -5965,10 +5965,10 @@
         <v>9</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F149" t="s">
         <v>306</v>
@@ -5976,7 +5976,7 @@
     </row>
     <row r="150" spans="1:6" ht="99">
       <c r="A150" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B150">
         <v>5</v>
@@ -5985,10 +5985,10 @@
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F150" t="s">
         <v>306</v>
@@ -5996,7 +5996,7 @@
     </row>
     <row r="151" spans="1:6" ht="99">
       <c r="A151" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B151">
         <v>6</v>
@@ -6005,10 +6005,10 @@
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F151" t="s">
         <v>306</v>
@@ -6016,7 +6016,7 @@
     </row>
     <row r="152" spans="1:6" ht="99">
       <c r="A152" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B152">
         <v>6</v>
@@ -6025,10 +6025,10 @@
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F152" t="s">
         <v>306</v>
@@ -6036,7 +6036,7 @@
     </row>
     <row r="153" spans="1:6" ht="99">
       <c r="A153" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B153">
         <v>6</v>
@@ -6045,7 +6045,7 @@
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>397</v>
@@ -6183,7 +6183,7 @@
     <hyperlink ref="D12" r:id="rId124" xr:uid="{C1015149-910B-4F41-82F6-2D476AB38D4A}"/>
     <hyperlink ref="D52" r:id="rId125" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
     <hyperlink ref="D153" r:id="rId126" xr:uid="{FC1D08C5-4F0C-4164-B550-527FBA8746F5}"/>
-    <hyperlink ref="D51" r:id="rId127" xr:uid="{F6097893-F4AA-43ED-A91C-7FCDBA31F9A5}"/>
+    <hyperlink ref="D148" r:id="rId127" xr:uid="{0B6EE4FC-BA87-471C-A9B5-08A00A4CB44A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId128"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new_news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB72F2D-6E78-411D-9D6D-D23ED1EA3AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004F05AE-1173-4CB8-B6D8-6C48749F3DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="5520" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1815" windowWidth="37605" windowHeight="19185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -83,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="462">
   <si>
     <t>naver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -566,15 +564,6 @@
   </si>
   <si>
     <t>https://www.fetv.co.kr/news/article_list_all.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url_list = soup.select("#container div.ara_005 ul.art_list_all li")[:1];
-url_list = ["https://www.fetv.co.kr" + i.select_one("a")["href"] for i in url_list];
-title_list = soup.select("#container div.ara_005 ul.art_list_all li h2.clamp")[:1];
-title_list = [i.text.strip() for i in title_list];
-body_list = soup.select("#container div.ara_005 ul.art_list_all li p")[:1];
-body_list = [i.text.strip() for i in body_list];</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1103,15 +1092,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>url_list = soup.select("#add_result li div.news_item")[:5];
-url_list = [i.select_one("a")["href"].replace("//","https://") for i in url_list];
-title_list = soup.select("#add_result li div.news_item div.text_area a.title")[:5];
-title_list = [i.text.strip() for i in title_list];
-body_list = soup.select("#add_result li div.news_item div.text_area")[:5];
-body_list = [i.text.strip() for i in body_list];</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>뉴데일리경제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1304,10 +1284,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.munhwa.com/news/section_list.html?sec=all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://m-i.kr/news/articleList.html?view_type=tm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1499,15 +1475,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>url_list = soup.select("section.left_content ul.news_list li.news_item")[:5];
-url_list = [i.select_one("a")["href"].replace("//","https://") for i in url_list];
-title_list = soup.select("section.left_content ul.news_list li.news_item a.tit")[:5];
-title_list = [i.text.strip() for i in title_list];
-body_list = soup.select("section.left_content ul.news_list li.news_item a.lead")[:5];
-body_list = [i.text.strip() for i in body_list];</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#아주경제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1631,10 +1598,6 @@
   </si>
   <si>
     <t>https://www.techm.kr/news/articleList.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>daum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2289,10 +2252,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://news.daum.net</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.businesskorea.co.kr/news/articleList.html?sc_multi_code=S2&amp;view_type=sm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2567,12 +2526,59 @@
 body_list = ["" for i in range(6)];</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>url_list = soup.select("div.section-area-list ul li")[:8];
+url_list = ["https://www.newsway.co.kr" + i.select_one("a")["href"] for i in url_list];
+title_list = soup.select("div.section-area-list ul li p.headline")[:8];
+title_list = [i.text.strip() for i in title_list];
+body_list = soup.select("div.section-area-list ul li p.description")[:8];
+body_list = [i.text.strip() for i in body_list];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴스웨이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.newsway.co.kr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_list = soup.select("#container div.ara_005 ul.art_list_all li")[:1];
+url_list = ["https://www.fetv.co.kr" + i.select_one("a")["href"] for i in url_list];
+title_list = soup.select("#container div.ara_005 ul.art_list_all li h2")[:1];
+title_list = [i.text.strip() for i in title_list];
+body_list = soup.select("#container div.ara_005 ul.art_list_all li p")[:1];
+body_list = [i.text.strip() for i in body_list];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_list = soup.select("#header div.latest-news ul li")[:5];
+url_list = ["https://www.munhwa.com" + i.select_one("a")["href"] for i in url_list];
+title_list = soup.select("#header div.latest-news ul li h2")[:5];
+title_list = [i.text.strip() for i in title_list];
+body_list = soup.select("#header div.latest-news ul li")[:5];
+body_list = [i.text.strip() for i in body_list];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.munhwa.com/latestnews</t>
+  </si>
+  <si>
+    <t>url_list = soup.select("div.list_article ul.sc_news_lst li")[:5];
+url_list = [i.select_one("a")["href"] for i in url_list];
+title_list = soup.select("div.list_article ul.sc_news_lst li div.txt_area a")[:5];
+title_list = [i.text.strip() for i in title_list];
+body_list = soup.select("div.list_article ul.sc_news_lst li span.desc")[:5];
+body_list = [i.text.strip() for i in body_list];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2642,6 +2648,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6AAB73"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2668,7 +2680,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2697,6 +2709,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2982,8 +2997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E148" sqref="E148"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3011,7 +3026,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3025,138 +3040,138 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="99">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B3">
-        <v>0.8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
       <c r="F3" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="99">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>148</v>
       </c>
       <c r="F4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="99">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="104.25" customHeight="1">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="B5">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>149</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="104.25" customHeight="1">
-      <c r="A6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="81">
+      <c r="A6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B6">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="81">
-      <c r="A7" s="6" t="s">
-        <v>16</v>
+      <c r="A7" t="s">
+        <v>19</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>17</v>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="81">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>18</v>
+      <c r="D8" s="8" t="s">
+        <v>421</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>20</v>
+        <v>422</v>
       </c>
       <c r="F8" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="81">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -3164,259 +3179,259 @@
       <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>427</v>
+      <c r="D9" s="2" t="s">
+        <v>420</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="F9" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="81">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>426</v>
+      <c r="D10" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>425</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="81">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="99">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>25</v>
+      <c r="D11" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>448</v>
       </c>
       <c r="F11" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="99">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>453</v>
+      <c r="D12" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>454</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="99">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>27</v>
+      <c r="D13" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="F13" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="99">
       <c r="A14" t="s">
-        <v>161</v>
+        <v>31</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>162</v>
+      <c r="D14" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="99">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>30</v>
+      <c r="D15" s="8" t="s">
+        <v>277</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>32</v>
+        <v>415</v>
       </c>
       <c r="F15" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="99">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>281</v>
+        <v>344</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>421</v>
+        <v>288</v>
       </c>
       <c r="F16" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="99">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>349</v>
+      <c r="D17" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>292</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="99">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>36</v>
+      <c r="D18" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="99">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>191</v>
+      <c r="D19" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="99">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>40</v>
+      <c r="D20" s="8" t="s">
+        <v>389</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" t="s">
-        <v>306</v>
+        <v>44</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="99">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>394</v>
+      <c r="D21" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>405</v>
+        <v>47</v>
+      </c>
+      <c r="F21" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="99">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -3425,98 +3440,98 @@
         <v>9</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F22" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="99">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="82.5">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>50</v>
+      <c r="D23" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>296</v>
       </c>
       <c r="F23" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="82.5">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="99">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B24">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>301</v>
+        <v>416</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="F24" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="99">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="82.5">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F25" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="99">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26">
         <v>5</v>
       </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="82.5">
-      <c r="A26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26">
-        <v>6</v>
-      </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F26" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="99">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="82.5">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -3524,474 +3539,474 @@
       <c r="C27" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>89</v>
+      <c r="D27" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F27" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="82.5">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="99">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>57</v>
+      <c r="D28" s="8" t="s">
+        <v>155</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F28" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="99">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="82.5">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>156</v>
+      <c r="D29" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="F29" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="82.5">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="99">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>59</v>
+      <c r="D30" s="8" t="s">
+        <v>425</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F30" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="99">
+        <v>424</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="81">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B31">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>405</v>
+      <c r="D31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="81">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>62</v>
+      <c r="D32" s="8" t="s">
+        <v>297</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F32" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="81">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B33">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>66</v>
+        <v>323</v>
       </c>
       <c r="F33" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="81">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>293</v>
+        <v>382</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>328</v>
+        <v>386</v>
       </c>
       <c r="F34" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="81">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B35">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>387</v>
+        <v>251</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="F35" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="81">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="99">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>440</v>
+      <c r="D36" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="F36" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="99">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B37">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>70</v>
+      <c r="D37" s="8" t="s">
+        <v>326</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>71</v>
+        <v>325</v>
       </c>
       <c r="F37" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="99">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B38">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>331</v>
+      <c r="D38" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>330</v>
+        <v>75</v>
       </c>
       <c r="F38" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="99">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B39">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>74</v>
+      <c r="D39" s="8" t="s">
+        <v>408</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>75</v>
+        <v>411</v>
       </c>
       <c r="F39" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="99">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B40">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>413</v>
+      <c r="D40" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>417</v>
+        <v>79</v>
       </c>
       <c r="F40" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="99">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B41">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C41" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>78</v>
+      <c r="D41" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F41" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="99">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F42" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="99">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B43">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>84</v>
+      <c r="D43" s="2" t="s">
+        <v>413</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>85</v>
+        <v>412</v>
       </c>
       <c r="F43" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="99">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B44">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>419</v>
+      <c r="D44" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>418</v>
+        <v>315</v>
       </c>
       <c r="F44" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="99">
       <c r="A45" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B45">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C45" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>92</v>
+      <c r="D45" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>320</v>
+        <v>95</v>
       </c>
       <c r="F45" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="99">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C46" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>93</v>
+      <c r="D46" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>95</v>
+        <v>388</v>
       </c>
       <c r="F46" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="99">
       <c r="A47" t="s">
-        <v>216</v>
+        <v>97</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>136</v>
+      <c r="D47" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>393</v>
+        <v>458</v>
       </c>
       <c r="F47" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="99">
       <c r="A48" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B48">
-        <v>6</v>
-      </c>
-      <c r="C48" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E48" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F48" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="99">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B49">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>99</v>
+      <c r="D49" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>101</v>
       </c>
       <c r="F49" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="99">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="82.5">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B50">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="C50" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>104</v>
+      <c r="D50" s="3" t="s">
+        <v>450</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>102</v>
+        <v>449</v>
       </c>
       <c r="F50" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="82.5">
@@ -3999,44 +4014,44 @@
         <v>105</v>
       </c>
       <c r="B51">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="C51" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>456</v>
+      <c r="D51" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>455</v>
+        <v>150</v>
       </c>
       <c r="F51" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="82.5">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="99">
       <c r="A52" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F52" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="99">
       <c r="A53" t="s">
-        <v>134</v>
+        <v>354</v>
       </c>
       <c r="B53">
         <v>6</v>
@@ -4044,39 +4059,39 @@
       <c r="C53" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>159</v>
+      <c r="D53" s="8" t="s">
+        <v>378</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>158</v>
+        <v>355</v>
       </c>
       <c r="F53" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="99">
       <c r="A54" t="s">
-        <v>359</v>
+        <v>108</v>
       </c>
       <c r="B54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="8" t="s">
-        <v>383</v>
+      <c r="D54" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>360</v>
+        <v>107</v>
       </c>
       <c r="F54" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="99">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="82.5">
       <c r="A55" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B55">
         <v>5</v>
@@ -4084,19 +4099,19 @@
       <c r="C55" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>107</v>
+      <c r="D55" s="8" t="s">
+        <v>410</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F55" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="82.5">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="99">
       <c r="A56" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B56">
         <v>5</v>
@@ -4105,33 +4120,33 @@
         <v>9</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>416</v>
+        <v>111</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F56" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="99">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B57">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C57" t="s">
         <v>9</v>
       </c>
-      <c r="D57" s="8" t="s">
-        <v>112</v>
+      <c r="D57" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F57" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="99">
@@ -4139,139 +4154,139 @@
         <v>120</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>118</v>
+        <v>338</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>119</v>
+        <v>339</v>
       </c>
       <c r="F58" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="99">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="82.5">
       <c r="A59" t="s">
         <v>121</v>
       </c>
       <c r="B59">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C59" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>343</v>
+        <v>153</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>344</v>
+        <v>154</v>
       </c>
       <c r="F59" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="82.5">
       <c r="A60" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60">
+        <v>6</v>
+      </c>
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B60">
-        <v>3</v>
-      </c>
-      <c r="C60" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E60" s="1" t="s">
-        <v>155</v>
+        <v>234</v>
       </c>
       <c r="F60" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="82.5">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="99">
       <c r="A61" t="s">
+        <v>126</v>
+      </c>
+      <c r="B61">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B61">
-        <v>6</v>
-      </c>
-      <c r="C61" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="E61" s="1" t="s">
-        <v>237</v>
+        <v>125</v>
       </c>
       <c r="F61" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="99">
       <c r="A62" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="B62">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="C62" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F62" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="99">
       <c r="A63" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="B63">
-        <v>10.5</v>
+        <v>3</v>
       </c>
       <c r="C63" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>129</v>
+      <c r="D63" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F63" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="99">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E64" t="s">
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4279,10 +4294,10 @@
         <v>138</v>
       </c>
       <c r="B65">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>142</v>
@@ -4291,107 +4306,107 @@
         <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>139</v>
+        <v>324</v>
       </c>
       <c r="B66">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>143</v>
+        <v>333</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B68">
         <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="99">
       <c r="A69" t="s">
-        <v>358</v>
+        <v>264</v>
       </c>
       <c r="B69">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>137</v>
+        <v>9</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="E69" t="s">
+        <v>263</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F69" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>139</v>
+      </c>
+      <c r="B70">
+        <v>6</v>
+      </c>
+      <c r="C70" t="s">
+        <v>136</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E70" t="s">
         <v>11</v>
       </c>
-      <c r="F69" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="99">
-      <c r="A70" t="s">
-        <v>267</v>
-      </c>
-      <c r="B70">
-        <v>3</v>
-      </c>
-      <c r="C70" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>268</v>
-      </c>
       <c r="F70" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4399,64 +4414,64 @@
         <v>140</v>
       </c>
       <c r="B71">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>141</v>
+        <v>276</v>
       </c>
       <c r="B72">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>144</v>
+        <v>334</v>
       </c>
       <c r="E72" t="s">
         <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="99">
       <c r="A73" t="s">
-        <v>280</v>
+        <v>164</v>
       </c>
       <c r="B73">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>137</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="E73" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="F73" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="99">
       <c r="A74" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B74">
         <v>4</v>
@@ -4465,378 +4480,378 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F74" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="99">
       <c r="A75" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B75">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C75" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F75" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="99">
       <c r="A76" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B76">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
         <v>9</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>170</v>
+      <c r="D76" s="8" t="s">
+        <v>275</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F76" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="99">
       <c r="A77" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B77">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
         <v>9</v>
       </c>
-      <c r="D77" s="8" t="s">
-        <v>279</v>
+      <c r="D77" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F77" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="99">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="82.5">
       <c r="A78" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B78">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C78" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>175</v>
+        <v>231</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>177</v>
+        <v>272</v>
       </c>
       <c r="F78" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="82.5">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="99">
       <c r="A79" t="s">
         <v>178</v>
       </c>
       <c r="B79">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>234</v>
+        <v>179</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>276</v>
+        <v>180</v>
       </c>
       <c r="F79" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="99">
       <c r="A80" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B80">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C80" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F80" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="99">
       <c r="A81" t="s">
+        <v>186</v>
+      </c>
+      <c r="B81">
+        <v>6</v>
+      </c>
+      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B81">
-        <v>4</v>
-      </c>
-      <c r="C81" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="E81" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F81" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="99">
       <c r="A82" t="s">
+        <v>189</v>
+      </c>
+      <c r="B82">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="B82">
-        <v>6</v>
-      </c>
-      <c r="C82" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="E82" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F82" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="99">
       <c r="A83" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B83">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
         <v>9</v>
       </c>
-      <c r="D83" s="7" t="s">
-        <v>188</v>
+      <c r="D83" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F83" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="99">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="82.5">
       <c r="A84" t="s">
-        <v>192</v>
+        <v>343</v>
       </c>
       <c r="B84">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F84" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="99">
+      <c r="A85" t="s">
         <v>194</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F84" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="82.5">
-      <c r="A85" t="s">
-        <v>348</v>
-      </c>
       <c r="B85">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C85" t="s">
         <v>9</v>
       </c>
-      <c r="D85" s="8" t="s">
-        <v>382</v>
+      <c r="D85" s="10" t="s">
+        <v>460</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>303</v>
+        <v>459</v>
       </c>
       <c r="F85" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="99">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="82.5">
       <c r="A86" t="s">
         <v>195</v>
       </c>
       <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F86" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="99">
+      <c r="A87" t="s">
+        <v>198</v>
+      </c>
+      <c r="B87">
         <v>4</v>
       </c>
-      <c r="C86" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E86" s="1" t="s">
+      <c r="C87" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="F86" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="82.5">
-      <c r="A87" t="s">
+      <c r="E87" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B87">
+      <c r="F87" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="82.5">
+      <c r="A88" t="s">
+        <v>235</v>
+      </c>
+      <c r="B88">
         <v>3</v>
       </c>
-      <c r="C87" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="F87" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="99">
-      <c r="A88" t="s">
-        <v>200</v>
-      </c>
-      <c r="B88">
-        <v>4</v>
-      </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>238</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>198</v>
+        <v>397</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>199</v>
+        <v>398</v>
       </c>
       <c r="F88" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="82.5">
       <c r="A89" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="B89">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>241</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>402</v>
+        <v>199</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>403</v>
+        <v>200</v>
       </c>
       <c r="F89" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="82.5">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="99">
       <c r="A90" t="s">
+        <v>202</v>
+      </c>
+      <c r="B90">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B90">
+      <c r="E90" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F90" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="82.5">
+      <c r="A91" t="s">
+        <v>237</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F91" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="99">
+      <c r="A92" t="s">
+        <v>207</v>
+      </c>
+      <c r="B92">
         <v>5</v>
       </c>
-      <c r="C90" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F90" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="99">
-      <c r="A91" t="s">
-        <v>204</v>
-      </c>
-      <c r="B91">
-        <v>7</v>
-      </c>
-      <c r="C91" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E91" s="1" t="s">
+      <c r="C92" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F91" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="82.5">
-      <c r="A92" t="s">
-        <v>240</v>
-      </c>
-      <c r="B92">
-        <v>2</v>
-      </c>
-      <c r="C92" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>275</v>
-      </c>
       <c r="E92" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F92" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="99">
       <c r="A93" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B93">
         <v>5</v>
@@ -4845,41 +4860,41 @@
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>210</v>
       </c>
       <c r="F93" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="99">
       <c r="A94" t="s">
+        <v>212</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B94">
-        <v>5</v>
-      </c>
-      <c r="C94" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="E94" s="1" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="F94" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="99">
       <c r="A95" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B95">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
         <v>9</v>
@@ -4888,78 +4903,78 @@
         <v>215</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>235</v>
+        <v>322</v>
       </c>
       <c r="F95" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="99">
       <c r="A96" t="s">
+        <v>217</v>
+      </c>
+      <c r="B96">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F96" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="82.5">
+      <c r="A97" t="s">
         <v>218</v>
       </c>
-      <c r="B96">
-        <v>9</v>
-      </c>
-      <c r="C96" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="F96" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="99">
-      <c r="A97" t="s">
+      <c r="B97">
+        <v>6</v>
+      </c>
+      <c r="C97" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F97" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="99">
+      <c r="A98" t="s">
+        <v>236</v>
+      </c>
+      <c r="B98">
+        <v>0.9</v>
+      </c>
+      <c r="C98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B97">
-        <v>5</v>
-      </c>
-      <c r="C97" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="F97" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="82.5">
-      <c r="A98" t="s">
+      <c r="E98" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B98">
-        <v>6</v>
-      </c>
-      <c r="C98" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>423</v>
-      </c>
       <c r="F98" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="99">
       <c r="A99" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="B99">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="C99" t="s">
         <v>9</v>
@@ -4971,47 +4986,47 @@
         <v>222</v>
       </c>
       <c r="F99" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="99">
       <c r="A100" t="s">
+        <v>226</v>
+      </c>
+      <c r="B100">
+        <v>4</v>
+      </c>
+      <c r="C100" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B100">
-        <v>2</v>
-      </c>
-      <c r="C100" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="F100" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="99">
       <c r="A101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B101">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
         <v>9</v>
       </c>
-      <c r="D101" s="2" t="s">
-        <v>226</v>
+      <c r="D101" s="8" t="s">
+        <v>396</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>227</v>
+        <v>395</v>
       </c>
       <c r="F101" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="99">
@@ -5019,247 +5034,247 @@
         <v>229</v>
       </c>
       <c r="B102">
-        <v>7</v>
+        <v>1.7</v>
       </c>
       <c r="C102" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>401</v>
+        <v>230</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>400</v>
+        <v>228</v>
       </c>
       <c r="F102" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="99">
       <c r="A103" t="s">
-        <v>231</v>
+        <v>314</v>
       </c>
       <c r="B103">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>232</v>
+        <v>312</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>230</v>
+        <v>313</v>
       </c>
       <c r="F103" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="99">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="49.5">
       <c r="A104" t="s">
-        <v>319</v>
+        <v>239</v>
       </c>
       <c r="B104">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="C104" t="s">
-        <v>317</v>
+        <v>240</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>318</v>
+        <v>242</v>
       </c>
       <c r="F104" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="49.5">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="99">
       <c r="A105" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B105">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="E105" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="F105" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="99">
       <c r="A106" t="s">
+        <v>246</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="C106" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E106" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B106">
-        <v>5</v>
-      </c>
-      <c r="C106" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="F106" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="99">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="66">
       <c r="A107" t="s">
+        <v>250</v>
+      </c>
+      <c r="B107">
+        <v>1.2</v>
+      </c>
+      <c r="C107" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B107">
-        <v>3</v>
-      </c>
-      <c r="C107" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>250</v>
-      </c>
       <c r="E107" s="1" t="s">
-        <v>251</v>
+        <v>394</v>
       </c>
       <c r="F107" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="66">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="99">
       <c r="A108" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B108">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="C108" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>252</v>
+        <v>393</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F108" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="99">
       <c r="A109" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B109">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="C109" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>398</v>
+        <v>253</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>397</v>
+        <v>433</v>
       </c>
       <c r="F109" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="99">
       <c r="A110" t="s">
+        <v>359</v>
+      </c>
+      <c r="B110">
+        <v>7</v>
+      </c>
+      <c r="C110" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F110" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="82.5">
+      <c r="A111" t="s">
+        <v>256</v>
+      </c>
+      <c r="B111">
+        <v>8</v>
+      </c>
+      <c r="C111" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F111" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="99">
+      <c r="A112" t="s">
         <v>257</v>
       </c>
-      <c r="B110">
-        <v>4</v>
-      </c>
-      <c r="C110" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="F110" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="99">
-      <c r="A111" t="s">
-        <v>364</v>
-      </c>
-      <c r="B111">
-        <v>7</v>
-      </c>
-      <c r="C111" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="F111" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="82.5">
-      <c r="A112" t="s">
+      <c r="B112">
+        <v>1.5</v>
+      </c>
+      <c r="C112" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="F112" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="82.5">
+      <c r="A113" t="s">
         <v>259</v>
       </c>
-      <c r="B112">
+      <c r="B113">
         <v>8</v>
       </c>
-      <c r="C112" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
+      <c r="C113" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E112" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="F112" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="99">
-      <c r="A113" t="s">
-        <v>260</v>
-      </c>
-      <c r="B113">
-        <v>1.5</v>
-      </c>
-      <c r="C113" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>291</v>
-      </c>
       <c r="E113" s="1" t="s">
-        <v>441</v>
+        <v>356</v>
       </c>
       <c r="F113" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="82.5">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="99">
       <c r="A114" t="s">
         <v>262</v>
       </c>
       <c r="B114">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
         <v>9</v>
@@ -5268,15 +5283,15 @@
         <v>261</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>361</v>
+        <v>260</v>
       </c>
       <c r="F114" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="99">
       <c r="A115" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B115">
         <v>5</v>
@@ -5285,21 +5300,21 @@
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F115" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="99">
       <c r="A116" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B116">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C116" t="s">
         <v>9</v>
@@ -5308,10 +5323,10 @@
         <v>269</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>270</v>
+        <v>461</v>
       </c>
       <c r="F116" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="99">
@@ -5319,44 +5334,44 @@
         <v>274</v>
       </c>
       <c r="B117">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C117" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="F117" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="99">
       <c r="A118" t="s">
+        <v>279</v>
+      </c>
+      <c r="B118">
+        <v>5</v>
+      </c>
+      <c r="C118" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E118" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B118">
-        <v>14</v>
-      </c>
-      <c r="C118" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="F118" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="99">
       <c r="A119" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B119">
         <v>5</v>
@@ -5365,53 +5380,53 @@
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F119" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="99">
       <c r="A120" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B120">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>286</v>
+        <v>409</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="F120" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="99">
       <c r="A121" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B121">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
         <v>9</v>
       </c>
-      <c r="D121" s="2" t="s">
-        <v>415</v>
+      <c r="D121" s="8" t="s">
+        <v>310</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F121" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="99">
@@ -5419,184 +5434,184 @@
         <v>295</v>
       </c>
       <c r="B122">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C122" t="s">
         <v>9</v>
       </c>
-      <c r="D122" s="8" t="s">
-        <v>315</v>
+      <c r="D122" s="2" t="s">
+        <v>294</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F122" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="99">
       <c r="A123" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B123">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
         <v>9</v>
       </c>
-      <c r="D123" s="2" t="s">
-        <v>299</v>
+      <c r="D123" s="8" t="s">
+        <v>383</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="F123" t="s">
-        <v>306</v>
+        <v>311</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="99">
       <c r="A124" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="B124">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
         <v>9</v>
       </c>
-      <c r="D124" s="8" t="s">
-        <v>388</v>
+      <c r="D124" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="F124" s="9" t="s">
-        <v>405</v>
+        <v>374</v>
+      </c>
+      <c r="F124" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="99">
       <c r="A125" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="B125">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E125" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E125" s="1" t="s">
-        <v>379</v>
-      </c>
       <c r="F125" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="82.5">
+      <c r="A126" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" ht="99">
-      <c r="A126" t="s">
-        <v>308</v>
-      </c>
       <c r="B126">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C126" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>310</v>
+        <v>426</v>
       </c>
       <c r="F126" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="82.5">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="99">
       <c r="A127" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B127">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C127" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>432</v>
+        <v>316</v>
       </c>
       <c r="F127" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="99">
       <c r="A128" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B128">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
         <v>9</v>
       </c>
-      <c r="D128" s="2" t="s">
-        <v>323</v>
+      <c r="D128" s="1" t="s">
+        <v>319</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>321</v>
       </c>
       <c r="F128" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="99">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B129">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>326</v>
+        <v>136</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E129" t="s">
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="99">
       <c r="A130" t="s">
-        <v>333</v>
+        <v>430</v>
       </c>
       <c r="B130">
         <v>5</v>
       </c>
       <c r="C130" t="s">
-        <v>137</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="E130" t="s">
-        <v>11</v>
+        <v>431</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>432</v>
       </c>
       <c r="F130" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="99">
       <c r="A131" t="s">
-        <v>436</v>
+        <v>329</v>
       </c>
       <c r="B131">
         <v>5</v>
@@ -5605,33 +5620,33 @@
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>437</v>
+        <v>330</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>438</v>
+        <v>331</v>
       </c>
       <c r="F131" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="99">
       <c r="A132" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B132">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E132" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E132" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="F132" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="99">
@@ -5639,7 +5654,7 @@
         <v>341</v>
       </c>
       <c r="B133">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C133" t="s">
         <v>9</v>
@@ -5651,132 +5666,132 @@
         <v>340</v>
       </c>
       <c r="F133" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="99">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="67.5">
       <c r="A134" t="s">
+        <v>345</v>
+      </c>
+      <c r="B134">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C134" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B134">
-        <v>4</v>
-      </c>
-      <c r="C134" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" s="2" t="s">
+      <c r="E134" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="E134" s="1" t="s">
-        <v>345</v>
-      </c>
       <c r="F134" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="67.5">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="82.5">
       <c r="A135" t="s">
+        <v>348</v>
+      </c>
+      <c r="B135">
+        <v>1.3</v>
+      </c>
+      <c r="C135" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E135" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B135">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C135" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>352</v>
-      </c>
       <c r="F135" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="82.5">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="99">
       <c r="A136" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B136">
-        <v>1.3</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="F136" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="99">
       <c r="A137" t="s">
+        <v>127</v>
+      </c>
+      <c r="B137">
+        <v>11</v>
+      </c>
+      <c r="C137" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B137">
-        <v>8</v>
-      </c>
-      <c r="C137" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="2" t="s">
+      <c r="E137" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F137" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="82.5">
+      <c r="A138" t="s">
+        <v>368</v>
+      </c>
+      <c r="B138">
+        <v>9</v>
+      </c>
+      <c r="C138" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E138" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="E137" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="F137" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="99">
-      <c r="A138" t="s">
-        <v>128</v>
-      </c>
-      <c r="B138">
-        <v>11</v>
-      </c>
-      <c r="C138" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
+      <c r="F138" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="148.5">
+      <c r="A139" t="s">
+        <v>369</v>
+      </c>
+      <c r="B139">
+        <v>5</v>
+      </c>
+      <c r="C139" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F139" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="99">
+      <c r="A140" t="s">
         <v>370</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="F138" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="82.5">
-      <c r="A139" t="s">
-        <v>373</v>
-      </c>
-      <c r="B139">
-        <v>9</v>
-      </c>
-      <c r="C139" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="F139" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="148.5">
-      <c r="A140" t="s">
-        <v>374</v>
       </c>
       <c r="B140">
         <v>5</v>
@@ -5785,18 +5800,18 @@
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>381</v>
+        <v>439</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>380</v>
+        <v>440</v>
       </c>
       <c r="F140" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="99">
       <c r="A141" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B141">
         <v>5</v>
@@ -5805,173 +5820,173 @@
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>445</v>
+        <v>372</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>446</v>
+        <v>371</v>
       </c>
       <c r="F141" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="99">
       <c r="A142" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B142">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C142" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="F142" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="99">
       <c r="A143" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B143">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C143" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E143" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="E143" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="F143" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="99">
       <c r="A144" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B144">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>390</v>
       </c>
       <c r="F144" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="99">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="82.5">
       <c r="A145" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="B145">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="C145" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="F145" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="82.5">
       <c r="A146" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B146">
-        <v>7.2</v>
+        <v>1.6</v>
       </c>
       <c r="C146" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F146" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="82.5">
       <c r="A147" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B147">
-        <v>1.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C147" t="s">
         <v>9</v>
       </c>
-      <c r="D147" s="2" t="s">
-        <v>411</v>
+      <c r="D147" s="8" t="s">
+        <v>453</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>409</v>
+        <v>454</v>
       </c>
       <c r="F147" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="82.5">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="99">
       <c r="A148" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="B148">
-        <v>2.2000000000000002</v>
+        <v>4</v>
       </c>
       <c r="C148" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>459</v>
+        <v>428</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>460</v>
+        <v>429</v>
       </c>
       <c r="F148" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="99">
       <c r="A149" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B149">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
         <v>9</v>
       </c>
-      <c r="D149" s="8" t="s">
-        <v>434</v>
+      <c r="D149" s="2" t="s">
+        <v>437</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="F149" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="99">
@@ -5979,7 +5994,7 @@
         <v>442</v>
       </c>
       <c r="B150">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
         <v>9</v>
@@ -5988,35 +6003,35 @@
         <v>443</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F150" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="99">
       <c r="A151" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B151">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F151" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="99">
       <c r="A152" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B152">
         <v>6</v>
@@ -6025,168 +6040,167 @@
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>451</v>
+        <v>392</v>
       </c>
       <c r="F152" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="99">
       <c r="A153" t="s">
+        <v>456</v>
+      </c>
+      <c r="B153">
+        <v>5</v>
+      </c>
+      <c r="C153" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="B153">
-        <v>6</v>
-      </c>
-      <c r="C153" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>458</v>
-      </c>
       <c r="E153" s="1" t="s">
-        <v>397</v>
+        <v>455</v>
       </c>
       <c r="F153" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D4" r:id="rId2" location="22H94G9AOV" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D18" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D20" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D28" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D41" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D26" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D27" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="D33" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D45" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D48" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="D50" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="D53" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="D55" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="D57" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="D7" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="D58" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="D60" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="D61" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="D62" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="D63" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="D47" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="D65" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="D66" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="D71" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="D72" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="D29" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="D14" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="D74" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="D75" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="D76" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="D78" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="D79" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="D80" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="D81" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="D82" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="D84" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D88" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D90" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D91" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="D19" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D93" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="D94" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="D95" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D96" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D99" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D100" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D101" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D103" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D86" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="D105" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="D106" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D107" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="D108" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="D36" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D109" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D110" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D112" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D114" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="D115" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="D116" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="D117" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="D24" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="D92" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D118" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="D77" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="D16" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="D119" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="D120" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="D113" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="D34" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D3" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="D123" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D125" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D126" r:id="rId77" xr:uid="{A16A5099-7DDF-4370-95B7-BE0B27B5431C}"/>
-    <hyperlink ref="D127" r:id="rId78" xr:uid="{708EF35E-20E2-4320-AADE-685E01E763F7}"/>
-    <hyperlink ref="D122" r:id="rId79" xr:uid="{FB61B29C-091A-4DDA-AE79-D04CD219E120}"/>
-    <hyperlink ref="D104" r:id="rId80" xr:uid="{ECA328F5-23A6-4DE4-B068-F02A7D98D168}"/>
-    <hyperlink ref="D128" r:id="rId81" xr:uid="{9AD90610-B454-4A84-8345-BC650F57996E}"/>
-    <hyperlink ref="D38" r:id="rId82" xr:uid="{93E22CFB-0916-4E6E-ACC3-EEAD067C806F}"/>
-    <hyperlink ref="D132" r:id="rId83" xr:uid="{B9A9083D-DAAC-4EB9-A1EF-8226D6CE0569}"/>
-    <hyperlink ref="D130" r:id="rId84" xr:uid="{7BB4446E-C399-4A10-A149-71E6F6C21625}"/>
-    <hyperlink ref="D67" r:id="rId85" xr:uid="{26848A2D-A2E9-4D35-A878-4E94AA4528CC}"/>
-    <hyperlink ref="D73" r:id="rId86" xr:uid="{4F6D0E3F-842E-4538-B42C-64D38060BB59}"/>
-    <hyperlink ref="D133" r:id="rId87" xr:uid="{302CF079-F4AA-41D6-A7B3-02085878B25C}"/>
-    <hyperlink ref="D59" r:id="rId88" xr:uid="{FFC2D208-AEF3-4089-93F4-56B6F4845C6D}"/>
-    <hyperlink ref="D134" r:id="rId89" xr:uid="{537861A6-5879-4590-973E-CAB8004B1F94}"/>
-    <hyperlink ref="D17" r:id="rId90" xr:uid="{09DC9E19-5EF7-447C-A207-F065EAABBA9E}"/>
-    <hyperlink ref="D136" r:id="rId91" xr:uid="{B0679566-FA54-444D-8C38-A9B1A78EA00B}"/>
-    <hyperlink ref="D111" r:id="rId92" xr:uid="{548C8289-7EC3-401B-8394-4658D1E44626}"/>
-    <hyperlink ref="D137" r:id="rId93" xr:uid="{68B8ABE4-7971-4B92-873E-57FB9E5E8E7B}"/>
-    <hyperlink ref="D69" r:id="rId94" xr:uid="{CE9629E1-6341-48A8-A515-14208ED02ACE}"/>
-    <hyperlink ref="D138" r:id="rId95" xr:uid="{7906C34E-95E6-4C1B-9565-B8B6F37DE732}"/>
-    <hyperlink ref="D139" r:id="rId96" xr:uid="{EE076CB7-11A0-4FF0-9825-6A412491927F}"/>
-    <hyperlink ref="D140" r:id="rId97" xr:uid="{155BFA89-2A1E-4E9B-9D34-97E8FE7BFBB8}"/>
-    <hyperlink ref="D142" r:id="rId98" xr:uid="{4B1CBD95-B37A-4E49-99CD-5B0FAFB1DD68}"/>
-    <hyperlink ref="D124" r:id="rId99" xr:uid="{933F49CC-7CBE-4246-BED0-85666C83AD9C}"/>
-    <hyperlink ref="D44" r:id="rId100" xr:uid="{44BF8FFF-EFEF-4626-91C2-16E5A0463084}"/>
-    <hyperlink ref="D85" r:id="rId101" xr:uid="{CFA38323-9624-4B72-BAD1-1DF28D103CC7}"/>
-    <hyperlink ref="D54" r:id="rId102" xr:uid="{027425D3-4104-4019-9C56-9619BD774590}"/>
-    <hyperlink ref="D143" r:id="rId103" xr:uid="{5E05232A-62B2-4A14-ABE0-B7C2FC8317E5}"/>
-    <hyperlink ref="D35" r:id="rId104" xr:uid="{E78167A9-C7BD-4913-A9BE-7D05FB372985}"/>
-    <hyperlink ref="D144" r:id="rId105" xr:uid="{A09AECAB-6573-4BCA-B75F-5029DC873CE5}"/>
-    <hyperlink ref="D21" r:id="rId106" xr:uid="{F0EA2884-0417-443D-ABC1-941CEB7EBB01}"/>
-    <hyperlink ref="D145" r:id="rId107" xr:uid="{3E967917-087B-4C24-883E-25347224DBDC}"/>
-    <hyperlink ref="D102" r:id="rId108" xr:uid="{EE590C67-17CF-44CB-8F7D-B042342203EE}"/>
-    <hyperlink ref="D89" r:id="rId109" xr:uid="{72BBC2F8-4E6F-4DFD-B837-9BFEBE7BA406}"/>
-    <hyperlink ref="D146" r:id="rId110" xr:uid="{0B4ECC27-EC91-4F95-82E0-FD9CDCD9A93F}"/>
-    <hyperlink ref="D147" r:id="rId111" xr:uid="{49B38CC6-2C17-4FEF-90C9-05FEFA135B41}"/>
-    <hyperlink ref="D40" r:id="rId112" xr:uid="{C2109FB0-C10E-4DCF-989E-E84149DE1EAC}"/>
-    <hyperlink ref="D121" r:id="rId113" xr:uid="{50BA8730-2B77-4DFA-A049-17427C1D7CC5}"/>
-    <hyperlink ref="D56" r:id="rId114" xr:uid="{C988080E-F4EB-46BF-AB72-D073DF5191B6}"/>
-    <hyperlink ref="D87" r:id="rId115" xr:uid="{3B941BCF-E75D-4DA8-8A44-527E84ED7297}"/>
-    <hyperlink ref="D25" r:id="rId116" xr:uid="{4CF61DDE-F761-41F1-A22D-2FF464DFA9A2}"/>
-    <hyperlink ref="D98" r:id="rId117" xr:uid="{F69F71F7-93FB-4517-A52D-2CB75FB91539}"/>
-    <hyperlink ref="D9" r:id="rId118" xr:uid="{AA062347-DE7E-42D9-B1FA-F6DBC67BC5A3}"/>
-    <hyperlink ref="D149" r:id="rId119" xr:uid="{03FCC17F-5E5A-4BB9-AB6F-E913ABCF9296}"/>
-    <hyperlink ref="D131" r:id="rId120" xr:uid="{341B611A-2A3E-4D76-979C-A6AC19CF8A2E}"/>
-    <hyperlink ref="D150" r:id="rId121" xr:uid="{B0BACB11-8EAB-444A-A367-89EF9AE91442}"/>
-    <hyperlink ref="D151" r:id="rId122" xr:uid="{8A3E3722-3D34-4679-8500-A153D053D8CE}"/>
-    <hyperlink ref="D152" r:id="rId123" xr:uid="{7FBFF53A-F5DE-4AA6-87C3-5F341F2A40D7}"/>
-    <hyperlink ref="D12" r:id="rId124" xr:uid="{C1015149-910B-4F41-82F6-2D476AB38D4A}"/>
-    <hyperlink ref="D52" r:id="rId125" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="D153" r:id="rId126" xr:uid="{FC1D08C5-4F0C-4164-B550-527FBA8746F5}"/>
-    <hyperlink ref="D148" r:id="rId127" xr:uid="{0B6EE4FC-BA87-471C-A9B5-08A00A4CB44A}"/>
+    <hyperlink ref="D3" r:id="rId2" location="22H94G9AOV" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D17" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D19" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D27" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D40" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D25" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D26" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D32" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D44" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D47" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D49" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D52" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="D54" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D56" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="D6" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="D57" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D59" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="D60" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="D61" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="D62" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="D46" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="D64" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="D65" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="D70" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="D71" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="D28" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="D13" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="D73" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="D74" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="D75" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="D77" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D78" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="D79" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="D80" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="D81" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="D83" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D87" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D89" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="D90" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D18" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D92" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="D93" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="D94" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D95" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D98" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D99" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D100" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D102" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D104" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="D105" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D106" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="D107" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="D35" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D108" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D109" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D111" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D113" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D114" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="D115" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="D116" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="D23" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="D91" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D117" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="D76" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="D15" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="D118" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="D119" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="D112" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="D33" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D122" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D124" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D125" r:id="rId75" xr:uid="{A16A5099-7DDF-4370-95B7-BE0B27B5431C}"/>
+    <hyperlink ref="D126" r:id="rId76" xr:uid="{708EF35E-20E2-4320-AADE-685E01E763F7}"/>
+    <hyperlink ref="D121" r:id="rId77" xr:uid="{FB61B29C-091A-4DDA-AE79-D04CD219E120}"/>
+    <hyperlink ref="D103" r:id="rId78" xr:uid="{ECA328F5-23A6-4DE4-B068-F02A7D98D168}"/>
+    <hyperlink ref="D127" r:id="rId79" xr:uid="{9AD90610-B454-4A84-8345-BC650F57996E}"/>
+    <hyperlink ref="D37" r:id="rId80" xr:uid="{93E22CFB-0916-4E6E-ACC3-EEAD067C806F}"/>
+    <hyperlink ref="D131" r:id="rId81" xr:uid="{B9A9083D-DAAC-4EB9-A1EF-8226D6CE0569}"/>
+    <hyperlink ref="D129" r:id="rId82" xr:uid="{7BB4446E-C399-4A10-A149-71E6F6C21625}"/>
+    <hyperlink ref="D66" r:id="rId83" xr:uid="{26848A2D-A2E9-4D35-A878-4E94AA4528CC}"/>
+    <hyperlink ref="D72" r:id="rId84" xr:uid="{4F6D0E3F-842E-4538-B42C-64D38060BB59}"/>
+    <hyperlink ref="D132" r:id="rId85" xr:uid="{302CF079-F4AA-41D6-A7B3-02085878B25C}"/>
+    <hyperlink ref="D58" r:id="rId86" xr:uid="{FFC2D208-AEF3-4089-93F4-56B6F4845C6D}"/>
+    <hyperlink ref="D133" r:id="rId87" xr:uid="{537861A6-5879-4590-973E-CAB8004B1F94}"/>
+    <hyperlink ref="D16" r:id="rId88" xr:uid="{09DC9E19-5EF7-447C-A207-F065EAABBA9E}"/>
+    <hyperlink ref="D135" r:id="rId89" xr:uid="{B0679566-FA54-444D-8C38-A9B1A78EA00B}"/>
+    <hyperlink ref="D110" r:id="rId90" xr:uid="{548C8289-7EC3-401B-8394-4658D1E44626}"/>
+    <hyperlink ref="D136" r:id="rId91" xr:uid="{68B8ABE4-7971-4B92-873E-57FB9E5E8E7B}"/>
+    <hyperlink ref="D68" r:id="rId92" xr:uid="{CE9629E1-6341-48A8-A515-14208ED02ACE}"/>
+    <hyperlink ref="D137" r:id="rId93" xr:uid="{7906C34E-95E6-4C1B-9565-B8B6F37DE732}"/>
+    <hyperlink ref="D138" r:id="rId94" xr:uid="{EE076CB7-11A0-4FF0-9825-6A412491927F}"/>
+    <hyperlink ref="D139" r:id="rId95" xr:uid="{155BFA89-2A1E-4E9B-9D34-97E8FE7BFBB8}"/>
+    <hyperlink ref="D141" r:id="rId96" xr:uid="{4B1CBD95-B37A-4E49-99CD-5B0FAFB1DD68}"/>
+    <hyperlink ref="D123" r:id="rId97" xr:uid="{933F49CC-7CBE-4246-BED0-85666C83AD9C}"/>
+    <hyperlink ref="D43" r:id="rId98" xr:uid="{44BF8FFF-EFEF-4626-91C2-16E5A0463084}"/>
+    <hyperlink ref="D84" r:id="rId99" xr:uid="{CFA38323-9624-4B72-BAD1-1DF28D103CC7}"/>
+    <hyperlink ref="D53" r:id="rId100" xr:uid="{027425D3-4104-4019-9C56-9619BD774590}"/>
+    <hyperlink ref="D142" r:id="rId101" xr:uid="{5E05232A-62B2-4A14-ABE0-B7C2FC8317E5}"/>
+    <hyperlink ref="D34" r:id="rId102" xr:uid="{E78167A9-C7BD-4913-A9BE-7D05FB372985}"/>
+    <hyperlink ref="D143" r:id="rId103" xr:uid="{A09AECAB-6573-4BCA-B75F-5029DC873CE5}"/>
+    <hyperlink ref="D20" r:id="rId104" xr:uid="{F0EA2884-0417-443D-ABC1-941CEB7EBB01}"/>
+    <hyperlink ref="D144" r:id="rId105" xr:uid="{3E967917-087B-4C24-883E-25347224DBDC}"/>
+    <hyperlink ref="D101" r:id="rId106" xr:uid="{EE590C67-17CF-44CB-8F7D-B042342203EE}"/>
+    <hyperlink ref="D88" r:id="rId107" xr:uid="{72BBC2F8-4E6F-4DFD-B837-9BFEBE7BA406}"/>
+    <hyperlink ref="D145" r:id="rId108" xr:uid="{0B4ECC27-EC91-4F95-82E0-FD9CDCD9A93F}"/>
+    <hyperlink ref="D146" r:id="rId109" xr:uid="{49B38CC6-2C17-4FEF-90C9-05FEFA135B41}"/>
+    <hyperlink ref="D39" r:id="rId110" xr:uid="{C2109FB0-C10E-4DCF-989E-E84149DE1EAC}"/>
+    <hyperlink ref="D120" r:id="rId111" xr:uid="{50BA8730-2B77-4DFA-A049-17427C1D7CC5}"/>
+    <hyperlink ref="D55" r:id="rId112" xr:uid="{C988080E-F4EB-46BF-AB72-D073DF5191B6}"/>
+    <hyperlink ref="D86" r:id="rId113" xr:uid="{3B941BCF-E75D-4DA8-8A44-527E84ED7297}"/>
+    <hyperlink ref="D24" r:id="rId114" xr:uid="{4CF61DDE-F761-41F1-A22D-2FF464DFA9A2}"/>
+    <hyperlink ref="D97" r:id="rId115" xr:uid="{F69F71F7-93FB-4517-A52D-2CB75FB91539}"/>
+    <hyperlink ref="D8" r:id="rId116" xr:uid="{AA062347-DE7E-42D9-B1FA-F6DBC67BC5A3}"/>
+    <hyperlink ref="D148" r:id="rId117" xr:uid="{03FCC17F-5E5A-4BB9-AB6F-E913ABCF9296}"/>
+    <hyperlink ref="D130" r:id="rId118" xr:uid="{341B611A-2A3E-4D76-979C-A6AC19CF8A2E}"/>
+    <hyperlink ref="D149" r:id="rId119" xr:uid="{B0BACB11-8EAB-444A-A367-89EF9AE91442}"/>
+    <hyperlink ref="D150" r:id="rId120" xr:uid="{8A3E3722-3D34-4679-8500-A153D053D8CE}"/>
+    <hyperlink ref="D151" r:id="rId121" xr:uid="{7FBFF53A-F5DE-4AA6-87C3-5F341F2A40D7}"/>
+    <hyperlink ref="D11" r:id="rId122" xr:uid="{C1015149-910B-4F41-82F6-2D476AB38D4A}"/>
+    <hyperlink ref="D51" r:id="rId123" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D152" r:id="rId124" xr:uid="{FC1D08C5-4F0C-4164-B550-527FBA8746F5}"/>
+    <hyperlink ref="D147" r:id="rId125" xr:uid="{0B6EE4FC-BA87-471C-A9B5-08A00A4CB44A}"/>
+    <hyperlink ref="D153" r:id="rId126" xr:uid="{9F4AE395-14D3-4460-A23E-1FD2587F4682}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId128"/>
-  <legacyDrawing r:id="rId129"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId127"/>
+  <legacyDrawing r:id="rId128"/>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new_news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004F05AE-1173-4CB8-B6D8-6C48749F3DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF96ECC-1471-4957-BD76-F46637364A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1815" windowWidth="37605" windowHeight="19185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6150" yWindow="1380" windowWidth="37605" windowHeight="19185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="465">
   <si>
     <t>naver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -769,9 +769,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rsse의료정보</t>
-  </si>
-  <si>
     <t>rss에너지데일리</t>
   </si>
   <si>
@@ -779,10 +776,6 @@
   </si>
   <si>
     <t>rss뉴스투데이</t>
-  </si>
-  <si>
-    <t>http://www.kmedinfo.co.kr/rss/allArticle.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.energydaily.co.kr/rss/allArticle.xml</t>
@@ -2385,15 +2378,6 @@
   </si>
   <si>
     <t>url_list = soup.select("#section-list ul li")[:5];
-url_list = ["http://www.sisajournal-e.com" + i.select_one("a")["href"] for i in url_list];
-title_list = soup.select("#section-list ul li h2.titles")[:5];
-title_list = [i.text.strip() for i in title_list];
-body_list = soup.select("#section-list ul li p.lead")[:5];
-body_list = [i.text.strip() for i in body_list];</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url_list = soup.select("#section-list ul li")[:5];
 url_list = ["https://www.energykorea.co.kr" + i.select_one("a")["href"] for i in url_list];
 title_list = soup.select("#section-list ul li h2.titles")[:5];
 title_list = [i.text.strip() for i in title_list];
@@ -2571,6 +2555,40 @@
 title_list = [i.text.strip() for i in title_list];
 body_list = soup.select("div.list_article ul.sc_news_lst li span.desc")[:5];
 body_list = [i.text.strip() for i in body_list];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시사온</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_list = soup.select("section.user-snb section.article-list-content div.list-block div.list-titles")[:5];
+url_list = ["https://www.sisaon.co.kr" + i.select_one("a")["href"]for i in url_list];
+title_list = soup.select("section.user-snb section.article-list-content div.list-block div.list-titles strong")[:5];
+title_list = [i.text.strip() for i in title_list];
+body_list = soup.select("section.user-snb section.article-list-content div.list-block p.list-summary")[:5];
+body_list = [i.text.strip() for i in body_list];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.sisaon.co.kr/news/articleList.html?view_type=sm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_list = soup.select("#section-list ul li")[:5];
+url_list = [i.select_one("a")["href"] for i in url_list];
+title_list = soup.select("#section-list ul li h2.titles")[:5];
+title_list = [i.text.strip() for i in title_list];
+body_list = soup.select("#section-list ul li p.lead")[:5];
+body_list = [i.text.strip() for i in body_list];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://search.daum.net/search?w=news&amp;nil_search=btn&amp;DA=STC&amp;enc=utf8&amp;cluster=y&amp;cluster_page=1&amp;q=%EA%B8%B0%EC%9E%90&amp;p=1&amp;sort=recency</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2995,7 +3013,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F153"/>
+  <dimension ref="A1:F154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -3026,7 +3044,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3040,138 +3058,138 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="99">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="33">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>463</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>463</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>147</v>
+        <v>464</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="99">
       <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="99">
+      <c r="A5" t="s">
         <v>1</v>
-      </c>
-      <c r="B4">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="104.25" customHeight="1">
-      <c r="A5" t="s">
-        <v>115</v>
       </c>
       <c r="B5">
         <v>7</v>
       </c>
       <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="104.25" customHeight="1">
+      <c r="A6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="81">
-      <c r="A6" s="6" t="s">
+      <c r="F6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="81">
+      <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F6" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="81">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="F7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="81">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>421</v>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>422</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="81">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -3179,259 +3197,259 @@
       <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>419</v>
-      </c>
       <c r="F9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="81">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="F10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="81">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F10" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="99">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>448</v>
-      </c>
       <c r="F11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="99">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>27</v>
+      <c r="D12" s="8" t="s">
+        <v>444</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>29</v>
+        <v>445</v>
       </c>
       <c r="F12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="99">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>28</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>161</v>
+      <c r="D13" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>162</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="99">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>30</v>
+      <c r="D14" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="F14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="99">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>277</v>
+      <c r="D15" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>415</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="99">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>344</v>
+        <v>275</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>288</v>
+        <v>413</v>
       </c>
       <c r="F16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="99">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>36</v>
+      <c r="D17" s="8" t="s">
+        <v>342</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>37</v>
+        <v>286</v>
       </c>
       <c r="F17" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="99">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>190</v>
+      <c r="D18" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="99">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>40</v>
+      <c r="D19" s="8" t="s">
+        <v>188</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="99">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>389</v>
+      <c r="D20" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>400</v>
+        <v>42</v>
+      </c>
+      <c r="F20" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="99">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>46</v>
+      <c r="D21" s="8" t="s">
+        <v>387</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" t="s">
-        <v>301</v>
+        <v>44</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="99">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -3440,98 +3458,98 @@
         <v>9</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="99">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F22" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="82.5">
-      <c r="A23" t="s">
+      <c r="F23" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="82.5">
+      <c r="A24" t="s">
         <v>51</v>
       </c>
-      <c r="B23">
-        <v>9</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F23" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="99">
-      <c r="A24" t="s">
+      <c r="B24">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F24" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="99">
+      <c r="A25" t="s">
         <v>52</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>5</v>
       </c>
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F24" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="82.5">
-      <c r="A25" t="s">
+      <c r="F25" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="82.5">
+      <c r="A26" t="s">
         <v>54</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>6</v>
       </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="8" t="s">
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F25" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="99">
-      <c r="A26" t="s">
+      <c r="E26" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="99">
+      <c r="A27" t="s">
         <v>55</v>
-      </c>
-      <c r="B26">
-        <v>5</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F26" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="82.5">
-      <c r="A27" t="s">
-        <v>56</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -3539,519 +3557,519 @@
       <c r="C27" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="82.5">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F27" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="99">
-      <c r="A28" t="s">
+      <c r="E28" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="99">
+      <c r="A29" t="s">
         <v>58</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>3</v>
       </c>
-      <c r="C28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F28" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="82.5">
-      <c r="A29" t="s">
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="82.5">
+      <c r="A30" t="s">
         <v>60</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>4</v>
       </c>
-      <c r="C29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F29" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="99">
-      <c r="A30" t="s">
+      <c r="F30" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="99">
+      <c r="A31" t="s">
         <v>61</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>6</v>
       </c>
-      <c r="C30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="81">
-      <c r="A31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31">
-        <v>8</v>
-      </c>
       <c r="C31" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F31" t="s">
-        <v>301</v>
+      <c r="D31" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="81">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B32">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>297</v>
+      <c r="D32" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F32" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="81">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>323</v>
+        <v>66</v>
       </c>
       <c r="F33" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="81">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>382</v>
+        <v>287</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>386</v>
+        <v>321</v>
       </c>
       <c r="F34" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="81">
       <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F35" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="81">
+      <c r="A36" t="s">
         <v>69</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>5</v>
       </c>
-      <c r="C35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="F35" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="99">
-      <c r="A36" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36">
-        <v>12</v>
-      </c>
       <c r="C36" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>71</v>
+      <c r="D36" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>431</v>
       </c>
       <c r="F36" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="99">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B37">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C37" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>326</v>
+      <c r="D37" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>325</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="99">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B38">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>74</v>
+      <c r="D38" s="8" t="s">
+        <v>324</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>75</v>
+        <v>323</v>
       </c>
       <c r="F38" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="99">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B39">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>408</v>
+      <c r="D39" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>411</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="99">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B40">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>78</v>
+      <c r="D40" s="8" t="s">
+        <v>406</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>79</v>
+        <v>409</v>
       </c>
       <c r="F40" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="99">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>81</v>
+      <c r="D41" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="99">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B42">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F42" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="99">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B43">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>413</v>
+      <c r="D43" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>412</v>
+        <v>85</v>
       </c>
       <c r="F43" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="99">
       <c r="A44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B44">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>92</v>
+      <c r="D44" s="2" t="s">
+        <v>411</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>315</v>
+        <v>410</v>
       </c>
       <c r="F44" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="99">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>93</v>
+      <c r="D45" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>95</v>
+        <v>313</v>
       </c>
       <c r="F45" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="99">
       <c r="A46" t="s">
-        <v>214</v>
+        <v>94</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C46" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>135</v>
+      <c r="D46" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>388</v>
+        <v>95</v>
       </c>
       <c r="F46" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="99">
       <c r="A47" t="s">
-        <v>97</v>
+        <v>212</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C47" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>96</v>
+      <c r="D47" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>458</v>
+        <v>386</v>
       </c>
       <c r="F47" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="99">
       <c r="A48" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B48">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>98</v>
+      <c r="D48" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>100</v>
+        <v>455</v>
       </c>
       <c r="F48" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="99">
       <c r="A49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F49" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="99">
+      <c r="A50" t="s">
         <v>102</v>
       </c>
-      <c r="B49">
+      <c r="B50">
         <v>8</v>
       </c>
-      <c r="C49" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F49" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="82.5">
-      <c r="A50" t="s">
-        <v>104</v>
-      </c>
-      <c r="B50">
-        <v>2.5</v>
-      </c>
-      <c r="C50" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>449</v>
-      </c>
       <c r="F50" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="82.5">
       <c r="A51" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51">
+        <v>2.5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="F51" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="82.5">
+      <c r="A52" t="s">
         <v>105</v>
       </c>
-      <c r="B51">
+      <c r="B52">
         <v>2</v>
       </c>
-      <c r="C51" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F51" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="99">
-      <c r="A52" t="s">
-        <v>133</v>
-      </c>
-      <c r="B52">
-        <v>6</v>
-      </c>
-      <c r="C52" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="E52" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F52" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="99">
       <c r="A53" t="s">
-        <v>354</v>
+        <v>133</v>
       </c>
       <c r="B53">
         <v>6</v>
@@ -4059,39 +4077,39 @@
       <c r="C53" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="8" t="s">
-        <v>378</v>
+      <c r="D53" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>355</v>
+        <v>155</v>
       </c>
       <c r="F53" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="99">
       <c r="A54" t="s">
+        <v>352</v>
+      </c>
+      <c r="B54">
+        <v>6</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F54" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="99">
+      <c r="A55" t="s">
         <v>108</v>
-      </c>
-      <c r="B54">
-        <v>5</v>
-      </c>
-      <c r="C54" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="82.5">
-      <c r="A55" t="s">
-        <v>110</v>
       </c>
       <c r="B55">
         <v>5</v>
@@ -4099,19 +4117,19 @@
       <c r="C55" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="8" t="s">
-        <v>410</v>
+      <c r="D55" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F55" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="99">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="82.5">
       <c r="A56" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B56">
         <v>5</v>
@@ -4120,178 +4138,178 @@
         <v>9</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>111</v>
+        <v>408</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F56" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="99">
       <c r="A57" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
         <v>9</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>117</v>
+      <c r="D57" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F57" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="99">
       <c r="A58" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F58" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="99">
+      <c r="A59" t="s">
         <v>120</v>
       </c>
-      <c r="B58">
+      <c r="B59">
         <v>6</v>
       </c>
-      <c r="C58" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="F58" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="82.5">
-      <c r="A59" t="s">
-        <v>121</v>
-      </c>
-      <c r="B59">
-        <v>3</v>
-      </c>
       <c r="C59" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>153</v>
+        <v>336</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>154</v>
+        <v>337</v>
       </c>
       <c r="F59" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="82.5">
       <c r="A60" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F60" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="82.5">
+      <c r="A61" t="s">
         <v>123</v>
       </c>
-      <c r="B60">
+      <c r="B61">
         <v>6</v>
       </c>
-      <c r="C60" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F60" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="99">
-      <c r="A61" t="s">
-        <v>126</v>
-      </c>
-      <c r="B61">
-        <v>8</v>
-      </c>
-      <c r="C61" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="E61" s="1" t="s">
-        <v>125</v>
+        <v>232</v>
       </c>
       <c r="F61" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="99">
       <c r="A62" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="B62">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F62" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="99">
       <c r="A63" t="s">
+        <v>157</v>
+      </c>
+      <c r="B63">
+        <v>10.5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F63" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="99">
+      <c r="A64" t="s">
         <v>132</v>
       </c>
-      <c r="B63">
+      <c r="B64">
         <v>3</v>
       </c>
-      <c r="C63" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="1" t="s">
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F63" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" t="s">
-        <v>137</v>
-      </c>
-      <c r="B64">
-        <v>9</v>
-      </c>
-      <c r="C64" t="s">
-        <v>136</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="E64" t="s">
-        <v>11</v>
-      </c>
       <c r="F64" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B65">
         <v>15</v>
@@ -4300,18 +4318,18 @@
         <v>136</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B66">
         <v>2</v>
@@ -4320,18 +4338,18 @@
         <v>136</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B67">
         <v>9</v>
@@ -4340,18 +4358,18 @@
         <v>136</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B68">
         <v>9</v>
@@ -4360,18 +4378,18 @@
         <v>136</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="99">
       <c r="A69" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B69">
         <v>3</v>
@@ -4380,18 +4398,18 @@
         <v>9</v>
       </c>
       <c r="D69" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="F69" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B70">
         <v>6</v>
@@ -4400,18 +4418,18 @@
         <v>136</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B71">
         <v>8</v>
@@ -4420,18 +4438,18 @@
         <v>136</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B72">
         <v>9</v>
@@ -4440,18 +4458,18 @@
         <v>136</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E72" t="s">
         <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="99">
       <c r="A73" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B73">
         <v>4</v>
@@ -4460,18 +4478,18 @@
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="F73" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="99">
       <c r="A74" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B74">
         <v>4</v>
@@ -4480,18 +4498,18 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="F74" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="99">
       <c r="A75" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B75">
         <v>12</v>
@@ -4500,18 +4518,18 @@
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="F75" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="99">
       <c r="A76" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B76">
         <v>7</v>
@@ -4520,18 +4538,18 @@
         <v>9</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F76" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="99">
       <c r="A77" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B77">
         <v>6</v>
@@ -4540,18 +4558,18 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="F77" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="82.5">
       <c r="A78" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B78">
         <v>10</v>
@@ -4560,18 +4578,18 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F78" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="99">
       <c r="A79" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B79">
         <v>5</v>
@@ -4580,18 +4598,18 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F79" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="99">
       <c r="A80" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B80">
         <v>4</v>
@@ -4600,18 +4618,18 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F80" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="99">
       <c r="A81" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B81">
         <v>6</v>
@@ -4620,18 +4638,18 @@
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F81" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="99">
       <c r="A82" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B82">
         <v>7</v>
@@ -4640,18 +4658,18 @@
         <v>9</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F82" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="99">
       <c r="A83" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B83">
         <v>6</v>
@@ -4660,18 +4678,18 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F83" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="82.5">
       <c r="A84" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B84">
         <v>5</v>
@@ -4680,18 +4698,18 @@
         <v>9</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F84" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="99">
       <c r="A85" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B85">
         <v>4</v>
@@ -4700,18 +4718,18 @@
         <v>9</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F85" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="82.5">
       <c r="A86" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B86">
         <v>3</v>
@@ -4720,18 +4738,18 @@
         <v>9</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F86" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="99">
       <c r="A87" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B87">
         <v>4</v>
@@ -4740,38 +4758,38 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F87" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="82.5">
       <c r="A88" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B88">
         <v>3</v>
       </c>
       <c r="C88" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F88" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="82.5">
       <c r="A89" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B89">
         <v>5</v>
@@ -4780,18 +4798,18 @@
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F89" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="99">
       <c r="A90" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B90">
         <v>7</v>
@@ -4800,18 +4818,18 @@
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F90" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="82.5">
       <c r="A91" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -4820,18 +4838,18 @@
         <v>9</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F91" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="99">
       <c r="A92" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B92">
         <v>5</v>
@@ -4840,18 +4858,18 @@
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="F92" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="99">
       <c r="A93" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B93">
         <v>5</v>
@@ -4860,18 +4878,18 @@
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F93" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="99">
       <c r="A94" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B94">
         <v>3</v>
@@ -4880,18 +4898,18 @@
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F94" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="99">
       <c r="A95" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B95">
         <v>9</v>
@@ -4900,18 +4918,18 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F95" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="99">
       <c r="A96" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B96">
         <v>5</v>
@@ -4920,18 +4938,18 @@
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F96" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="82.5">
       <c r="A97" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B97">
         <v>6</v>
@@ -4940,18 +4958,18 @@
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F97" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="99">
       <c r="A98" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B98">
         <v>0.9</v>
@@ -4960,18 +4978,18 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F98" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="99">
       <c r="A99" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B99">
         <v>2</v>
@@ -4980,18 +4998,18 @@
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F99" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="99">
       <c r="A100" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B100">
         <v>4</v>
@@ -5000,18 +5018,18 @@
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F100" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="99">
       <c r="A101" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B101">
         <v>7</v>
@@ -5020,18 +5038,18 @@
         <v>9</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F101" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="99">
       <c r="A102" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B102">
         <v>1.7</v>
@@ -5040,58 +5058,58 @@
         <v>9</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F102" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="99">
       <c r="A103" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B103">
         <v>0.8</v>
       </c>
       <c r="C103" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F103" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="49.5">
       <c r="A104" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B104">
         <v>0.9</v>
       </c>
       <c r="C104" t="s">
+        <v>238</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E104" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D104" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="F104" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="99">
       <c r="A105" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B105">
         <v>5</v>
@@ -5100,18 +5118,18 @@
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F105" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="99">
       <c r="A106" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B106">
         <v>3</v>
@@ -5120,18 +5138,18 @@
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F106" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="66">
       <c r="A107" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B107">
         <v>1.2</v>
@@ -5140,18 +5158,18 @@
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F107" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="99">
       <c r="A108" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B108">
         <v>3.5</v>
@@ -5160,18 +5178,18 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F108" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="99">
       <c r="A109" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B109">
         <v>4</v>
@@ -5180,18 +5198,18 @@
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F109" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="99">
       <c r="A110" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B110">
         <v>7</v>
@@ -5200,18 +5218,18 @@
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F110" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="82.5">
       <c r="A111" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B111">
         <v>8</v>
@@ -5220,18 +5238,18 @@
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F111" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="99">
       <c r="A112" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B112">
         <v>1.5</v>
@@ -5240,18 +5258,18 @@
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F112" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="82.5">
       <c r="A113" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B113">
         <v>8</v>
@@ -5260,18 +5278,18 @@
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F113" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="99">
       <c r="A114" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B114">
         <v>5</v>
@@ -5280,18 +5298,18 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F114" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="99">
       <c r="A115" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B115">
         <v>5</v>
@@ -5300,18 +5318,18 @@
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F115" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="99">
       <c r="A116" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B116">
         <v>4</v>
@@ -5320,18 +5338,18 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F116" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="99">
       <c r="A117" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B117">
         <v>14</v>
@@ -5340,18 +5358,18 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F117" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="99">
       <c r="A118" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B118">
         <v>5</v>
@@ -5360,18 +5378,18 @@
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F118" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="99">
       <c r="A119" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B119">
         <v>5</v>
@@ -5380,18 +5398,18 @@
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F119" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="99">
       <c r="A120" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B120">
         <v>9</v>
@@ -5400,18 +5418,18 @@
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F120" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="99">
       <c r="A121" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B121">
         <v>8</v>
@@ -5420,18 +5438,18 @@
         <v>9</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F121" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="99">
       <c r="A122" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B122">
         <v>12</v>
@@ -5440,18 +5458,18 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F122" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="99">
       <c r="A123" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B123">
         <v>9</v>
@@ -5460,18 +5478,18 @@
         <v>9</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="99">
       <c r="A124" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B124">
         <v>5</v>
@@ -5480,18 +5498,18 @@
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F124" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="99">
       <c r="A125" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B125">
         <v>6</v>
@@ -5500,18 +5518,18 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F125" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="82.5">
       <c r="A126" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B126">
         <v>3</v>
@@ -5520,18 +5538,18 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F126" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="99">
       <c r="A127" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B127">
         <v>4</v>
@@ -5540,18 +5558,18 @@
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F127" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="99">
       <c r="A128" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B128">
         <v>6</v>
@@ -5560,18 +5578,18 @@
         <v>9</v>
       </c>
       <c r="D128" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E128" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="E128" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="F128" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B129">
         <v>5</v>
@@ -5580,18 +5598,18 @@
         <v>136</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E129" t="s">
         <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="99">
       <c r="A130" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B130">
         <v>5</v>
@@ -5600,18 +5618,18 @@
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>432</v>
+        <v>462</v>
       </c>
       <c r="F130" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="99">
       <c r="A131" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B131">
         <v>5</v>
@@ -5620,18 +5638,18 @@
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F131" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="99">
       <c r="A132" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B132">
         <v>6</v>
@@ -5640,18 +5658,18 @@
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F132" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="99">
       <c r="A133" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B133">
         <v>4</v>
@@ -5660,18 +5678,18 @@
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F133" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="67.5">
       <c r="A134" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B134">
         <v>1.1000000000000001</v>
@@ -5680,18 +5698,18 @@
         <v>9</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F134" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="82.5">
       <c r="A135" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B135">
         <v>1.3</v>
@@ -5700,18 +5718,18 @@
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F135" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="99">
       <c r="A136" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B136">
         <v>8</v>
@@ -5720,13 +5738,13 @@
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F136" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="99">
@@ -5740,18 +5758,18 @@
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F137" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="82.5">
       <c r="A138" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B138">
         <v>9</v>
@@ -5760,18 +5778,18 @@
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F138" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="148.5">
       <c r="A139" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B139">
         <v>5</v>
@@ -5780,18 +5798,18 @@
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F139" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="99">
       <c r="A140" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B140">
         <v>5</v>
@@ -5800,18 +5818,18 @@
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F140" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="99">
       <c r="A141" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B141">
         <v>5</v>
@@ -5820,18 +5838,18 @@
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F141" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="99">
       <c r="A142" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B142">
         <v>11</v>
@@ -5840,18 +5858,18 @@
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F142" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="99">
       <c r="A143" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B143">
         <v>10</v>
@@ -5860,18 +5878,18 @@
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F143" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="99">
       <c r="A144" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B144">
         <v>7</v>
@@ -5880,18 +5898,18 @@
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F144" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="82.5">
       <c r="A145" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B145">
         <v>7.2</v>
@@ -5900,18 +5918,18 @@
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F145" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="82.5">
       <c r="A146" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B146">
         <v>1.6</v>
@@ -5920,18 +5938,18 @@
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F146" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="82.5">
       <c r="A147" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B147">
         <v>2.2000000000000002</v>
@@ -5940,18 +5958,18 @@
         <v>9</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F147" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="99">
       <c r="A148" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B148">
         <v>4</v>
@@ -5960,18 +5978,18 @@
         <v>9</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F148" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="99">
       <c r="A149" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B149">
         <v>5</v>
@@ -5980,18 +5998,18 @@
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F149" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="99">
       <c r="A150" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B150">
         <v>6</v>
@@ -6000,18 +6018,18 @@
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F150" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="99">
       <c r="A151" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B151">
         <v>7</v>
@@ -6020,18 +6038,18 @@
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F151" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="99">
       <c r="A152" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B152">
         <v>6</v>
@@ -6040,18 +6058,18 @@
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F152" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="99">
       <c r="A153" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B153">
         <v>5</v>
@@ -6060,147 +6078,168 @@
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F153" t="s">
-        <v>301</v>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="99">
+      <c r="A154" t="s">
+        <v>459</v>
+      </c>
+      <c r="B154">
+        <v>3.9</v>
+      </c>
+      <c r="C154" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F154" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" location="22H94G9AOV" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D17" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D19" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D27" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D40" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D25" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D26" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="D32" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D44" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D47" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="D49" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="D52" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="D54" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="D56" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="D6" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="D57" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="D59" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="D60" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="D61" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="D62" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="D46" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="D64" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="D65" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="D70" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="D71" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="D28" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="D13" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="D73" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="D74" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="D75" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="D77" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="D78" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="D79" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="D80" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="D81" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="D83" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D87" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D89" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D90" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="D18" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D92" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="D93" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="D94" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D95" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D98" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D99" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D100" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D102" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D104" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="D105" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D106" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="D107" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="D35" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D108" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D109" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D111" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D113" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="D114" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="D115" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="D116" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="D23" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="D91" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D117" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="D76" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="D15" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="D118" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="D119" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="D112" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="D33" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D122" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D124" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D125" r:id="rId75" xr:uid="{A16A5099-7DDF-4370-95B7-BE0B27B5431C}"/>
-    <hyperlink ref="D126" r:id="rId76" xr:uid="{708EF35E-20E2-4320-AADE-685E01E763F7}"/>
-    <hyperlink ref="D121" r:id="rId77" xr:uid="{FB61B29C-091A-4DDA-AE79-D04CD219E120}"/>
-    <hyperlink ref="D103" r:id="rId78" xr:uid="{ECA328F5-23A6-4DE4-B068-F02A7D98D168}"/>
-    <hyperlink ref="D127" r:id="rId79" xr:uid="{9AD90610-B454-4A84-8345-BC650F57996E}"/>
-    <hyperlink ref="D37" r:id="rId80" xr:uid="{93E22CFB-0916-4E6E-ACC3-EEAD067C806F}"/>
-    <hyperlink ref="D131" r:id="rId81" xr:uid="{B9A9083D-DAAC-4EB9-A1EF-8226D6CE0569}"/>
-    <hyperlink ref="D129" r:id="rId82" xr:uid="{7BB4446E-C399-4A10-A149-71E6F6C21625}"/>
-    <hyperlink ref="D66" r:id="rId83" xr:uid="{26848A2D-A2E9-4D35-A878-4E94AA4528CC}"/>
-    <hyperlink ref="D72" r:id="rId84" xr:uid="{4F6D0E3F-842E-4538-B42C-64D38060BB59}"/>
-    <hyperlink ref="D132" r:id="rId85" xr:uid="{302CF079-F4AA-41D6-A7B3-02085878B25C}"/>
-    <hyperlink ref="D58" r:id="rId86" xr:uid="{FFC2D208-AEF3-4089-93F4-56B6F4845C6D}"/>
-    <hyperlink ref="D133" r:id="rId87" xr:uid="{537861A6-5879-4590-973E-CAB8004B1F94}"/>
-    <hyperlink ref="D16" r:id="rId88" xr:uid="{09DC9E19-5EF7-447C-A207-F065EAABBA9E}"/>
-    <hyperlink ref="D135" r:id="rId89" xr:uid="{B0679566-FA54-444D-8C38-A9B1A78EA00B}"/>
-    <hyperlink ref="D110" r:id="rId90" xr:uid="{548C8289-7EC3-401B-8394-4658D1E44626}"/>
-    <hyperlink ref="D136" r:id="rId91" xr:uid="{68B8ABE4-7971-4B92-873E-57FB9E5E8E7B}"/>
-    <hyperlink ref="D68" r:id="rId92" xr:uid="{CE9629E1-6341-48A8-A515-14208ED02ACE}"/>
-    <hyperlink ref="D137" r:id="rId93" xr:uid="{7906C34E-95E6-4C1B-9565-B8B6F37DE732}"/>
-    <hyperlink ref="D138" r:id="rId94" xr:uid="{EE076CB7-11A0-4FF0-9825-6A412491927F}"/>
-    <hyperlink ref="D139" r:id="rId95" xr:uid="{155BFA89-2A1E-4E9B-9D34-97E8FE7BFBB8}"/>
-    <hyperlink ref="D141" r:id="rId96" xr:uid="{4B1CBD95-B37A-4E49-99CD-5B0FAFB1DD68}"/>
-    <hyperlink ref="D123" r:id="rId97" xr:uid="{933F49CC-7CBE-4246-BED0-85666C83AD9C}"/>
-    <hyperlink ref="D43" r:id="rId98" xr:uid="{44BF8FFF-EFEF-4626-91C2-16E5A0463084}"/>
-    <hyperlink ref="D84" r:id="rId99" xr:uid="{CFA38323-9624-4B72-BAD1-1DF28D103CC7}"/>
-    <hyperlink ref="D53" r:id="rId100" xr:uid="{027425D3-4104-4019-9C56-9619BD774590}"/>
-    <hyperlink ref="D142" r:id="rId101" xr:uid="{5E05232A-62B2-4A14-ABE0-B7C2FC8317E5}"/>
-    <hyperlink ref="D34" r:id="rId102" xr:uid="{E78167A9-C7BD-4913-A9BE-7D05FB372985}"/>
-    <hyperlink ref="D143" r:id="rId103" xr:uid="{A09AECAB-6573-4BCA-B75F-5029DC873CE5}"/>
-    <hyperlink ref="D20" r:id="rId104" xr:uid="{F0EA2884-0417-443D-ABC1-941CEB7EBB01}"/>
-    <hyperlink ref="D144" r:id="rId105" xr:uid="{3E967917-087B-4C24-883E-25347224DBDC}"/>
-    <hyperlink ref="D101" r:id="rId106" xr:uid="{EE590C67-17CF-44CB-8F7D-B042342203EE}"/>
-    <hyperlink ref="D88" r:id="rId107" xr:uid="{72BBC2F8-4E6F-4DFD-B837-9BFEBE7BA406}"/>
-    <hyperlink ref="D145" r:id="rId108" xr:uid="{0B4ECC27-EC91-4F95-82E0-FD9CDCD9A93F}"/>
-    <hyperlink ref="D146" r:id="rId109" xr:uid="{49B38CC6-2C17-4FEF-90C9-05FEFA135B41}"/>
-    <hyperlink ref="D39" r:id="rId110" xr:uid="{C2109FB0-C10E-4DCF-989E-E84149DE1EAC}"/>
-    <hyperlink ref="D120" r:id="rId111" xr:uid="{50BA8730-2B77-4DFA-A049-17427C1D7CC5}"/>
-    <hyperlink ref="D55" r:id="rId112" xr:uid="{C988080E-F4EB-46BF-AB72-D073DF5191B6}"/>
-    <hyperlink ref="D86" r:id="rId113" xr:uid="{3B941BCF-E75D-4DA8-8A44-527E84ED7297}"/>
-    <hyperlink ref="D24" r:id="rId114" xr:uid="{4CF61DDE-F761-41F1-A22D-2FF464DFA9A2}"/>
-    <hyperlink ref="D97" r:id="rId115" xr:uid="{F69F71F7-93FB-4517-A52D-2CB75FB91539}"/>
-    <hyperlink ref="D8" r:id="rId116" xr:uid="{AA062347-DE7E-42D9-B1FA-F6DBC67BC5A3}"/>
-    <hyperlink ref="D148" r:id="rId117" xr:uid="{03FCC17F-5E5A-4BB9-AB6F-E913ABCF9296}"/>
-    <hyperlink ref="D130" r:id="rId118" xr:uid="{341B611A-2A3E-4D76-979C-A6AC19CF8A2E}"/>
-    <hyperlink ref="D149" r:id="rId119" xr:uid="{B0BACB11-8EAB-444A-A367-89EF9AE91442}"/>
-    <hyperlink ref="D150" r:id="rId120" xr:uid="{8A3E3722-3D34-4679-8500-A153D053D8CE}"/>
-    <hyperlink ref="D151" r:id="rId121" xr:uid="{7FBFF53A-F5DE-4AA6-87C3-5F341F2A40D7}"/>
-    <hyperlink ref="D11" r:id="rId122" xr:uid="{C1015149-910B-4F41-82F6-2D476AB38D4A}"/>
-    <hyperlink ref="D51" r:id="rId123" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="D152" r:id="rId124" xr:uid="{FC1D08C5-4F0C-4164-B550-527FBA8746F5}"/>
-    <hyperlink ref="D147" r:id="rId125" xr:uid="{0B6EE4FC-BA87-471C-A9B5-08A00A4CB44A}"/>
-    <hyperlink ref="D153" r:id="rId126" xr:uid="{9F4AE395-14D3-4460-A23E-1FD2587F4682}"/>
+    <hyperlink ref="D4" r:id="rId2" location="22H94G9AOV" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D18" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D20" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D28" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D41" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D26" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D27" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D33" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D45" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D48" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D50" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D53" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="D55" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D57" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="D7" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="D58" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D60" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="D61" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="D62" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="D63" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="D47" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="D65" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="D70" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="D71" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="D29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="D14" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="D73" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="D74" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="D75" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="D77" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D78" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="D79" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="D80" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="D81" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="D83" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D87" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D89" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="D90" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D19" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D92" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="D93" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="D94" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D95" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D98" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D99" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D100" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D102" r:id="rId50" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D104" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="D105" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D106" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="D107" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="D36" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D108" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D109" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D111" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D113" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D114" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="D115" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="D116" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="D24" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="D91" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D117" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="D76" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="D16" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="D118" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="D119" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="D112" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="D34" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D122" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D124" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D125" r:id="rId74" xr:uid="{A16A5099-7DDF-4370-95B7-BE0B27B5431C}"/>
+    <hyperlink ref="D126" r:id="rId75" xr:uid="{708EF35E-20E2-4320-AADE-685E01E763F7}"/>
+    <hyperlink ref="D121" r:id="rId76" xr:uid="{FB61B29C-091A-4DDA-AE79-D04CD219E120}"/>
+    <hyperlink ref="D103" r:id="rId77" xr:uid="{ECA328F5-23A6-4DE4-B068-F02A7D98D168}"/>
+    <hyperlink ref="D127" r:id="rId78" xr:uid="{9AD90610-B454-4A84-8345-BC650F57996E}"/>
+    <hyperlink ref="D38" r:id="rId79" xr:uid="{93E22CFB-0916-4E6E-ACC3-EEAD067C806F}"/>
+    <hyperlink ref="D131" r:id="rId80" xr:uid="{B9A9083D-DAAC-4EB9-A1EF-8226D6CE0569}"/>
+    <hyperlink ref="D129" r:id="rId81" xr:uid="{7BB4446E-C399-4A10-A149-71E6F6C21625}"/>
+    <hyperlink ref="D66" r:id="rId82" xr:uid="{26848A2D-A2E9-4D35-A878-4E94AA4528CC}"/>
+    <hyperlink ref="D72" r:id="rId83" xr:uid="{4F6D0E3F-842E-4538-B42C-64D38060BB59}"/>
+    <hyperlink ref="D132" r:id="rId84" xr:uid="{302CF079-F4AA-41D6-A7B3-02085878B25C}"/>
+    <hyperlink ref="D59" r:id="rId85" xr:uid="{FFC2D208-AEF3-4089-93F4-56B6F4845C6D}"/>
+    <hyperlink ref="D133" r:id="rId86" xr:uid="{537861A6-5879-4590-973E-CAB8004B1F94}"/>
+    <hyperlink ref="D17" r:id="rId87" xr:uid="{09DC9E19-5EF7-447C-A207-F065EAABBA9E}"/>
+    <hyperlink ref="D135" r:id="rId88" xr:uid="{B0679566-FA54-444D-8C38-A9B1A78EA00B}"/>
+    <hyperlink ref="D110" r:id="rId89" xr:uid="{548C8289-7EC3-401B-8394-4658D1E44626}"/>
+    <hyperlink ref="D136" r:id="rId90" xr:uid="{68B8ABE4-7971-4B92-873E-57FB9E5E8E7B}"/>
+    <hyperlink ref="D68" r:id="rId91" xr:uid="{CE9629E1-6341-48A8-A515-14208ED02ACE}"/>
+    <hyperlink ref="D137" r:id="rId92" xr:uid="{7906C34E-95E6-4C1B-9565-B8B6F37DE732}"/>
+    <hyperlink ref="D138" r:id="rId93" xr:uid="{EE076CB7-11A0-4FF0-9825-6A412491927F}"/>
+    <hyperlink ref="D139" r:id="rId94" xr:uid="{155BFA89-2A1E-4E9B-9D34-97E8FE7BFBB8}"/>
+    <hyperlink ref="D141" r:id="rId95" xr:uid="{4B1CBD95-B37A-4E49-99CD-5B0FAFB1DD68}"/>
+    <hyperlink ref="D123" r:id="rId96" xr:uid="{933F49CC-7CBE-4246-BED0-85666C83AD9C}"/>
+    <hyperlink ref="D44" r:id="rId97" xr:uid="{44BF8FFF-EFEF-4626-91C2-16E5A0463084}"/>
+    <hyperlink ref="D84" r:id="rId98" xr:uid="{CFA38323-9624-4B72-BAD1-1DF28D103CC7}"/>
+    <hyperlink ref="D54" r:id="rId99" xr:uid="{027425D3-4104-4019-9C56-9619BD774590}"/>
+    <hyperlink ref="D142" r:id="rId100" xr:uid="{5E05232A-62B2-4A14-ABE0-B7C2FC8317E5}"/>
+    <hyperlink ref="D35" r:id="rId101" xr:uid="{E78167A9-C7BD-4913-A9BE-7D05FB372985}"/>
+    <hyperlink ref="D143" r:id="rId102" xr:uid="{A09AECAB-6573-4BCA-B75F-5029DC873CE5}"/>
+    <hyperlink ref="D21" r:id="rId103" xr:uid="{F0EA2884-0417-443D-ABC1-941CEB7EBB01}"/>
+    <hyperlink ref="D144" r:id="rId104" xr:uid="{3E967917-087B-4C24-883E-25347224DBDC}"/>
+    <hyperlink ref="D101" r:id="rId105" xr:uid="{EE590C67-17CF-44CB-8F7D-B042342203EE}"/>
+    <hyperlink ref="D88" r:id="rId106" xr:uid="{72BBC2F8-4E6F-4DFD-B837-9BFEBE7BA406}"/>
+    <hyperlink ref="D145" r:id="rId107" xr:uid="{0B4ECC27-EC91-4F95-82E0-FD9CDCD9A93F}"/>
+    <hyperlink ref="D146" r:id="rId108" xr:uid="{49B38CC6-2C17-4FEF-90C9-05FEFA135B41}"/>
+    <hyperlink ref="D40" r:id="rId109" xr:uid="{C2109FB0-C10E-4DCF-989E-E84149DE1EAC}"/>
+    <hyperlink ref="D120" r:id="rId110" xr:uid="{50BA8730-2B77-4DFA-A049-17427C1D7CC5}"/>
+    <hyperlink ref="D56" r:id="rId111" xr:uid="{C988080E-F4EB-46BF-AB72-D073DF5191B6}"/>
+    <hyperlink ref="D86" r:id="rId112" xr:uid="{3B941BCF-E75D-4DA8-8A44-527E84ED7297}"/>
+    <hyperlink ref="D25" r:id="rId113" xr:uid="{4CF61DDE-F761-41F1-A22D-2FF464DFA9A2}"/>
+    <hyperlink ref="D97" r:id="rId114" xr:uid="{F69F71F7-93FB-4517-A52D-2CB75FB91539}"/>
+    <hyperlink ref="D9" r:id="rId115" xr:uid="{AA062347-DE7E-42D9-B1FA-F6DBC67BC5A3}"/>
+    <hyperlink ref="D148" r:id="rId116" xr:uid="{03FCC17F-5E5A-4BB9-AB6F-E913ABCF9296}"/>
+    <hyperlink ref="D130" r:id="rId117" xr:uid="{341B611A-2A3E-4D76-979C-A6AC19CF8A2E}"/>
+    <hyperlink ref="D149" r:id="rId118" xr:uid="{B0BACB11-8EAB-444A-A367-89EF9AE91442}"/>
+    <hyperlink ref="D150" r:id="rId119" xr:uid="{8A3E3722-3D34-4679-8500-A153D053D8CE}"/>
+    <hyperlink ref="D151" r:id="rId120" xr:uid="{7FBFF53A-F5DE-4AA6-87C3-5F341F2A40D7}"/>
+    <hyperlink ref="D12" r:id="rId121" xr:uid="{C1015149-910B-4F41-82F6-2D476AB38D4A}"/>
+    <hyperlink ref="D52" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D152" r:id="rId123" xr:uid="{FC1D08C5-4F0C-4164-B550-527FBA8746F5}"/>
+    <hyperlink ref="D147" r:id="rId124" xr:uid="{0B6EE4FC-BA87-471C-A9B5-08A00A4CB44A}"/>
+    <hyperlink ref="D153" r:id="rId125" xr:uid="{9F4AE395-14D3-4460-A23E-1FD2587F4682}"/>
+    <hyperlink ref="D154" r:id="rId126" xr:uid="{911C16E4-B9B3-4DBD-B406-5C0AFA70FE32}"/>
+    <hyperlink ref="D3" r:id="rId127" xr:uid="{94D81375-D6E4-4C2F-B8D0-C9DAF6D6E791}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId127"/>
-  <legacyDrawing r:id="rId128"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId128"/>
+  <legacyDrawing r:id="rId129"/>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new_news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF96ECC-1471-4957-BD76-F46637364A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93B6659-ED16-4192-89FB-DDBAF0EF5ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6150" yWindow="1380" windowWidth="37605" windowHeight="19185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="1020" windowWidth="37605" windowHeight="19185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="463">
   <si>
     <t>naver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2581,14 +2581,6 @@
 title_list = [i.text.strip() for i in title_list];
 body_list = soup.select("#section-list ul li p.lead")[:5];
 body_list = [i.text.strip() for i in body_list];</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>daum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://search.daum.net/search?w=news&amp;nil_search=btn&amp;DA=STC&amp;enc=utf8&amp;cluster=y&amp;cluster_page=1&amp;q=%EA%B8%B0%EC%9E%90&amp;p=1&amp;sort=recency</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3013,7 +3005,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F154"/>
+  <dimension ref="A1:F153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -3067,21 +3059,21 @@
         <v>299</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="33">
+    <row r="3" spans="1:6" ht="99">
       <c r="A3" t="s">
-        <v>463</v>
+        <v>114</v>
       </c>
       <c r="B3">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>463</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="F3" t="s">
         <v>299</v>
@@ -3089,79 +3081,79 @@
     </row>
     <row r="4" spans="1:6" ht="99">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F4" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="99">
+    <row r="5" spans="1:6" ht="104.25" customHeight="1">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="B5">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="104.25" customHeight="1">
-      <c r="A6" t="s">
-        <v>115</v>
+    <row r="6" spans="1:6" ht="81">
+      <c r="A6" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="F6" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="81">
-      <c r="A7" s="6" t="s">
-        <v>16</v>
+      <c r="A7" t="s">
+        <v>19</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>17</v>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="F7" t="s">
         <v>299</v>
@@ -3169,19 +3161,19 @@
     </row>
     <row r="8" spans="1:6" ht="81">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>18</v>
+      <c r="D8" s="8" t="s">
+        <v>419</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>20</v>
+        <v>420</v>
       </c>
       <c r="F8" t="s">
         <v>299</v>
@@ -3189,7 +3181,7 @@
     </row>
     <row r="9" spans="1:6" ht="81">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -3197,11 +3189,11 @@
       <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>419</v>
+      <c r="D9" s="2" t="s">
+        <v>418</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F9" t="s">
         <v>299</v>
@@ -3209,39 +3201,39 @@
     </row>
     <row r="10" spans="1:6" ht="81">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>418</v>
+      <c r="D10" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>417</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="81">
+    <row r="11" spans="1:6" ht="99">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>25</v>
+      <c r="D11" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>445</v>
       </c>
       <c r="F11" t="s">
         <v>299</v>
@@ -3249,19 +3241,19 @@
     </row>
     <row r="12" spans="1:6" ht="99">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>444</v>
+      <c r="D12" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>445</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
         <v>299</v>
@@ -3269,19 +3261,19 @@
     </row>
     <row r="13" spans="1:6" ht="99">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>27</v>
+      <c r="D13" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="F13" t="s">
         <v>299</v>
@@ -3289,19 +3281,19 @@
     </row>
     <row r="14" spans="1:6" ht="99">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>31</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>159</v>
+      <c r="D14" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
         <v>299</v>
@@ -3309,19 +3301,19 @@
     </row>
     <row r="15" spans="1:6" ht="99">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>30</v>
+      <c r="D15" s="8" t="s">
+        <v>275</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>32</v>
+        <v>413</v>
       </c>
       <c r="F15" t="s">
         <v>299</v>
@@ -3329,19 +3321,19 @@
     </row>
     <row r="16" spans="1:6" ht="99">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>275</v>
+        <v>342</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>413</v>
+        <v>286</v>
       </c>
       <c r="F16" t="s">
         <v>299</v>
@@ -3349,19 +3341,19 @@
     </row>
     <row r="17" spans="1:6" ht="99">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>342</v>
+      <c r="D17" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>286</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
         <v>299</v>
@@ -3369,19 +3361,19 @@
     </row>
     <row r="18" spans="1:6" ht="99">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>36</v>
+      <c r="D18" s="8" t="s">
+        <v>188</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
         <v>299</v>
@@ -3389,19 +3381,19 @@
     </row>
     <row r="19" spans="1:6" ht="99">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>188</v>
+      <c r="D19" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s">
         <v>299</v>
@@ -3409,47 +3401,47 @@
     </row>
     <row r="20" spans="1:6" ht="99">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>40</v>
+      <c r="D20" s="8" t="s">
+        <v>387</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" t="s">
-        <v>299</v>
+        <v>44</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="99">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>387</v>
+      <c r="D21" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>398</v>
+        <v>47</v>
+      </c>
+      <c r="F21" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="99">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -3458,98 +3450,98 @@
         <v>9</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F22" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="99">
+    <row r="23" spans="1:6" ht="82.5">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>50</v>
+      <c r="D23" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>294</v>
       </c>
       <c r="F23" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="82.5">
+    <row r="24" spans="1:6" ht="99">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B24">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>294</v>
+        <v>414</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="F24" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="99">
+    <row r="25" spans="1:6" ht="82.5">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="99">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26">
         <v>5</v>
       </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="82.5">
-      <c r="A26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26">
-        <v>6</v>
-      </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F26" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="99">
+    <row r="27" spans="1:6" ht="82.5">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -3557,111 +3549,111 @@
       <c r="C27" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>89</v>
+      <c r="D27" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F27" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="82.5">
+    <row r="28" spans="1:6" ht="99">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>57</v>
+      <c r="D28" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F28" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="99">
+    <row r="29" spans="1:6" ht="82.5">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>153</v>
+      <c r="D29" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F29" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="82.5">
+    <row r="30" spans="1:6" ht="99">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>59</v>
+      <c r="D30" s="8" t="s">
+        <v>423</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F30" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="99">
+        <v>422</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="81">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B31">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>398</v>
+      <c r="D31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="81">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>62</v>
+      <c r="D32" s="8" t="s">
+        <v>295</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F32" t="s">
         <v>299</v>
@@ -3669,19 +3661,19 @@
     </row>
     <row r="33" spans="1:6" ht="81">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B33">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>66</v>
+        <v>321</v>
       </c>
       <c r="F33" t="s">
         <v>299</v>
@@ -3689,19 +3681,19 @@
     </row>
     <row r="34" spans="1:6" ht="81">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>287</v>
+        <v>380</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>321</v>
+        <v>384</v>
       </c>
       <c r="F34" t="s">
         <v>299</v>
@@ -3709,39 +3701,39 @@
     </row>
     <row r="35" spans="1:6" ht="81">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B35">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>380</v>
+        <v>249</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>384</v>
+        <v>431</v>
       </c>
       <c r="F35" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="81">
+    <row r="36" spans="1:6" ht="99">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>431</v>
+      <c r="D36" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="F36" t="s">
         <v>299</v>
@@ -3749,19 +3741,19 @@
     </row>
     <row r="37" spans="1:6" ht="99">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B37">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>70</v>
+      <c r="D37" s="8" t="s">
+        <v>324</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>71</v>
+        <v>323</v>
       </c>
       <c r="F37" t="s">
         <v>299</v>
@@ -3769,19 +3761,19 @@
     </row>
     <row r="38" spans="1:6" ht="99">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B38">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>324</v>
+      <c r="D38" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>323</v>
+        <v>75</v>
       </c>
       <c r="F38" t="s">
         <v>299</v>
@@ -3789,19 +3781,19 @@
     </row>
     <row r="39" spans="1:6" ht="99">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B39">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>74</v>
+      <c r="D39" s="8" t="s">
+        <v>406</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>75</v>
+        <v>409</v>
       </c>
       <c r="F39" t="s">
         <v>299</v>
@@ -3809,19 +3801,19 @@
     </row>
     <row r="40" spans="1:6" ht="99">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B40">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>406</v>
+      <c r="D40" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>409</v>
+        <v>79</v>
       </c>
       <c r="F40" t="s">
         <v>299</v>
@@ -3829,19 +3821,19 @@
     </row>
     <row r="41" spans="1:6" ht="99">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B41">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C41" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>78</v>
+      <c r="D41" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F41" t="s">
         <v>299</v>
@@ -3849,19 +3841,19 @@
     </row>
     <row r="42" spans="1:6" ht="99">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F42" t="s">
         <v>299</v>
@@ -3869,19 +3861,19 @@
     </row>
     <row r="43" spans="1:6" ht="99">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B43">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>84</v>
+      <c r="D43" s="2" t="s">
+        <v>411</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>85</v>
+        <v>410</v>
       </c>
       <c r="F43" t="s">
         <v>299</v>
@@ -3889,19 +3881,19 @@
     </row>
     <row r="44" spans="1:6" ht="99">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B44">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>411</v>
+      <c r="D44" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>410</v>
+        <v>313</v>
       </c>
       <c r="F44" t="s">
         <v>299</v>
@@ -3909,19 +3901,19 @@
     </row>
     <row r="45" spans="1:6" ht="99">
       <c r="A45" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B45">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C45" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>92</v>
+      <c r="D45" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>313</v>
+        <v>95</v>
       </c>
       <c r="F45" t="s">
         <v>299</v>
@@ -3929,19 +3921,19 @@
     </row>
     <row r="46" spans="1:6" ht="99">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C46" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>93</v>
+      <c r="D46" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>95</v>
+        <v>386</v>
       </c>
       <c r="F46" t="s">
         <v>299</v>
@@ -3949,19 +3941,19 @@
     </row>
     <row r="47" spans="1:6" ht="99">
       <c r="A47" t="s">
-        <v>212</v>
+        <v>97</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>135</v>
+      <c r="D47" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>386</v>
+        <v>455</v>
       </c>
       <c r="F47" t="s">
         <v>299</v>
@@ -3969,19 +3961,19 @@
     </row>
     <row r="48" spans="1:6" ht="99">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B48">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>96</v>
+      <c r="D48" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>455</v>
+        <v>100</v>
       </c>
       <c r="F48" t="s">
         <v>299</v>
@@ -3989,39 +3981,39 @@
     </row>
     <row r="49" spans="1:6" ht="99">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B49">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>98</v>
+      <c r="D49" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F49" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="99">
+    <row r="50" spans="1:6" ht="82.5">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B50">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="C50" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>103</v>
+      <c r="D50" s="3" t="s">
+        <v>447</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>101</v>
+        <v>446</v>
       </c>
       <c r="F50" t="s">
         <v>299</v>
@@ -4029,39 +4021,39 @@
     </row>
     <row r="51" spans="1:6" ht="82.5">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B51">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="C51" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>447</v>
+      <c r="D51" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>446</v>
+        <v>148</v>
       </c>
       <c r="F51" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="82.5">
+    <row r="52" spans="1:6" ht="99">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F52" t="s">
         <v>299</v>
@@ -4069,7 +4061,7 @@
     </row>
     <row r="53" spans="1:6" ht="99">
       <c r="A53" t="s">
-        <v>133</v>
+        <v>352</v>
       </c>
       <c r="B53">
         <v>6</v>
@@ -4077,11 +4069,11 @@
       <c r="C53" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>156</v>
+      <c r="D53" s="8" t="s">
+        <v>376</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>155</v>
+        <v>353</v>
       </c>
       <c r="F53" t="s">
         <v>299</v>
@@ -4089,27 +4081,27 @@
     </row>
     <row r="54" spans="1:6" ht="99">
       <c r="A54" t="s">
-        <v>352</v>
+        <v>108</v>
       </c>
       <c r="B54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="8" t="s">
-        <v>376</v>
+      <c r="D54" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>353</v>
+        <v>107</v>
       </c>
       <c r="F54" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="99">
+    <row r="55" spans="1:6" ht="82.5">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B55">
         <v>5</v>
@@ -4117,19 +4109,19 @@
       <c r="C55" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>106</v>
+      <c r="D55" s="8" t="s">
+        <v>408</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F55" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="82.5">
+    <row r="56" spans="1:6" ht="99">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B56">
         <v>5</v>
@@ -4138,10 +4130,10 @@
         <v>9</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>408</v>
+        <v>111</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F56" t="s">
         <v>299</v>
@@ -4149,19 +4141,19 @@
     </row>
     <row r="57" spans="1:6" ht="99">
       <c r="A57" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B57">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C57" t="s">
         <v>9</v>
       </c>
-      <c r="D57" s="8" t="s">
-        <v>111</v>
+      <c r="D57" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F57" t="s">
         <v>299</v>
@@ -4169,39 +4161,39 @@
     </row>
     <row r="58" spans="1:6" ht="99">
       <c r="A58" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>117</v>
+        <v>336</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>118</v>
+        <v>337</v>
       </c>
       <c r="F58" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="99">
+    <row r="59" spans="1:6" ht="82.5">
       <c r="A59" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B59">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C59" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>336</v>
+        <v>151</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>337</v>
+        <v>152</v>
       </c>
       <c r="F59" t="s">
         <v>299</v>
@@ -4209,39 +4201,39 @@
     </row>
     <row r="60" spans="1:6" ht="82.5">
       <c r="A60" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>152</v>
+        <v>232</v>
       </c>
       <c r="F60" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="82.5">
+    <row r="61" spans="1:6" ht="99">
       <c r="A61" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B61">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>232</v>
+        <v>125</v>
       </c>
       <c r="F61" t="s">
         <v>299</v>
@@ -4249,19 +4241,19 @@
     </row>
     <row r="62" spans="1:6" ht="99">
       <c r="A62" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="B62">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="C62" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F62" t="s">
         <v>299</v>
@@ -4269,39 +4261,39 @@
     </row>
     <row r="63" spans="1:6" ht="99">
       <c r="A63" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="B63">
-        <v>10.5</v>
+        <v>3</v>
       </c>
       <c r="C63" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>128</v>
+      <c r="D63" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F63" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="99">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E64" t="s">
+        <v>11</v>
       </c>
       <c r="F64" t="s">
         <v>299</v>
@@ -4309,16 +4301,16 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>137</v>
+        <v>322</v>
       </c>
       <c r="B65">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C65" t="s">
         <v>136</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>140</v>
+        <v>331</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
@@ -4329,16 +4321,16 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
         <v>136</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
@@ -4349,7 +4341,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B67">
         <v>9</v>
@@ -4358,7 +4350,7 @@
         <v>136</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
@@ -4367,41 +4359,41 @@
         <v>299</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" ht="99">
       <c r="A68" t="s">
-        <v>351</v>
+        <v>262</v>
       </c>
       <c r="B68">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F68" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>138</v>
+      </c>
+      <c r="B69">
+        <v>6</v>
+      </c>
+      <c r="C69" t="s">
         <v>136</v>
       </c>
-      <c r="D68" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="D69" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E69" t="s">
         <v>11</v>
-      </c>
-      <c r="F68" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="99">
-      <c r="A69" t="s">
-        <v>262</v>
-      </c>
-      <c r="B69">
-        <v>3</v>
-      </c>
-      <c r="C69" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="F69" t="s">
         <v>299</v>
@@ -4409,16 +4401,16 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B70">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>136</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
@@ -4429,16 +4421,16 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>139</v>
+        <v>274</v>
       </c>
       <c r="B71">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
         <v>136</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>141</v>
+        <v>332</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
@@ -4447,21 +4439,21 @@
         <v>299</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" ht="99">
       <c r="A72" t="s">
-        <v>274</v>
+        <v>162</v>
       </c>
       <c r="B72">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>136</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="E72" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F72" t="s">
         <v>299</v>
@@ -4469,7 +4461,7 @@
     </row>
     <row r="73" spans="1:6" ht="99">
       <c r="A73" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B73">
         <v>4</v>
@@ -4478,10 +4470,10 @@
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F73" t="s">
         <v>299</v>
@@ -4489,19 +4481,19 @@
     </row>
     <row r="74" spans="1:6" ht="99">
       <c r="A74" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B74">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C74" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F74" t="s">
         <v>299</v>
@@ -4509,19 +4501,19 @@
     </row>
     <row r="75" spans="1:6" ht="99">
       <c r="A75" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B75">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
         <v>9</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>167</v>
+      <c r="D75" s="8" t="s">
+        <v>273</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F75" t="s">
         <v>299</v>
@@ -4529,59 +4521,59 @@
     </row>
     <row r="76" spans="1:6" ht="99">
       <c r="A76" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B76">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
         <v>9</v>
       </c>
-      <c r="D76" s="8" t="s">
-        <v>273</v>
+      <c r="D76" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F76" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="99">
+    <row r="77" spans="1:6" ht="82.5">
       <c r="A77" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B77">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C77" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>174</v>
+        <v>270</v>
       </c>
       <c r="F77" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="82.5">
+    <row r="78" spans="1:6" ht="99">
       <c r="A78" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B78">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>229</v>
+        <v>177</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>270</v>
+        <v>178</v>
       </c>
       <c r="F78" t="s">
         <v>299</v>
@@ -4589,19 +4581,19 @@
     </row>
     <row r="79" spans="1:6" ht="99">
       <c r="A79" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B79">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C79" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F79" t="s">
         <v>299</v>
@@ -4609,19 +4601,19 @@
     </row>
     <row r="80" spans="1:6" ht="99">
       <c r="A80" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B80">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F80" t="s">
         <v>299</v>
@@ -4629,19 +4621,19 @@
     </row>
     <row r="81" spans="1:6" ht="99">
       <c r="A81" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B81">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>9</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>182</v>
+      <c r="D81" s="7" t="s">
+        <v>185</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F81" t="s">
         <v>299</v>
@@ -4649,119 +4641,119 @@
     </row>
     <row r="82" spans="1:6" ht="99">
       <c r="A82" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B82">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>9</v>
       </c>
-      <c r="D82" s="7" t="s">
-        <v>185</v>
+      <c r="D82" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F82" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="99">
+    <row r="83" spans="1:6" ht="82.5">
       <c r="A83" t="s">
-        <v>189</v>
+        <v>341</v>
       </c>
       <c r="B83">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>9</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>191</v>
+      <c r="D83" s="8" t="s">
+        <v>375</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>190</v>
+        <v>296</v>
       </c>
       <c r="F83" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="82.5">
+    <row r="84" spans="1:6" ht="99">
       <c r="A84" t="s">
-        <v>341</v>
+        <v>192</v>
       </c>
       <c r="B84">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C84" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="8" t="s">
-        <v>375</v>
+      <c r="D84" s="10" t="s">
+        <v>457</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>296</v>
+        <v>456</v>
       </c>
       <c r="F84" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="99">
+    <row r="85" spans="1:6" ht="82.5">
       <c r="A85" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B85">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F85" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="99">
+      <c r="A86" t="s">
+        <v>196</v>
+      </c>
+      <c r="B86">
         <v>4</v>
       </c>
-      <c r="C85" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="F85" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="82.5">
-      <c r="A86" t="s">
-        <v>193</v>
-      </c>
-      <c r="B86">
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F86" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="82.5">
+      <c r="A87" t="s">
+        <v>233</v>
+      </c>
+      <c r="B87">
         <v>3</v>
       </c>
-      <c r="C86" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="F86" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="99">
-      <c r="A87" t="s">
-        <v>196</v>
-      </c>
-      <c r="B87">
-        <v>4</v>
-      </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>236</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>194</v>
+        <v>395</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>195</v>
+        <v>396</v>
       </c>
       <c r="F87" t="s">
         <v>299</v>
@@ -4769,79 +4761,79 @@
     </row>
     <row r="88" spans="1:6" ht="82.5">
       <c r="A88" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="B88">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>236</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>395</v>
+        <v>197</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>396</v>
+        <v>198</v>
       </c>
       <c r="F88" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="82.5">
+    <row r="89" spans="1:6" ht="99">
       <c r="A89" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B89">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F89" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="82.5">
+      <c r="A90" t="s">
+        <v>235</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F90" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="99">
+      <c r="A91" t="s">
+        <v>205</v>
+      </c>
+      <c r="B91">
         <v>5</v>
       </c>
-      <c r="C89" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F89" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="99">
-      <c r="A90" t="s">
-        <v>200</v>
-      </c>
-      <c r="B90">
-        <v>7</v>
-      </c>
-      <c r="C90" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F90" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="82.5">
-      <c r="A91" t="s">
-        <v>235</v>
-      </c>
-      <c r="B91">
-        <v>2</v>
-      </c>
       <c r="C91" t="s">
         <v>9</v>
       </c>
-      <c r="D91" s="8" t="s">
-        <v>269</v>
+      <c r="D91" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F91" t="s">
         <v>299</v>
@@ -4849,7 +4841,7 @@
     </row>
     <row r="92" spans="1:6" ht="99">
       <c r="A92" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B92">
         <v>5</v>
@@ -4858,10 +4850,10 @@
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F92" t="s">
         <v>299</v>
@@ -4869,19 +4861,19 @@
     </row>
     <row r="93" spans="1:6" ht="99">
       <c r="A93" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B93">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C93" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="F93" t="s">
         <v>299</v>
@@ -4889,19 +4881,19 @@
     </row>
     <row r="94" spans="1:6" ht="99">
       <c r="A94" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B94">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>230</v>
+        <v>320</v>
       </c>
       <c r="F94" t="s">
         <v>299</v>
@@ -4909,59 +4901,59 @@
     </row>
     <row r="95" spans="1:6" ht="99">
       <c r="A95" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B95">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>213</v>
+        <v>421</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>320</v>
+        <v>390</v>
       </c>
       <c r="F95" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="99">
+    <row r="96" spans="1:6" ht="82.5">
       <c r="A96" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B96">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="F96" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="82.5">
+    <row r="97" spans="1:6" ht="99">
       <c r="A97" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="B97">
-        <v>6</v>
+        <v>0.9</v>
       </c>
       <c r="C97" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>416</v>
+        <v>217</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>415</v>
+        <v>218</v>
       </c>
       <c r="F97" t="s">
         <v>299</v>
@@ -4969,19 +4961,19 @@
     </row>
     <row r="98" spans="1:6" ht="99">
       <c r="A98" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="B98">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="C98" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F98" t="s">
         <v>299</v>
@@ -4989,19 +4981,19 @@
     </row>
     <row r="99" spans="1:6" ht="99">
       <c r="A99" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B99">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C99" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F99" t="s">
         <v>299</v>
@@ -5009,19 +5001,19 @@
     </row>
     <row r="100" spans="1:6" ht="99">
       <c r="A100" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B100">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
         <v>9</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>222</v>
+      <c r="D100" s="8" t="s">
+        <v>394</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>223</v>
+        <v>393</v>
       </c>
       <c r="F100" t="s">
         <v>299</v>
@@ -5029,19 +5021,19 @@
     </row>
     <row r="101" spans="1:6" ht="99">
       <c r="A101" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B101">
-        <v>7</v>
+        <v>1.7</v>
       </c>
       <c r="C101" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>394</v>
+        <v>228</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>393</v>
+        <v>226</v>
       </c>
       <c r="F101" t="s">
         <v>299</v>
@@ -5049,59 +5041,59 @@
     </row>
     <row r="102" spans="1:6" ht="99">
       <c r="A102" t="s">
-        <v>227</v>
+        <v>312</v>
       </c>
       <c r="B102">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>228</v>
+        <v>310</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>226</v>
+        <v>311</v>
       </c>
       <c r="F102" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="99">
+    <row r="103" spans="1:6" ht="49.5">
       <c r="A103" t="s">
-        <v>312</v>
+        <v>237</v>
       </c>
       <c r="B103">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="C103" t="s">
-        <v>310</v>
+        <v>238</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>311</v>
+        <v>240</v>
       </c>
       <c r="F103" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="49.5">
+    <row r="104" spans="1:6" ht="99">
       <c r="A104" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B104">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
-        <v>238</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F104" t="s">
         <v>299</v>
@@ -5109,59 +5101,59 @@
     </row>
     <row r="105" spans="1:6" ht="99">
       <c r="A105" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B105">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C105" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F105" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="99">
+    <row r="106" spans="1:6" ht="66">
       <c r="A106" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B106">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="C106" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>246</v>
+        <v>392</v>
       </c>
       <c r="F106" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="66">
+    <row r="107" spans="1:6" ht="99">
       <c r="A107" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B107">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="C107" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>247</v>
+        <v>391</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F107" t="s">
         <v>299</v>
@@ -5169,19 +5161,19 @@
     </row>
     <row r="108" spans="1:6" ht="99">
       <c r="A108" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B108">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="C108" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>391</v>
+        <v>251</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="F108" t="s">
         <v>299</v>
@@ -5189,99 +5181,99 @@
     </row>
     <row r="109" spans="1:6" ht="99">
       <c r="A109" t="s">
-        <v>252</v>
+        <v>357</v>
       </c>
       <c r="B109">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>251</v>
+        <v>355</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>430</v>
+        <v>356</v>
       </c>
       <c r="F109" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="99">
+    <row r="110" spans="1:6" ht="82.5">
       <c r="A110" t="s">
-        <v>357</v>
+        <v>254</v>
       </c>
       <c r="B110">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>355</v>
+        <v>253</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>356</v>
+        <v>307</v>
       </c>
       <c r="F110" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="82.5">
+    <row r="111" spans="1:6" ht="99">
       <c r="A111" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B111">
+        <v>1.5</v>
+      </c>
+      <c r="C111" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F111" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="82.5">
+      <c r="A112" t="s">
+        <v>257</v>
+      </c>
+      <c r="B112">
         <v>8</v>
       </c>
-      <c r="C111" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="F111" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="99">
-      <c r="A112" t="s">
-        <v>255</v>
-      </c>
-      <c r="B112">
-        <v>1.5</v>
-      </c>
       <c r="C112" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>432</v>
+        <v>354</v>
       </c>
       <c r="F112" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="82.5">
+    <row r="113" spans="1:6" ht="99">
       <c r="A113" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B113">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>354</v>
+        <v>258</v>
       </c>
       <c r="F113" t="s">
         <v>299</v>
@@ -5289,7 +5281,7 @@
     </row>
     <row r="114" spans="1:6" ht="99">
       <c r="A114" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B114">
         <v>5</v>
@@ -5298,10 +5290,10 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="F114" t="s">
         <v>299</v>
@@ -5309,19 +5301,19 @@
     </row>
     <row r="115" spans="1:6" ht="99">
       <c r="A115" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B115">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C115" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>265</v>
+        <v>458</v>
       </c>
       <c r="F115" t="s">
         <v>299</v>
@@ -5329,19 +5321,19 @@
     </row>
     <row r="116" spans="1:6" ht="99">
       <c r="A116" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B116">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C116" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>458</v>
+        <v>283</v>
       </c>
       <c r="F116" t="s">
         <v>299</v>
@@ -5349,19 +5341,19 @@
     </row>
     <row r="117" spans="1:6" ht="99">
       <c r="A117" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B117">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F117" t="s">
         <v>299</v>
@@ -5369,7 +5361,7 @@
     </row>
     <row r="118" spans="1:6" ht="99">
       <c r="A118" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B118">
         <v>5</v>
@@ -5378,10 +5370,10 @@
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="F118" t="s">
         <v>299</v>
@@ -5389,19 +5381,19 @@
     </row>
     <row r="119" spans="1:6" ht="99">
       <c r="A119" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B119">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>280</v>
+        <v>407</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F119" t="s">
         <v>299</v>
@@ -5409,19 +5401,19 @@
     </row>
     <row r="120" spans="1:6" ht="99">
       <c r="A120" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="B120">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
         <v>9</v>
       </c>
-      <c r="D120" s="2" t="s">
-        <v>407</v>
+      <c r="D120" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="F120" t="s">
         <v>299</v>
@@ -5429,19 +5421,19 @@
     </row>
     <row r="121" spans="1:6" ht="99">
       <c r="A121" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B121">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C121" t="s">
         <v>9</v>
       </c>
-      <c r="D121" s="8" t="s">
-        <v>308</v>
+      <c r="D121" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F121" t="s">
         <v>299</v>
@@ -5449,99 +5441,99 @@
     </row>
     <row r="122" spans="1:6" ht="99">
       <c r="A122" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B122">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
         <v>9</v>
       </c>
-      <c r="D122" s="2" t="s">
-        <v>292</v>
+      <c r="D122" s="8" t="s">
+        <v>381</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F122" t="s">
-        <v>299</v>
+        <v>309</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="99">
       <c r="A123" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="B123">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>9</v>
       </c>
-      <c r="D123" s="8" t="s">
-        <v>381</v>
+      <c r="D123" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="F123" s="9" t="s">
-        <v>398</v>
+        <v>372</v>
+      </c>
+      <c r="F123" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="99">
       <c r="A124" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="B124">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>372</v>
+        <v>303</v>
       </c>
       <c r="F124" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="99">
+    <row r="125" spans="1:6" ht="82.5">
       <c r="A125" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B125">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C125" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>303</v>
+        <v>424</v>
       </c>
       <c r="F125" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="82.5">
+    <row r="126" spans="1:6" ht="99">
       <c r="A126" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="B126">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C126" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>424</v>
+        <v>314</v>
       </c>
       <c r="F126" t="s">
         <v>299</v>
@@ -5549,59 +5541,59 @@
     </row>
     <row r="127" spans="1:6" ht="99">
       <c r="A127" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B127">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
         <v>9</v>
       </c>
-      <c r="D127" s="2" t="s">
-        <v>316</v>
+      <c r="D127" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="F127" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="99">
+    <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B128">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>319</v>
+        <v>136</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E128" t="s">
+        <v>11</v>
       </c>
       <c r="F128" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" ht="99">
       <c r="A129" t="s">
-        <v>326</v>
+        <v>428</v>
       </c>
       <c r="B129">
         <v>5</v>
       </c>
       <c r="C129" t="s">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="E129" t="s">
-        <v>11</v>
+        <v>429</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>462</v>
       </c>
       <c r="F129" t="s">
         <v>299</v>
@@ -5609,7 +5601,7 @@
     </row>
     <row r="130" spans="1:6" ht="99">
       <c r="A130" t="s">
-        <v>428</v>
+        <v>327</v>
       </c>
       <c r="B130">
         <v>5</v>
@@ -5618,10 +5610,10 @@
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>429</v>
+        <v>328</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>462</v>
+        <v>329</v>
       </c>
       <c r="F130" t="s">
         <v>299</v>
@@ -5629,19 +5621,19 @@
     </row>
     <row r="131" spans="1:6" ht="99">
       <c r="A131" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B131">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F131" t="s">
         <v>299</v>
@@ -5649,79 +5641,79 @@
     </row>
     <row r="132" spans="1:6" ht="99">
       <c r="A132" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B132">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C132" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="F132" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="99">
+    <row r="133" spans="1:6" ht="67.5">
       <c r="A133" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B133">
-        <v>4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C133" t="s">
         <v>9</v>
       </c>
-      <c r="D133" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>338</v>
+      <c r="D133" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>345</v>
       </c>
       <c r="F133" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="67.5">
+    <row r="134" spans="1:6" ht="82.5">
       <c r="A134" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B134">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="C134" t="s">
         <v>9</v>
       </c>
-      <c r="D134" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>345</v>
+      <c r="D134" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="F134" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="82.5">
+    <row r="135" spans="1:6" ht="99">
       <c r="A135" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="B135">
-        <v>1.3</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="F135" t="s">
         <v>299</v>
@@ -5729,67 +5721,67 @@
     </row>
     <row r="136" spans="1:6" ht="99">
       <c r="A136" t="s">
-        <v>358</v>
+        <v>127</v>
       </c>
       <c r="B136">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C136" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F136" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="99">
+    <row r="137" spans="1:6" ht="82.5">
       <c r="A137" t="s">
-        <v>127</v>
+        <v>366</v>
       </c>
       <c r="B137">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F137" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="82.5">
+    <row r="138" spans="1:6" ht="148.5">
       <c r="A138" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B138">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="F138" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="148.5">
+    <row r="139" spans="1:6" ht="99">
       <c r="A139" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B139">
         <v>5</v>
@@ -5798,10 +5790,10 @@
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>374</v>
+        <v>436</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>373</v>
+        <v>437</v>
       </c>
       <c r="F139" t="s">
         <v>299</v>
@@ -5809,7 +5801,7 @@
     </row>
     <row r="140" spans="1:6" ht="99">
       <c r="A140" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B140">
         <v>5</v>
@@ -5818,10 +5810,10 @@
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>436</v>
+        <v>370</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>437</v>
+        <v>369</v>
       </c>
       <c r="F140" t="s">
         <v>299</v>
@@ -5829,19 +5821,19 @@
     </row>
     <row r="141" spans="1:6" ht="99">
       <c r="A141" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="B141">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C141" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F141" t="s">
         <v>299</v>
@@ -5849,19 +5841,19 @@
     </row>
     <row r="142" spans="1:6" ht="99">
       <c r="A142" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B142">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C142" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="F142" t="s">
         <v>299</v>
@@ -5869,39 +5861,39 @@
     </row>
     <row r="143" spans="1:6" ht="99">
       <c r="A143" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="B143">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="F143" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="99">
+    <row r="144" spans="1:6" ht="82.5">
       <c r="A144" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="B144">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="C144" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="F144" t="s">
         <v>299</v>
@@ -5909,19 +5901,19 @@
     </row>
     <row r="145" spans="1:6" ht="82.5">
       <c r="A145" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B145">
-        <v>7.2</v>
+        <v>1.6</v>
       </c>
       <c r="C145" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="F145" t="s">
         <v>299</v>
@@ -5929,39 +5921,39 @@
     </row>
     <row r="146" spans="1:6" ht="82.5">
       <c r="A146" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B146">
-        <v>1.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C146" t="s">
         <v>9</v>
       </c>
-      <c r="D146" s="2" t="s">
-        <v>404</v>
+      <c r="D146" s="8" t="s">
+        <v>450</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>402</v>
+        <v>451</v>
       </c>
       <c r="F146" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="82.5">
+    <row r="147" spans="1:6" ht="99">
       <c r="A147" t="s">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="B147">
-        <v>2.2000000000000002</v>
+        <v>4</v>
       </c>
       <c r="C147" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
       <c r="F147" t="s">
         <v>299</v>
@@ -5969,19 +5961,19 @@
     </row>
     <row r="148" spans="1:6" ht="99">
       <c r="A148" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="B148">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
         <v>9</v>
       </c>
-      <c r="D148" s="8" t="s">
-        <v>426</v>
+      <c r="D148" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="F148" t="s">
         <v>299</v>
@@ -5989,19 +5981,19 @@
     </row>
     <row r="149" spans="1:6" ht="99">
       <c r="A149" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B149">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="F149" t="s">
         <v>299</v>
@@ -6009,19 +6001,19 @@
     </row>
     <row r="150" spans="1:6" ht="99">
       <c r="A150" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B150">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="F150" t="s">
         <v>299</v>
@@ -6029,19 +6021,19 @@
     </row>
     <row r="151" spans="1:6" ht="99">
       <c r="A151" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="B151">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>442</v>
+        <v>390</v>
       </c>
       <c r="F151" t="s">
         <v>299</v>
@@ -6049,19 +6041,19 @@
     </row>
     <row r="152" spans="1:6" ht="99">
       <c r="A152" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B152">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C152" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>390</v>
+        <v>452</v>
       </c>
       <c r="F152" t="s">
         <v>299</v>
@@ -6069,41 +6061,21 @@
     </row>
     <row r="153" spans="1:6" ht="99">
       <c r="A153" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B153">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="C153" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="F153" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="99">
-      <c r="A154" t="s">
-        <v>459</v>
-      </c>
-      <c r="B154">
-        <v>3.9</v>
-      </c>
-      <c r="C154" t="s">
-        <v>9</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F154" t="s">
         <v>299</v>
       </c>
     </row>
@@ -6111,135 +6083,134 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D4" r:id="rId2" location="22H94G9AOV" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D18" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D20" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D28" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D41" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D26" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D27" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="D33" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D45" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D48" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="D50" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="D53" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="D55" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="D57" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="D7" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="D58" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="D60" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="D61" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="D62" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="D63" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="D47" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="D65" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="D70" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="D71" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="D29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="D14" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="D73" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="D74" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="D75" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="D77" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="D78" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="D79" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="D80" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="D81" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="D83" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D87" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D89" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D90" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="D19" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D92" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="D93" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="D94" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D95" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D98" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D99" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D100" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D102" r:id="rId50" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D104" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="D105" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D106" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="D107" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="D36" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D108" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D109" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D111" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D113" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="D114" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="D115" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="D116" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="D24" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="D91" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D117" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="D76" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="D16" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="D118" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="D119" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="D112" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="D34" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D122" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D124" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D125" r:id="rId74" xr:uid="{A16A5099-7DDF-4370-95B7-BE0B27B5431C}"/>
-    <hyperlink ref="D126" r:id="rId75" xr:uid="{708EF35E-20E2-4320-AADE-685E01E763F7}"/>
-    <hyperlink ref="D121" r:id="rId76" xr:uid="{FB61B29C-091A-4DDA-AE79-D04CD219E120}"/>
-    <hyperlink ref="D103" r:id="rId77" xr:uid="{ECA328F5-23A6-4DE4-B068-F02A7D98D168}"/>
-    <hyperlink ref="D127" r:id="rId78" xr:uid="{9AD90610-B454-4A84-8345-BC650F57996E}"/>
-    <hyperlink ref="D38" r:id="rId79" xr:uid="{93E22CFB-0916-4E6E-ACC3-EEAD067C806F}"/>
-    <hyperlink ref="D131" r:id="rId80" xr:uid="{B9A9083D-DAAC-4EB9-A1EF-8226D6CE0569}"/>
-    <hyperlink ref="D129" r:id="rId81" xr:uid="{7BB4446E-C399-4A10-A149-71E6F6C21625}"/>
-    <hyperlink ref="D66" r:id="rId82" xr:uid="{26848A2D-A2E9-4D35-A878-4E94AA4528CC}"/>
-    <hyperlink ref="D72" r:id="rId83" xr:uid="{4F6D0E3F-842E-4538-B42C-64D38060BB59}"/>
-    <hyperlink ref="D132" r:id="rId84" xr:uid="{302CF079-F4AA-41D6-A7B3-02085878B25C}"/>
-    <hyperlink ref="D59" r:id="rId85" xr:uid="{FFC2D208-AEF3-4089-93F4-56B6F4845C6D}"/>
-    <hyperlink ref="D133" r:id="rId86" xr:uid="{537861A6-5879-4590-973E-CAB8004B1F94}"/>
-    <hyperlink ref="D17" r:id="rId87" xr:uid="{09DC9E19-5EF7-447C-A207-F065EAABBA9E}"/>
-    <hyperlink ref="D135" r:id="rId88" xr:uid="{B0679566-FA54-444D-8C38-A9B1A78EA00B}"/>
-    <hyperlink ref="D110" r:id="rId89" xr:uid="{548C8289-7EC3-401B-8394-4658D1E44626}"/>
-    <hyperlink ref="D136" r:id="rId90" xr:uid="{68B8ABE4-7971-4B92-873E-57FB9E5E8E7B}"/>
-    <hyperlink ref="D68" r:id="rId91" xr:uid="{CE9629E1-6341-48A8-A515-14208ED02ACE}"/>
-    <hyperlink ref="D137" r:id="rId92" xr:uid="{7906C34E-95E6-4C1B-9565-B8B6F37DE732}"/>
-    <hyperlink ref="D138" r:id="rId93" xr:uid="{EE076CB7-11A0-4FF0-9825-6A412491927F}"/>
-    <hyperlink ref="D139" r:id="rId94" xr:uid="{155BFA89-2A1E-4E9B-9D34-97E8FE7BFBB8}"/>
-    <hyperlink ref="D141" r:id="rId95" xr:uid="{4B1CBD95-B37A-4E49-99CD-5B0FAFB1DD68}"/>
-    <hyperlink ref="D123" r:id="rId96" xr:uid="{933F49CC-7CBE-4246-BED0-85666C83AD9C}"/>
-    <hyperlink ref="D44" r:id="rId97" xr:uid="{44BF8FFF-EFEF-4626-91C2-16E5A0463084}"/>
-    <hyperlink ref="D84" r:id="rId98" xr:uid="{CFA38323-9624-4B72-BAD1-1DF28D103CC7}"/>
-    <hyperlink ref="D54" r:id="rId99" xr:uid="{027425D3-4104-4019-9C56-9619BD774590}"/>
-    <hyperlink ref="D142" r:id="rId100" xr:uid="{5E05232A-62B2-4A14-ABE0-B7C2FC8317E5}"/>
-    <hyperlink ref="D35" r:id="rId101" xr:uid="{E78167A9-C7BD-4913-A9BE-7D05FB372985}"/>
-    <hyperlink ref="D143" r:id="rId102" xr:uid="{A09AECAB-6573-4BCA-B75F-5029DC873CE5}"/>
-    <hyperlink ref="D21" r:id="rId103" xr:uid="{F0EA2884-0417-443D-ABC1-941CEB7EBB01}"/>
-    <hyperlink ref="D144" r:id="rId104" xr:uid="{3E967917-087B-4C24-883E-25347224DBDC}"/>
-    <hyperlink ref="D101" r:id="rId105" xr:uid="{EE590C67-17CF-44CB-8F7D-B042342203EE}"/>
-    <hyperlink ref="D88" r:id="rId106" xr:uid="{72BBC2F8-4E6F-4DFD-B837-9BFEBE7BA406}"/>
-    <hyperlink ref="D145" r:id="rId107" xr:uid="{0B4ECC27-EC91-4F95-82E0-FD9CDCD9A93F}"/>
-    <hyperlink ref="D146" r:id="rId108" xr:uid="{49B38CC6-2C17-4FEF-90C9-05FEFA135B41}"/>
-    <hyperlink ref="D40" r:id="rId109" xr:uid="{C2109FB0-C10E-4DCF-989E-E84149DE1EAC}"/>
-    <hyperlink ref="D120" r:id="rId110" xr:uid="{50BA8730-2B77-4DFA-A049-17427C1D7CC5}"/>
-    <hyperlink ref="D56" r:id="rId111" xr:uid="{C988080E-F4EB-46BF-AB72-D073DF5191B6}"/>
-    <hyperlink ref="D86" r:id="rId112" xr:uid="{3B941BCF-E75D-4DA8-8A44-527E84ED7297}"/>
-    <hyperlink ref="D25" r:id="rId113" xr:uid="{4CF61DDE-F761-41F1-A22D-2FF464DFA9A2}"/>
-    <hyperlink ref="D97" r:id="rId114" xr:uid="{F69F71F7-93FB-4517-A52D-2CB75FB91539}"/>
-    <hyperlink ref="D9" r:id="rId115" xr:uid="{AA062347-DE7E-42D9-B1FA-F6DBC67BC5A3}"/>
-    <hyperlink ref="D148" r:id="rId116" xr:uid="{03FCC17F-5E5A-4BB9-AB6F-E913ABCF9296}"/>
-    <hyperlink ref="D130" r:id="rId117" xr:uid="{341B611A-2A3E-4D76-979C-A6AC19CF8A2E}"/>
-    <hyperlink ref="D149" r:id="rId118" xr:uid="{B0BACB11-8EAB-444A-A367-89EF9AE91442}"/>
-    <hyperlink ref="D150" r:id="rId119" xr:uid="{8A3E3722-3D34-4679-8500-A153D053D8CE}"/>
-    <hyperlink ref="D151" r:id="rId120" xr:uid="{7FBFF53A-F5DE-4AA6-87C3-5F341F2A40D7}"/>
-    <hyperlink ref="D12" r:id="rId121" xr:uid="{C1015149-910B-4F41-82F6-2D476AB38D4A}"/>
-    <hyperlink ref="D52" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="D152" r:id="rId123" xr:uid="{FC1D08C5-4F0C-4164-B550-527FBA8746F5}"/>
-    <hyperlink ref="D147" r:id="rId124" xr:uid="{0B6EE4FC-BA87-471C-A9B5-08A00A4CB44A}"/>
-    <hyperlink ref="D153" r:id="rId125" xr:uid="{9F4AE395-14D3-4460-A23E-1FD2587F4682}"/>
-    <hyperlink ref="D154" r:id="rId126" xr:uid="{911C16E4-B9B3-4DBD-B406-5C0AFA70FE32}"/>
-    <hyperlink ref="D3" r:id="rId127" xr:uid="{94D81375-D6E4-4C2F-B8D0-C9DAF6D6E791}"/>
+    <hyperlink ref="D3" r:id="rId2" location="22H94G9AOV" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D17" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D19" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D27" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D40" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D25" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D26" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D32" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D44" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D47" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D49" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D52" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="D54" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D56" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="D6" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="D57" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D59" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="D60" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="D61" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="D62" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="D46" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="D64" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="D69" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="D70" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="D28" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="D13" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="D72" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="D73" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="D74" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="D76" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D77" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="D78" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="D79" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="D80" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="D82" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D86" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D88" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="D89" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D18" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D91" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="D92" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="D93" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D94" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D97" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D98" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D99" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D101" r:id="rId50" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D103" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="D104" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D105" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="D106" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="D35" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D107" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D108" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D110" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D112" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D113" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="D114" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="D115" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="D23" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="D90" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D116" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="D75" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="D15" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="D117" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="D118" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="D111" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="D33" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D121" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D123" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D124" r:id="rId74" xr:uid="{A16A5099-7DDF-4370-95B7-BE0B27B5431C}"/>
+    <hyperlink ref="D125" r:id="rId75" xr:uid="{708EF35E-20E2-4320-AADE-685E01E763F7}"/>
+    <hyperlink ref="D120" r:id="rId76" xr:uid="{FB61B29C-091A-4DDA-AE79-D04CD219E120}"/>
+    <hyperlink ref="D102" r:id="rId77" xr:uid="{ECA328F5-23A6-4DE4-B068-F02A7D98D168}"/>
+    <hyperlink ref="D126" r:id="rId78" xr:uid="{9AD90610-B454-4A84-8345-BC650F57996E}"/>
+    <hyperlink ref="D37" r:id="rId79" xr:uid="{93E22CFB-0916-4E6E-ACC3-EEAD067C806F}"/>
+    <hyperlink ref="D130" r:id="rId80" xr:uid="{B9A9083D-DAAC-4EB9-A1EF-8226D6CE0569}"/>
+    <hyperlink ref="D128" r:id="rId81" xr:uid="{7BB4446E-C399-4A10-A149-71E6F6C21625}"/>
+    <hyperlink ref="D65" r:id="rId82" xr:uid="{26848A2D-A2E9-4D35-A878-4E94AA4528CC}"/>
+    <hyperlink ref="D71" r:id="rId83" xr:uid="{4F6D0E3F-842E-4538-B42C-64D38060BB59}"/>
+    <hyperlink ref="D131" r:id="rId84" xr:uid="{302CF079-F4AA-41D6-A7B3-02085878B25C}"/>
+    <hyperlink ref="D58" r:id="rId85" xr:uid="{FFC2D208-AEF3-4089-93F4-56B6F4845C6D}"/>
+    <hyperlink ref="D132" r:id="rId86" xr:uid="{537861A6-5879-4590-973E-CAB8004B1F94}"/>
+    <hyperlink ref="D16" r:id="rId87" xr:uid="{09DC9E19-5EF7-447C-A207-F065EAABBA9E}"/>
+    <hyperlink ref="D134" r:id="rId88" xr:uid="{B0679566-FA54-444D-8C38-A9B1A78EA00B}"/>
+    <hyperlink ref="D109" r:id="rId89" xr:uid="{548C8289-7EC3-401B-8394-4658D1E44626}"/>
+    <hyperlink ref="D135" r:id="rId90" xr:uid="{68B8ABE4-7971-4B92-873E-57FB9E5E8E7B}"/>
+    <hyperlink ref="D67" r:id="rId91" xr:uid="{CE9629E1-6341-48A8-A515-14208ED02ACE}"/>
+    <hyperlink ref="D136" r:id="rId92" xr:uid="{7906C34E-95E6-4C1B-9565-B8B6F37DE732}"/>
+    <hyperlink ref="D137" r:id="rId93" xr:uid="{EE076CB7-11A0-4FF0-9825-6A412491927F}"/>
+    <hyperlink ref="D138" r:id="rId94" xr:uid="{155BFA89-2A1E-4E9B-9D34-97E8FE7BFBB8}"/>
+    <hyperlink ref="D140" r:id="rId95" xr:uid="{4B1CBD95-B37A-4E49-99CD-5B0FAFB1DD68}"/>
+    <hyperlink ref="D122" r:id="rId96" xr:uid="{933F49CC-7CBE-4246-BED0-85666C83AD9C}"/>
+    <hyperlink ref="D43" r:id="rId97" xr:uid="{44BF8FFF-EFEF-4626-91C2-16E5A0463084}"/>
+    <hyperlink ref="D83" r:id="rId98" xr:uid="{CFA38323-9624-4B72-BAD1-1DF28D103CC7}"/>
+    <hyperlink ref="D53" r:id="rId99" xr:uid="{027425D3-4104-4019-9C56-9619BD774590}"/>
+    <hyperlink ref="D141" r:id="rId100" xr:uid="{5E05232A-62B2-4A14-ABE0-B7C2FC8317E5}"/>
+    <hyperlink ref="D34" r:id="rId101" xr:uid="{E78167A9-C7BD-4913-A9BE-7D05FB372985}"/>
+    <hyperlink ref="D142" r:id="rId102" xr:uid="{A09AECAB-6573-4BCA-B75F-5029DC873CE5}"/>
+    <hyperlink ref="D20" r:id="rId103" xr:uid="{F0EA2884-0417-443D-ABC1-941CEB7EBB01}"/>
+    <hyperlink ref="D143" r:id="rId104" xr:uid="{3E967917-087B-4C24-883E-25347224DBDC}"/>
+    <hyperlink ref="D100" r:id="rId105" xr:uid="{EE590C67-17CF-44CB-8F7D-B042342203EE}"/>
+    <hyperlink ref="D87" r:id="rId106" xr:uid="{72BBC2F8-4E6F-4DFD-B837-9BFEBE7BA406}"/>
+    <hyperlink ref="D144" r:id="rId107" xr:uid="{0B4ECC27-EC91-4F95-82E0-FD9CDCD9A93F}"/>
+    <hyperlink ref="D145" r:id="rId108" xr:uid="{49B38CC6-2C17-4FEF-90C9-05FEFA135B41}"/>
+    <hyperlink ref="D39" r:id="rId109" xr:uid="{C2109FB0-C10E-4DCF-989E-E84149DE1EAC}"/>
+    <hyperlink ref="D119" r:id="rId110" xr:uid="{50BA8730-2B77-4DFA-A049-17427C1D7CC5}"/>
+    <hyperlink ref="D55" r:id="rId111" xr:uid="{C988080E-F4EB-46BF-AB72-D073DF5191B6}"/>
+    <hyperlink ref="D85" r:id="rId112" xr:uid="{3B941BCF-E75D-4DA8-8A44-527E84ED7297}"/>
+    <hyperlink ref="D24" r:id="rId113" xr:uid="{4CF61DDE-F761-41F1-A22D-2FF464DFA9A2}"/>
+    <hyperlink ref="D96" r:id="rId114" xr:uid="{F69F71F7-93FB-4517-A52D-2CB75FB91539}"/>
+    <hyperlink ref="D8" r:id="rId115" xr:uid="{AA062347-DE7E-42D9-B1FA-F6DBC67BC5A3}"/>
+    <hyperlink ref="D147" r:id="rId116" xr:uid="{03FCC17F-5E5A-4BB9-AB6F-E913ABCF9296}"/>
+    <hyperlink ref="D129" r:id="rId117" xr:uid="{341B611A-2A3E-4D76-979C-A6AC19CF8A2E}"/>
+    <hyperlink ref="D148" r:id="rId118" xr:uid="{B0BACB11-8EAB-444A-A367-89EF9AE91442}"/>
+    <hyperlink ref="D149" r:id="rId119" xr:uid="{8A3E3722-3D34-4679-8500-A153D053D8CE}"/>
+    <hyperlink ref="D150" r:id="rId120" xr:uid="{7FBFF53A-F5DE-4AA6-87C3-5F341F2A40D7}"/>
+    <hyperlink ref="D11" r:id="rId121" xr:uid="{C1015149-910B-4F41-82F6-2D476AB38D4A}"/>
+    <hyperlink ref="D51" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D151" r:id="rId123" xr:uid="{FC1D08C5-4F0C-4164-B550-527FBA8746F5}"/>
+    <hyperlink ref="D146" r:id="rId124" xr:uid="{0B6EE4FC-BA87-471C-A9B5-08A00A4CB44A}"/>
+    <hyperlink ref="D152" r:id="rId125" xr:uid="{9F4AE395-14D3-4460-A23E-1FD2587F4682}"/>
+    <hyperlink ref="D153" r:id="rId126" xr:uid="{911C16E4-B9B3-4DBD-B406-5C0AFA70FE32}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId128"/>
-  <legacyDrawing r:id="rId129"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId127"/>
+  <legacyDrawing r:id="rId128"/>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new_news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93B6659-ED16-4192-89FB-DDBAF0EF5ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFFA851-6B51-484B-9554-211ADE15A78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="1020" windowWidth="37605" windowHeight="19185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1230" windowWidth="37605" windowHeight="19185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -313,31 +313,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.nbntv.co.kr/news/articleList.html?view_type=sm</t>
-  </si>
-  <si>
-    <t>url_list = soup.select("#section-list ul li")[:5];
-url_list = ["http://www.nbntv.co.kr" + i.select_one("a")["href"] for i in url_list];
-title_list = soup.select("#section-list ul li h2.titles")[:5];
-title_list = [i.text.strip() for i in title_list];
-body_list = soup.select("#section-list ul li p.lead")[:5];
-body_list = [i.text.strip() for i in body_list];</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.polinews.co.kr/news/articleList.html?view_type=sm</t>
-  </si>
-  <si>
     <t>폴리뉴스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url_list = soup.select("#section-list ul li")[:5];
-url_list = ["https://www.polinews.co.kr" + i.select_one("a")["href"] for i in url_list];
-title_list = soup.select("#section-list ul li h4.titles")[:5];
-title_list = [i.text.strip() for i in title_list];
-body_list = soup.select("#section-list ul li p.lead")[:5];
-body_list = [i.text.strip() for i in body_list];</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1782,19 +1758,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>url_list = soup.select("#section-list ul.type2 li")[:5];
-url_list = ["https://www.nbntv.co.kr" + i.select_one("a")["href"]for i in url_list];
-title_list = soup.select("#section-list ul.type2 li h2.titles")[:5];
-title_list = [i.text.strip() for i in title_list];
-body_list = soup.select("#section-list ul.type2 li p")[:5];
-body_list = [i.text.strip() for i in body_list];</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.nbntv.co.kr/news/articleList.html?view_type=sm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>노컷뉴스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2185,18 +2148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://m.newsprime.co.kr/search.html?search_text=%EA%B8%B0%EC%9E%90&amp;x=0&amp;y=0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url_list = soup.select("div.headline div.article_box_sl_section div.title_text")[:5];
-url_list = ["https://m.newsprime.co.kr/" + i.select_one("a")["href"] for i in url_list];
-title_list = soup.select("div.headline div.article_box_sl_section div.title_text")[:5];
-title_list = [i.text.strip() for i in title_list];
-body_list = ["" for i in range(5)];</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.cstimes.com/news/articleList.html?sc_order_by=E&amp;view_type=sm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2582,6 +2533,56 @@
 body_list = soup.select("#section-list ul li p.lead")[:5];
 body_list = [i.text.strip() for i in body_list];</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.nbntv.co.kr/news/articleList.html?view_type=sm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_list = soup.select("#section-list ul li")[:5];
+url_list = [i.select_one("a")["href"] for i in url_list];
+title_list = soup.select("#section-list ul li h2")[:5];
+title_list = [i.text.strip() for i in title_list];
+body_list = soup.select("#section-list ul li p")[:5];
+body_list = [i.text.strip() for i in body_list];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.nbnews.kr/news/articleList.html?view_type=sm</t>
+  </si>
+  <si>
+    <t>url_list = soup.select("#section-list ul.type2 li")[:5];
+url_list = ["https://www.nbnews.kr" + i.select_one("a")["href"]for i in url_list];
+title_list = soup.select("#section-list ul.type2 li h4.titles")[:5];
+title_list = [i.text.strip() for i in title_list];
+body_list = soup.select("#section-list ul.type2 li p")[:5];
+body_list = [i.text.strip() for i in body_list];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.polinews.co.kr/news/articleList.html?view_type=sm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_list = soup.select("#section-list ul li")[:5];
+url_list = ["https://www.polinews.co.kr" + i.select_one("a")["href"] for i in url_list];
+title_list = soup.select("#section-list ul li h4")[:5];
+title_list = [i.text.strip() for i in title_list];
+body_list = soup.select("#section-list ul li p")[:5];
+body_list = [i.text.strip() for i in body_list];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_list = soup.select("div.c011_sr2 div.rt div.list_tt")[:5];
+url_list = ["https://www.newsprime.co.kr/news/" + i.select_one("a")["href"].replace(".html","/") for i in url_list];
+title_list = soup.select("div.c011_sr2 div.rt div.list_tt")[:5];
+title_list = ["[$$프라임]"+i.text.strip() for i in title_list];
+body_list = soup.select("div.c011_sr2 div.rt div.list_ar")[:5];
+body_list = [i.text.strip() for i in body_list];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.newsprime.co.kr/news/search_result.html?search=%EA%B8%B0%EC%9E%90&amp;x=0&amp;y=0</t>
   </si>
 </sst>
 </file>
@@ -3007,8 +3008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3036,7 +3037,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3050,18 +3051,18 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="99">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -3073,10 +3074,10 @@
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="99">
@@ -3093,15 +3094,15 @@
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="104.25" customHeight="1">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B5">
         <v>7</v>
@@ -3116,7 +3117,7 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="81">
@@ -3130,13 +3131,13 @@
         <v>9</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="81">
@@ -3156,7 +3157,7 @@
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="81">
@@ -3170,13 +3171,13 @@
         <v>9</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="F8" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="81">
@@ -3190,13 +3191,13 @@
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F9" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="81">
@@ -3216,7 +3217,7 @@
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="99">
@@ -3230,13 +3231,13 @@
         <v>9</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="F11" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="99">
@@ -3256,12 +3257,12 @@
         <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="99">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -3270,13 +3271,13 @@
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F13" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="99">
@@ -3296,7 +3297,7 @@
         <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="99">
@@ -3310,13 +3311,13 @@
         <v>9</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="F15" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="99">
@@ -3330,13 +3331,13 @@
         <v>9</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F16" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="99">
@@ -3356,7 +3357,7 @@
         <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="99">
@@ -3370,13 +3371,13 @@
         <v>9</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="99">
@@ -3396,7 +3397,7 @@
         <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="99">
@@ -3404,19 +3405,19 @@
         <v>43</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>398</v>
+      <c r="F20" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="99">
@@ -3429,39 +3430,39 @@
       <c r="C21" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>46</v>
+      <c r="D21" s="8" t="s">
+        <v>455</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>47</v>
+        <v>456</v>
       </c>
       <c r="F21" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="99">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>48</v>
+      <c r="D22" s="8" t="s">
+        <v>459</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>50</v>
+        <v>460</v>
       </c>
       <c r="F22" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="82.5">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B23">
         <v>9</v>
@@ -3470,18 +3471,18 @@
         <v>9</v>
       </c>
       <c r="D23" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="F23" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="99">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -3490,18 +3491,18 @@
         <v>9</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F24" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="82.5">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B25">
         <v>6</v>
@@ -3510,18 +3511,18 @@
         <v>9</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F25" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="99">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -3530,18 +3531,18 @@
         <v>9</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F26" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="82.5">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -3550,18 +3551,18 @@
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F27" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="99">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -3570,18 +3571,18 @@
         <v>9</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F28" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="82.5">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -3590,18 +3591,18 @@
         <v>9</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F29" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="99">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B30">
         <v>6</v>
@@ -3610,18 +3611,18 @@
         <v>9</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="81">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B31">
         <v>8</v>
@@ -3630,18 +3631,18 @@
         <v>9</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F31" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="81">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B32">
         <v>9</v>
@@ -3650,18 +3651,18 @@
         <v>9</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F32" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="81">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B33">
         <v>8</v>
@@ -3670,18 +3671,18 @@
         <v>9</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F33" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="81">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B34">
         <v>7</v>
@@ -3690,18 +3691,18 @@
         <v>9</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="F34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="81">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B35">
         <v>5</v>
@@ -3710,18 +3711,18 @@
         <v>9</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F35" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="99">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B36">
         <v>12</v>
@@ -3730,18 +3731,18 @@
         <v>9</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F36" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="99">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B37">
         <v>7</v>
@@ -3750,18 +3751,18 @@
         <v>9</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>324</v>
+        <v>457</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>323</v>
+        <v>458</v>
       </c>
       <c r="F37" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="99">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B38">
         <v>12</v>
@@ -3770,18 +3771,18 @@
         <v>9</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F38" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="99">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B39">
         <v>8</v>
@@ -3790,18 +3791,18 @@
         <v>9</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F39" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="99">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B40">
         <v>11</v>
@@ -3810,18 +3811,18 @@
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="99">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -3830,18 +3831,18 @@
         <v>9</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F41" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="99">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B42">
         <v>6</v>
@@ -3850,18 +3851,18 @@
         <v>9</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="99">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B43">
         <v>7</v>
@@ -3870,18 +3871,18 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="F43" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="99">
       <c r="A44" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B44">
         <v>8</v>
@@ -3890,18 +3891,18 @@
         <v>9</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F44" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="99">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -3910,18 +3911,18 @@
         <v>9</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F45" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="99">
       <c r="A46" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -3930,18 +3931,18 @@
         <v>9</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F46" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="99">
       <c r="A47" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B47">
         <v>6</v>
@@ -3950,18 +3951,18 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F47" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="99">
       <c r="A48" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B48">
         <v>9</v>
@@ -3970,18 +3971,18 @@
         <v>9</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F48" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="99">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B49">
         <v>8</v>
@@ -3990,18 +3991,18 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F49" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="82.5">
       <c r="A50" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B50">
         <v>2.5</v>
@@ -4010,18 +4011,18 @@
         <v>9</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="F50" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="82.5">
       <c r="A51" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -4030,18 +4031,18 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F51" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="99">
       <c r="A52" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B52">
         <v>6</v>
@@ -4050,18 +4051,18 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F52" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="99">
       <c r="A53" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B53">
         <v>6</v>
@@ -4070,18 +4071,18 @@
         <v>9</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F53" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="99">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B54">
         <v>5</v>
@@ -4090,18 +4091,18 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F54" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="82.5">
       <c r="A55" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B55">
         <v>5</v>
@@ -4110,18 +4111,18 @@
         <v>9</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="99">
       <c r="A56" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B56">
         <v>5</v>
@@ -4130,18 +4131,18 @@
         <v>9</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F56" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="99">
       <c r="A57" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -4150,18 +4151,18 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F57" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="99">
       <c r="A58" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B58">
         <v>6</v>
@@ -4170,18 +4171,18 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F58" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="82.5">
       <c r="A59" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B59">
         <v>3</v>
@@ -4190,18 +4191,18 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F59" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="82.5">
       <c r="A60" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B60">
         <v>6</v>
@@ -4210,18 +4211,18 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F60" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="99">
       <c r="A61" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B61">
         <v>8</v>
@@ -4230,18 +4231,18 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F61" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="99">
       <c r="A62" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B62">
         <v>10.5</v>
@@ -4250,18 +4251,18 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F62" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="99">
       <c r="A63" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B63">
         <v>3</v>
@@ -4270,98 +4271,98 @@
         <v>9</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F63" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B64">
         <v>15</v>
       </c>
       <c r="C64" t="s">
+        <v>132</v>
+      </c>
+      <c r="D64" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>140</v>
       </c>
       <c r="E64" t="s">
         <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B65">
         <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B66">
         <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B67">
         <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="99">
       <c r="A68" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B68">
         <v>3</v>
@@ -4370,78 +4371,78 @@
         <v>9</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F68" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B69">
         <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B70">
         <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B71">
         <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="99">
       <c r="A72" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B72">
         <v>4</v>
@@ -4450,18 +4451,18 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F72" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="99">
       <c r="A73" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B73">
         <v>4</v>
@@ -4470,18 +4471,18 @@
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F73" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="99">
       <c r="A74" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B74">
         <v>12</v>
@@ -4490,18 +4491,18 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F74" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="99">
       <c r="A75" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B75">
         <v>7</v>
@@ -4510,18 +4511,18 @@
         <v>9</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F75" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="99">
       <c r="A76" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B76">
         <v>6</v>
@@ -4530,18 +4531,18 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F76" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="82.5">
       <c r="A77" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B77">
         <v>10</v>
@@ -4550,18 +4551,18 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F77" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="99">
       <c r="A78" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B78">
         <v>5</v>
@@ -4570,18 +4571,18 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F78" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="99">
       <c r="A79" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B79">
         <v>4</v>
@@ -4590,18 +4591,18 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F79" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="99">
       <c r="A80" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B80">
         <v>6</v>
@@ -4610,18 +4611,18 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F80" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="99">
       <c r="A81" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B81">
         <v>7</v>
@@ -4630,18 +4631,18 @@
         <v>9</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F81" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="99">
       <c r="A82" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B82">
         <v>6</v>
@@ -4650,18 +4651,18 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F82" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="82.5">
       <c r="A83" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B83">
         <v>5</v>
@@ -4670,18 +4671,18 @@
         <v>9</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F83" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="99">
       <c r="A84" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B84">
         <v>4</v>
@@ -4690,18 +4691,18 @@
         <v>9</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="F84" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="82.5">
       <c r="A85" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B85">
         <v>3</v>
@@ -4710,18 +4711,18 @@
         <v>9</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F85" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="99">
       <c r="A86" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B86">
         <v>4</v>
@@ -4730,38 +4731,38 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F86" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="82.5">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="99">
       <c r="A87" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B87">
         <v>3</v>
       </c>
       <c r="C87" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>395</v>
+        <v>462</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>396</v>
+        <v>461</v>
       </c>
       <c r="F87" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="82.5">
       <c r="A88" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B88">
         <v>5</v>
@@ -4770,18 +4771,18 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F88" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="99">
       <c r="A89" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B89">
         <v>7</v>
@@ -4790,18 +4791,18 @@
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F89" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="82.5">
       <c r="A90" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -4810,18 +4811,18 @@
         <v>9</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F90" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="99">
       <c r="A91" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B91">
         <v>5</v>
@@ -4830,18 +4831,18 @@
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F91" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="99">
       <c r="A92" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B92">
         <v>5</v>
@@ -4850,18 +4851,18 @@
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F92" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="99">
       <c r="A93" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B93">
         <v>3</v>
@@ -4870,18 +4871,18 @@
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F93" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="99">
       <c r="A94" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B94">
         <v>9</v>
@@ -4890,18 +4891,18 @@
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F94" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="99">
       <c r="A95" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B95">
         <v>5</v>
@@ -4910,18 +4911,18 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F95" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="82.5">
       <c r="A96" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B96">
         <v>6</v>
@@ -4930,18 +4931,18 @@
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="F96" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="99">
       <c r="A97" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B97">
         <v>0.9</v>
@@ -4950,18 +4951,18 @@
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F97" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="99">
       <c r="A98" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B98">
         <v>2</v>
@@ -4970,18 +4971,18 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F98" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="99">
       <c r="A99" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B99">
         <v>4</v>
@@ -4990,18 +4991,18 @@
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F99" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="99">
       <c r="A100" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B100">
         <v>7</v>
@@ -5010,18 +5011,18 @@
         <v>9</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F100" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="99">
       <c r="A101" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B101">
         <v>1.7</v>
@@ -5030,58 +5031,58 @@
         <v>9</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F101" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="99">
       <c r="A102" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B102">
         <v>0.8</v>
       </c>
       <c r="C102" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F102" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="49.5">
       <c r="A103" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B103">
         <v>0.9</v>
       </c>
       <c r="C103" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F103" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="99">
       <c r="A104" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B104">
         <v>5</v>
@@ -5090,18 +5091,18 @@
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F104" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="99">
       <c r="A105" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B105">
         <v>3</v>
@@ -5110,18 +5111,18 @@
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F105" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="66">
       <c r="A106" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B106">
         <v>1.2</v>
@@ -5130,18 +5131,18 @@
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="F106" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="99">
       <c r="A107" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B107">
         <v>3.5</v>
@@ -5150,18 +5151,18 @@
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F107" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="99">
       <c r="A108" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B108">
         <v>4</v>
@@ -5170,18 +5171,18 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="F108" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="99">
       <c r="A109" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B109">
         <v>7</v>
@@ -5190,18 +5191,18 @@
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="F109" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="82.5">
       <c r="A110" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B110">
         <v>8</v>
@@ -5210,18 +5211,18 @@
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F110" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="99">
       <c r="A111" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B111">
         <v>1.5</v>
@@ -5230,18 +5231,18 @@
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="F111" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="82.5">
       <c r="A112" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B112">
         <v>8</v>
@@ -5250,18 +5251,18 @@
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F112" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="99">
       <c r="A113" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B113">
         <v>5</v>
@@ -5270,18 +5271,18 @@
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F113" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="99">
       <c r="A114" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B114">
         <v>5</v>
@@ -5290,18 +5291,18 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F114" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="99">
       <c r="A115" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B115">
         <v>4</v>
@@ -5310,18 +5311,18 @@
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="F115" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="99">
       <c r="A116" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B116">
         <v>14</v>
@@ -5330,18 +5331,18 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F116" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="99">
       <c r="A117" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B117">
         <v>5</v>
@@ -5350,18 +5351,18 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F117" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="99">
       <c r="A118" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B118">
         <v>5</v>
@@ -5370,18 +5371,18 @@
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E118" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E118" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="F118" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="99">
       <c r="A119" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B119">
         <v>9</v>
@@ -5390,18 +5391,18 @@
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F119" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="99">
       <c r="A120" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B120">
         <v>8</v>
@@ -5410,18 +5411,18 @@
         <v>9</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F120" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="99">
       <c r="A121" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B121">
         <v>12</v>
@@ -5430,18 +5431,18 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F121" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="99">
       <c r="A122" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B122">
         <v>9</v>
@@ -5450,18 +5451,18 @@
         <v>9</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="99">
       <c r="A123" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B123">
         <v>5</v>
@@ -5470,18 +5471,18 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F123" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="99">
       <c r="A124" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B124">
         <v>6</v>
@@ -5490,18 +5491,18 @@
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F124" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="82.5">
       <c r="A125" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B125">
         <v>3</v>
@@ -5510,18 +5511,18 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F125" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="99">
       <c r="A126" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B126">
         <v>4</v>
@@ -5530,18 +5531,18 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F126" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="99">
       <c r="A127" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B127">
         <v>6</v>
@@ -5550,38 +5551,38 @@
         <v>9</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F127" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B128">
         <v>5</v>
       </c>
       <c r="C128" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E128" t="s">
         <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="99">
       <c r="A129" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B129">
         <v>5</v>
@@ -5590,18 +5591,18 @@
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="F129" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="99">
       <c r="A130" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B130">
         <v>5</v>
@@ -5610,18 +5611,18 @@
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F130" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="99">
       <c r="A131" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B131">
         <v>6</v>
@@ -5630,18 +5631,18 @@
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F131" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="99">
       <c r="A132" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B132">
         <v>4</v>
@@ -5650,18 +5651,18 @@
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F132" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="67.5">
       <c r="A133" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B133">
         <v>1.1000000000000001</v>
@@ -5670,18 +5671,18 @@
         <v>9</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F133" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="82.5">
       <c r="A134" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B134">
         <v>1.3</v>
@@ -5690,18 +5691,18 @@
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F134" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="99">
       <c r="A135" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B135">
         <v>8</v>
@@ -5710,18 +5711,18 @@
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F135" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="99">
       <c r="A136" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B136">
         <v>11</v>
@@ -5730,18 +5731,18 @@
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F136" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="82.5">
       <c r="A137" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B137">
         <v>9</v>
@@ -5750,18 +5751,18 @@
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F137" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="148.5">
       <c r="A138" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B138">
         <v>5</v>
@@ -5770,18 +5771,18 @@
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F138" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="99">
       <c r="A139" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B139">
         <v>5</v>
@@ -5790,18 +5791,18 @@
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="F139" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="99">
       <c r="A140" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B140">
         <v>5</v>
@@ -5810,18 +5811,18 @@
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F140" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="99">
       <c r="A141" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B141">
         <v>11</v>
@@ -5830,18 +5831,18 @@
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F141" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="99">
       <c r="A142" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B142">
         <v>10</v>
@@ -5850,18 +5851,18 @@
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F142" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="99">
       <c r="A143" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B143">
         <v>7</v>
@@ -5870,18 +5871,18 @@
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="F143" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="82.5">
       <c r="A144" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="B144">
         <v>7.2</v>
@@ -5890,18 +5891,18 @@
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F144" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="82.5">
       <c r="A145" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B145">
         <v>1.6</v>
@@ -5910,18 +5911,18 @@
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="F145" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="82.5">
       <c r="A146" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="B146">
         <v>2.2000000000000002</v>
@@ -5930,18 +5931,18 @@
         <v>9</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="F146" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="99">
       <c r="A147" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="B147">
         <v>4</v>
@@ -5950,18 +5951,18 @@
         <v>9</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F147" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="99">
       <c r="A148" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="B148">
         <v>5</v>
@@ -5970,18 +5971,18 @@
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F148" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="99">
       <c r="A149" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="B149">
         <v>6</v>
@@ -5990,18 +5991,18 @@
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="F149" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="99">
       <c r="A150" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="B150">
         <v>7</v>
@@ -6010,18 +6011,18 @@
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="F150" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="99">
       <c r="A151" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B151">
         <v>6</v>
@@ -6030,18 +6031,18 @@
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F151" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="99">
       <c r="A152" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="B152">
         <v>5</v>
@@ -6050,18 +6051,18 @@
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="F152" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="99">
       <c r="A153" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="B153">
         <v>3.9</v>
@@ -6070,13 +6071,13 @@
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="F153" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -6160,54 +6161,54 @@
     <hyperlink ref="D120" r:id="rId76" xr:uid="{FB61B29C-091A-4DDA-AE79-D04CD219E120}"/>
     <hyperlink ref="D102" r:id="rId77" xr:uid="{ECA328F5-23A6-4DE4-B068-F02A7D98D168}"/>
     <hyperlink ref="D126" r:id="rId78" xr:uid="{9AD90610-B454-4A84-8345-BC650F57996E}"/>
-    <hyperlink ref="D37" r:id="rId79" xr:uid="{93E22CFB-0916-4E6E-ACC3-EEAD067C806F}"/>
-    <hyperlink ref="D130" r:id="rId80" xr:uid="{B9A9083D-DAAC-4EB9-A1EF-8226D6CE0569}"/>
-    <hyperlink ref="D128" r:id="rId81" xr:uid="{7BB4446E-C399-4A10-A149-71E6F6C21625}"/>
-    <hyperlink ref="D65" r:id="rId82" xr:uid="{26848A2D-A2E9-4D35-A878-4E94AA4528CC}"/>
-    <hyperlink ref="D71" r:id="rId83" xr:uid="{4F6D0E3F-842E-4538-B42C-64D38060BB59}"/>
-    <hyperlink ref="D131" r:id="rId84" xr:uid="{302CF079-F4AA-41D6-A7B3-02085878B25C}"/>
-    <hyperlink ref="D58" r:id="rId85" xr:uid="{FFC2D208-AEF3-4089-93F4-56B6F4845C6D}"/>
-    <hyperlink ref="D132" r:id="rId86" xr:uid="{537861A6-5879-4590-973E-CAB8004B1F94}"/>
-    <hyperlink ref="D16" r:id="rId87" xr:uid="{09DC9E19-5EF7-447C-A207-F065EAABBA9E}"/>
-    <hyperlink ref="D134" r:id="rId88" xr:uid="{B0679566-FA54-444D-8C38-A9B1A78EA00B}"/>
-    <hyperlink ref="D109" r:id="rId89" xr:uid="{548C8289-7EC3-401B-8394-4658D1E44626}"/>
-    <hyperlink ref="D135" r:id="rId90" xr:uid="{68B8ABE4-7971-4B92-873E-57FB9E5E8E7B}"/>
-    <hyperlink ref="D67" r:id="rId91" xr:uid="{CE9629E1-6341-48A8-A515-14208ED02ACE}"/>
-    <hyperlink ref="D136" r:id="rId92" xr:uid="{7906C34E-95E6-4C1B-9565-B8B6F37DE732}"/>
-    <hyperlink ref="D137" r:id="rId93" xr:uid="{EE076CB7-11A0-4FF0-9825-6A412491927F}"/>
-    <hyperlink ref="D138" r:id="rId94" xr:uid="{155BFA89-2A1E-4E9B-9D34-97E8FE7BFBB8}"/>
-    <hyperlink ref="D140" r:id="rId95" xr:uid="{4B1CBD95-B37A-4E49-99CD-5B0FAFB1DD68}"/>
-    <hyperlink ref="D122" r:id="rId96" xr:uid="{933F49CC-7CBE-4246-BED0-85666C83AD9C}"/>
-    <hyperlink ref="D43" r:id="rId97" xr:uid="{44BF8FFF-EFEF-4626-91C2-16E5A0463084}"/>
-    <hyperlink ref="D83" r:id="rId98" xr:uid="{CFA38323-9624-4B72-BAD1-1DF28D103CC7}"/>
-    <hyperlink ref="D53" r:id="rId99" xr:uid="{027425D3-4104-4019-9C56-9619BD774590}"/>
-    <hyperlink ref="D141" r:id="rId100" xr:uid="{5E05232A-62B2-4A14-ABE0-B7C2FC8317E5}"/>
-    <hyperlink ref="D34" r:id="rId101" xr:uid="{E78167A9-C7BD-4913-A9BE-7D05FB372985}"/>
-    <hyperlink ref="D142" r:id="rId102" xr:uid="{A09AECAB-6573-4BCA-B75F-5029DC873CE5}"/>
-    <hyperlink ref="D20" r:id="rId103" xr:uid="{F0EA2884-0417-443D-ABC1-941CEB7EBB01}"/>
-    <hyperlink ref="D143" r:id="rId104" xr:uid="{3E967917-087B-4C24-883E-25347224DBDC}"/>
-    <hyperlink ref="D100" r:id="rId105" xr:uid="{EE590C67-17CF-44CB-8F7D-B042342203EE}"/>
-    <hyperlink ref="D87" r:id="rId106" xr:uid="{72BBC2F8-4E6F-4DFD-B837-9BFEBE7BA406}"/>
-    <hyperlink ref="D144" r:id="rId107" xr:uid="{0B4ECC27-EC91-4F95-82E0-FD9CDCD9A93F}"/>
-    <hyperlink ref="D145" r:id="rId108" xr:uid="{49B38CC6-2C17-4FEF-90C9-05FEFA135B41}"/>
-    <hyperlink ref="D39" r:id="rId109" xr:uid="{C2109FB0-C10E-4DCF-989E-E84149DE1EAC}"/>
-    <hyperlink ref="D119" r:id="rId110" xr:uid="{50BA8730-2B77-4DFA-A049-17427C1D7CC5}"/>
-    <hyperlink ref="D55" r:id="rId111" xr:uid="{C988080E-F4EB-46BF-AB72-D073DF5191B6}"/>
-    <hyperlink ref="D85" r:id="rId112" xr:uid="{3B941BCF-E75D-4DA8-8A44-527E84ED7297}"/>
-    <hyperlink ref="D24" r:id="rId113" xr:uid="{4CF61DDE-F761-41F1-A22D-2FF464DFA9A2}"/>
-    <hyperlink ref="D96" r:id="rId114" xr:uid="{F69F71F7-93FB-4517-A52D-2CB75FB91539}"/>
-    <hyperlink ref="D8" r:id="rId115" xr:uid="{AA062347-DE7E-42D9-B1FA-F6DBC67BC5A3}"/>
-    <hyperlink ref="D147" r:id="rId116" xr:uid="{03FCC17F-5E5A-4BB9-AB6F-E913ABCF9296}"/>
-    <hyperlink ref="D129" r:id="rId117" xr:uid="{341B611A-2A3E-4D76-979C-A6AC19CF8A2E}"/>
-    <hyperlink ref="D148" r:id="rId118" xr:uid="{B0BACB11-8EAB-444A-A367-89EF9AE91442}"/>
-    <hyperlink ref="D149" r:id="rId119" xr:uid="{8A3E3722-3D34-4679-8500-A153D053D8CE}"/>
-    <hyperlink ref="D150" r:id="rId120" xr:uid="{7FBFF53A-F5DE-4AA6-87C3-5F341F2A40D7}"/>
-    <hyperlink ref="D11" r:id="rId121" xr:uid="{C1015149-910B-4F41-82F6-2D476AB38D4A}"/>
-    <hyperlink ref="D51" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="D151" r:id="rId123" xr:uid="{FC1D08C5-4F0C-4164-B550-527FBA8746F5}"/>
-    <hyperlink ref="D146" r:id="rId124" xr:uid="{0B6EE4FC-BA87-471C-A9B5-08A00A4CB44A}"/>
-    <hyperlink ref="D152" r:id="rId125" xr:uid="{9F4AE395-14D3-4460-A23E-1FD2587F4682}"/>
-    <hyperlink ref="D153" r:id="rId126" xr:uid="{911C16E4-B9B3-4DBD-B406-5C0AFA70FE32}"/>
+    <hyperlink ref="D130" r:id="rId79" xr:uid="{B9A9083D-DAAC-4EB9-A1EF-8226D6CE0569}"/>
+    <hyperlink ref="D128" r:id="rId80" xr:uid="{7BB4446E-C399-4A10-A149-71E6F6C21625}"/>
+    <hyperlink ref="D65" r:id="rId81" xr:uid="{26848A2D-A2E9-4D35-A878-4E94AA4528CC}"/>
+    <hyperlink ref="D71" r:id="rId82" xr:uid="{4F6D0E3F-842E-4538-B42C-64D38060BB59}"/>
+    <hyperlink ref="D131" r:id="rId83" xr:uid="{302CF079-F4AA-41D6-A7B3-02085878B25C}"/>
+    <hyperlink ref="D58" r:id="rId84" xr:uid="{FFC2D208-AEF3-4089-93F4-56B6F4845C6D}"/>
+    <hyperlink ref="D132" r:id="rId85" xr:uid="{537861A6-5879-4590-973E-CAB8004B1F94}"/>
+    <hyperlink ref="D16" r:id="rId86" xr:uid="{09DC9E19-5EF7-447C-A207-F065EAABBA9E}"/>
+    <hyperlink ref="D134" r:id="rId87" xr:uid="{B0679566-FA54-444D-8C38-A9B1A78EA00B}"/>
+    <hyperlink ref="D109" r:id="rId88" xr:uid="{548C8289-7EC3-401B-8394-4658D1E44626}"/>
+    <hyperlink ref="D135" r:id="rId89" xr:uid="{68B8ABE4-7971-4B92-873E-57FB9E5E8E7B}"/>
+    <hyperlink ref="D67" r:id="rId90" xr:uid="{CE9629E1-6341-48A8-A515-14208ED02ACE}"/>
+    <hyperlink ref="D136" r:id="rId91" xr:uid="{7906C34E-95E6-4C1B-9565-B8B6F37DE732}"/>
+    <hyperlink ref="D137" r:id="rId92" xr:uid="{EE076CB7-11A0-4FF0-9825-6A412491927F}"/>
+    <hyperlink ref="D138" r:id="rId93" xr:uid="{155BFA89-2A1E-4E9B-9D34-97E8FE7BFBB8}"/>
+    <hyperlink ref="D140" r:id="rId94" xr:uid="{4B1CBD95-B37A-4E49-99CD-5B0FAFB1DD68}"/>
+    <hyperlink ref="D122" r:id="rId95" xr:uid="{933F49CC-7CBE-4246-BED0-85666C83AD9C}"/>
+    <hyperlink ref="D43" r:id="rId96" xr:uid="{44BF8FFF-EFEF-4626-91C2-16E5A0463084}"/>
+    <hyperlink ref="D83" r:id="rId97" xr:uid="{CFA38323-9624-4B72-BAD1-1DF28D103CC7}"/>
+    <hyperlink ref="D53" r:id="rId98" xr:uid="{027425D3-4104-4019-9C56-9619BD774590}"/>
+    <hyperlink ref="D141" r:id="rId99" xr:uid="{5E05232A-62B2-4A14-ABE0-B7C2FC8317E5}"/>
+    <hyperlink ref="D34" r:id="rId100" xr:uid="{E78167A9-C7BD-4913-A9BE-7D05FB372985}"/>
+    <hyperlink ref="D142" r:id="rId101" xr:uid="{A09AECAB-6573-4BCA-B75F-5029DC873CE5}"/>
+    <hyperlink ref="D20" r:id="rId102" xr:uid="{F0EA2884-0417-443D-ABC1-941CEB7EBB01}"/>
+    <hyperlink ref="D143" r:id="rId103" xr:uid="{3E967917-087B-4C24-883E-25347224DBDC}"/>
+    <hyperlink ref="D100" r:id="rId104" xr:uid="{EE590C67-17CF-44CB-8F7D-B042342203EE}"/>
+    <hyperlink ref="D144" r:id="rId105" xr:uid="{0B4ECC27-EC91-4F95-82E0-FD9CDCD9A93F}"/>
+    <hyperlink ref="D145" r:id="rId106" xr:uid="{49B38CC6-2C17-4FEF-90C9-05FEFA135B41}"/>
+    <hyperlink ref="D39" r:id="rId107" xr:uid="{C2109FB0-C10E-4DCF-989E-E84149DE1EAC}"/>
+    <hyperlink ref="D119" r:id="rId108" xr:uid="{50BA8730-2B77-4DFA-A049-17427C1D7CC5}"/>
+    <hyperlink ref="D55" r:id="rId109" xr:uid="{C988080E-F4EB-46BF-AB72-D073DF5191B6}"/>
+    <hyperlink ref="D85" r:id="rId110" xr:uid="{3B941BCF-E75D-4DA8-8A44-527E84ED7297}"/>
+    <hyperlink ref="D24" r:id="rId111" xr:uid="{4CF61DDE-F761-41F1-A22D-2FF464DFA9A2}"/>
+    <hyperlink ref="D96" r:id="rId112" xr:uid="{F69F71F7-93FB-4517-A52D-2CB75FB91539}"/>
+    <hyperlink ref="D8" r:id="rId113" xr:uid="{AA062347-DE7E-42D9-B1FA-F6DBC67BC5A3}"/>
+    <hyperlink ref="D147" r:id="rId114" xr:uid="{03FCC17F-5E5A-4BB9-AB6F-E913ABCF9296}"/>
+    <hyperlink ref="D129" r:id="rId115" xr:uid="{341B611A-2A3E-4D76-979C-A6AC19CF8A2E}"/>
+    <hyperlink ref="D148" r:id="rId116" xr:uid="{B0BACB11-8EAB-444A-A367-89EF9AE91442}"/>
+    <hyperlink ref="D149" r:id="rId117" xr:uid="{8A3E3722-3D34-4679-8500-A153D053D8CE}"/>
+    <hyperlink ref="D150" r:id="rId118" xr:uid="{7FBFF53A-F5DE-4AA6-87C3-5F341F2A40D7}"/>
+    <hyperlink ref="D11" r:id="rId119" xr:uid="{C1015149-910B-4F41-82F6-2D476AB38D4A}"/>
+    <hyperlink ref="D51" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D151" r:id="rId121" xr:uid="{FC1D08C5-4F0C-4164-B550-527FBA8746F5}"/>
+    <hyperlink ref="D146" r:id="rId122" xr:uid="{0B6EE4FC-BA87-471C-A9B5-08A00A4CB44A}"/>
+    <hyperlink ref="D152" r:id="rId123" xr:uid="{9F4AE395-14D3-4460-A23E-1FD2587F4682}"/>
+    <hyperlink ref="D153" r:id="rId124" xr:uid="{911C16E4-B9B3-4DBD-B406-5C0AFA70FE32}"/>
+    <hyperlink ref="D21" r:id="rId125" xr:uid="{82ECE4FC-8758-48D4-B500-3F7DCB93BA6F}"/>
+    <hyperlink ref="D22" r:id="rId126" xr:uid="{73EDED81-B56A-46C3-B97E-C9B96FF02F0E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId127"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new_news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFFA851-6B51-484B-9554-211ADE15A78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF86B6AA-9629-4CC1-B360-0FBB920A1F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1230" windowWidth="37605" windowHeight="19185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="1680" windowWidth="37605" windowHeight="19170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="466">
   <si>
     <t>naver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -310,10 +310,6 @@
   </si>
   <si>
     <t>내외경제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폴리뉴스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1270,14 +1266,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>url_list = soup.select("td.ArtList_Title")[:5];
-url_list = ["https://www.irobotnews.com/news/" + i.select_one("a")["href"] for i in url_list];
-title_list = soup.select("td.ArtList_Title")[:5];
-title_list = [i.text.strip() for i in title_list];
-body_list = ["" for i in range(5)];</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$$$prime프라임경제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1951,15 +1939,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>url_list = soup.select("div.article-list section.article-list-content div.list-block div.list-titles")[:5];
-url_list = ["http://www.it-b.co.kr" + i.select_one("a")["href"] for i in url_list];
-title_list = soup.select("div.article-list section.article-list-content div.list-block div.list-titles")[:5];
-title_list = [i.text.strip() for i in title_list];
-body_list = soup.select("div.article-list section.article-list-content div.list-block p.list-summary")[:5];
-body_list = [i.text.strip() for i in body_list];</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.it-b.co.kr/news/articleList.html?view_type=sm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2124,10 +2103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.ebn.co.kr/news/articleList.html?view_type=sm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>url_list = ["https://cbiz.chosun.com/svc/bulletin/index.html" for i in range(5)];
 title_list = soup.select("div.bn_left div.art_list_wrap div.article_list ul li a.article")[:5];
 title_list = [i.text.strip() for i in title_list];
@@ -2560,29 +2535,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.polinews.co.kr/news/articleList.html?view_type=sm</t>
+    <t>url_list = soup.select("div.mt-20 div.col div div.row-bottom-border-2 div div.post-content h2")[:5];
+url_list = ["https://www.news1.kr" + i.select_one("a")["href"] for i in url_list];
+title_list = soup.select("div.mt-20 div.col div div.row-bottom-border-2 div div.post-content h2")[:5];
+title_list = [i.text.strip() for i in title_list];
+body_list = soup.select("div.mt-20 div.col div div.row-bottom-border-2 div div span.text-limit-2-row")[:5];
+body_list = [i.text.strip() for i in body_list];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴스1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.news1.kr/latest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_list = soup.select("#recentList li article div")[:5];
+url_list = [i.select_one("a")["href"] for i in url_list];
+title_list = soup.select("#recentList li article div")[:5];
+title_list = [i.select_one("a")["title"].strip() for i in title_list];
+body_list = soup.select("#recentList li article div p.desc")[:5];
+body_list = [i.text.strip() for i in body_list];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.khan.co.kr/newest/articles</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>url_list = soup.select("#section-list ul li")[:5];
-url_list = ["https://www.polinews.co.kr" + i.select_one("a")["href"] for i in url_list];
-title_list = soup.select("#section-list ul li h4")[:5];
-title_list = [i.text.strip() for i in title_list];
-body_list = soup.select("#section-list ul li p")[:5];
-body_list = [i.text.strip() for i in body_list];</t>
+url_list = ["https://www.irobotnews.com/news/" + i.select_one("a")["href"] for i in url_list];
+title_list = soup.select("#section-list ul li h2 a")[:5];
+title_list = [i.text.strip().replace("\xa0","") for i in title_list];
+body_list = ["" for i in range(5)];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ebn.co.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_list = soup.select("#skin-12 div div.item")[:5];
+url_list = [i.select_one("a")["href"] for i in url_list];
+title_list = soup.select("#skin-12 div div.item h2")[:5];
+title_list = [i.text.strip() for i in title_list];
+body_list = ["" for i in range(5)];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.newsprime.co.kr/news/search_result.html?search=%EA%B8%B0%EC%9E%90&amp;x=0&amp;y=0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>url_list = soup.select("div.c011_sr2 div.rt div.list_tt")[:5];
 url_list = ["https://www.newsprime.co.kr/news/" + i.select_one("a")["href"].replace(".html","/") for i in url_list];
 title_list = soup.select("div.c011_sr2 div.rt div.list_tt")[:5];
-title_list = ["[$$프라임]"+i.text.strip() for i in title_list];
+title_list = [i.text.strip() for i in title_list];
 body_list = soup.select("div.c011_sr2 div.rt div.list_ar")[:5];
 body_list = [i.text.strip() for i in body_list];</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.newsprime.co.kr/news/search_result.html?search=%EA%B8%B0%EC%9E%90&amp;x=0&amp;y=0</t>
   </si>
 </sst>
 </file>
@@ -3006,15 +3023,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F153"/>
+  <dimension ref="A1:F154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="4" max="4" width="82" style="1" customWidth="1"/>
     <col min="5" max="5" width="152.625" customWidth="1"/>
     <col min="6" max="6" width="174.125" customWidth="1"/>
@@ -3037,7 +3055,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3051,18 +3069,18 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="99">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -3074,10 +3092,10 @@
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="99">
@@ -3094,15 +3112,15 @@
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="104.25" customHeight="1">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5">
         <v>7</v>
@@ -3117,7 +3135,7 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="81">
@@ -3131,13 +3149,13 @@
         <v>9</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="81">
@@ -3157,7 +3175,7 @@
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="81">
@@ -3171,13 +3189,13 @@
         <v>9</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="81">
@@ -3191,13 +3209,13 @@
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="81">
@@ -3217,7 +3235,7 @@
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="99">
@@ -3231,13 +3249,13 @@
         <v>9</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="99">
@@ -3257,12 +3275,12 @@
         <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="99">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -3271,13 +3289,13 @@
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="F13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="99">
@@ -3297,7 +3315,7 @@
         <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="99">
@@ -3311,13 +3329,13 @@
         <v>9</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F15" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="99">
@@ -3331,13 +3349,13 @@
         <v>9</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F16" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="99">
@@ -3357,7 +3375,7 @@
         <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="99">
@@ -3371,13 +3389,13 @@
         <v>9</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="99">
@@ -3397,7 +3415,7 @@
         <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="99">
@@ -3411,13 +3429,13 @@
         <v>9</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="99">
@@ -3431,96 +3449,96 @@
         <v>9</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F21" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="99">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="82.5">
       <c r="A22" t="s">
         <v>46</v>
       </c>
       <c r="B22">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>460</v>
+        <v>284</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="F22" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="82.5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="99">
       <c r="A23" t="s">
         <v>47</v>
       </c>
       <c r="B23">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>290</v>
+        <v>402</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="F23" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="99">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="82.5">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>406</v>
+        <v>82</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="F24" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="82.5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="99">
       <c r="A25" t="s">
         <v>50</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F25" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="99">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="82.5">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -3530,134 +3548,134 @@
       <c r="C26" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>85</v>
+      <c r="D26" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F26" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="82.5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="99">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>53</v>
+      <c r="D27" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F27" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="99">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="82.5">
       <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>149</v>
-      </c>
       <c r="E28" s="1" t="s">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="F28" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="82.5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="99">
       <c r="A29" t="s">
         <v>56</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>55</v>
+      <c r="D29" s="8" t="s">
+        <v>411</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F29" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="99">
+        <v>410</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="81">
       <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B30">
-        <v>6</v>
-      </c>
-      <c r="C30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>390</v>
+      <c r="E30" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="81">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>58</v>
+      <c r="D31" s="8" t="s">
+        <v>289</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F31" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="81">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B32">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>62</v>
+        <v>315</v>
       </c>
       <c r="F32" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="81">
@@ -3665,19 +3683,19 @@
         <v>63</v>
       </c>
       <c r="B33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>283</v>
+        <v>371</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>317</v>
+        <v>375</v>
       </c>
       <c r="F33" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="81">
@@ -3685,39 +3703,39 @@
         <v>64</v>
       </c>
       <c r="B34">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>374</v>
+        <v>243</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="F34" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="81">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="99">
       <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B35">
-        <v>5</v>
-      </c>
-      <c r="C35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>423</v>
+      <c r="E35" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="F35" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="99">
@@ -3725,39 +3743,39 @@
         <v>68</v>
       </c>
       <c r="B36">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>66</v>
+      <c r="D36" s="8" t="s">
+        <v>453</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>67</v>
+        <v>454</v>
       </c>
       <c r="F36" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="99">
       <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B37">
-        <v>7</v>
-      </c>
-      <c r="C37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>457</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>458</v>
+        <v>70</v>
       </c>
       <c r="F37" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="99">
@@ -3765,99 +3783,99 @@
         <v>72</v>
       </c>
       <c r="B38">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>70</v>
+      <c r="D38" s="8" t="s">
+        <v>394</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>71</v>
+        <v>397</v>
       </c>
       <c r="F38" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="99">
       <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B39">
-        <v>8</v>
-      </c>
-      <c r="C39" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>398</v>
-      </c>
       <c r="E39" s="1" t="s">
-        <v>401</v>
+        <v>74</v>
       </c>
       <c r="F39" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="99">
       <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B40">
-        <v>11</v>
-      </c>
-      <c r="C40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="E40" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="99">
       <c r="A41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B41">
-        <v>4</v>
-      </c>
-      <c r="C41" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="E41" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F41" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="99">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B42">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>80</v>
+      <c r="D42" s="2" t="s">
+        <v>399</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>81</v>
+        <v>398</v>
       </c>
       <c r="F42" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="99">
@@ -3865,139 +3883,139 @@
         <v>86</v>
       </c>
       <c r="B43">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>403</v>
+      <c r="D43" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>402</v>
+        <v>307</v>
       </c>
       <c r="F43" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="99">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B44">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="3" t="s">
         <v>88</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>309</v>
+        <v>90</v>
       </c>
       <c r="F44" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="99">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>207</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C45" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>89</v>
+      <c r="D45" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>91</v>
+        <v>377</v>
       </c>
       <c r="F45" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="99">
       <c r="A46" t="s">
-        <v>208</v>
+        <v>92</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>131</v>
+      <c r="D46" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>380</v>
+        <v>443</v>
       </c>
       <c r="F46" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="99">
       <c r="A47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B47">
-        <v>6</v>
-      </c>
-      <c r="C47" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E47" s="1" t="s">
-        <v>447</v>
+        <v>95</v>
       </c>
       <c r="F47" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="99">
       <c r="A48" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>94</v>
+      <c r="D48" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F48" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="99">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="82.5">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B49">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="C49" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>99</v>
+      <c r="D49" s="3" t="s">
+        <v>435</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>97</v>
+        <v>434</v>
       </c>
       <c r="F49" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="82.5">
@@ -4005,44 +4023,44 @@
         <v>100</v>
       </c>
       <c r="B50">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="C50" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>439</v>
+      <c r="D50" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>438</v>
+        <v>143</v>
       </c>
       <c r="F50" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="82.5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="99">
       <c r="A51" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F51" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="99">
       <c r="A52" t="s">
-        <v>129</v>
+        <v>344</v>
       </c>
       <c r="B52">
         <v>6</v>
@@ -4050,39 +4068,39 @@
       <c r="C52" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>152</v>
+      <c r="D52" s="8" t="s">
+        <v>367</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>151</v>
+        <v>345</v>
       </c>
       <c r="F52" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="99">
       <c r="A53" t="s">
-        <v>346</v>
+        <v>103</v>
       </c>
       <c r="B53">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="8" t="s">
-        <v>370</v>
+      <c r="D53" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>347</v>
+        <v>102</v>
       </c>
       <c r="F53" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="99">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="82.5">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B54">
         <v>5</v>
@@ -4090,19 +4108,19 @@
       <c r="C54" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>102</v>
+      <c r="D54" s="8" t="s">
+        <v>396</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F54" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="82.5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="99">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B55">
         <v>5</v>
@@ -4111,33 +4129,33 @@
         <v>9</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>400</v>
+        <v>106</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F55" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="99">
       <c r="A56" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B56">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C56" t="s">
         <v>9</v>
       </c>
-      <c r="D56" s="8" t="s">
-        <v>107</v>
+      <c r="D56" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F56" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="99">
@@ -4145,179 +4163,179 @@
         <v>115</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>113</v>
+        <v>328</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>114</v>
+        <v>329</v>
       </c>
       <c r="F57" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="99">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="82.5">
       <c r="A58" t="s">
         <v>116</v>
       </c>
       <c r="B58">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C58" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>330</v>
+        <v>146</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>331</v>
+        <v>147</v>
       </c>
       <c r="F58" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="82.5">
       <c r="A59" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59">
+        <v>6</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B59">
-        <v>3</v>
-      </c>
-      <c r="C59" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="E59" s="1" t="s">
-        <v>148</v>
+        <v>461</v>
       </c>
       <c r="F59" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="82.5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="99">
       <c r="A60" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B60">
-        <v>6</v>
-      </c>
-      <c r="C60" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="E60" s="1" t="s">
-        <v>228</v>
+        <v>120</v>
       </c>
       <c r="F60" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="99">
       <c r="A61" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="B61">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="C61" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F61" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="99">
       <c r="A62" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="B62">
-        <v>10.5</v>
+        <v>3</v>
       </c>
       <c r="C62" t="s">
         <v>9</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>124</v>
+      <c r="D62" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F62" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="99">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E63" t="s">
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>133</v>
+        <v>316</v>
       </c>
       <c r="B64">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>136</v>
+        <v>323</v>
       </c>
       <c r="E64" t="s">
         <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="B65">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4328,56 +4346,56 @@
         <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="99">
       <c r="A67" t="s">
-        <v>345</v>
+        <v>256</v>
       </c>
       <c r="B67">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C67" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="E67" t="s">
+        <v>255</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F67" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68">
+        <v>6</v>
+      </c>
+      <c r="C68" t="s">
+        <v>131</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E68" t="s">
         <v>11</v>
       </c>
-      <c r="F67" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="99">
-      <c r="A68" t="s">
-        <v>258</v>
-      </c>
-      <c r="B68">
-        <v>3</v>
-      </c>
-      <c r="C68" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="F68" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4385,64 +4403,64 @@
         <v>134</v>
       </c>
       <c r="B69">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>135</v>
+        <v>268</v>
       </c>
       <c r="B70">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>137</v>
+        <v>324</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="99">
       <c r="A71" t="s">
-        <v>270</v>
+        <v>157</v>
       </c>
       <c r="B71">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>132</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="E71" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="F71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="99">
       <c r="A72" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B72">
         <v>4</v>
@@ -4451,378 +4469,378 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F72" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="99">
       <c r="A73" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B73">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C73" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F73" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="99">
       <c r="A74" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B74">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>9</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>163</v>
+      <c r="D74" s="8" t="s">
+        <v>267</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F74" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="99">
       <c r="A75" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B75">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
         <v>9</v>
       </c>
-      <c r="D75" s="8" t="s">
-        <v>269</v>
+      <c r="D75" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F75" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="99">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="82.5">
       <c r="A76" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B76">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C76" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>168</v>
+        <v>224</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>170</v>
+        <v>264</v>
       </c>
       <c r="F76" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="82.5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="99">
       <c r="A77" t="s">
         <v>171</v>
       </c>
       <c r="B77">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>225</v>
+        <v>172</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>266</v>
+        <v>173</v>
       </c>
       <c r="F77" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="99">
       <c r="A78" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B78">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C78" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F78" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="99">
       <c r="A79" t="s">
+        <v>179</v>
+      </c>
+      <c r="B79">
+        <v>6</v>
+      </c>
+      <c r="C79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B79">
-        <v>4</v>
-      </c>
-      <c r="C79" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="E79" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F79" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="99">
       <c r="A80" t="s">
+        <v>182</v>
+      </c>
+      <c r="B80">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B80">
-        <v>6</v>
-      </c>
-      <c r="C80" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="E80" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F80" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="99">
       <c r="A81" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B81">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
         <v>9</v>
       </c>
-      <c r="D81" s="7" t="s">
-        <v>181</v>
+      <c r="D81" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F81" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="99">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="82.5">
       <c r="A82" t="s">
-        <v>185</v>
+        <v>333</v>
       </c>
       <c r="B82">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
         <v>9</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F82" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="99">
+      <c r="A83" t="s">
         <v>187</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F82" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="82.5">
-      <c r="A83" t="s">
-        <v>335</v>
-      </c>
       <c r="B83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C83" t="s">
         <v>9</v>
       </c>
-      <c r="D83" s="8" t="s">
-        <v>369</v>
+      <c r="D83" s="10" t="s">
+        <v>445</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>292</v>
+        <v>444</v>
       </c>
       <c r="F83" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="99">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="82.5">
       <c r="A84" t="s">
         <v>188</v>
       </c>
       <c r="B84">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F84" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="99">
+      <c r="A85" t="s">
+        <v>191</v>
+      </c>
+      <c r="B85">
         <v>4</v>
       </c>
-      <c r="C84" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="F84" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="82.5">
-      <c r="A85" t="s">
+      <c r="C85" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B85">
-        <v>3</v>
-      </c>
-      <c r="C85" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>404</v>
-      </c>
       <c r="E85" s="1" t="s">
-        <v>302</v>
+        <v>190</v>
       </c>
       <c r="F85" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="99">
       <c r="A86" t="s">
+        <v>227</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
+        <v>230</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F86" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="82.5">
+      <c r="A87" t="s">
+        <v>194</v>
+      </c>
+      <c r="B87">
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B86">
-        <v>4</v>
-      </c>
-      <c r="C86" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F86" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="99">
-      <c r="A87" t="s">
-        <v>229</v>
-      </c>
-      <c r="B87">
-        <v>3</v>
-      </c>
-      <c r="C87" t="s">
-        <v>232</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>462</v>
-      </c>
       <c r="E87" s="1" t="s">
-        <v>461</v>
+        <v>193</v>
       </c>
       <c r="F87" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="82.5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="99">
       <c r="A88" t="s">
         <v>195</v>
       </c>
       <c r="B88">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F88" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="99">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="82.5">
       <c r="A89" t="s">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="B89">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C89" t="s">
         <v>9</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>197</v>
+      <c r="D89" s="8" t="s">
+        <v>263</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>198</v>
       </c>
       <c r="F89" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="82.5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="99">
       <c r="A90" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
         <v>9</v>
       </c>
-      <c r="D90" s="8" t="s">
-        <v>265</v>
+      <c r="D90" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F90" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="99">
       <c r="A91" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B91">
         <v>5</v>
@@ -4831,13 +4849,13 @@
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F91" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="99">
@@ -4845,39 +4863,39 @@
         <v>205</v>
       </c>
       <c r="B92">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C92" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="F92" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="99">
       <c r="A93" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B93">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>226</v>
+        <v>314</v>
       </c>
       <c r="F93" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="99">
@@ -4885,99 +4903,99 @@
         <v>210</v>
       </c>
       <c r="B94">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>209</v>
+        <v>409</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>316</v>
+        <v>381</v>
       </c>
       <c r="F94" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="99">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="82.5">
       <c r="A95" t="s">
         <v>211</v>
       </c>
       <c r="B95">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="F95" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="82.5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="99">
       <c r="A96" t="s">
+        <v>228</v>
+      </c>
+      <c r="B96">
+        <v>0.9</v>
+      </c>
+      <c r="C96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B96">
-        <v>6</v>
-      </c>
-      <c r="C96" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>408</v>
-      </c>
       <c r="E96" s="1" t="s">
-        <v>407</v>
+        <v>213</v>
       </c>
       <c r="F96" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="99">
       <c r="A97" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="B97">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="C97" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F97" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="99">
       <c r="A98" t="s">
+        <v>219</v>
+      </c>
+      <c r="B98">
+        <v>4</v>
+      </c>
+      <c r="C98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B98">
-        <v>2</v>
-      </c>
-      <c r="C98" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>215</v>
-      </c>
       <c r="E98" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F98" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="99">
@@ -4985,90 +5003,90 @@
         <v>220</v>
       </c>
       <c r="B99">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
         <v>9</v>
       </c>
-      <c r="D99" s="2" t="s">
-        <v>218</v>
+      <c r="D99" s="8" t="s">
+        <v>384</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>219</v>
+        <v>383</v>
       </c>
       <c r="F99" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="99">
       <c r="A100" t="s">
+        <v>222</v>
+      </c>
+      <c r="B100">
+        <v>1.7</v>
+      </c>
+      <c r="C100" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B100">
-        <v>7</v>
-      </c>
-      <c r="C100" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>387</v>
-      </c>
       <c r="F100" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="99">
       <c r="A101" t="s">
-        <v>223</v>
+        <v>306</v>
       </c>
       <c r="B101">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>224</v>
+        <v>304</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>222</v>
+        <v>305</v>
       </c>
       <c r="F101" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="99">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="49.5">
       <c r="A102" t="s">
-        <v>308</v>
+        <v>231</v>
       </c>
       <c r="B102">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="C102" t="s">
-        <v>306</v>
+        <v>232</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>307</v>
+        <v>234</v>
       </c>
       <c r="F102" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="49.5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="99">
       <c r="A103" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B103">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
-        <v>234</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>235</v>
@@ -5077,35 +5095,35 @@
         <v>236</v>
       </c>
       <c r="F103" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="99">
       <c r="A104" t="s">
+        <v>238</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="C104" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B104">
-        <v>5</v>
-      </c>
-      <c r="C104" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="E104" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F104" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="99">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="66">
       <c r="A105" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B105">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="C105" t="s">
         <v>9</v>
@@ -5114,30 +5132,30 @@
         <v>241</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>242</v>
+        <v>382</v>
       </c>
       <c r="F105" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="66">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="82.5">
       <c r="A106" t="s">
         <v>244</v>
       </c>
       <c r="B106">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="C106" t="s">
         <v>9</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>243</v>
+      <c r="D106" s="8" t="s">
+        <v>462</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>386</v>
+        <v>463</v>
       </c>
       <c r="F106" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="99">
@@ -5145,124 +5163,124 @@
         <v>246</v>
       </c>
       <c r="B107">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="C107" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>385</v>
+        <v>245</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>384</v>
+        <v>418</v>
       </c>
       <c r="F107" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="99">
       <c r="A108" t="s">
+        <v>349</v>
+      </c>
+      <c r="B108">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F108" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="82.5">
+      <c r="A109" t="s">
         <v>248</v>
       </c>
-      <c r="B108">
-        <v>4</v>
-      </c>
-      <c r="C108" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
+      <c r="B109">
+        <v>8</v>
+      </c>
+      <c r="C109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F108" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="99">
-      <c r="A109" t="s">
-        <v>351</v>
-      </c>
-      <c r="B109">
-        <v>7</v>
-      </c>
-      <c r="C109" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>349</v>
-      </c>
       <c r="E109" s="1" t="s">
-        <v>350</v>
+        <v>301</v>
       </c>
       <c r="F109" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="82.5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="99">
       <c r="A110" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B110">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="C110" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>303</v>
+        <v>420</v>
       </c>
       <c r="F110" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="99">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="82.5">
       <c r="A111" t="s">
         <v>251</v>
       </c>
       <c r="B111">
-        <v>1.5</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>424</v>
+        <v>346</v>
       </c>
       <c r="F111" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="82.5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="99">
       <c r="A112" t="s">
+        <v>254</v>
+      </c>
+      <c r="B112">
+        <v>5</v>
+      </c>
+      <c r="C112" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B112">
-        <v>8</v>
-      </c>
-      <c r="C112" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
+      <c r="E112" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="E112" s="1" t="s">
-        <v>348</v>
-      </c>
       <c r="F112" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="99">
       <c r="A113" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B113">
         <v>5</v>
@@ -5271,13 +5289,13 @@
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F113" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="99">
@@ -5285,59 +5303,59 @@
         <v>262</v>
       </c>
       <c r="B114">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C114" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>261</v>
+        <v>446</v>
       </c>
       <c r="F114" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="99">
       <c r="A115" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B115">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C115" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>450</v>
+        <v>277</v>
       </c>
       <c r="F115" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="99">
       <c r="A116" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B116">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="F116" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="99">
@@ -5354,235 +5372,235 @@
         <v>274</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F117" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="99">
       <c r="A118" t="s">
+        <v>276</v>
+      </c>
+      <c r="B118">
+        <v>9</v>
+      </c>
+      <c r="C118" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E118" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B118">
-        <v>5</v>
-      </c>
-      <c r="C118" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="F118" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="99">
       <c r="A119" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B119">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
         <v>9</v>
       </c>
-      <c r="D119" s="2" t="s">
-        <v>399</v>
+      <c r="D119" s="8" t="s">
+        <v>302</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F119" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="99">
       <c r="A120" t="s">
+        <v>287</v>
+      </c>
+      <c r="B120">
+        <v>12</v>
+      </c>
+      <c r="C120" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B120">
-        <v>8</v>
-      </c>
-      <c r="C120" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="F120" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="99">
       <c r="A121" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B121">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
         <v>9</v>
       </c>
-      <c r="D121" s="2" t="s">
-        <v>288</v>
+      <c r="D121" s="8" t="s">
+        <v>372</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="F121" t="s">
-        <v>295</v>
+        <v>303</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="99">
       <c r="A122" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B122">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
         <v>9</v>
       </c>
-      <c r="D122" s="8" t="s">
-        <v>375</v>
+      <c r="D122" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F122" s="9" t="s">
-        <v>390</v>
+        <v>363</v>
+      </c>
+      <c r="F122" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="99">
       <c r="A123" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="B123">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>366</v>
+        <v>297</v>
       </c>
       <c r="F123" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="99">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="82.5">
       <c r="A124" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B124">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C124" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>299</v>
+        <v>412</v>
       </c>
       <c r="F124" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="82.5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="99">
       <c r="A125" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="B125">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C125" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>416</v>
+        <v>308</v>
       </c>
       <c r="F125" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="99">
       <c r="A126" t="s">
+        <v>312</v>
+      </c>
+      <c r="B126">
+        <v>6</v>
+      </c>
+      <c r="C126" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B126">
-        <v>4</v>
-      </c>
-      <c r="C126" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>312</v>
-      </c>
       <c r="E126" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F126" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="99">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B127">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>315</v>
+        <v>131</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E127" t="s">
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="99">
       <c r="A128" t="s">
-        <v>320</v>
+        <v>416</v>
       </c>
       <c r="B128">
         <v>5</v>
       </c>
       <c r="C128" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="E128" t="s">
-        <v>11</v>
+        <v>417</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="F128" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="99">
       <c r="A129" t="s">
-        <v>420</v>
+        <v>319</v>
       </c>
       <c r="B129">
         <v>5</v>
@@ -5591,178 +5609,178 @@
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>421</v>
+        <v>320</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>454</v>
+        <v>321</v>
       </c>
       <c r="F129" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="99">
       <c r="A130" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B130">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F130" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="99">
       <c r="A131" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B131">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C131" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F131" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="99">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="67.5">
       <c r="A132" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B132">
-        <v>4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C132" t="s">
         <v>9</v>
       </c>
-      <c r="D132" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>332</v>
+      <c r="D132" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>337</v>
       </c>
       <c r="F132" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="67.5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="82.5">
       <c r="A133" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B133">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="C133" t="s">
         <v>9</v>
       </c>
-      <c r="D133" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="E133" s="4" t="s">
+      <c r="D133" s="2" t="s">
         <v>339</v>
       </c>
+      <c r="E133" s="1" t="s">
+        <v>340</v>
+      </c>
       <c r="F133" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="82.5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="99">
       <c r="A134" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="B134">
-        <v>1.3</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="F134" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="99">
       <c r="A135" t="s">
-        <v>352</v>
+        <v>122</v>
       </c>
       <c r="B135">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C135" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>354</v>
+        <v>452</v>
       </c>
       <c r="F135" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="99">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="82.5">
       <c r="A136" t="s">
-        <v>123</v>
+        <v>357</v>
       </c>
       <c r="B136">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F136" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="82.5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="148.5">
       <c r="A137" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B137">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C137" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F137" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="99">
+      <c r="A138" t="s">
         <v>359</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="F137" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="148.5">
-      <c r="A138" t="s">
-        <v>361</v>
       </c>
       <c r="B138">
         <v>5</v>
@@ -5771,13 +5789,13 @@
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>368</v>
+        <v>424</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>367</v>
+        <v>425</v>
       </c>
       <c r="F138" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="99">
@@ -5791,33 +5809,33 @@
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>428</v>
+        <v>361</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>429</v>
+        <v>360</v>
       </c>
       <c r="F139" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="99">
       <c r="A140" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B140">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C140" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="F140" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="99">
@@ -5825,67 +5843,67 @@
         <v>373</v>
       </c>
       <c r="B141">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C141" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="F141" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="99">
       <c r="A142" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B142">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C142" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E142" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="E142" s="1" t="s">
-        <v>377</v>
-      </c>
       <c r="F142" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="99">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="82.5">
       <c r="A143" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B143">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="C143" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="F143" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="82.5">
       <c r="A144" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B144">
-        <v>7.2</v>
+        <v>1.6</v>
       </c>
       <c r="C144" t="s">
         <v>9</v>
@@ -5894,90 +5912,90 @@
         <v>392</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F144" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="82.5">
       <c r="A145" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B145">
-        <v>1.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C145" t="s">
         <v>9</v>
       </c>
-      <c r="D145" s="2" t="s">
-        <v>396</v>
+      <c r="D145" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="F145" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="82.5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="99">
       <c r="A146" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="B146">
-        <v>2.2000000000000002</v>
+        <v>4</v>
       </c>
       <c r="C146" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>442</v>
+        <v>414</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>443</v>
+        <v>415</v>
       </c>
       <c r="F146" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="99">
       <c r="A147" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B147">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C147" t="s">
         <v>9</v>
       </c>
-      <c r="D147" s="8" t="s">
-        <v>418</v>
+      <c r="D147" s="2" t="s">
+        <v>422</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="F147" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="99">
       <c r="A148" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B148">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E148" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="E148" s="1" t="s">
-        <v>427</v>
-      </c>
       <c r="F148" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="99">
@@ -5985,99 +6003,119 @@
         <v>431</v>
       </c>
       <c r="B149">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>430</v>
       </c>
       <c r="F149" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="99">
       <c r="A150" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B150">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>434</v>
+        <v>381</v>
       </c>
       <c r="F150" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="99">
       <c r="A151" t="s">
+        <v>441</v>
+      </c>
+      <c r="B151">
+        <v>5</v>
+      </c>
+      <c r="C151" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E151" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B151">
-        <v>6</v>
-      </c>
-      <c r="C151" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="F151" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="99">
       <c r="A152" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B152">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="C152" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="F152" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="99">
       <c r="A153" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="B153">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="C153" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="F153" t="s">
-        <v>295</v>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="99">
+      <c r="A154" t="s">
+        <v>459</v>
+      </c>
+      <c r="B154">
+        <v>2.9</v>
+      </c>
+      <c r="C154" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F154" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -6089,129 +6127,131 @@
     <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="D17" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="D19" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D27" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D40" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D25" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D26" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="D32" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D44" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D47" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="D49" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="D52" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="D54" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="D56" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="D26" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D39" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D24" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D25" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D31" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D43" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D46" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D48" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D51" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="D53" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D55" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
     <hyperlink ref="D6" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="D57" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="D59" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="D60" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="D61" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="D62" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="D46" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="D64" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="D69" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="D70" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="D28" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="D56" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D58" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="D59" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="D60" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="D61" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="D45" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="D63" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="D68" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="D69" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="D27" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
     <hyperlink ref="D13" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="D72" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="D73" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="D74" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="D76" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="D77" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="D78" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="D79" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="D80" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="D82" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D86" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D88" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D89" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D71" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="D72" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="D73" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="D75" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D76" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="D77" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="D78" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="D79" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="D81" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D85" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D87" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="D88" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
     <hyperlink ref="D18" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D91" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="D92" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="D93" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D94" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D97" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D98" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D99" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D101" r:id="rId50" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D103" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="D104" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D105" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="D106" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="D35" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D107" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D108" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D110" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D112" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="D113" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="D114" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="D115" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="D23" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="D90" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D116" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="D75" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="D15" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="D117" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="D118" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="D111" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="D33" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D121" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D123" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D124" r:id="rId74" xr:uid="{A16A5099-7DDF-4370-95B7-BE0B27B5431C}"/>
-    <hyperlink ref="D125" r:id="rId75" xr:uid="{708EF35E-20E2-4320-AADE-685E01E763F7}"/>
-    <hyperlink ref="D120" r:id="rId76" xr:uid="{FB61B29C-091A-4DDA-AE79-D04CD219E120}"/>
-    <hyperlink ref="D102" r:id="rId77" xr:uid="{ECA328F5-23A6-4DE4-B068-F02A7D98D168}"/>
-    <hyperlink ref="D126" r:id="rId78" xr:uid="{9AD90610-B454-4A84-8345-BC650F57996E}"/>
-    <hyperlink ref="D130" r:id="rId79" xr:uid="{B9A9083D-DAAC-4EB9-A1EF-8226D6CE0569}"/>
-    <hyperlink ref="D128" r:id="rId80" xr:uid="{7BB4446E-C399-4A10-A149-71E6F6C21625}"/>
-    <hyperlink ref="D65" r:id="rId81" xr:uid="{26848A2D-A2E9-4D35-A878-4E94AA4528CC}"/>
-    <hyperlink ref="D71" r:id="rId82" xr:uid="{4F6D0E3F-842E-4538-B42C-64D38060BB59}"/>
-    <hyperlink ref="D131" r:id="rId83" xr:uid="{302CF079-F4AA-41D6-A7B3-02085878B25C}"/>
-    <hyperlink ref="D58" r:id="rId84" xr:uid="{FFC2D208-AEF3-4089-93F4-56B6F4845C6D}"/>
-    <hyperlink ref="D132" r:id="rId85" xr:uid="{537861A6-5879-4590-973E-CAB8004B1F94}"/>
-    <hyperlink ref="D16" r:id="rId86" xr:uid="{09DC9E19-5EF7-447C-A207-F065EAABBA9E}"/>
-    <hyperlink ref="D134" r:id="rId87" xr:uid="{B0679566-FA54-444D-8C38-A9B1A78EA00B}"/>
-    <hyperlink ref="D109" r:id="rId88" xr:uid="{548C8289-7EC3-401B-8394-4658D1E44626}"/>
-    <hyperlink ref="D135" r:id="rId89" xr:uid="{68B8ABE4-7971-4B92-873E-57FB9E5E8E7B}"/>
-    <hyperlink ref="D67" r:id="rId90" xr:uid="{CE9629E1-6341-48A8-A515-14208ED02ACE}"/>
-    <hyperlink ref="D136" r:id="rId91" xr:uid="{7906C34E-95E6-4C1B-9565-B8B6F37DE732}"/>
-    <hyperlink ref="D137" r:id="rId92" xr:uid="{EE076CB7-11A0-4FF0-9825-6A412491927F}"/>
-    <hyperlink ref="D138" r:id="rId93" xr:uid="{155BFA89-2A1E-4E9B-9D34-97E8FE7BFBB8}"/>
-    <hyperlink ref="D140" r:id="rId94" xr:uid="{4B1CBD95-B37A-4E49-99CD-5B0FAFB1DD68}"/>
-    <hyperlink ref="D122" r:id="rId95" xr:uid="{933F49CC-7CBE-4246-BED0-85666C83AD9C}"/>
-    <hyperlink ref="D43" r:id="rId96" xr:uid="{44BF8FFF-EFEF-4626-91C2-16E5A0463084}"/>
-    <hyperlink ref="D83" r:id="rId97" xr:uid="{CFA38323-9624-4B72-BAD1-1DF28D103CC7}"/>
-    <hyperlink ref="D53" r:id="rId98" xr:uid="{027425D3-4104-4019-9C56-9619BD774590}"/>
-    <hyperlink ref="D141" r:id="rId99" xr:uid="{5E05232A-62B2-4A14-ABE0-B7C2FC8317E5}"/>
-    <hyperlink ref="D34" r:id="rId100" xr:uid="{E78167A9-C7BD-4913-A9BE-7D05FB372985}"/>
-    <hyperlink ref="D142" r:id="rId101" xr:uid="{A09AECAB-6573-4BCA-B75F-5029DC873CE5}"/>
-    <hyperlink ref="D20" r:id="rId102" xr:uid="{F0EA2884-0417-443D-ABC1-941CEB7EBB01}"/>
-    <hyperlink ref="D143" r:id="rId103" xr:uid="{3E967917-087B-4C24-883E-25347224DBDC}"/>
-    <hyperlink ref="D100" r:id="rId104" xr:uid="{EE590C67-17CF-44CB-8F7D-B042342203EE}"/>
-    <hyperlink ref="D144" r:id="rId105" xr:uid="{0B4ECC27-EC91-4F95-82E0-FD9CDCD9A93F}"/>
-    <hyperlink ref="D145" r:id="rId106" xr:uid="{49B38CC6-2C17-4FEF-90C9-05FEFA135B41}"/>
-    <hyperlink ref="D39" r:id="rId107" xr:uid="{C2109FB0-C10E-4DCF-989E-E84149DE1EAC}"/>
-    <hyperlink ref="D119" r:id="rId108" xr:uid="{50BA8730-2B77-4DFA-A049-17427C1D7CC5}"/>
-    <hyperlink ref="D55" r:id="rId109" xr:uid="{C988080E-F4EB-46BF-AB72-D073DF5191B6}"/>
-    <hyperlink ref="D85" r:id="rId110" xr:uid="{3B941BCF-E75D-4DA8-8A44-527E84ED7297}"/>
-    <hyperlink ref="D24" r:id="rId111" xr:uid="{4CF61DDE-F761-41F1-A22D-2FF464DFA9A2}"/>
-    <hyperlink ref="D96" r:id="rId112" xr:uid="{F69F71F7-93FB-4517-A52D-2CB75FB91539}"/>
-    <hyperlink ref="D8" r:id="rId113" xr:uid="{AA062347-DE7E-42D9-B1FA-F6DBC67BC5A3}"/>
-    <hyperlink ref="D147" r:id="rId114" xr:uid="{03FCC17F-5E5A-4BB9-AB6F-E913ABCF9296}"/>
-    <hyperlink ref="D129" r:id="rId115" xr:uid="{341B611A-2A3E-4D76-979C-A6AC19CF8A2E}"/>
-    <hyperlink ref="D148" r:id="rId116" xr:uid="{B0BACB11-8EAB-444A-A367-89EF9AE91442}"/>
-    <hyperlink ref="D149" r:id="rId117" xr:uid="{8A3E3722-3D34-4679-8500-A153D053D8CE}"/>
-    <hyperlink ref="D150" r:id="rId118" xr:uid="{7FBFF53A-F5DE-4AA6-87C3-5F341F2A40D7}"/>
-    <hyperlink ref="D11" r:id="rId119" xr:uid="{C1015149-910B-4F41-82F6-2D476AB38D4A}"/>
-    <hyperlink ref="D51" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="D151" r:id="rId121" xr:uid="{FC1D08C5-4F0C-4164-B550-527FBA8746F5}"/>
-    <hyperlink ref="D146" r:id="rId122" xr:uid="{0B6EE4FC-BA87-471C-A9B5-08A00A4CB44A}"/>
-    <hyperlink ref="D152" r:id="rId123" xr:uid="{9F4AE395-14D3-4460-A23E-1FD2587F4682}"/>
-    <hyperlink ref="D153" r:id="rId124" xr:uid="{911C16E4-B9B3-4DBD-B406-5C0AFA70FE32}"/>
-    <hyperlink ref="D21" r:id="rId125" xr:uid="{82ECE4FC-8758-48D4-B500-3F7DCB93BA6F}"/>
-    <hyperlink ref="D22" r:id="rId126" xr:uid="{73EDED81-B56A-46C3-B97E-C9B96FF02F0E}"/>
+    <hyperlink ref="D90" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="D91" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="D92" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D93" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D96" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D97" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D98" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D100" r:id="rId50" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D102" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="D103" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D104" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="D105" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="D34" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D107" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D109" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D111" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D112" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="D113" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="D114" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="D22" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="D89" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D115" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="D74" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="D15" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="D116" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="D117" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="D110" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="D32" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D120" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D122" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D123" r:id="rId73" xr:uid="{A16A5099-7DDF-4370-95B7-BE0B27B5431C}"/>
+    <hyperlink ref="D124" r:id="rId74" xr:uid="{708EF35E-20E2-4320-AADE-685E01E763F7}"/>
+    <hyperlink ref="D119" r:id="rId75" xr:uid="{FB61B29C-091A-4DDA-AE79-D04CD219E120}"/>
+    <hyperlink ref="D101" r:id="rId76" xr:uid="{ECA328F5-23A6-4DE4-B068-F02A7D98D168}"/>
+    <hyperlink ref="D125" r:id="rId77" xr:uid="{9AD90610-B454-4A84-8345-BC650F57996E}"/>
+    <hyperlink ref="D129" r:id="rId78" xr:uid="{B9A9083D-DAAC-4EB9-A1EF-8226D6CE0569}"/>
+    <hyperlink ref="D127" r:id="rId79" xr:uid="{7BB4446E-C399-4A10-A149-71E6F6C21625}"/>
+    <hyperlink ref="D64" r:id="rId80" xr:uid="{26848A2D-A2E9-4D35-A878-4E94AA4528CC}"/>
+    <hyperlink ref="D70" r:id="rId81" xr:uid="{4F6D0E3F-842E-4538-B42C-64D38060BB59}"/>
+    <hyperlink ref="D130" r:id="rId82" xr:uid="{302CF079-F4AA-41D6-A7B3-02085878B25C}"/>
+    <hyperlink ref="D57" r:id="rId83" xr:uid="{FFC2D208-AEF3-4089-93F4-56B6F4845C6D}"/>
+    <hyperlink ref="D131" r:id="rId84" xr:uid="{537861A6-5879-4590-973E-CAB8004B1F94}"/>
+    <hyperlink ref="D16" r:id="rId85" xr:uid="{09DC9E19-5EF7-447C-A207-F065EAABBA9E}"/>
+    <hyperlink ref="D133" r:id="rId86" xr:uid="{B0679566-FA54-444D-8C38-A9B1A78EA00B}"/>
+    <hyperlink ref="D108" r:id="rId87" xr:uid="{548C8289-7EC3-401B-8394-4658D1E44626}"/>
+    <hyperlink ref="D134" r:id="rId88" xr:uid="{68B8ABE4-7971-4B92-873E-57FB9E5E8E7B}"/>
+    <hyperlink ref="D66" r:id="rId89" xr:uid="{CE9629E1-6341-48A8-A515-14208ED02ACE}"/>
+    <hyperlink ref="D135" r:id="rId90" xr:uid="{7906C34E-95E6-4C1B-9565-B8B6F37DE732}"/>
+    <hyperlink ref="D136" r:id="rId91" xr:uid="{EE076CB7-11A0-4FF0-9825-6A412491927F}"/>
+    <hyperlink ref="D137" r:id="rId92" xr:uid="{155BFA89-2A1E-4E9B-9D34-97E8FE7BFBB8}"/>
+    <hyperlink ref="D139" r:id="rId93" xr:uid="{4B1CBD95-B37A-4E49-99CD-5B0FAFB1DD68}"/>
+    <hyperlink ref="D121" r:id="rId94" xr:uid="{933F49CC-7CBE-4246-BED0-85666C83AD9C}"/>
+    <hyperlink ref="D42" r:id="rId95" xr:uid="{44BF8FFF-EFEF-4626-91C2-16E5A0463084}"/>
+    <hyperlink ref="D82" r:id="rId96" xr:uid="{CFA38323-9624-4B72-BAD1-1DF28D103CC7}"/>
+    <hyperlink ref="D52" r:id="rId97" xr:uid="{027425D3-4104-4019-9C56-9619BD774590}"/>
+    <hyperlink ref="D140" r:id="rId98" xr:uid="{5E05232A-62B2-4A14-ABE0-B7C2FC8317E5}"/>
+    <hyperlink ref="D33" r:id="rId99" xr:uid="{E78167A9-C7BD-4913-A9BE-7D05FB372985}"/>
+    <hyperlink ref="D141" r:id="rId100" xr:uid="{A09AECAB-6573-4BCA-B75F-5029DC873CE5}"/>
+    <hyperlink ref="D20" r:id="rId101" xr:uid="{F0EA2884-0417-443D-ABC1-941CEB7EBB01}"/>
+    <hyperlink ref="D142" r:id="rId102" xr:uid="{3E967917-087B-4C24-883E-25347224DBDC}"/>
+    <hyperlink ref="D99" r:id="rId103" xr:uid="{EE590C67-17CF-44CB-8F7D-B042342203EE}"/>
+    <hyperlink ref="D143" r:id="rId104" xr:uid="{0B4ECC27-EC91-4F95-82E0-FD9CDCD9A93F}"/>
+    <hyperlink ref="D144" r:id="rId105" xr:uid="{49B38CC6-2C17-4FEF-90C9-05FEFA135B41}"/>
+    <hyperlink ref="D38" r:id="rId106" xr:uid="{C2109FB0-C10E-4DCF-989E-E84149DE1EAC}"/>
+    <hyperlink ref="D118" r:id="rId107" xr:uid="{50BA8730-2B77-4DFA-A049-17427C1D7CC5}"/>
+    <hyperlink ref="D54" r:id="rId108" xr:uid="{C988080E-F4EB-46BF-AB72-D073DF5191B6}"/>
+    <hyperlink ref="D84" r:id="rId109" xr:uid="{3B941BCF-E75D-4DA8-8A44-527E84ED7297}"/>
+    <hyperlink ref="D23" r:id="rId110" xr:uid="{4CF61DDE-F761-41F1-A22D-2FF464DFA9A2}"/>
+    <hyperlink ref="D95" r:id="rId111" xr:uid="{F69F71F7-93FB-4517-A52D-2CB75FB91539}"/>
+    <hyperlink ref="D8" r:id="rId112" xr:uid="{AA062347-DE7E-42D9-B1FA-F6DBC67BC5A3}"/>
+    <hyperlink ref="D146" r:id="rId113" xr:uid="{03FCC17F-5E5A-4BB9-AB6F-E913ABCF9296}"/>
+    <hyperlink ref="D128" r:id="rId114" xr:uid="{341B611A-2A3E-4D76-979C-A6AC19CF8A2E}"/>
+    <hyperlink ref="D147" r:id="rId115" xr:uid="{B0BACB11-8EAB-444A-A367-89EF9AE91442}"/>
+    <hyperlink ref="D148" r:id="rId116" xr:uid="{8A3E3722-3D34-4679-8500-A153D053D8CE}"/>
+    <hyperlink ref="D149" r:id="rId117" xr:uid="{7FBFF53A-F5DE-4AA6-87C3-5F341F2A40D7}"/>
+    <hyperlink ref="D11" r:id="rId118" xr:uid="{C1015149-910B-4F41-82F6-2D476AB38D4A}"/>
+    <hyperlink ref="D50" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D150" r:id="rId120" xr:uid="{FC1D08C5-4F0C-4164-B550-527FBA8746F5}"/>
+    <hyperlink ref="D145" r:id="rId121" xr:uid="{0B6EE4FC-BA87-471C-A9B5-08A00A4CB44A}"/>
+    <hyperlink ref="D151" r:id="rId122" xr:uid="{9F4AE395-14D3-4460-A23E-1FD2587F4682}"/>
+    <hyperlink ref="D152" r:id="rId123" xr:uid="{911C16E4-B9B3-4DBD-B406-5C0AFA70FE32}"/>
+    <hyperlink ref="D21" r:id="rId124" xr:uid="{82ECE4FC-8758-48D4-B500-3F7DCB93BA6F}"/>
+    <hyperlink ref="D153" r:id="rId125" xr:uid="{F4AA2475-1132-4E9A-84A7-D0F1892F55B3}"/>
+    <hyperlink ref="D154" r:id="rId126" xr:uid="{116ADB6A-2501-42C1-B345-9A9B1A88623F}"/>
+    <hyperlink ref="D106" r:id="rId127" xr:uid="{CEBA9714-1EB8-40E1-A052-B2BC1C666A86}"/>
+    <hyperlink ref="D86" r:id="rId128" xr:uid="{2BB6565C-245A-4D52-878F-6CF9A9BA3088}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId127"/>
-  <legacyDrawing r:id="rId128"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId129"/>
+  <legacyDrawing r:id="rId130"/>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new_news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF86B6AA-9629-4CC1-B360-0FBB920A1F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4FB230-2077-4A15-87E4-F2840C5F560F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="1680" windowWidth="37605" windowHeight="19170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="795" yWindow="1830" windowWidth="37605" windowHeight="19170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2596,7 +2596,7 @@
     <t>url_list = soup.select("div.c011_sr2 div.rt div.list_tt")[:5];
 url_list = ["https://www.newsprime.co.kr/news/" + i.select_one("a")["href"].replace(".html","/") for i in url_list];
 title_list = soup.select("div.c011_sr2 div.rt div.list_tt")[:5];
-title_list = [i.text.strip() for i in title_list];
+title_list = ["[프라임]"+i.text.strip() for i in title_list];
 body_list = soup.select("div.c011_sr2 div.rt div.list_ar")[:5];
 body_list = [i.text.strip() for i in body_list];</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6248,7 +6248,7 @@
     <hyperlink ref="D153" r:id="rId125" xr:uid="{F4AA2475-1132-4E9A-84A7-D0F1892F55B3}"/>
     <hyperlink ref="D154" r:id="rId126" xr:uid="{116ADB6A-2501-42C1-B345-9A9B1A88623F}"/>
     <hyperlink ref="D106" r:id="rId127" xr:uid="{CEBA9714-1EB8-40E1-A052-B2BC1C666A86}"/>
-    <hyperlink ref="D86" r:id="rId128" xr:uid="{2BB6565C-245A-4D52-878F-6CF9A9BA3088}"/>
+    <hyperlink ref="D86" r:id="rId128" xr:uid="{C74B7759-DB69-4B29-A120-59517B49EAB2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId129"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new_news\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\임시\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4FB230-2077-4A15-87E4-F2840C5F560F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07870536-B243-4EF5-811E-CF7FACF4B633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="1830" windowWidth="37605" windowHeight="19170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="1650" windowWidth="31170" windowHeight="18945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2081,15 +2081,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>url_list = soup.select("div.article-list section.article-list-content div.list-block div.list-titles")[:5];
-url_list = ["https://www.cstimes.com" + i.select_one("a")["href"] for i in url_list];
-title_list = soup.select("div.article-list section.article-list-content div.list-block div.list-titles")[:5];
-title_list = [i.text.strip() for i in title_list];
-body_list = soup.select("div.article-list section.article-list-content div.list-block p.list-summary")[:5];
-body_list = [i.text.strip() for i in body_list];</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>컨슈머타임즈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2120,10 +2111,6 @@
   </si>
   <si>
     <t>https://www.viva100.com/list/10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.cstimes.com/news/articleList.html?sc_order_by=E&amp;view_type=sm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2600,6 +2587,16 @@
 body_list = soup.select("div.c011_sr2 div.rt div.list_ar")[:5];
 body_list = [i.text.strip() for i in body_list];</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>news_items = soup.select("#roll_44 .dis-none")[:15]
+url_list = ["https://www.cstimes.com" + i.select_one("a")["href"] for i in news_items]
+title_list = [i.select_one(".float-left").text.strip() for i in news_items]
+body_list = ["" for i in range(15)];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cstimes.com/</t>
   </si>
 </sst>
 </file>
@@ -3025,8 +3022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3189,10 +3186,10 @@
         <v>9</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F8" t="s">
         <v>293</v>
@@ -3209,10 +3206,10 @@
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F9" t="s">
         <v>293</v>
@@ -3249,10 +3246,10 @@
         <v>9</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F11" t="s">
         <v>293</v>
@@ -3332,7 +3329,7 @@
         <v>269</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F15" t="s">
         <v>293</v>
@@ -3449,10 +3446,10 @@
         <v>9</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F21" t="s">
         <v>293</v>
@@ -3489,7 +3486,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>48</v>
@@ -3609,13 +3606,13 @@
         <v>9</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="81">
@@ -3712,7 +3709,7 @@
         <v>243</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F34" t="s">
         <v>293</v>
@@ -3749,10 +3746,10 @@
         <v>9</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F36" t="s">
         <v>293</v>
@@ -3789,10 +3786,10 @@
         <v>9</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F38" t="s">
         <v>293</v>
@@ -3869,10 +3866,10 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F42" t="s">
         <v>293</v>
@@ -3952,7 +3949,7 @@
         <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F46" t="s">
         <v>293</v>
@@ -4009,10 +4006,10 @@
         <v>9</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F49" t="s">
         <v>293</v>
@@ -4109,7 +4106,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>104</v>
@@ -4212,7 +4209,7 @@
         <v>117</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F59" t="s">
         <v>293</v>
@@ -4689,10 +4686,10 @@
         <v>9</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F83" t="s">
         <v>293</v>
@@ -4709,7 +4706,7 @@
         <v>9</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>300</v>
@@ -4749,10 +4746,10 @@
         <v>230</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F86" t="s">
         <v>293</v>
@@ -4909,10 +4906,10 @@
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F94" t="s">
         <v>293</v>
@@ -4929,10 +4926,10 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F95" t="s">
         <v>293</v>
@@ -5009,10 +5006,10 @@
         <v>9</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F99" t="s">
         <v>293</v>
@@ -5132,7 +5129,7 @@
         <v>241</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F105" t="s">
         <v>293</v>
@@ -5149,10 +5146,10 @@
         <v>9</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F106" t="s">
         <v>293</v>
@@ -5172,7 +5169,7 @@
         <v>245</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F107" t="s">
         <v>293</v>
@@ -5232,7 +5229,7 @@
         <v>279</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F110" t="s">
         <v>293</v>
@@ -5312,7 +5309,7 @@
         <v>261</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F114" t="s">
         <v>293</v>
@@ -5389,7 +5386,7 @@
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>275</v>
@@ -5455,7 +5452,7 @@
         <v>303</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="99">
@@ -5512,7 +5509,7 @@
         <v>299</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F124" t="s">
         <v>293</v>
@@ -5580,7 +5577,7 @@
     </row>
     <row r="128" spans="1:6" ht="99">
       <c r="A128" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B128">
         <v>5</v>
@@ -5589,10 +5586,10 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F128" t="s">
         <v>293</v>
@@ -5732,7 +5729,7 @@
         <v>354</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F135" t="s">
         <v>293</v>
@@ -5789,10 +5786,10 @@
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F138" t="s">
         <v>293</v>
@@ -5858,21 +5855,21 @@
         <v>293</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="99">
+    <row r="142" spans="1:6" ht="66">
       <c r="A142" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B142">
-        <v>7</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C142" t="s">
         <v>9</v>
       </c>
-      <c r="D142" s="2" t="s">
-        <v>385</v>
+      <c r="D142" s="10" t="s">
+        <v>465</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>379</v>
+        <v>464</v>
       </c>
       <c r="F142" t="s">
         <v>293</v>
@@ -5880,7 +5877,7 @@
     </row>
     <row r="143" spans="1:6" ht="82.5">
       <c r="A143" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B143">
         <v>7.2</v>
@@ -5889,10 +5886,10 @@
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F143" t="s">
         <v>293</v>
@@ -5900,7 +5897,7 @@
     </row>
     <row r="144" spans="1:6" ht="82.5">
       <c r="A144" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B144">
         <v>1.6</v>
@@ -5909,10 +5906,10 @@
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F144" t="s">
         <v>293</v>
@@ -5920,7 +5917,7 @@
     </row>
     <row r="145" spans="1:6" ht="82.5">
       <c r="A145" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B145">
         <v>2.2000000000000002</v>
@@ -5929,10 +5926,10 @@
         <v>9</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F145" t="s">
         <v>293</v>
@@ -5940,7 +5937,7 @@
     </row>
     <row r="146" spans="1:6" ht="99">
       <c r="A146" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B146">
         <v>4</v>
@@ -5949,10 +5946,10 @@
         <v>9</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F146" t="s">
         <v>293</v>
@@ -5960,7 +5957,7 @@
     </row>
     <row r="147" spans="1:6" ht="99">
       <c r="A147" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B147">
         <v>5</v>
@@ -5969,10 +5966,10 @@
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F147" t="s">
         <v>293</v>
@@ -5980,7 +5977,7 @@
     </row>
     <row r="148" spans="1:6" ht="99">
       <c r="A148" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B148">
         <v>6</v>
@@ -5989,10 +5986,10 @@
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F148" t="s">
         <v>293</v>
@@ -6000,7 +5997,7 @@
     </row>
     <row r="149" spans="1:6" ht="99">
       <c r="A149" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B149">
         <v>7</v>
@@ -6009,10 +6006,10 @@
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F149" t="s">
         <v>293</v>
@@ -6020,7 +6017,7 @@
     </row>
     <row r="150" spans="1:6" ht="99">
       <c r="A150" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B150">
         <v>6</v>
@@ -6029,10 +6026,10 @@
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F150" t="s">
         <v>293</v>
@@ -6040,7 +6037,7 @@
     </row>
     <row r="151" spans="1:6" ht="99">
       <c r="A151" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B151">
         <v>5</v>
@@ -6049,10 +6046,10 @@
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F151" t="s">
         <v>293</v>
@@ -6060,7 +6057,7 @@
     </row>
     <row r="152" spans="1:6" ht="99">
       <c r="A152" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B152">
         <v>3.9</v>
@@ -6069,10 +6066,10 @@
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F152" t="s">
         <v>293</v>
@@ -6080,7 +6077,7 @@
     </row>
     <row r="153" spans="1:6" ht="99">
       <c r="A153" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B153">
         <v>3.8</v>
@@ -6089,10 +6086,10 @@
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F153" t="s">
         <v>293</v>
@@ -6100,7 +6097,7 @@
     </row>
     <row r="154" spans="1:6" ht="99">
       <c r="A154" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B154">
         <v>2.9</v>
@@ -6109,10 +6106,10 @@
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F154" t="s">
         <v>293</v>
@@ -6222,36 +6219,35 @@
     <hyperlink ref="D33" r:id="rId99" xr:uid="{E78167A9-C7BD-4913-A9BE-7D05FB372985}"/>
     <hyperlink ref="D141" r:id="rId100" xr:uid="{A09AECAB-6573-4BCA-B75F-5029DC873CE5}"/>
     <hyperlink ref="D20" r:id="rId101" xr:uid="{F0EA2884-0417-443D-ABC1-941CEB7EBB01}"/>
-    <hyperlink ref="D142" r:id="rId102" xr:uid="{3E967917-087B-4C24-883E-25347224DBDC}"/>
-    <hyperlink ref="D99" r:id="rId103" xr:uid="{EE590C67-17CF-44CB-8F7D-B042342203EE}"/>
-    <hyperlink ref="D143" r:id="rId104" xr:uid="{0B4ECC27-EC91-4F95-82E0-FD9CDCD9A93F}"/>
-    <hyperlink ref="D144" r:id="rId105" xr:uid="{49B38CC6-2C17-4FEF-90C9-05FEFA135B41}"/>
-    <hyperlink ref="D38" r:id="rId106" xr:uid="{C2109FB0-C10E-4DCF-989E-E84149DE1EAC}"/>
-    <hyperlink ref="D118" r:id="rId107" xr:uid="{50BA8730-2B77-4DFA-A049-17427C1D7CC5}"/>
-    <hyperlink ref="D54" r:id="rId108" xr:uid="{C988080E-F4EB-46BF-AB72-D073DF5191B6}"/>
-    <hyperlink ref="D84" r:id="rId109" xr:uid="{3B941BCF-E75D-4DA8-8A44-527E84ED7297}"/>
-    <hyperlink ref="D23" r:id="rId110" xr:uid="{4CF61DDE-F761-41F1-A22D-2FF464DFA9A2}"/>
-    <hyperlink ref="D95" r:id="rId111" xr:uid="{F69F71F7-93FB-4517-A52D-2CB75FB91539}"/>
-    <hyperlink ref="D8" r:id="rId112" xr:uid="{AA062347-DE7E-42D9-B1FA-F6DBC67BC5A3}"/>
-    <hyperlink ref="D146" r:id="rId113" xr:uid="{03FCC17F-5E5A-4BB9-AB6F-E913ABCF9296}"/>
-    <hyperlink ref="D128" r:id="rId114" xr:uid="{341B611A-2A3E-4D76-979C-A6AC19CF8A2E}"/>
-    <hyperlink ref="D147" r:id="rId115" xr:uid="{B0BACB11-8EAB-444A-A367-89EF9AE91442}"/>
-    <hyperlink ref="D148" r:id="rId116" xr:uid="{8A3E3722-3D34-4679-8500-A153D053D8CE}"/>
-    <hyperlink ref="D149" r:id="rId117" xr:uid="{7FBFF53A-F5DE-4AA6-87C3-5F341F2A40D7}"/>
-    <hyperlink ref="D11" r:id="rId118" xr:uid="{C1015149-910B-4F41-82F6-2D476AB38D4A}"/>
-    <hyperlink ref="D50" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="D150" r:id="rId120" xr:uid="{FC1D08C5-4F0C-4164-B550-527FBA8746F5}"/>
-    <hyperlink ref="D145" r:id="rId121" xr:uid="{0B6EE4FC-BA87-471C-A9B5-08A00A4CB44A}"/>
-    <hyperlink ref="D151" r:id="rId122" xr:uid="{9F4AE395-14D3-4460-A23E-1FD2587F4682}"/>
-    <hyperlink ref="D152" r:id="rId123" xr:uid="{911C16E4-B9B3-4DBD-B406-5C0AFA70FE32}"/>
-    <hyperlink ref="D21" r:id="rId124" xr:uid="{82ECE4FC-8758-48D4-B500-3F7DCB93BA6F}"/>
-    <hyperlink ref="D153" r:id="rId125" xr:uid="{F4AA2475-1132-4E9A-84A7-D0F1892F55B3}"/>
-    <hyperlink ref="D154" r:id="rId126" xr:uid="{116ADB6A-2501-42C1-B345-9A9B1A88623F}"/>
-    <hyperlink ref="D106" r:id="rId127" xr:uid="{CEBA9714-1EB8-40E1-A052-B2BC1C666A86}"/>
-    <hyperlink ref="D86" r:id="rId128" xr:uid="{C74B7759-DB69-4B29-A120-59517B49EAB2}"/>
+    <hyperlink ref="D99" r:id="rId102" xr:uid="{EE590C67-17CF-44CB-8F7D-B042342203EE}"/>
+    <hyperlink ref="D143" r:id="rId103" xr:uid="{0B4ECC27-EC91-4F95-82E0-FD9CDCD9A93F}"/>
+    <hyperlink ref="D144" r:id="rId104" xr:uid="{49B38CC6-2C17-4FEF-90C9-05FEFA135B41}"/>
+    <hyperlink ref="D38" r:id="rId105" xr:uid="{C2109FB0-C10E-4DCF-989E-E84149DE1EAC}"/>
+    <hyperlink ref="D118" r:id="rId106" xr:uid="{50BA8730-2B77-4DFA-A049-17427C1D7CC5}"/>
+    <hyperlink ref="D54" r:id="rId107" xr:uid="{C988080E-F4EB-46BF-AB72-D073DF5191B6}"/>
+    <hyperlink ref="D84" r:id="rId108" xr:uid="{3B941BCF-E75D-4DA8-8A44-527E84ED7297}"/>
+    <hyperlink ref="D23" r:id="rId109" xr:uid="{4CF61DDE-F761-41F1-A22D-2FF464DFA9A2}"/>
+    <hyperlink ref="D95" r:id="rId110" xr:uid="{F69F71F7-93FB-4517-A52D-2CB75FB91539}"/>
+    <hyperlink ref="D8" r:id="rId111" xr:uid="{AA062347-DE7E-42D9-B1FA-F6DBC67BC5A3}"/>
+    <hyperlink ref="D146" r:id="rId112" xr:uid="{03FCC17F-5E5A-4BB9-AB6F-E913ABCF9296}"/>
+    <hyperlink ref="D128" r:id="rId113" xr:uid="{341B611A-2A3E-4D76-979C-A6AC19CF8A2E}"/>
+    <hyperlink ref="D147" r:id="rId114" xr:uid="{B0BACB11-8EAB-444A-A367-89EF9AE91442}"/>
+    <hyperlink ref="D148" r:id="rId115" xr:uid="{8A3E3722-3D34-4679-8500-A153D053D8CE}"/>
+    <hyperlink ref="D149" r:id="rId116" xr:uid="{7FBFF53A-F5DE-4AA6-87C3-5F341F2A40D7}"/>
+    <hyperlink ref="D11" r:id="rId117" xr:uid="{C1015149-910B-4F41-82F6-2D476AB38D4A}"/>
+    <hyperlink ref="D50" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D150" r:id="rId119" xr:uid="{FC1D08C5-4F0C-4164-B550-527FBA8746F5}"/>
+    <hyperlink ref="D145" r:id="rId120" xr:uid="{0B6EE4FC-BA87-471C-A9B5-08A00A4CB44A}"/>
+    <hyperlink ref="D151" r:id="rId121" xr:uid="{9F4AE395-14D3-4460-A23E-1FD2587F4682}"/>
+    <hyperlink ref="D152" r:id="rId122" xr:uid="{911C16E4-B9B3-4DBD-B406-5C0AFA70FE32}"/>
+    <hyperlink ref="D21" r:id="rId123" xr:uid="{82ECE4FC-8758-48D4-B500-3F7DCB93BA6F}"/>
+    <hyperlink ref="D153" r:id="rId124" xr:uid="{F4AA2475-1132-4E9A-84A7-D0F1892F55B3}"/>
+    <hyperlink ref="D154" r:id="rId125" xr:uid="{116ADB6A-2501-42C1-B345-9A9B1A88623F}"/>
+    <hyperlink ref="D106" r:id="rId126" xr:uid="{CEBA9714-1EB8-40E1-A052-B2BC1C666A86}"/>
+    <hyperlink ref="D86" r:id="rId127" xr:uid="{C74B7759-DB69-4B29-A120-59517B49EAB2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId129"/>
-  <legacyDrawing r:id="rId130"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId128"/>
+  <legacyDrawing r:id="rId129"/>
 </worksheet>
 </file>